--- a/Power Cell Ballistics.xlsx
+++ b/Power Cell Ballistics.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timfu\Documents\2020 FRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Code\FRC\2020-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D14CA52-EB12-4353-B9C4-4433DCB78A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECA7C2-ABCB-4478-9835-84FB0737CB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="1" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Height" sheetId="2" r:id="rId1"/>
     <sheet name="Ballistics" sheetId="7" r:id="rId2"/>
-    <sheet name="Distance" sheetId="3" r:id="rId3"/>
-    <sheet name="Defense" sheetId="8" r:id="rId4"/>
-    <sheet name="Locations" sheetId="9" r:id="rId5"/>
-    <sheet name="Plot Data" sheetId="1" r:id="rId6"/>
-    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId7"/>
+    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId3"/>
+    <sheet name="Distance" sheetId="3" r:id="rId4"/>
+    <sheet name="Defense" sheetId="8" r:id="rId5"/>
+    <sheet name="Locations" sheetId="9" r:id="rId6"/>
+    <sheet name="Plot Data" sheetId="1" r:id="rId7"/>
+    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>2020 FRC - Infinite Recharge</t>
   </si>
@@ -220,6 +223,30 @@
   </si>
   <si>
     <t>Front of Trench</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Fixed 45 degree angle</t>
+  </si>
+  <si>
+    <t>all shots made</t>
+  </si>
+  <si>
+    <t>center of trench, behind wheel</t>
+  </si>
+  <si>
+    <t>immediately in front of wheel</t>
+  </si>
+  <si>
+    <t>not enough</t>
+  </si>
+  <si>
+    <t>missed 3 shots</t>
+  </si>
+  <si>
+    <t>missed 2 shots</t>
   </si>
 </sst>
 </file>
@@ -1523,109 +1550,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.384714431314478</c:v>
+                  <c:v>27.336596905207195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.769428862628956</c:v>
+                  <c:v>54.673193810414389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.15414329394341</c:v>
+                  <c:v>82.009790715621577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.53885772525791</c:v>
+                  <c:v>109.34638762082878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231.92357215657236</c:v>
+                  <c:v>136.68298452603597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278.30828658788681</c:v>
+                  <c:v>164.01958143124315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>324.69300101920129</c:v>
+                  <c:v>191.35617833645034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>371.07771545051583</c:v>
+                  <c:v>218.69277524165756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417.46242988183025</c:v>
+                  <c:v>246.02937214686474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>463.84714431314472</c:v>
+                  <c:v>273.36596905207193</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>510.23185874445926</c:v>
+                  <c:v>300.70256595727915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556.61657317577362</c:v>
+                  <c:v>328.03916286248631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>603.00128760708822</c:v>
+                  <c:v>355.37575976769352</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>649.38600203840258</c:v>
+                  <c:v>382.71235667290068</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>695.77071646971706</c:v>
+                  <c:v>410.0489535781079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>742.15543090103165</c:v>
+                  <c:v>437.38555048331511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>788.54014533234601</c:v>
+                  <c:v>464.72214738852227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>834.92485976366049</c:v>
+                  <c:v>492.05874429372949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>881.30957419497497</c:v>
+                  <c:v>519.39534119893665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>927.69428862628945</c:v>
+                  <c:v>546.73193810414386</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>974.07900305760393</c:v>
+                  <c:v>574.06853500935108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1020.4637174889185</c:v>
+                  <c:v>601.4051319145583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1066.8484319202328</c:v>
+                  <c:v>628.7417288197654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1113.2331463515472</c:v>
+                  <c:v>656.07832572497261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1159.6178607828617</c:v>
+                  <c:v>683.41492263017983</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1206.0025752141764</c:v>
+                  <c:v>710.75151953538705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1252.3872896454909</c:v>
+                  <c:v>738.08811644059426</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1298.7720040768052</c:v>
+                  <c:v>765.42471334580136</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1345.1567185081196</c:v>
+                  <c:v>792.76131025100858</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1391.5414329394341</c:v>
+                  <c:v>820.0979071562158</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1437.9261473707486</c:v>
+                  <c:v>847.43450406142301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1484.3108618020633</c:v>
+                  <c:v>874.77110096663023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1530.6955762333776</c:v>
+                  <c:v>902.10769787183733</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1577.080290664692</c:v>
+                  <c:v>929.44429477704455</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1623.4650050960065</c:v>
+                  <c:v>956.78089168225176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,109 +1667,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2471019465717816</c:v>
+                  <c:v>25.398297539033234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.633803893143563</c:v>
+                  <c:v>46.936195078066461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1601058397153459</c:v>
+                  <c:v>64.613692617099701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8260077862871213</c:v>
+                  <c:v>78.430790156132929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.368490267141091</c:v>
+                  <c:v>88.387487695166158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20.423388320569309</c:v>
+                  <c:v>94.483785234199388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-37.338686373997518</c:v>
+                  <c:v>96.719682773232606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-58.114384427425776</c:v>
+                  <c:v>95.095180312265825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-82.750482480853961</c:v>
+                  <c:v>89.61027785129906</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-111.24698053428219</c:v>
+                  <c:v>80.264975390332296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-143.60387858771043</c:v>
+                  <c:v>67.059272929365534</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-179.82117664113861</c:v>
+                  <c:v>49.993170468398773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-219.89887469456687</c:v>
+                  <c:v>29.066668007431929</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-263.83697274799499</c:v>
+                  <c:v>4.279765546465228</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-311.63547080142325</c:v>
+                  <c:v>-24.367536914501557</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-363.29436885485165</c:v>
+                  <c:v>-56.875239375468425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-418.81366690827963</c:v>
+                  <c:v>-93.243341836434979</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-478.19336496170797</c:v>
+                  <c:v>-133.4718442974019</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-541.43346301513611</c:v>
+                  <c:v>-177.56074675836862</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-608.53396106856439</c:v>
+                  <c:v>-225.51004921933543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-679.49485912199259</c:v>
+                  <c:v>-277.31975168030215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-754.31615717542093</c:v>
+                  <c:v>-332.98985414126901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-832.99785522884883</c:v>
+                  <c:v>-392.52035660223555</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-915.53995328227722</c:v>
+                  <c:v>-455.91125906320246</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1001.9424513357054</c:v>
+                  <c:v>-523.16256152416918</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1092.205349389134</c:v>
+                  <c:v>-594.27426398513626</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1186.3286474425622</c:v>
+                  <c:v>-669.24636644610302</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1284.31234549599</c:v>
+                  <c:v>-748.07886890706948</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1386.1564435494186</c:v>
+                  <c:v>-830.77177136803653</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1491.8609416028467</c:v>
+                  <c:v>-917.32507382900314</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1601.4258396562752</c:v>
+                  <c:v>-1007.7387762899702</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1714.8511377097036</c:v>
+                  <c:v>-1102.012878750937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1832.1368357631311</c:v>
+                  <c:v>-1200.1473812119034</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1953.2829338165591</c:v>
+                  <c:v>-1302.1422836728698</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2078.2894318699882</c:v>
+                  <c:v>-1407.9975861338373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,109 +1807,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.384714431314478</c:v>
+                  <c:v>27.336596905207195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.769428862628956</c:v>
+                  <c:v>54.673193810414389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.15414329394341</c:v>
+                  <c:v>82.009790715621577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.53885772525791</c:v>
+                  <c:v>109.34638762082878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231.92357215657236</c:v>
+                  <c:v>136.68298452603597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278.30828658788681</c:v>
+                  <c:v>164.01958143124315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>324.69300101920129</c:v>
+                  <c:v>191.35617833645034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>371.07771545051583</c:v>
+                  <c:v>218.69277524165756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>417.46242988183025</c:v>
+                  <c:v>246.02937214686474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>463.84714431314472</c:v>
+                  <c:v>273.36596905207193</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>510.23185874445926</c:v>
+                  <c:v>300.70256595727915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556.61657317577362</c:v>
+                  <c:v>328.03916286248631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>603.00128760708822</c:v>
+                  <c:v>355.37575976769352</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>649.38600203840258</c:v>
+                  <c:v>382.71235667290068</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>695.77071646971706</c:v>
+                  <c:v>410.0489535781079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>742.15543090103165</c:v>
+                  <c:v>437.38555048331511</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>788.54014533234601</c:v>
+                  <c:v>464.72214738852227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>834.92485976366049</c:v>
+                  <c:v>492.05874429372949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>881.30957419497497</c:v>
+                  <c:v>519.39534119893665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>927.69428862628945</c:v>
+                  <c:v>546.73193810414386</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>974.07900305760393</c:v>
+                  <c:v>574.06853500935108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1020.4637174889185</c:v>
+                  <c:v>601.4051319145583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1066.8484319202328</c:v>
+                  <c:v>628.7417288197654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1113.2331463515472</c:v>
+                  <c:v>656.07832572497261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1159.6178607828617</c:v>
+                  <c:v>683.41492263017983</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1206.0025752141764</c:v>
+                  <c:v>710.75151953538705</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1252.3872896454909</c:v>
+                  <c:v>738.08811644059426</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1298.7720040768052</c:v>
+                  <c:v>765.42471334580136</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1345.1567185081196</c:v>
+                  <c:v>792.76131025100858</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1391.5414329394341</c:v>
+                  <c:v>820.0979071562158</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1437.9261473707486</c:v>
+                  <c:v>847.43450406142301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1484.3108618020633</c:v>
+                  <c:v>874.77110096663023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1530.6955762333776</c:v>
+                  <c:v>902.10769787183733</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1577.080290664692</c:v>
+                  <c:v>929.44429477704455</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1623.4650050960065</c:v>
+                  <c:v>956.78089168225176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6345,29 +6372,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A071DE-853C-4645-838D-52D3EBDAE5F1}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
-    <col min="7" max="11" width="14.53125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="7" max="11" width="14.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6387,10 +6414,10 @@
         <v>32</v>
       </c>
       <c r="H5" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <f>B5*12+D5</f>
         <v>98.25</v>
@@ -6399,7 +6426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
@@ -6416,7 +6443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6450,32 +6477,32 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G9" s="3">
         <v>0.1</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>46.384714431314478</v>
+        <v>27.336596905207195</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" ref="I9:I43" si="2">H9/12</f>
-        <v>3.8653928692762065</v>
+        <v>2.2780497421005994</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>6.2471019465717816</v>
+        <v>25.398297539033234</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ref="K9:K43" si="3">J9/12</f>
-        <v>0.52059182888098177</v>
+        <v>2.1165247949194361</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ref="L9:L43" si="4">$B$10</f>
         <v>74.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
@@ -6491,51 +6518,51 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>92.769428862628956</v>
+        <v>54.673193810414389</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>7.730785738552413</v>
+        <v>4.5560994842011988</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>8.633803893143563</v>
+        <v>46.936195078066461</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>0.71948365776196355</v>
+        <v>3.9113495898388719</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G11" s="3">
         <v>0.3</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>139.15414329394341</v>
+        <v>82.009790715621577</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>11.596178607828618</v>
+        <v>6.8341492263017978</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>7.1601058397153459</v>
+        <v>64.613692617099701</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>0.59667548664294545</v>
+        <v>5.3844743847583088</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -6550,57 +6577,64 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>185.53885772525791</v>
+        <v>109.34638762082878</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>15.461571477104826</v>
+        <v>9.1121989684023976</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>1.8260077862871213</v>
+        <v>78.430790156132929</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>0.15216731552392679</v>
+        <v>6.5358991796777444</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="12">
-        <v>6000</v>
+        <f>C13*D13</f>
+        <v>5423</v>
+      </c>
+      <c r="C13">
+        <v>0.85</v>
+      </c>
+      <c r="D13">
+        <v>6380</v>
       </c>
       <c r="G13" s="3">
         <v>0.5</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>231.92357215657236</v>
+        <v>136.68298452603597</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
-        <v>19.326964346381029</v>
+        <v>11.390248710502997</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>-7.368490267141091</v>
+        <v>88.387487695166158</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>-0.61404085559509092</v>
+        <v>7.3656239745971801</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -6616,88 +6650,88 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>278.30828658788681</v>
+        <v>164.01958143124315</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>23.192357215657236</v>
+        <v>13.668298452603596</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>-20.423388320569309</v>
+        <v>94.483785234199388</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>-1.7019490267141091</v>
+        <v>7.873648769516616</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="12">
-        <v>0.25</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="G15" s="3">
         <v>0.7</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>324.69300101920129</v>
+        <v>191.35617833645034</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>27.057750084933442</v>
+        <v>15.946348194704195</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>-37.338686373997518</v>
+        <v>96.719682773232606</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>-3.1115571978331267</v>
+        <v>8.0599735644360511</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" s="3">
         <v>0.8</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>371.07771545051583</v>
+        <v>218.69277524165756</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>30.923142954209652</v>
+        <v>18.224397936804795</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="1"/>
-        <v>-58.114384427425776</v>
+        <v>95.095180312265825</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>-4.8428653689521477</v>
+        <v>7.9245983593554854</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="13">
         <f>B13*B14</f>
-        <v>113040</v>
+        <v>102169.31999999999</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -6707,32 +6741,32 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>417.46242988183025</v>
+        <v>246.02937214686474</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>34.788535823485851</v>
+        <v>20.502447678905394</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>-82.750482480853961</v>
+        <v>89.61027785129906</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>-6.8958735400711637</v>
+        <v>7.4675231542749216</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="15">
         <f>($B$15*B17)/(12*60)</f>
-        <v>39.25</v>
+        <v>32.211716166666669</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -6742,76 +6776,76 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>463.84714431314472</v>
+        <v>273.36596905207193</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>38.653928692762058</v>
+        <v>22.780497421005993</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>-111.24698053428219</v>
+        <v>80.264975390332296</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>-9.2705817111901823</v>
+        <v>6.688747949194358</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G19" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>510.23185874445926</v>
+        <v>300.70256595727915</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>42.519321562038272</v>
+        <v>25.058547163106596</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="1"/>
-        <v>-143.60387858771043</v>
+        <v>67.059272929365534</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>-11.966989882309202</v>
+        <v>5.5882727441137945</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G20" s="3">
         <v>1.2</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>556.61657317577362</v>
+        <v>328.03916286248631</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>46.384714431314471</v>
+        <v>27.336596905207191</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>-179.82117664113861</v>
+        <v>49.993170468398773</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>-14.985098053428217</v>
+        <v>4.1660975390332311</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -6826,26 +6860,26 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>603.00128760708822</v>
+        <v>355.37575976769352</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>50.250107300590685</v>
+        <v>29.614646647307794</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="1"/>
-        <v>-219.89887469456687</v>
+        <v>29.066668007431929</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>-18.324906224547238</v>
+        <v>2.4222223339526607</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>B21*12</f>
         <v>386.04</v>
@@ -6858,151 +6892,151 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>649.38600203840258</v>
+        <v>382.71235667290068</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>54.115500169866884</v>
+        <v>31.892696389408389</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="1"/>
-        <v>-263.83697274799499</v>
+        <v>4.279765546465228</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>-21.986414395666248</v>
+        <v>0.35664712887210231</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G23" s="3">
         <v>1.5</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>695.77071646971706</v>
+        <v>410.0489535781079</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>57.980893039143091</v>
+        <v>34.170746131508992</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="1"/>
-        <v>-311.63547080142325</v>
+        <v>-24.367536914501557</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>-25.969622566785272</v>
+        <v>-2.0306280762084632</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G24" s="3">
         <v>1.6</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>742.15543090103165</v>
+        <v>437.38555048331511</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>61.846285908419304</v>
+        <v>36.448795873609591</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="1"/>
-        <v>-363.29436885485165</v>
+        <v>-56.875239375468425</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>-30.274530737904303</v>
+        <v>-4.7396032812890354</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G25" s="3">
         <v>1.7</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>788.54014533234601</v>
+        <v>464.72214738852227</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>65.711678777695496</v>
+        <v>38.726845615710189</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="1"/>
-        <v>-418.81366690827963</v>
+        <v>-93.243341836434979</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>-34.901138909023302</v>
+        <v>-7.7702784863695813</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G26" s="3">
         <v>1.8</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>834.92485976366049</v>
+        <v>492.05874429372949</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
-        <v>69.577071646971703</v>
+        <v>41.004895357810788</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="1"/>
-        <v>-478.19336496170797</v>
+        <v>-133.4718442974019</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>-39.849447080142333</v>
+        <v>-11.122653691450159</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="3">
         <v>1.9</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>881.30957419497497</v>
+        <v>519.39534119893665</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
-        <v>73.44246451624791</v>
+        <v>43.282945099911387</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="1"/>
-        <v>-541.43346301513611</v>
+        <v>-177.56074675836862</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>-45.119455251261343</v>
+        <v>-14.796728896530718</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>35</v>
       </c>
@@ -7013,26 +7047,26 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>927.69428862628945</v>
+        <v>546.73193810414386</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
-        <v>77.307857385524116</v>
+        <v>45.560994842011986</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="1"/>
-        <v>-608.53396106856439</v>
+        <v>-225.51004921933543</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>-50.711163422380366</v>
+        <v>-18.792504101611286</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -7041,26 +7075,26 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>974.07900305760393</v>
+        <v>574.06853500935108</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
-        <v>81.173250254800323</v>
+        <v>47.839044584112592</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="1"/>
-        <v>-679.49485912199259</v>
+        <v>-277.31975168030215</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>-56.624571593499383</v>
+        <v>-23.109979306691844</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>36</v>
       </c>
@@ -7075,26 +7109,26 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>1020.4637174889185</v>
+        <v>601.4051319145583</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>85.038643124076543</v>
+        <v>50.117094326213191</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="1"/>
-        <v>-754.31615717542093</v>
+        <v>-332.98985414126901</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>-62.859679764618413</v>
+        <v>-27.749154511772417</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -7103,26 +7137,26 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>1066.8484319202328</v>
+        <v>628.7417288197654</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>88.904035993352736</v>
+        <v>52.395144068313783</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="1"/>
-        <v>-832.99785522884883</v>
+        <v>-392.52035660223555</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>-69.416487935737408</v>
+        <v>-32.710029716852965</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>32</v>
       </c>
@@ -7138,26 +7172,26 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>1113.2331463515472</v>
+        <v>656.07832572497261</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>92.769428862628942</v>
+        <v>54.673193810414382</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="1"/>
-        <v>-915.53995328227722</v>
+        <v>-455.91125906320246</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>-76.294996106856431</v>
+        <v>-37.992604921933541</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
@@ -7166,26 +7200,26 @@
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>1159.6178607828617</v>
+        <v>683.41492263017983</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>96.634821731905149</v>
+        <v>56.951243552514988</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="1"/>
-        <v>-1001.9424513357054</v>
+        <v>-523.16256152416918</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>-83.495204277975446</v>
+        <v>-43.596880127014096</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>37</v>
       </c>
@@ -7201,26 +7235,26 @@
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>1206.0025752141764</v>
+        <v>710.75151953538705</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
-        <v>100.50021460118137</v>
+        <v>59.229293294615587</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="1"/>
-        <v>-1092.205349389134</v>
+        <v>-594.27426398513626</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>-91.017112449094498</v>
+        <v>-49.522855332094686</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="24">
         <f>ROUND(B34/12,1)</f>
@@ -7234,26 +7268,26 @@
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>1252.3872896454909</v>
+        <v>738.08811644059426</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
-        <v>104.36560747045758</v>
+        <v>61.507343036716186</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="1"/>
-        <v>-1186.3286474425622</v>
+        <v>-669.24636644610302</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>-98.860720620213513</v>
+        <v>-55.770530537175254</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -7262,32 +7296,32 @@
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>1298.7720040768052</v>
+        <v>765.42471334580136</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
-        <v>108.23100033973377</v>
+        <v>63.785392778816778</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="1"/>
-        <v>-1284.31234549599</v>
+        <v>-748.07886890706948</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>-107.02602879133251</v>
+        <v>-62.339905742255787</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="25">
         <f>ROUND((720*B35)/(B15*B14),0)</f>
-        <v>9569</v>
+        <v>10539</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>41</v>
@@ -7297,234 +7331,234 @@
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>1345.1567185081196</v>
+        <v>792.76131025100858</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
-        <v>112.09639320900997</v>
+        <v>66.063442520917377</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="1"/>
-        <v>-1386.1564435494186</v>
+        <v>-830.77177136803653</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>-115.51303696245155</v>
+        <v>-69.230980947336377</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G38" s="3">
         <v>3</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>1391.5414329394341</v>
+        <v>820.0979071562158</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
-        <v>115.96178607828618</v>
+        <v>68.341492263017983</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="1"/>
-        <v>-1491.8609416028467</v>
+        <v>-917.32507382900314</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>-124.32174513357056</v>
+        <v>-76.443756152416924</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G39" s="3">
         <v>3.1</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>1437.9261473707486</v>
+        <v>847.43450406142301</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>119.82717894756239</v>
+        <v>70.619542005118589</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
-        <v>-1601.4258396562752</v>
+        <v>-1007.7387762899702</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>-133.4521533046896</v>
+        <v>-83.978231357497521</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G40" s="3">
         <v>3.2</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>1484.3108618020633</v>
+        <v>874.77110096663023</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>123.69257181683861</v>
+        <v>72.897591747219181</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="1"/>
-        <v>-1714.8511377097036</v>
+        <v>-1102.012878750937</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>-142.90426147580862</v>
+        <v>-91.834406562578081</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G41" s="3">
         <v>3.3</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>1530.6955762333776</v>
+        <v>902.10769787183733</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>127.5579646861148</v>
+        <v>75.175641489319773</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="1"/>
-        <v>-1832.1368357631311</v>
+        <v>-1200.1473812119034</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>-152.67806964692758</v>
+        <v>-100.01228176765862</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G42" s="3">
         <v>3.4</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>1577.080290664692</v>
+        <v>929.44429477704455</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>131.42335755539099</v>
+        <v>77.453691231420379</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="1"/>
-        <v>-1953.2829338165591</v>
+        <v>-1302.1422836728698</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>-162.77357781804659</v>
+        <v>-108.51185697273915</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G43" s="3">
         <v>3.5</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>1623.4650050960065</v>
+        <v>956.78089168225176</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>135.2887504246672</v>
+        <v>79.731740973520985</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="1"/>
-        <v>-2078.2894318699882</v>
+        <v>-1407.9975861338373</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>-173.19078598916568</v>
+        <v>-117.33313217781978</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G61"/>
       <c r="H61"/>
     </row>
@@ -7539,6 +7573,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72D1B9-AB1F-4E81-B4BB-AF8902B9204F}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>0.95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60D84D8-D7E0-465A-92B3-61F1DC1412F6}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -7546,17 +7666,17 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -7564,7 +7684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -7578,7 +7698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -7599,7 +7719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>44</v>
       </c>
@@ -7611,7 +7731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I8" s="10">
         <f>ROUND(I7/12,1)</f>
         <v>18.399999999999999</v>
@@ -7620,17 +7740,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -7651,7 +7771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -7672,7 +7792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -7690,7 +7810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -7701,7 +7821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -7717,7 +7837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7A684-C6B9-48D0-BA62-41E5059F4BE2}">
   <dimension ref="A1:P75"/>
   <sheetViews>
@@ -7725,27 +7845,27 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.9296875" customWidth="1"/>
-    <col min="3" max="3" width="12.9296875" customWidth="1"/>
-    <col min="8" max="12" width="14.53125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="8" max="12" width="14.5546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.53125" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7780,7 +7900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2.25</v>
       </c>
@@ -7795,7 +7915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
@@ -7818,7 +7938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -7857,7 +7977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H8" s="3">
         <v>5</v>
       </c>
@@ -7889,7 +8009,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -7930,7 +8050,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>C9*100</f>
         <v>981</v>
@@ -7969,7 +8089,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H11" s="3">
         <v>5</v>
       </c>
@@ -8001,7 +8121,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H12" s="3">
         <v>5</v>
       </c>
@@ -8033,7 +8153,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H13" s="3">
         <v>5</v>
       </c>
@@ -8065,7 +8185,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H14" s="3">
         <v>5</v>
       </c>
@@ -8097,7 +8217,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H15" s="3">
         <v>5</v>
       </c>
@@ -8129,12 +8249,12 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>6</v>
       </c>
@@ -8157,7 +8277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -8189,7 +8309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -8226,7 +8346,7 @@
         <v>0.53123791386159191</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H21" s="3">
         <v>10</v>
       </c>
@@ -8254,7 +8374,7 @@
         <v>0.99842462216381322</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -8291,7 +8411,7 @@
         <v>1.3452315551505016</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -8328,7 +8448,7 @@
         <v>1.5298442986495295</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -8367,7 +8487,7 @@
         <v>1.530004146205288</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -8406,7 +8526,7 @@
         <v>1.3456918250430283</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>30</v>
       </c>
@@ -8445,7 +8565,7 @@
         <v>0.99912981978188053</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>35</v>
       </c>
@@ -8484,7 +8604,7 @@
         <v>0.53210301372713031</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>40</v>
       </c>
@@ -8497,7 +8617,7 @@
         <v>2.4338144731167453</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45</v>
       </c>
@@ -8510,7 +8630,7 @@
         <v>2.0422717568628941</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>50</v>
       </c>
@@ -8544,7 +8664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>55</v>
       </c>
@@ -8578,7 +8698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>60</v>
       </c>
@@ -8617,7 +8737,7 @@
         <v>2.1249516554463677</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>65</v>
       </c>
@@ -8656,7 +8776,7 @@
         <v>3.9936984886552529</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>70</v>
       </c>
@@ -8695,7 +8815,7 @@
         <v>5.3809262206020065</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>75</v>
       </c>
@@ -8734,7 +8854,7 @@
         <v>6.1193771945981181</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>80</v>
       </c>
@@ -8773,7 +8893,7 @@
         <v>6.1200165848211521</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="H37" s="3">
@@ -8803,7 +8923,7 @@
         <v>5.3827673001721132</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="H38" s="3">
@@ -8833,7 +8953,7 @@
         <v>3.9965192791275221</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="H39" s="3">
@@ -8863,15 +8983,15 @@
         <v>2.1284120549085213</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="H42" s="4" t="s">
@@ -8896,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="H43" s="5" t="s">
@@ -8921,7 +9041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="H44" s="3">
@@ -8951,7 +9071,7 @@
         <v>4.7811412247543261</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="H45" s="3">
@@ -8981,7 +9101,7 @@
         <v>8.9858215994743187</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="H46" s="3">
@@ -9011,7 +9131,7 @@
         <v>12.107083996354513</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="H47" s="3">
@@ -9041,7 +9161,7 @@
         <v>13.768598687845767</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="H48" s="3">
@@ -9071,7 +9191,7 @@
         <v>13.770037315847594</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="H49" s="3">
@@ -9101,7 +9221,7 @@
         <v>12.111226425387253</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H50" s="3">
         <v>30</v>
       </c>
@@ -9129,7 +9249,7 @@
         <v>8.9921683780369257</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H51" s="3">
         <v>30</v>
       </c>
@@ -9157,7 +9277,7 @@
         <v>4.7889271235441724</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H54" s="4" t="s">
         <v>6</v>
       </c>
@@ -9180,7 +9300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H55" s="5" t="s">
         <v>17</v>
       </c>
@@ -9203,7 +9323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H56" s="3">
         <v>40</v>
       </c>
@@ -9231,7 +9351,7 @@
         <v>8.4998066217854706</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H57" s="3">
         <v>40</v>
       </c>
@@ -9259,7 +9379,7 @@
         <v>15.974793954621012</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H58" s="3">
         <v>40</v>
       </c>
@@ -9287,7 +9407,7 @@
         <v>21.523704882408026</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H59" s="3">
         <v>40</v>
       </c>
@@ -9315,7 +9435,7 @@
         <v>24.477508778392473</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H60" s="3">
         <v>40</v>
       </c>
@@ -9343,7 +9463,7 @@
         <v>24.480066339284608</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H61" s="3">
         <v>40</v>
       </c>
@@ -9371,7 +9491,7 @@
         <v>21.531069200688453</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H62" s="3">
         <v>40</v>
       </c>
@@ -9399,7 +9519,7 @@
         <v>15.986077116510089</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H63" s="3">
         <v>40</v>
       </c>
@@ -9427,7 +9547,7 @@
         <v>8.513648219634085</v>
       </c>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H66" s="4" t="s">
         <v>6</v>
       </c>
@@ -9450,7 +9570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="8:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="8:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H67" s="5" t="s">
         <v>17</v>
       </c>
@@ -9473,7 +9593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H68" s="3">
         <v>50</v>
       </c>
@@ -9501,7 +9621,7 @@
         <v>13.280947846539796</v>
       </c>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H69" s="3">
         <v>50</v>
       </c>
@@ -9529,7 +9649,7 @@
         <v>24.96061555409533</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H70" s="3">
         <v>50</v>
       </c>
@@ -9557,7 +9677,7 @@
         <v>33.630788878762537</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H71" s="3">
         <v>50</v>
       </c>
@@ -9585,7 +9705,7 @@
         <v>38.246107466238236</v>
       </c>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H72" s="3">
         <v>50</v>
       </c>
@@ -9613,7 +9733,7 @@
         <v>38.2501036551322</v>
       </c>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H73" s="3">
         <v>50</v>
       </c>
@@ -9641,7 +9761,7 @@
         <v>33.6422956260757</v>
       </c>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H74" s="3">
         <v>50</v>
       </c>
@@ -9669,7 +9789,7 @@
         <v>24.978245494547014</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H75" s="3">
         <v>50</v>
       </c>
@@ -9703,7 +9823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9760CE-2D6D-4E8B-AFF0-30C50443C3C8}">
   <dimension ref="A2:F7"/>
   <sheetViews>
@@ -9711,14 +9831,14 @@
       <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" customWidth="1"/>
-    <col min="6" max="6" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
@@ -9739,7 +9859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -9750,7 +9870,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -9772,11 +9892,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -9792,7 +9912,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>

--- a/Power Cell Ballistics.xlsx
+++ b/Power Cell Ballistics.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Code\FRC\2020-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECA7C2-ABCB-4478-9835-84FB0737CB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB21084-DF51-4B65-A110-68483B7EC77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Height" sheetId="2" r:id="rId1"/>
     <sheet name="Ballistics" sheetId="7" r:id="rId2"/>
-    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId3"/>
-    <sheet name="Distance" sheetId="3" r:id="rId4"/>
-    <sheet name="Defense" sheetId="8" r:id="rId5"/>
-    <sheet name="Locations" sheetId="9" r:id="rId6"/>
-    <sheet name="Plot Data" sheetId="1" r:id="rId7"/>
-    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId8"/>
+    <sheet name="Ballistics2" sheetId="11" r:id="rId3"/>
+    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId4"/>
+    <sheet name="Distance" sheetId="3" r:id="rId5"/>
+    <sheet name="Defense" sheetId="8" r:id="rId6"/>
+    <sheet name="Locations" sheetId="9" r:id="rId7"/>
+    <sheet name="Plot Data" sheetId="1" r:id="rId8"/>
+    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t>2020 FRC - Infinite Recharge</t>
   </si>
@@ -248,6 +249,21 @@
   <si>
     <t>missed 2 shots</t>
   </si>
+  <si>
+    <t>angle (degrees)</t>
+  </si>
+  <si>
+    <t>distance (in)</t>
+  </si>
+  <si>
+    <t>angle(radians)</t>
+  </si>
+  <si>
+    <t>in/sec</t>
+  </si>
+  <si>
+    <t>Heights</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -487,11 +503,39 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1550,109 +1594,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.336596905207195</c:v>
+                  <c:v>27.350462424058719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.673193810414389</c:v>
+                  <c:v>54.700924848117438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.009790715621577</c:v>
+                  <c:v>82.051387272176157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.34638762082878</c:v>
+                  <c:v>109.40184969623488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.68298452603597</c:v>
+                  <c:v>136.7523121202936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.01958143124315</c:v>
+                  <c:v>164.10277454435231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.35617833645034</c:v>
+                  <c:v>191.45323696841103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.69277524165756</c:v>
+                  <c:v>218.80369939246975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>246.02937214686474</c:v>
+                  <c:v>246.15416181652847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.36596905207193</c:v>
+                  <c:v>273.50462424058719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.70256595727915</c:v>
+                  <c:v>300.85508666464591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>328.03916286248631</c:v>
+                  <c:v>328.20554908870463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>355.37575976769352</c:v>
+                  <c:v>355.55601151276335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>382.71235667290068</c:v>
+                  <c:v>382.90647393682207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.0489535781079</c:v>
+                  <c:v>410.25693636088079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>437.38555048331511</c:v>
+                  <c:v>437.60739878493951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>464.72214738852227</c:v>
+                  <c:v>464.95786120899822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>492.05874429372949</c:v>
+                  <c:v>492.30832363305694</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>519.39534119893665</c:v>
+                  <c:v>519.65878605711566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>546.73193810414386</c:v>
+                  <c:v>547.00924848117438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>574.06853500935108</c:v>
+                  <c:v>574.3597109052331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>601.4051319145583</c:v>
+                  <c:v>601.71017332929182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>628.7417288197654</c:v>
+                  <c:v>629.06063575335054</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>656.07832572497261</c:v>
+                  <c:v>656.41109817740926</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>683.41492263017983</c:v>
+                  <c:v>683.76156060146798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>710.75151953538705</c:v>
+                  <c:v>711.1120230255267</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>738.08811644059426</c:v>
+                  <c:v>738.46248544958542</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>765.42471334580136</c:v>
+                  <c:v>765.81294787364413</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>792.76131025100858</c:v>
+                  <c:v>793.16341029770285</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.0979071562158</c:v>
+                  <c:v>820.51387272176157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>847.43450406142301</c:v>
+                  <c:v>847.86433514582029</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>874.77110096663023</c:v>
+                  <c:v>875.21479756987901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>902.10769787183733</c:v>
+                  <c:v>902.56525999393773</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>929.44429477704455</c:v>
+                  <c:v>929.91572241799645</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>956.78089168225176</c:v>
+                  <c:v>957.26618484205517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,109 +1711,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.398297539033234</c:v>
+                  <c:v>25.412158949768642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.936195078066461</c:v>
+                  <c:v>46.963917899537279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.613692617099701</c:v>
+                  <c:v>64.65527684930592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.430790156132929</c:v>
+                  <c:v>78.486235799074564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.387487695166158</c:v>
+                  <c:v>88.456794748843208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.483785234199388</c:v>
+                  <c:v>94.566953698611826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.719682773232606</c:v>
+                  <c:v>96.816712648380488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.095180312265825</c:v>
+                  <c:v>95.206071598149094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.61027785129906</c:v>
+                  <c:v>89.735030547917773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.264975390332296</c:v>
+                  <c:v>80.403589497686397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.059272929365534</c:v>
+                  <c:v>67.211748447455022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.993170468398773</c:v>
+                  <c:v>50.159507397223649</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.066668007431929</c:v>
+                  <c:v>29.246866346992306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.279765546465228</c:v>
+                  <c:v>4.4738252967609924</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-24.367536914501557</c:v>
+                  <c:v>-24.159615753470405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-56.875239375468425</c:v>
+                  <c:v>-56.653456803701886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-93.243341836434979</c:v>
+                  <c:v>-93.007697853933053</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-133.4718442974019</c:v>
+                  <c:v>-133.22233890416447</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-177.56074675836862</c:v>
+                  <c:v>-177.29737995439586</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-225.51004921933543</c:v>
+                  <c:v>-225.23282100462723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-277.31975168030215</c:v>
+                  <c:v>-277.0286620548585</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-332.98985414126901</c:v>
+                  <c:v>-332.68490310509003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-392.52035660223555</c:v>
+                  <c:v>-392.20154415532113</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-455.91125906320246</c:v>
+                  <c:v>-455.57858520555271</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-523.16256152416918</c:v>
+                  <c:v>-522.81602625578398</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-594.27426398513626</c:v>
+                  <c:v>-593.9138673060155</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-669.24636644610302</c:v>
+                  <c:v>-668.87210835624694</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-748.07886890706948</c:v>
+                  <c:v>-747.69074940647795</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-830.77177136803653</c:v>
+                  <c:v>-830.36979045670967</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-917.32507382900314</c:v>
+                  <c:v>-916.90923150694084</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1007.7387762899702</c:v>
+                  <c:v>-1007.3090725571725</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1102.012878750937</c:v>
+                  <c:v>-1101.5693136074042</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1200.1473812119034</c:v>
+                  <c:v>-1199.6899546576346</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1302.1422836728698</c:v>
+                  <c:v>-1301.670995707866</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1407.9975861338373</c:v>
+                  <c:v>-1407.5124367580979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,109 +1851,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.336596905207195</c:v>
+                  <c:v>27.350462424058719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.673193810414389</c:v>
+                  <c:v>54.700924848117438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.009790715621577</c:v>
+                  <c:v>82.051387272176157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.34638762082878</c:v>
+                  <c:v>109.40184969623488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.68298452603597</c:v>
+                  <c:v>136.7523121202936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.01958143124315</c:v>
+                  <c:v>164.10277454435231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.35617833645034</c:v>
+                  <c:v>191.45323696841103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.69277524165756</c:v>
+                  <c:v>218.80369939246975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>246.02937214686474</c:v>
+                  <c:v>246.15416181652847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.36596905207193</c:v>
+                  <c:v>273.50462424058719</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.70256595727915</c:v>
+                  <c:v>300.85508666464591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>328.03916286248631</c:v>
+                  <c:v>328.20554908870463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>355.37575976769352</c:v>
+                  <c:v>355.55601151276335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>382.71235667290068</c:v>
+                  <c:v>382.90647393682207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.0489535781079</c:v>
+                  <c:v>410.25693636088079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>437.38555048331511</c:v>
+                  <c:v>437.60739878493951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>464.72214738852227</c:v>
+                  <c:v>464.95786120899822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>492.05874429372949</c:v>
+                  <c:v>492.30832363305694</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>519.39534119893665</c:v>
+                  <c:v>519.65878605711566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>546.73193810414386</c:v>
+                  <c:v>547.00924848117438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>574.06853500935108</c:v>
+                  <c:v>574.3597109052331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>601.4051319145583</c:v>
+                  <c:v>601.71017332929182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>628.7417288197654</c:v>
+                  <c:v>629.06063575335054</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>656.07832572497261</c:v>
+                  <c:v>656.41109817740926</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>683.41492263017983</c:v>
+                  <c:v>683.76156060146798</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>710.75151953538705</c:v>
+                  <c:v>711.1120230255267</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>738.08811644059426</c:v>
+                  <c:v>738.46248544958542</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>765.42471334580136</c:v>
+                  <c:v>765.81294787364413</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>792.76131025100858</c:v>
+                  <c:v>793.16341029770285</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.0979071562158</c:v>
+                  <c:v>820.51387272176157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>847.43450406142301</c:v>
+                  <c:v>847.86433514582029</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>874.77110096663023</c:v>
+                  <c:v>875.21479756987901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>902.10769787183733</c:v>
+                  <c:v>902.56525999393773</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>929.44429477704455</c:v>
+                  <c:v>929.91572241799645</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>956.78089168225176</c:v>
+                  <c:v>957.26618484205517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,7 +5959,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C5C72955-79A8-4AE8-923E-96E5EAD2813F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5926,7 +5970,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{85B62C60-775B-4601-97B5-D31A3B37AFDA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6011,7 +6055,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663697" cy="6287513"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6044,7 +6088,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8653679" cy="6277841"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6372,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A071DE-853C-4645-838D-52D3EBDAE5F1}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6483,19 +6527,19 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>27.336596905207195</v>
+        <v>27.350462424058719</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" ref="I9:I43" si="2">H9/12</f>
-        <v>2.2780497421005994</v>
+        <v>2.2792052020048934</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>25.398297539033234</v>
+        <v>25.412158949768642</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ref="K9:K43" si="3">J9/12</f>
-        <v>2.1165247949194361</v>
+        <v>2.1176799124807202</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ref="L9:L43" si="4">$B$10</f>
@@ -6518,19 +6562,19 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>54.673193810414389</v>
+        <v>54.700924848117438</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>4.5560994842011988</v>
+        <v>4.5584104040097868</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>46.936195078066461</v>
+        <v>46.963917899537279</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>3.9113495898388719</v>
+        <v>3.91365982496144</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
@@ -6543,19 +6587,19 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>82.009790715621577</v>
+        <v>82.051387272176157</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>6.8341492263017978</v>
+        <v>6.8376156060146798</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>64.613692617099701</v>
+        <v>64.65527684930592</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>5.3844743847583088</v>
+        <v>5.38793973744216</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
@@ -6577,19 +6621,19 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>109.34638762082878</v>
+        <v>109.40184969623488</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>9.1121989684023976</v>
+        <v>9.1168208080195736</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>78.430790156132929</v>
+        <v>78.486235799074564</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>6.5358991796777444</v>
+        <v>6.5405196499228806</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
@@ -6615,19 +6659,19 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>136.68298452603597</v>
+        <v>136.7523121202936</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
-        <v>11.390248710502997</v>
+        <v>11.396026010024466</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>88.387487695166158</v>
+        <v>88.456794748843208</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>7.3656239745971801</v>
+        <v>7.3713995624036004</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
@@ -6639,8 +6683,8 @@
         <v>22</v>
       </c>
       <c r="B14" s="13">
-        <f>3.14*B12</f>
-        <v>18.84</v>
+        <f>PI()*B12</f>
+        <v>18.849555921538759</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -6650,19 +6694,19 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>164.01958143124315</v>
+        <v>164.10277454435231</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>13.668298452603596</v>
+        <v>13.67523121202936</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>94.483785234199388</v>
+        <v>94.566953698611826</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>7.873648769516616</v>
+        <v>7.8805794748843185</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
@@ -6681,19 +6725,19 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>191.35617833645034</v>
+        <v>191.45323696841103</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>15.946348194704195</v>
+        <v>15.954436414034253</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>96.719682773232606</v>
+        <v>96.816712648380488</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>8.0599735644360511</v>
+        <v>8.0680593873650412</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
@@ -6706,19 +6750,19 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>218.69277524165756</v>
+        <v>218.80369939246975</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>18.224397936804795</v>
+        <v>18.233641616039147</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="1"/>
-        <v>95.095180312265825</v>
+        <v>95.206071598149094</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>7.9245983593554854</v>
+        <v>7.9338392998457579</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="4"/>
@@ -6731,7 +6775,7 @@
       </c>
       <c r="B17" s="13">
         <f>B13*B14</f>
-        <v>102169.31999999999</v>
+        <v>102221.14176250469</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -6741,19 +6785,19 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>246.02937214686474</v>
+        <v>246.15416181652847</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>20.502447678905394</v>
+        <v>20.512846818044039</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>89.61027785129906</v>
+        <v>89.735030547917773</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>7.4675231542749216</v>
+        <v>7.4779192123264808</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
@@ -6766,7 +6810,7 @@
       </c>
       <c r="B18" s="15">
         <f>($B$15*B17)/(12*60)</f>
-        <v>32.211716166666669</v>
+        <v>32.228054416789675</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -6776,19 +6820,19 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>273.36596905207193</v>
+        <v>273.50462424058719</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>22.780497421005993</v>
+        <v>22.792052020048931</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>80.264975390332296</v>
+        <v>80.403589497686397</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>6.688747949194358</v>
+        <v>6.7002991248071995</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="4"/>
@@ -6801,19 +6845,19 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>300.70256595727915</v>
+        <v>300.85508666464591</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>25.058547163106596</v>
+        <v>25.071257222053827</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="1"/>
-        <v>67.059272929365534</v>
+        <v>67.211748447455022</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>5.5882727441137945</v>
+        <v>5.6009790372879182</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="4"/>
@@ -6826,19 +6870,19 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>328.03916286248631</v>
+        <v>328.20554908870463</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>27.336596905207191</v>
+        <v>27.350462424058719</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>49.993170468398773</v>
+        <v>50.159507397223649</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>4.1660975390332311</v>
+        <v>4.1799589497686371</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
@@ -6860,19 +6904,19 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>355.37575976769352</v>
+        <v>355.55601151276335</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>29.614646647307794</v>
+        <v>29.629667626063611</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="1"/>
-        <v>29.066668007431929</v>
+        <v>29.246866346992306</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>2.4222223339526607</v>
+        <v>2.4372388622493588</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="4"/>
@@ -6892,19 +6936,19 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>382.71235667290068</v>
+        <v>382.90647393682207</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>31.892696389408389</v>
+        <v>31.908872828068507</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="1"/>
-        <v>4.279765546465228</v>
+        <v>4.4738252967609924</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>0.35664712887210231</v>
+        <v>0.37281877473008268</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="4"/>
@@ -6917,19 +6961,19 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>410.0489535781079</v>
+        <v>410.25693636088079</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>34.170746131508992</v>
+        <v>34.188078030073399</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="1"/>
-        <v>-24.367536914501557</v>
+        <v>-24.159615753470405</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>-2.0306280762084632</v>
+        <v>-2.0133013127892005</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
@@ -6942,19 +6986,19 @@
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>437.38555048331511</v>
+        <v>437.60739878493951</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>36.448795873609591</v>
+        <v>36.467283232078294</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="1"/>
-        <v>-56.875239375468425</v>
+        <v>-56.653456803701886</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>-4.7396032812890354</v>
+        <v>-4.7211214003084905</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="4"/>
@@ -6967,19 +7011,19 @@
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>464.72214738852227</v>
+        <v>464.95786120899822</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>38.726845615710189</v>
+        <v>38.746488434083183</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="1"/>
-        <v>-93.243341836434979</v>
+        <v>-93.007697853933053</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>-7.7702784863695813</v>
+        <v>-7.7506414878277541</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
@@ -6992,19 +7036,19 @@
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>492.05874429372949</v>
+        <v>492.30832363305694</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
-        <v>41.004895357810788</v>
+        <v>41.025693636088079</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="1"/>
-        <v>-133.4718442974019</v>
+        <v>-133.22233890416447</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>-11.122653691450159</v>
+        <v>-11.101861575347039</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="4"/>
@@ -7017,19 +7061,19 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>519.39534119893665</v>
+        <v>519.65878605711566</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
-        <v>43.282945099911387</v>
+        <v>43.304898838092974</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="1"/>
-        <v>-177.56074675836862</v>
+        <v>-177.29737995439586</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>-14.796728896530718</v>
+        <v>-14.774781662866323</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="4"/>
@@ -7047,19 +7091,19 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>546.73193810414386</v>
+        <v>547.00924848117438</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
-        <v>45.560994842011986</v>
+        <v>45.584104040097863</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="1"/>
-        <v>-225.51004921933543</v>
+        <v>-225.23282100462723</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>-18.792504101611286</v>
+        <v>-18.769401750385601</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="4"/>
@@ -7075,19 +7119,19 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>574.06853500935108</v>
+        <v>574.3597109052331</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
-        <v>47.839044584112592</v>
+        <v>47.863309242102758</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="1"/>
-        <v>-277.31975168030215</v>
+        <v>-277.0286620548585</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>-23.109979306691844</v>
+        <v>-23.085721837904874</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="4"/>
@@ -7109,19 +7153,19 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>601.4051319145583</v>
+        <v>601.71017332929182</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>50.117094326213191</v>
+        <v>50.142514444107654</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="1"/>
-        <v>-332.98985414126901</v>
+        <v>-332.68490310509003</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>-27.749154511772417</v>
+        <v>-27.723741925424168</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="4"/>
@@ -7137,19 +7181,19 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>628.7417288197654</v>
+        <v>629.06063575335054</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>52.395144068313783</v>
+        <v>52.421719646112543</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="1"/>
-        <v>-392.52035660223555</v>
+        <v>-392.20154415532113</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>-32.710029716852965</v>
+        <v>-32.68346201294343</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="4"/>
@@ -7172,19 +7216,19 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>656.07832572497261</v>
+        <v>656.41109817740926</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>54.673193810414382</v>
+        <v>54.700924848117438</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="1"/>
-        <v>-455.91125906320246</v>
+        <v>-455.57858520555271</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>-37.992604921933541</v>
+        <v>-37.964882100462724</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="4"/>
@@ -7200,19 +7244,19 @@
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>683.41492263017983</v>
+        <v>683.76156060146798</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>56.951243552514988</v>
+        <v>56.980130050122334</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="1"/>
-        <v>-523.16256152416918</v>
+        <v>-522.81602625578398</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>-43.596880127014096</v>
+        <v>-43.568002187981996</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="4"/>
@@ -7235,19 +7279,19 @@
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>710.75151953538705</v>
+        <v>711.1120230255267</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
-        <v>59.229293294615587</v>
+        <v>59.259335252127222</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="1"/>
-        <v>-594.27426398513626</v>
+        <v>-593.9138673060155</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>-49.522855332094686</v>
+        <v>-49.49282227550129</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="4"/>
@@ -7268,19 +7312,19 @@
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>738.08811644059426</v>
+        <v>738.46248544958542</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
-        <v>61.507343036716186</v>
+        <v>61.538540454132118</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="1"/>
-        <v>-669.24636644610302</v>
+        <v>-668.87210835624694</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>-55.770530537175254</v>
+        <v>-55.739342363020576</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="4"/>
@@ -7296,19 +7340,19 @@
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>765.42471334580136</v>
+        <v>765.81294787364413</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
-        <v>63.785392778816778</v>
+        <v>63.817745656137014</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="1"/>
-        <v>-748.07886890706948</v>
+        <v>-747.69074940647795</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>-62.339905742255787</v>
+        <v>-62.307562450539827</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="4"/>
@@ -7321,7 +7365,7 @@
       </c>
       <c r="B37" s="25">
         <f>ROUND((720*B35)/(B15*B14),0)</f>
-        <v>10539</v>
+        <v>10534</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>41</v>
@@ -7331,19 +7375,19 @@
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>792.76131025100858</v>
+        <v>793.16341029770285</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
-        <v>66.063442520917377</v>
+        <v>66.096950858141909</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="1"/>
-        <v>-830.77177136803653</v>
+        <v>-830.36979045670967</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>-69.230980947336377</v>
+        <v>-69.197482538059134</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="4"/>
@@ -7356,19 +7400,19 @@
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>820.0979071562158</v>
+        <v>820.51387272176157</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
-        <v>68.341492263017983</v>
+        <v>68.376156060146798</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="1"/>
-        <v>-917.32507382900314</v>
+        <v>-916.90923150694084</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>-76.443756152416924</v>
+        <v>-76.409102625578399</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="4"/>
@@ -7381,19 +7425,19 @@
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>847.43450406142301</v>
+        <v>847.86433514582029</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>70.619542005118589</v>
+        <v>70.655361262151686</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
-        <v>-1007.7387762899702</v>
+        <v>-1007.3090725571725</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>-83.978231357497521</v>
+        <v>-83.942422713097713</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="4"/>
@@ -7406,19 +7450,19 @@
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>874.77110096663023</v>
+        <v>875.21479756987901</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>72.897591747219181</v>
+        <v>72.934566464156589</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="1"/>
-        <v>-1102.012878750937</v>
+        <v>-1101.5693136074042</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>-91.834406562578081</v>
+        <v>-91.79744280061702</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="4"/>
@@ -7431,19 +7475,19 @@
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>902.10769787183733</v>
+        <v>902.56525999393773</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>75.175641489319773</v>
+        <v>75.213771666161477</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="1"/>
-        <v>-1200.1473812119034</v>
+        <v>-1199.6899546576346</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>-100.01228176765862</v>
+        <v>-99.97416288813622</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="4"/>
@@ -7456,19 +7500,19 @@
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>929.44429477704455</v>
+        <v>929.91572241799645</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>77.453691231420379</v>
+        <v>77.492976868166366</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="1"/>
-        <v>-1302.1422836728698</v>
+        <v>-1301.670995707866</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>-108.51185697273915</v>
+        <v>-108.4725829756555</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="4"/>
@@ -7481,19 +7525,19 @@
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>956.78089168225176</v>
+        <v>957.26618484205517</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>79.731740973520985</v>
+        <v>79.772182070171269</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="1"/>
-        <v>-1407.9975861338373</v>
+        <v>-1407.5124367580979</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>-117.33313217781978</v>
+        <v>-117.29270306317483</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="4"/>
@@ -7573,6 +7617,2973 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9359CD4-8DEB-4F2A-87C8-9FF228A68946}">
+  <dimension ref="A1:W46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J3" s="31">
+        <v>20</v>
+      </c>
+      <c r="K3" s="31">
+        <v>25</v>
+      </c>
+      <c r="L3" s="31">
+        <v>30</v>
+      </c>
+      <c r="M3" s="31">
+        <v>35</v>
+      </c>
+      <c r="N3" s="31">
+        <v>40</v>
+      </c>
+      <c r="O3" s="31">
+        <v>45</v>
+      </c>
+      <c r="P3" s="31">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>55</v>
+      </c>
+      <c r="R3" s="31">
+        <v>60</v>
+      </c>
+      <c r="S3" s="31">
+        <v>65</v>
+      </c>
+      <c r="T3" s="31">
+        <v>70</v>
+      </c>
+      <c r="U3" s="31">
+        <v>75</v>
+      </c>
+      <c r="V3" s="31">
+        <v>80</v>
+      </c>
+      <c r="W3" s="31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="31">
+        <f>RADIANS(J3)</f>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="K5" s="31">
+        <f t="shared" ref="K5:W5" si="0">RADIANS(K3)</f>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="L5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="M5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="N5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="O5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="P5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="Q5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="R5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="S5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="T5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="U5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="V5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="W5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.4835298641951802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="31">
+        <f>G6*12</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <f>TAN(J$5)*$I6-(0.5*$B$24)*POWER($I6/($B$21*COS(J$5)), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" ref="K6:W7" si="1">TAN(K$5)*$I6-(0.5*$B$24)*POWER($I6/($B$21*COS(K$5)), 2)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <f t="shared" ref="I7:I46" si="2">G7*12</f>
+        <v>12</v>
+      </c>
+      <c r="J7" s="9">
+        <f>TAN(J$5)*$I7-(0.5*$B$24)*POWER($I7/($B$21*COS(J$5)), 2)</f>
+        <v>4.2155879345317322</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4322284845764273</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="1"/>
+        <v>6.7491794502893114</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>8.2023923666102103</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="1"/>
+        <v>9.8403913420847449</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>11.731464330020703</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="1"/>
+        <v>13.976077808553793</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="1"/>
+        <v>16.729654666160897</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="1"/>
+        <v>20.247538350867931</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="1"/>
+        <v>24.982329531227805</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="1"/>
+        <v>31.821922699811246</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="1"/>
+        <v>42.78023216281197</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="1"/>
+        <v>63.602598884490462</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="1"/>
+        <v>119.48479138619498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <f>B7*12+D7</f>
+        <v>98.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:W23" si="3">TAN(J$5)*$I8-(0.5*$B$24)*POWER($I8/($B$21*COS(J$5)), 2)</f>
+        <v>8.1270661157380726</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
+        <v>10.537530142585743</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="3"/>
+        <v>13.140311340606228</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
+        <v>16.004588549407806</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="3"/>
+        <v>19.22317422008426</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="3"/>
+        <v>22.925857320082812</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="3"/>
+        <v>27.302225011954132</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="3"/>
+        <v>32.643066502832838</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="3"/>
+        <v>39.420934021818674</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="3"/>
+        <v>48.461152032681802</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="3"/>
+        <v>61.348232732334068</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="3"/>
+        <v>81.551709269594809</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="3"/>
+        <v>118.29963186713691</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="3"/>
+        <v>203.61791027850757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>11.73443454361902</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="3"/>
+        <v>15.315904974027946</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="3"/>
+        <v>19.173395670950754</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="3"/>
+        <v>23.406588548392779</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="3"/>
+        <v>28.148348633998552</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="3"/>
+        <v>33.583178970186331</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>39.978441610201017</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="3"/>
+        <v>47.740235510015836</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="3"/>
+        <v>57.52018701285224</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="3"/>
+        <v>70.436467504362</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="3"/>
+        <v>88.578930097568474</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="3"/>
+        <v>116.31443132034855</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="3"/>
+        <v>164.09109894793934</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="3"/>
+        <v>252.3993566769378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>15.037693218174578</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="3"/>
+        <v>19.767352978903038</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="3"/>
+        <v>24.848432441322881</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="3"/>
+        <v>30.408392363565149</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="3"/>
+        <v>36.61591458382761</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="3"/>
+        <v>43.703429280331264</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>52.004727603294448</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="3"/>
+        <v>62.021161687709871</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="3"/>
+        <v>74.545297323968626</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="3"/>
+        <v>90.908275946268404</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="3"/>
+        <v>113.51401479551446</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="3"/>
+        <v>147.06839831507313</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="3"/>
+        <v>200.97700012689774</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="3"/>
+        <v>265.82913058148557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G11" s="31">
+        <v>5</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>18.03684213940474</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="3"/>
+        <v>23.891874157211017</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="3"/>
+        <v>30.16542165172261</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="3"/>
+        <v>37.00999999492489</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="3"/>
+        <v>44.625872069571436</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="3"/>
+        <v>53.286608250517602</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>63.381082991234422</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="3"/>
+        <v>75.485845035914963</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="3"/>
+        <v>90.496264955167831</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="3"/>
+        <v>109.87657735840099</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="3"/>
+        <v>136.15348682617201</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="3"/>
+        <v>173.81361025376864</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="3"/>
+        <v>228.95733540401216</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="3"/>
+        <v>243.90723199215091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>B8-B10</f>
+        <v>74.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="I12" s="31">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>20.731881307309514</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="3"/>
+        <v>27.689468508951887</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="3"/>
+        <v>35.124363302149959</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="3"/>
+        <v>43.211411442472027</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="3"/>
+        <v>52.178221091230043</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="3"/>
+        <v>62.33271588074534</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="3"/>
+        <v>74.107507774020945</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="3"/>
+        <v>88.134285554631091</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="3"/>
+        <v>105.37308990644985</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="3"/>
+        <v>127.34137174075978</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="3"/>
+        <v>156.49734618954113</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="3"/>
+        <v>196.55006713643499</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="3"/>
+        <v>248.03210477928249</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="3"/>
+        <v>186.63366090893408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>23.122810721888893</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="3"/>
+        <v>31.160136034125635</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="3"/>
+        <v>39.725257392604902</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="3"/>
+        <v>49.012626706206547</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="3"/>
+        <v>59.27296164880341</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="3"/>
+        <v>70.841752171014491</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="3"/>
+        <v>84.184001951654011</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="3"/>
+        <v>99.966483243858278</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="3"/>
+        <v>119.17577217781466</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="3"/>
+        <v>143.30265909334477</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="3"/>
+        <v>174.54559288562186</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="3"/>
+        <v>215.27776896307222</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="3"/>
+        <v>258.20130825270883</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="3"/>
+        <v>94.008417331834607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="I14" s="31">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>25.209630383142883</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="3"/>
+        <v>34.303876732732284</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="3"/>
+        <v>43.968103923087455</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="3"/>
+        <v>54.413645786128455</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="3"/>
+        <v>65.910093742291565</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="3"/>
+        <v>78.813717121325055</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="3"/>
+        <v>93.610565524133634</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="3"/>
+        <v>110.98243810359651</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="3"/>
+        <v>131.90431176926234</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="3"/>
+        <v>157.76043941615595</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="3"/>
+        <v>190.29822691441416</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="3"/>
+        <v>229.99671573368033</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="3"/>
+        <v>259.46494582429108</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="3"/>
+        <v>-33.968498739147208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="12">
+        <f>C15*D15</f>
+        <v>6380</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6380</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="I15" s="31">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>26.992340291071486</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="3"/>
+        <v>37.120690604771809</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="3"/>
+        <v>47.852902893597609</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="3"/>
+        <v>59.414468682237739</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="3"/>
+        <v>72.089617371694459</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="3"/>
+        <v>86.248610731677033</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="3"/>
+        <v>102.38719849145978</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="3"/>
+        <v>121.18215013384579</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="3"/>
+        <v>143.55870868079279</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="3"/>
+        <v>170.71471270919329</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="3"/>
+        <v>203.75524827591795</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="3"/>
+        <v>240.70690744825939</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="3"/>
+        <v>251.82301749402939</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="3"/>
+        <v>-197.29708730401148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="13">
+        <f>PI()*B14</f>
+        <v>18.849555921538759</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="31">
+        <v>10</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>28.470940445674685</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="3"/>
+        <v>39.610577650244238</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="3"/>
+        <v>51.379654304135364</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="3"/>
+        <v>64.015095394534399</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="3"/>
+        <v>77.811532537012155</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="3"/>
+        <v>93.14643300207041</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="3"/>
+        <v>110.51390085363249</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="3"/>
+        <v>130.56561933460614</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="3"/>
+        <v>154.1389629124061</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="3"/>
+        <v>182.16547897245692</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="3"/>
+        <v>214.91665697013346</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="3"/>
+        <v>247.40834410680921</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="3"/>
+        <v>235.27552326192375</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="3"/>
+        <v>-395.97734836275822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>29.6454308469525</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
+        <v>41.773537869149543</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="3"/>
+        <v>54.548358154700743</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="3"/>
+        <v>68.215525923018475</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="3"/>
+        <v>83.075839238244612</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="3"/>
+        <v>99.507183932505171</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="3"/>
+        <v>117.99067261065176</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="3"/>
+        <v>139.13284570587749</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="3"/>
+        <v>163.64507446410218</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="3"/>
+        <v>192.11273820594667</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="3"/>
+        <v>223.78245299706049</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="3"/>
+        <v>250.10102570933003</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="3"/>
+        <v>209.82246312797406</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="3"/>
+        <v>-630.00928191538742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>30.515811494904916</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="3"/>
+        <v>43.609571261487744</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="3"/>
+        <v>57.359014445293724</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="3"/>
+        <v>72.015760267689899</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="3"/>
+        <v>87.882537475391857</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="3"/>
+        <v>105.33086352298139</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="3"/>
+        <v>124.81751376251756</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="3"/>
+        <v>146.88382924765989</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="3"/>
+        <v>172.07704333588111</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="3"/>
+        <v>200.55649040966267</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="3"/>
+        <v>230.35263635669907</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="3"/>
+        <v>248.78495225582162</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="3"/>
+        <v>175.46383709218026</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="3"/>
+        <v>-899.39288796189794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="13">
+        <f>B15*B16</f>
+        <v>120260.16677941728</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>31.082082389531948</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="3"/>
+        <v>45.118677827258821</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="3"/>
+        <v>59.811623175914292</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="3"/>
+        <v>75.41579842854874</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="3"/>
+        <v>92.231627248453862</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="3"/>
+        <v>110.61747177349899</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="3"/>
+        <v>130.99442430922994</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="3"/>
+        <v>153.81856995995338</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="3"/>
+        <v>179.43486952774282</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="3"/>
+        <v>207.49673558360479</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="3"/>
+        <v>234.62720704904925</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="3"/>
+        <v>243.46012374628401</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="3"/>
+        <v>132.19964515454251</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="3"/>
+        <v>-1204.1281665022918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="15">
+        <f>($B$17*B19)/(12*60)</f>
+        <v>37.915358137399615</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="I20" s="31">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>31.34424353083358</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="3"/>
+        <v>46.300857566462788</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="3"/>
+        <v>61.906184346562476</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="3"/>
+        <v>78.415640405594942</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="3"/>
+        <v>96.123108557430612</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="3"/>
+        <v>115.36700868405802</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="3"/>
+        <v>136.52140425078878</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="3"/>
+        <v>159.93706784275787</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="3"/>
+        <v>185.71855303968738</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="3"/>
+        <v>212.93347372777322</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="3"/>
+        <v>236.60616507411098</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="3"/>
+        <v>234.12654018071748</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="3"/>
+        <v>80.029887315060478</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="3"/>
+        <v>-1544.2151175365682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>B20*12</f>
+        <v>454.9842976487954</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="31">
+        <v>15</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>31.302294918809828</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="3"/>
+        <v>47.156110479099645</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="3"/>
+        <v>63.642697957238255</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="3"/>
+        <v>81.015286198828548</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="3"/>
+        <v>99.556981402322165</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="3"/>
+        <v>119.57947425465845</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="3"/>
+        <v>141.39845358719424</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="3"/>
+        <v>165.23932289607342</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="3"/>
+        <v>190.92809387171476</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="3"/>
+        <v>216.86670484216774</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="3"/>
+        <v>236.2895104318842</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="3"/>
+        <v>220.78420155912175</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="3"/>
+        <v>18.954563573734617</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="3"/>
+        <v>-1919.653741064727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="I22" s="31">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>30.956236553460684</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="3"/>
+        <v>47.684436565169399</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>65.021164007941678</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="3"/>
+        <v>83.214735808249543</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="3"/>
+        <v>102.53324578312851</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="3"/>
+        <v>123.25486848530025</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="3"/>
+        <v>145.62557231844622</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="3"/>
+        <v>169.72533511990008</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="3"/>
+        <v>195.06349202382495</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="3"/>
+        <v>219.29642892678854</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" si="3"/>
+        <v>233.67724312236925</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="3"/>
+        <v>203.43310788149688</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="3"/>
+        <v>-51.026326069435299</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="3"/>
+        <v>-2330.4440370867678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>32.17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="I23" s="31">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J23" s="9">
+        <f>TAN(J$5)*$I23-(0.5*$B$24)*POWER($I23/($B$21*COS(J$5)), 2)</f>
+        <v>30.306068434786148</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="3"/>
+        <v>47.885835824672029</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="3"/>
+        <v>66.041582498672653</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="3"/>
+        <v>85.013989233857899</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="3"/>
+        <v>105.05190169984957</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="3"/>
+        <v>126.39319137598351</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="3"/>
+        <v>149.20276044454474</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="3"/>
+        <v>173.39510451423774</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="3"/>
+        <v>198.12474749601802</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="3"/>
+        <v>220.22264598163545</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="3"/>
+        <v>228.76936314556565</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="3"/>
+        <v>182.07325914784303</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="3"/>
+        <v>-129.91278161444893</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="3"/>
+        <v>-2776.5860056026913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>B23*12</f>
+        <v>386.04</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="I24" s="31">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="J24" s="9">
+        <f>TAN(J$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(J$5)), 2)</f>
+        <v>29.351790562786228</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" ref="K24:W24" si="4">TAN(K$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(K$5)), 2)</f>
+        <v>47.760308257607555</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="4"/>
+        <v>66.703953429431266</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="4"/>
+        <v>86.413046475653644</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="4"/>
+        <v>107.11294915248541</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="4"/>
+        <v>128.99444292670816</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="4"/>
+        <v>152.1300179654898</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="4"/>
+        <v>176.24863107908644</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="4"/>
+        <v>200.11186028829383</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="4"/>
+        <v>219.6453560067086</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="4"/>
+        <v>221.56587050147363</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="4"/>
+        <v>156.70465535815993</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="4"/>
+        <v>-217.70480306130708</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="4"/>
+        <v>-3258.0796466124971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25:W40" si="5">TAN(J$5)*$I25-(0.5*$B$24)*POWER($I25/($B$21*COS(J$5)), 2)</f>
+        <v>28.093402937460894</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="5"/>
+        <v>47.307853863975964</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="5"/>
+        <v>67.008276800217487</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="5"/>
+        <v>87.411907533636793</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="5"/>
+        <v>108.71638814103606</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="5"/>
+        <v>131.05862313747423</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="5"/>
+        <v>154.4073448812814</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="5"/>
+        <v>178.28591481444619</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="5"/>
+        <v>201.02483040065243</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="5"/>
+        <v>217.56455900200797</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="5"/>
+        <v>212.06676519009335</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="5"/>
+        <v>127.32729651244767</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="5"/>
+        <v>-314.40239041000882</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="5"/>
+        <v>-3774.9249601161855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G26" s="31">
+        <v>20</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="5"/>
+        <v>26.530905558810169</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="5"/>
+        <v>46.528472643777278</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="5"/>
+        <v>66.954552611031289</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="5"/>
+        <v>88.010572407807288</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="5"/>
+        <v>109.86221866550144</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="5"/>
+        <v>132.58573200828167</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="5"/>
+        <v>156.03474119191961</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="5"/>
+        <v>179.50695572031702</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="5"/>
+        <v>200.8636578330939</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="5"/>
+        <v>213.98025496753354</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="5"/>
+        <v>200.27204721142459</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="5"/>
+        <v>93.941182610706164</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" si="5"/>
+        <v>-420.00554366055462</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="5"/>
+        <v>-4327.1219461137571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="5"/>
+        <v>24.66429842683408</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="5"/>
+        <v>45.422164597011474</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="5"/>
+        <v>66.542780861872743</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="5"/>
+        <v>88.209041098165216</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="5"/>
+        <v>110.55044072588163</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="5"/>
+        <v>133.57576953913056</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="5"/>
+        <v>157.01220689740435</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="5"/>
+        <v>179.9117537966988</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="5"/>
+        <v>199.62834258561819</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="5"/>
+        <v>208.8924439032852</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" si="5"/>
+        <v>186.1817165654673</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="5"/>
+        <v>56.546313652935964</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" si="5"/>
+        <v>-534.51426281294448</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="5"/>
+        <v>-4914.6706046052095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="I28" s="31">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="5"/>
+        <v>22.493581541532578</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="5"/>
+        <v>43.988929723678538</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="5"/>
+        <v>65.772961552741776</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="5"/>
+        <v>88.007313604710504</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="5"/>
+        <v>110.78105432217656</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="5"/>
+        <v>134.02873573002077</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="5"/>
+        <v>157.33974199773559</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="5"/>
+        <v>179.50030904359173</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="5"/>
+        <v>197.31888465822527</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="5"/>
+        <v>202.30112580926323</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="5"/>
+        <v>169.79577325222181</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="5"/>
+        <v>15.142689639136393</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" si="5"/>
+        <v>-657.92854786717839</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="5"/>
+        <v>-5537.5709355905456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="5"/>
+        <v>20.018754902905698</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="5"/>
+        <v>42.2287680237785</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="5"/>
+        <v>64.645094683638376</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="5"/>
+        <v>87.405389927443196</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="5"/>
+        <v>110.55405945438626</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="5"/>
+        <v>133.94463058095249</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="5"/>
+        <v>157.01734649291342</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="5"/>
+        <v>178.27262146099571</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="5"/>
+        <v>193.93528405091524</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="5"/>
+        <v>194.20630068546734</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="5"/>
+        <v>151.11421727168761</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="5"/>
+        <v>-30.269689430692551</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" si="5"/>
+        <v>-790.24839882325637</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="5"/>
+        <v>-6195.8229390697616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="5"/>
+        <v>17.239818510953398</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="5"/>
+        <v>40.141679497311358</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="5"/>
+        <v>63.159180254562656</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="5"/>
+        <v>86.40327006636322</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="5"/>
+        <v>109.8694561225108</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="5"/>
+        <v>133.32345409192561</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="5"/>
+        <v>156.04502038293776</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="5"/>
+        <v>176.22869104891066</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="5"/>
+        <v>189.47754076368795</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="5"/>
+        <v>184.60796853189777</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="5"/>
+        <v>130.13704862386521</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="5"/>
+        <v>-79.690823556550185</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="5"/>
+        <v>-931.47381568117839</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="5"/>
+        <v>-6889.4266150428602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G31" s="31">
+        <v>25</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="5"/>
+        <v>14.156772365675707</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="5"/>
+        <v>37.727664144277114</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="5"/>
+        <v>61.315218265514474</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="5"/>
+        <v>85.00095402147069</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="5"/>
+        <v>108.72724432655002</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="5"/>
+        <v>132.16520626294013</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="5"/>
+        <v>154.42276366780865</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="5"/>
+        <v>173.36851780733676</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="5"/>
+        <v>183.94565479654341</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="5"/>
+        <v>173.50612934855417</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="5"/>
+        <v>106.86426730875428</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="5"/>
+        <v>-133.12071273843708</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="5"/>
+        <v>-1081.6047984409443</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="5"/>
+        <v>-7618.3819635098425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>26</v>
+      </c>
+      <c r="I32" s="31">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="5"/>
+        <v>10.769616467072666</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="5"/>
+        <v>34.986721964675738</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="5"/>
+        <v>59.113208716493929</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="5"/>
+        <v>83.198441792765522</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="5"/>
+        <v>107.12742406650409</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="5"/>
+        <v>130.46988709399602</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="5"/>
+        <v>152.15057634752617</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="5"/>
+        <v>169.69210173627386</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="5"/>
+        <v>177.33962614948183</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="5"/>
+        <v>160.90078313543694</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="5"/>
+        <v>81.295873326355036</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="5"/>
+        <v>-190.55935697635368</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="5"/>
+        <v>-1240.6413471025544</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="5"/>
+        <v>-8382.6889844707075</v>
+      </c>
+    </row>
+    <row r="33" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>27</v>
+      </c>
+      <c r="I33" s="31">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="5"/>
+        <v>7.0783508151442049</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="5"/>
+        <v>31.91885295850723</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="5"/>
+        <v>56.553151607501007</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="5"/>
+        <v>80.995733380247714</v>
+      </c>
+      <c r="N33" s="9">
+        <f t="shared" si="5"/>
+        <v>105.06999534237283</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="5"/>
+        <v>128.23749658509334</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="5"/>
+        <v>149.22845842209003</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="5"/>
+        <v>165.19944283572192</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="5"/>
+        <v>169.65945482250299</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" si="5"/>
+        <v>146.79192989254591</v>
+      </c>
+      <c r="T33" s="9">
+        <f t="shared" si="5"/>
+        <v>53.431866676667028</v>
+      </c>
+      <c r="U33" s="9">
+        <f t="shared" si="5"/>
+        <v>-252.00675627029864</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" si="5"/>
+        <v>-1408.5834616660084</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="5"/>
+        <v>-9182.3476779254597</v>
+      </c>
+    </row>
+    <row r="34" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="5"/>
+        <v>3.0829754098903379</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="5"/>
+        <v>28.524057125771634</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="5"/>
+        <v>53.635046938535652</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="5"/>
+        <v>78.392828783917309</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="5"/>
+        <v>102.55495815415642</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="5"/>
+        <v>125.46803473623211</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="5"/>
+        <v>145.6564098915006</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="5"/>
+        <v>159.89054110568111</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="5"/>
+        <v>160.90514081560696</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="5"/>
+        <v>131.17956961988114</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" si="5"/>
+        <v>23.27224735969105</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" si="5"/>
+        <v>-317.46291062027285</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" si="5"/>
+        <v>-1585.4311421313075</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="5"/>
+        <v>-10017.358043874086</v>
+      </c>
+    </row>
+    <row r="35" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>29</v>
+      </c>
+      <c r="I35" s="31">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.2165097486888783</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="5"/>
+        <v>24.80233446646892</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="5"/>
+        <v>50.358894709597934</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="5"/>
+        <v>75.389728003774309</v>
+      </c>
+      <c r="N35" s="9">
+        <f t="shared" si="5"/>
+        <v>99.582312501854773</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="5"/>
+        <v>122.16150154741226</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="5"/>
+        <v>141.43443075575766</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="5"/>
+        <v>153.76539654615141</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="5"/>
+        <v>151.07668412879377</v>
+      </c>
+      <c r="S35" s="9">
+        <f t="shared" si="5"/>
+        <v>114.06370231744222</v>
+      </c>
+      <c r="T35" s="9">
+        <f t="shared" si="5"/>
+        <v>-9.182984624573578</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" si="5"/>
+        <v>-386.92782002627632</v>
+      </c>
+      <c r="V35" s="9">
+        <f t="shared" si="5"/>
+        <v>-1771.1843884984489</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" si="5"/>
+        <v>-10887.720082316602</v>
+      </c>
+    </row>
+    <row r="36" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G36" s="31">
+        <v>30</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="5"/>
+        <v>-5.8201046605935289</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="5"/>
+        <v>20.753684980599104</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="5"/>
+        <v>46.724694920687767</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="5"/>
+        <v>71.986431039818683</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="5"/>
+        <v>96.15205838546791</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="5"/>
+        <v>118.31789701863386</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" si="5"/>
+        <v>136.56252101486132</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="5"/>
+        <v>146.82400915713259</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="5"/>
+        <v>140.17408476206344</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="5"/>
+        <v>95.444327985229847</v>
+      </c>
+      <c r="T36" s="9">
+        <f t="shared" si="5"/>
+        <v>-43.933829276126971</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" si="5"/>
+        <v>-460.40148448830882</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" si="5"/>
+        <v>-1965.843200767436</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="5"/>
+        <v>-11793.433793252992</v>
+      </c>
+    </row>
+    <row r="37" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>31</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="5"/>
+        <v>-10.727809325823529</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="5"/>
+        <v>16.378108668162213</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="5"/>
+        <v>42.732447571805295</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="5"/>
+        <v>68.182937892050461</v>
+      </c>
+      <c r="N37" s="9">
+        <f t="shared" si="5"/>
+        <v>92.264195804995779</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="5"/>
+        <v>113.93722114989669</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="5"/>
+        <v>131.04068066881155</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="5"/>
+        <v>139.06637893862495</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="5"/>
+        <v>128.19734271541597</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" si="5"/>
+        <v>75.321446623243673</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="5"/>
+        <v>-80.98028659496822</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" si="5"/>
+        <v>-537.88390400637036</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" si="5"/>
+        <v>-2169.4075789382655</v>
+      </c>
+      <c r="W37" s="9">
+        <f t="shared" si="5"/>
+        <v>-12734.499176683265</v>
+      </c>
+    </row>
+    <row r="38" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="5"/>
+        <v>-15.939623744378963</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="5"/>
+        <v>11.675605529158133</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="5"/>
+        <v>38.382152662950404</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="5"/>
+        <v>63.979248560469614</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="5"/>
+        <v>87.918724760438494</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="5"/>
+        <v>109.01947394120106</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="5"/>
+        <v>124.86890971760823</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="5"/>
+        <v>130.49250589062842</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="5"/>
+        <v>115.14645798885113</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" si="5"/>
+        <v>53.695058231483586</v>
+      </c>
+      <c r="T38" s="9">
+        <f t="shared" si="5"/>
+        <v>-120.32235658109767</v>
+      </c>
+      <c r="U38" s="9">
+        <f t="shared" si="5"/>
+        <v>-619.37507858046138</v>
+      </c>
+      <c r="V38" s="9">
+        <f t="shared" si="5"/>
+        <v>-2381.8775230109404</v>
+      </c>
+      <c r="W38" s="9">
+        <f t="shared" si="5"/>
+        <v>-13710.916232607429</v>
+      </c>
+    </row>
+    <row r="39" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>33</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="5"/>
+        <v>-21.455547916259775</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6461755635870077</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="5"/>
+        <v>33.673810194123092</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="5"/>
+        <v>59.375363045076028</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="5"/>
+        <v>83.115645251795854</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="5"/>
+        <v>103.56465539254685</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="5"/>
+        <v>118.04720816125155</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="5"/>
+        <v>121.10239001314278</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="5"/>
+        <v>101.02143058236925</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" si="5"/>
+        <v>30.56516280994947</v>
+      </c>
+      <c r="T39" s="9">
+        <f t="shared" si="5"/>
+        <v>-161.96003923451644</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" si="5"/>
+        <v>-704.87500821058097</v>
+      </c>
+      <c r="V39" s="9">
+        <f t="shared" si="5"/>
+        <v>-2603.2530329854576</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="5"/>
+        <v>-14722.684961025469</v>
+      </c>
+    </row>
+    <row r="40" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>34</v>
+      </c>
+      <c r="I40" s="31">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="5"/>
+        <v>-27.275581841465964</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2898187714486937</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="5"/>
+        <v>28.607420165323333</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="5"/>
+        <v>54.371281345870017</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="5"/>
+        <v>77.85495727906806</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="5"/>
+        <v>97.572765503934079</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="5"/>
+        <v>110.57557599974126</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="5"/>
+        <v>110.89603130616831</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="5"/>
+        <v>85.82226049597034</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9317603586418954</v>
+      </c>
+      <c r="T40" s="9">
+        <f t="shared" si="5"/>
+        <v>-205.89333455522296</v>
+      </c>
+      <c r="U40" s="9">
+        <f t="shared" si="5"/>
+        <v>-794.38369289673005</v>
+      </c>
+      <c r="V40" s="9">
+        <f t="shared" si="5"/>
+        <v>-2833.5341088618202</v>
+      </c>
+      <c r="W40" s="9">
+        <f t="shared" si="5"/>
+        <v>-15769.805361937395</v>
+      </c>
+    </row>
+    <row r="41" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" ref="J41:W46" si="6">TAN(J$5)*$I41-(0.5*$B$24)*POWER($I41/($B$21*COS(J$5)), 2)</f>
+        <v>-33.39972551999756</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="6"/>
+        <v>-4.3934648472566948</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="6"/>
+        <v>23.18298257655124</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="6"/>
+        <v>48.967003462851238</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" si="6"/>
+        <v>72.136660842255026</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="6"/>
+        <v>91.043804275362675</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" si="6"/>
+        <v>102.45401323307766</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="6"/>
+        <v>99.873429769704671</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="6"/>
+        <v>69.548947729653946</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" si="6"/>
+        <v>-20.205149122439593</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" si="6"/>
+        <v>-252.12224254321791</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="6"/>
+        <v>-887.90113263890839</v>
+      </c>
+      <c r="V41" s="9">
+        <f t="shared" si="6"/>
+        <v>-3072.7207506400264</v>
+      </c>
+      <c r="W41" s="9">
+        <f t="shared" si="6"/>
+        <v>-16852.277435343196</v>
+      </c>
+    </row>
+    <row r="42" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>36</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="6"/>
+        <v>-39.827978951854504</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="6"/>
+        <v>-10.403675292529158</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="6"/>
+        <v>17.400497427806783</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="6"/>
+        <v>43.162529396019977</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="6"/>
+        <v>65.960755941356751</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="6"/>
+        <v>83.977771706832698</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="6"/>
+        <v>93.682519861260459</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="6"/>
+        <v>88.034585403752317</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="6"/>
+        <v>52.201492283420521</v>
+      </c>
+      <c r="S42" s="9">
+        <f t="shared" si="6"/>
+        <v>-47.845565633294882</v>
+      </c>
+      <c r="T42" s="9">
+        <f t="shared" si="6"/>
+        <v>-300.64676319850196</v>
+      </c>
+      <c r="U42" s="9">
+        <f t="shared" si="6"/>
+        <v>-985.42732743711554</v>
+      </c>
+      <c r="V42" s="9">
+        <f t="shared" si="6"/>
+        <v>-3320.8129583200775</v>
+      </c>
+      <c r="W42" s="9">
+        <f t="shared" si="6"/>
+        <v>-17970.101181242891</v>
+      </c>
+    </row>
+    <row r="43" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>37</v>
+      </c>
+      <c r="I43" s="31">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="6"/>
+        <v>-46.56034213703694</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="6"/>
+        <v>-16.740812564368753</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="6"/>
+        <v>11.259964719089879</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="6"/>
+        <v>36.957859145376005</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="6"/>
+        <v>59.327242576373294</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="6"/>
+        <v>76.374667798344149</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="6"/>
+        <v>84.26109588429</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="6"/>
+        <v>75.379498208310906</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="6"/>
+        <v>33.779894157269837</v>
+      </c>
+      <c r="S43" s="9">
+        <f t="shared" si="6"/>
+        <v>-76.989489173923971</v>
+      </c>
+      <c r="T43" s="9">
+        <f t="shared" si="6"/>
+        <v>-351.46689652107375</v>
+      </c>
+      <c r="U43" s="9">
+        <f t="shared" si="6"/>
+        <v>-1086.9622772913515</v>
+      </c>
+      <c r="V43" s="9">
+        <f t="shared" si="6"/>
+        <v>-3577.81073190197</v>
+      </c>
+      <c r="W43" s="9">
+        <f t="shared" si="6"/>
+        <v>-19123.276599636458</v>
+      </c>
+    </row>
+    <row r="44" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>38</v>
+      </c>
+      <c r="I44" s="31">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="6"/>
+        <v>-53.596815075544697</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="6"/>
+        <v>-23.404876662775507</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="6"/>
+        <v>4.7613844504006124</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="6"/>
+        <v>30.352992710919523</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="6"/>
+        <v>52.236120747304597</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="6"/>
+        <v>68.234492549896913</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="6"/>
+        <v>74.189741302165942</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="6"/>
+        <v>61.908168183380553</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="6"/>
+        <v>14.284153351201894</v>
+      </c>
+      <c r="S44" s="9">
+        <f t="shared" si="6"/>
+        <v>-107.63691974432686</v>
+      </c>
+      <c r="T44" s="9">
+        <f t="shared" si="6"/>
+        <v>-404.58264251093397</v>
+      </c>
+      <c r="U44" s="9">
+        <f t="shared" si="6"/>
+        <v>-1192.5059822016176</v>
+      </c>
+      <c r="V44" s="9">
+        <f t="shared" si="6"/>
+        <v>-3843.7140713857093</v>
+      </c>
+      <c r="W44" s="9">
+        <f t="shared" si="6"/>
+        <v>-20311.803690523917</v>
+      </c>
+    </row>
+    <row r="45" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>39</v>
+      </c>
+      <c r="I45" s="31">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="6"/>
+        <v>-60.937397767377803</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" si="6"/>
+        <v>-30.395867587749251</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="6"/>
+        <v>-2.0952433782609887</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="6"/>
+        <v>23.347930092650302</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="6"/>
+        <v>44.687390454150659</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="6"/>
+        <v>59.557245961491105</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" si="6"/>
+        <v>63.468456114888511</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="6"/>
+        <v>47.620595328961258</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="6"/>
+        <v>-6.2857301347830798</v>
+      </c>
+      <c r="S45" s="9">
+        <f t="shared" si="6"/>
+        <v>-139.78785734450355</v>
+      </c>
+      <c r="T45" s="9">
+        <f t="shared" si="6"/>
+        <v>-459.99400116808306</v>
+      </c>
+      <c r="U45" s="9">
+        <f t="shared" si="6"/>
+        <v>-1302.0584421679121</v>
+      </c>
+      <c r="V45" s="9">
+        <f t="shared" si="6"/>
+        <v>-4118.5229767712917</v>
+      </c>
+      <c r="W45" s="9">
+        <f t="shared" si="6"/>
+        <v>-21535.68245390525</v>
+      </c>
+    </row>
+    <row r="46" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="I46" s="31">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="6"/>
+        <v>-68.582090212536457</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="6"/>
+        <v>-37.713785339290212</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="6"/>
+        <v>-9.3099187668951799</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="6"/>
+        <v>15.942671290568512</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="6"/>
+        <v>36.681051696911425</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="6"/>
+        <v>50.342928033126725</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" si="6"/>
+        <v>52.097240322457651</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="6"/>
+        <v>32.516779645053134</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="6"/>
+        <v>-27.929756300685312</v>
+      </c>
+      <c r="S46" s="9">
+        <f t="shared" si="6"/>
+        <v>-173.44230197445404</v>
+      </c>
+      <c r="T46" s="9">
+        <f t="shared" si="6"/>
+        <v>-517.70097249252012</v>
+      </c>
+      <c r="U46" s="9">
+        <f t="shared" si="6"/>
+        <v>-1415.6196571902367</v>
+      </c>
+      <c r="V46" s="9">
+        <f t="shared" si="6"/>
+        <v>-4402.2374480587177</v>
+      </c>
+      <c r="W46" s="9">
+        <f t="shared" si="6"/>
+        <v>-22794.912889780473</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J6:W46">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>68</formula>
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72D1B9-AB1F-4E81-B4BB-AF8902B9204F}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -7658,7 +10669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60D84D8-D7E0-465A-92B3-61F1DC1412F6}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -7837,12 +10848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7A684-C6B9-48D0-BA62-41E5059F4BE2}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9823,7 +12834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9760CE-2D6D-4E8B-AFF0-30C50443C3C8}">
   <dimension ref="A2:F7"/>
   <sheetViews>

--- a/Power Cell Ballistics.xlsx
+++ b/Power Cell Ballistics.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Code\FRC\2020-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB21084-DF51-4B65-A110-68483B7EC77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{016291A1-D604-48DD-8F52-77BB33D6DD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Height" sheetId="2" r:id="rId1"/>
     <sheet name="Ballistics" sheetId="7" r:id="rId2"/>
     <sheet name="Ballistics2" sheetId="11" r:id="rId3"/>
-    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId4"/>
-    <sheet name="Distance" sheetId="3" r:id="rId5"/>
-    <sheet name="Defense" sheetId="8" r:id="rId6"/>
-    <sheet name="Locations" sheetId="9" r:id="rId7"/>
-    <sheet name="Plot Data" sheetId="1" r:id="rId8"/>
-    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId9"/>
+    <sheet name="Ballistics3" sheetId="12" r:id="rId4"/>
+    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId5"/>
+    <sheet name="Distance" sheetId="3" r:id="rId6"/>
+    <sheet name="Defense" sheetId="8" r:id="rId7"/>
+    <sheet name="Locations" sheetId="9" r:id="rId8"/>
+    <sheet name="Plot Data" sheetId="1" r:id="rId9"/>
+    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="86">
   <si>
     <t>2020 FRC - Infinite Recharge</t>
   </si>
@@ -256,13 +258,61 @@
     <t>distance (in)</t>
   </si>
   <si>
-    <t>angle(radians)</t>
-  </si>
-  <si>
     <t>in/sec</t>
   </si>
   <si>
     <t>Heights</t>
+  </si>
+  <si>
+    <t>Target distance</t>
+  </si>
+  <si>
+    <t>Motor Max Speed (rpm)</t>
+  </si>
+  <si>
+    <t>Software Speed Limit (%)</t>
+  </si>
+  <si>
+    <t>Objective: Input Distance, Determine Optimal Angle and Speed</t>
+  </si>
+  <si>
+    <t>Ball Speed accounting for loss</t>
+  </si>
+  <si>
+    <r>
+      <t>speed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="TI-Nspire Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+  </si>
+  <si>
+    <t>angle ►</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Height range</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>▼</t>
   </si>
 </sst>
 </file>
@@ -273,7 +323,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +369,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TI-Nspire Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +402,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -443,11 +512,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,6 +637,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,14 +675,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -522,16 +691,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6416,8 +6581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A071DE-853C-4645-838D-52D3EBDAE5F1}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7081,11 +7246,11 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="G28" s="3">
         <v>2</v>
       </c>
@@ -7618,10 +7783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9359CD4-8DEB-4F2A-87C8-9FF228A68946}">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A2" zoomScale="71" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7632,158 +7797,147 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J3" s="31">
-        <v>20</v>
-      </c>
-      <c r="K3" s="31">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J3" s="28">
         <v>25</v>
       </c>
-      <c r="L3" s="31">
+      <c r="K3" s="28">
         <v>30</v>
       </c>
-      <c r="M3" s="31">
+      <c r="L3" s="28">
         <v>35</v>
       </c>
-      <c r="N3" s="31">
+      <c r="M3" s="28">
         <v>40</v>
       </c>
-      <c r="O3" s="31">
+      <c r="N3" s="28">
         <v>45</v>
       </c>
-      <c r="P3" s="31">
+      <c r="O3" s="28">
         <v>50</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="P3" s="28">
         <v>55</v>
       </c>
-      <c r="R3" s="31">
+      <c r="Q3" s="28">
         <v>60</v>
       </c>
-      <c r="S3" s="31">
+      <c r="R3" s="28">
         <v>65</v>
       </c>
-      <c r="T3" s="31">
+      <c r="S3" s="28">
         <v>70</v>
       </c>
-      <c r="U3" s="31">
+      <c r="T3" s="28">
         <v>75</v>
       </c>
-      <c r="V3" s="31">
+      <c r="U3" s="28">
         <v>80</v>
       </c>
-      <c r="W3" s="31">
+      <c r="V3" s="28">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="J4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-    </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="31">
-        <f>RADIANS(J3)</f>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="K5" s="31">
-        <f t="shared" ref="K5:W5" si="0">RADIANS(K3)</f>
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+    </row>
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="28">
+        <f t="shared" ref="J5:V5" si="0">RADIANS(J3)</f>
         <v>0.43633231299858238</v>
       </c>
-      <c r="L5" s="31">
+      <c r="K5" s="28">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="M5" s="31">
+      <c r="L5" s="28">
         <f t="shared" si="0"/>
         <v>0.6108652381980153</v>
       </c>
-      <c r="N5" s="31">
+      <c r="M5" s="28">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="O5" s="31">
+      <c r="N5" s="28">
         <f t="shared" si="0"/>
         <v>0.78539816339744828</v>
       </c>
-      <c r="P5" s="31">
+      <c r="O5" s="28">
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="P5" s="28">
         <f t="shared" si="0"/>
         <v>0.95993108859688125</v>
       </c>
-      <c r="R5" s="31">
+      <c r="Q5" s="28">
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="S5" s="31">
+      <c r="R5" s="28">
         <f t="shared" si="0"/>
         <v>1.1344640137963142</v>
       </c>
-      <c r="T5" s="31">
+      <c r="S5" s="28">
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="U5" s="31">
+      <c r="T5" s="28">
         <f t="shared" si="0"/>
         <v>1.3089969389957472</v>
       </c>
-      <c r="V5" s="31">
+      <c r="U5" s="28">
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="W5" s="31">
+      <c r="V5" s="28">
         <f t="shared" si="0"/>
         <v>1.4835298641951802</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <f>G6*12</f>
         <v>0</v>
       </c>
@@ -7792,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" ref="K6:W7" si="1">TAN(K$5)*$I6-(0.5*$B$24)*POWER($I6/($B$21*COS(K$5)), 2)</f>
+        <f t="shared" ref="J6:V7" si="1">TAN(K$5)*$I6-(0.5*$B$24)*POWER($I6/($B$21*COS(K$5)), 2)</f>
         <v>0</v>
       </c>
       <c r="L6" s="9">
@@ -7839,12 +7993,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -7863,68 +8013,64 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="28">
         <f t="shared" ref="I7:I46" si="2">G7*12</f>
         <v>12</v>
       </c>
       <c r="J7" s="9">
-        <f>TAN(J$5)*$I7-(0.5*$B$24)*POWER($I7/($B$21*COS(J$5)), 2)</f>
-        <v>4.2155879345317322</v>
+        <f t="shared" si="1"/>
+        <v>5.3050902742447725</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="1"/>
-        <v>5.4322284845764273</v>
+        <v>6.6099387325222692</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>6.7491794502893114</v>
+        <v>8.0467605173497478</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="1"/>
-        <v>8.2023923666102103</v>
+        <v>9.6624324949404894</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="1"/>
-        <v>9.8403913420847449</v>
+        <v>11.522603253370139</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>11.731464330020703</v>
+        <v>13.723327017660782</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>13.976077808553793</v>
+        <v>16.412226899137416</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="1"/>
-        <v>16.729654666160897</v>
+        <v>19.829816197566803</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>20.247538350867931</v>
+        <v>24.397632352982438</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="1"/>
-        <v>24.982329531227805</v>
+        <v>30.929184440310195</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="1"/>
-        <v>31.821922699811246</v>
+        <v>41.221271863245086</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="1"/>
-        <v>42.78023216281197</v>
+        <v>60.139323255995571</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="1"/>
-        <v>63.602598884490462</v>
-      </c>
-      <c r="W7" s="9">
-        <f t="shared" si="1"/>
-        <v>119.48479138619498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>105.73691874968517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <f>B7*12+D7</f>
         <v>98.25</v>
@@ -7935,133 +8081,125 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="28">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" ref="J8:W23" si="3">TAN(J$5)*$I8-(0.5*$B$24)*POWER($I8/($B$21*COS(J$5)), 2)</f>
-        <v>8.1270661157380726</v>
+        <f t="shared" ref="J8:V23" si="3">TAN(J$5)*$I8-(0.5*$B$24)*POWER($I8/($B$21*COS(J$5)), 2)</f>
+        <v>10.028977301259124</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>10.537530142585743</v>
+        <v>12.583348469538061</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
-        <v>13.140311340606228</v>
+        <v>15.382061152365958</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>16.004588549407806</v>
+        <v>18.511338831507238</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>19.22317422008426</v>
+        <v>22.090413013480561</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>22.925857320082812</v>
+        <v>26.291221848382094</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>27.302225011954132</v>
+        <v>31.373355434738915</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>32.643066502832838</v>
+        <v>37.75004540861417</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>39.420934021818674</v>
+        <v>46.122363319700334</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="3"/>
-        <v>48.461152032681802</v>
+        <v>57.777279694329863</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="3"/>
-        <v>61.348232732334068</v>
+        <v>75.315868071327287</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>81.551709269594809</v>
+        <v>104.44652935315733</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="3"/>
-        <v>118.29963186713691</v>
-      </c>
-      <c r="W8" s="9">
-        <f t="shared" si="3"/>
-        <v>203.61791027850757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>148.62641973246832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="28">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="3"/>
-        <v>11.73443454361902</v>
+        <v>14.171661081043055</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>15.315904974027946</v>
+        <v>17.920229211047374</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="3"/>
-        <v>19.173395670950754</v>
+        <v>22.005901905048628</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>23.406588548392779</v>
+        <v>26.546719009700251</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>28.148348633998552</v>
+        <v>31.703429280331264</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="3"/>
-        <v>33.583178970186331</v>
+        <v>37.70368449216393</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="3"/>
-        <v>39.978441610201017</v>
+        <v>44.883385606804502</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="3"/>
-        <v>47.740235510015836</v>
+        <v>53.760687633142098</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="3"/>
-        <v>57.52018701285224</v>
+        <v>65.174192900153699</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="3"/>
-        <v>70.436467504362</v>
+        <v>80.544285762059005</v>
       </c>
       <c r="T9" s="9">
         <f t="shared" si="3"/>
-        <v>88.578930097568474</v>
+        <v>102.28378862424663</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="3"/>
-        <v>116.31443132034855</v>
+        <v>132.92161829148529</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="3"/>
-        <v>164.09109894793934</v>
-      </c>
-      <c r="W9" s="9">
-        <f t="shared" si="3"/>
-        <v>252.3993566769378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>128.6685029483495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -8074,134 +8212,126 @@
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="28">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="3"/>
-        <v>15.037693218174578</v>
+        <v>17.733141613596565</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>19.767352978903038</v>
+        <v>22.620580957050208</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="3"/>
-        <v>24.848432441322881</v>
+        <v>27.918282775397767</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>30.408392363565149</v>
+        <v>33.768573029519523</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>36.61591458382761</v>
+        <v>40.361652053922249</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="3"/>
-        <v>43.703429280331264</v>
+        <v>47.960714949006288</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="3"/>
-        <v>52.004727603294448</v>
+        <v>56.942317415334166</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="3"/>
-        <v>62.021161687709871</v>
+        <v>67.861742871150597</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="3"/>
-        <v>74.545297323968626</v>
+        <v>81.553121094342515</v>
       </c>
       <c r="S10" s="9">
         <f t="shared" si="3"/>
-        <v>90.908275946268404</v>
+        <v>99.230202643497606</v>
       </c>
       <c r="T10" s="9">
         <f t="shared" si="3"/>
-        <v>113.51401479551446</v>
+        <v>122.12503352200305</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="3"/>
-        <v>147.06839831507313</v>
+        <v>145.56459007097939</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="3"/>
-        <v>200.97700012689774</v>
-      </c>
-      <c r="W10" s="9">
-        <f t="shared" si="3"/>
-        <v>265.82913058148557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="G11" s="31">
+        <v>45.863168397328593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="28">
         <v>5</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31">
+      <c r="H11" s="28"/>
+      <c r="I11" s="28">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>18.03684213940474</v>
+        <v>20.713418898919652</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>23.891874157211017</v>
+        <v>26.684403707546558</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="3"/>
-        <v>30.16542165172261</v>
+        <v>33.119203763413353</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>37.00999999492489</v>
+        <v>40.176900890965044</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="3"/>
-        <v>44.625872069571436</v>
+        <v>48.06508133425352</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="3"/>
-        <v>53.286608250517602</v>
+        <v>57.062313218909182</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="3"/>
-        <v>63.381082991234422</v>
+        <v>67.550150860327932</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="3"/>
-        <v>75.485845035914963</v>
+        <v>80.053211122639667</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="3"/>
-        <v>90.496264955167831</v>
+        <v>95.259147902266818</v>
       </c>
       <c r="S11" s="9">
         <f t="shared" si="3"/>
-        <v>109.87657735840099</v>
+        <v>113.83503033864571</v>
       </c>
       <c r="T11" s="9">
         <f t="shared" si="3"/>
-        <v>136.15348682617201</v>
+        <v>134.83960276459663</v>
       </c>
       <c r="U11" s="9">
         <f t="shared" si="3"/>
-        <v>173.81361025376864</v>
+        <v>142.3754446916397</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="3"/>
-        <v>228.95733540401216</v>
-      </c>
-      <c r="W11" s="9">
-        <f t="shared" si="3"/>
-        <v>243.90723199215091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-99.789583920594396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
@@ -8215,133 +8345,125 @@
       <c r="G12">
         <v>6</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="28">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>20.731881307309514</v>
+        <v>23.11249293701232</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>27.689468508951887</v>
+        <v>30.111697462536441</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>35.124363302149959</v>
+        <v>37.608664869095414</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>43.211411442472027</v>
+        <v>45.771702594036846</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="3"/>
-        <v>52.178221091230043</v>
+        <v>54.813717121325062</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="3"/>
-        <v>62.33271588074534</v>
+        <v>65.008479301872597</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="3"/>
-        <v>74.107507774020945</v>
+        <v>76.706885941785771</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="3"/>
-        <v>88.134285554631091</v>
+        <v>90.335092387609279</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="3"/>
-        <v>105.37308990644985</v>
+        <v>106.29227332392657</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="3"/>
-        <v>127.34137174075978</v>
+        <v>124.35876884750324</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="3"/>
-        <v>156.49734618954113</v>
+        <v>140.4274963520273</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="3"/>
-        <v>196.55006713643499</v>
+        <v>123.35418215346624</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="3"/>
-        <v>248.03210477928249</v>
-      </c>
-      <c r="W12" s="9">
-        <f t="shared" si="3"/>
-        <v>186.63366090893408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-308.28975400541913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>7</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="28">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>23.122810721888893</v>
+        <v>24.930363727874564</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>31.160136034125635</v>
+        <v>32.902462222019835</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="3"/>
-        <v>39.725257392604902</v>
+        <v>41.386666092443939</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>49.012626706206547</v>
+        <v>50.552978138734886</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="3"/>
-        <v>59.27296164880341</v>
+        <v>60.60755941513689</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="3"/>
-        <v>70.841752171014491</v>
+        <v>71.799213197896535</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="3"/>
-        <v>84.184001951654011</v>
+        <v>84.41252265970769</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="3"/>
-        <v>99.966483243858278</v>
+        <v>98.707386666059463</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="3"/>
-        <v>119.17577217781466</v>
+        <v>114.65249735932177</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="3"/>
-        <v>143.30265909334477</v>
+        <v>130.80141817007024</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="3"/>
-        <v>174.54559288562186</v>
+        <v>138.88871428429508</v>
       </c>
       <c r="U13" s="9">
         <f t="shared" si="3"/>
-        <v>215.27776896307222</v>
+        <v>88.500802456458928</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="3"/>
-        <v>258.20130825270883</v>
-      </c>
-      <c r="W13" s="9">
-        <f t="shared" si="3"/>
-        <v>94.008417331834607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-579.637341857146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -8354,77 +8476,73 @@
       <c r="G14">
         <v>8</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="28">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="3"/>
-        <v>25.209630383142883</v>
+        <v>26.167031271506389</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>34.303876732732284</v>
+        <v>35.056697985996756</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="3"/>
-        <v>43.968103923087455</v>
+        <v>44.453207433458928</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>54.413645786128455</v>
+        <v>54.520727525059208</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="3"/>
-        <v>65.910093742291565</v>
+        <v>65.446608215689011</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="3"/>
-        <v>78.813717121325055</v>
+        <v>77.434514906981008</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="3"/>
-        <v>93.610565524133634</v>
+        <v>90.66706101409369</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="3"/>
-        <v>110.98243810359651</v>
+        <v>105.17009395799022</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="3"/>
-        <v>131.90431176926234</v>
+        <v>120.33982000845245</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="3"/>
-        <v>157.76043941615595</v>
+        <v>133.16297830634676</v>
       </c>
       <c r="T14" s="9">
         <f t="shared" si="3"/>
-        <v>190.29822691441416</v>
+        <v>130.22325656139998</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="3"/>
-        <v>229.99671573368033</v>
+        <v>37.815305600617762</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="3"/>
-        <v>259.46494582429108</v>
-      </c>
-      <c r="W14" s="9">
-        <f t="shared" si="3"/>
-        <v>-33.968498739147208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-913.83234747577512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="12">
         <f>C15*D15</f>
-        <v>6380</v>
+        <v>4785</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D15">
         <v>6380</v>
@@ -8432,68 +8550,64 @@
       <c r="G15">
         <v>9</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="28">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="3"/>
-        <v>26.992340291071486</v>
+        <v>26.82249556790779</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>37.120690604771809</v>
+        <v>36.574404754467196</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="3"/>
-        <v>47.852902893597609</v>
+        <v>46.808288892140354</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>59.414468682237739</v>
+        <v>57.674950753009767</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="3"/>
-        <v>72.089617371694459</v>
+        <v>69.330863522981417</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="3"/>
-        <v>86.248610731677033</v>
+        <v>81.914384429125988</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="3"/>
-        <v>102.38719849145978</v>
+        <v>95.470501004943785</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="3"/>
-        <v>121.18215013384579</v>
+        <v>109.72321426340156</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="3"/>
-        <v>143.55870868079279</v>
+        <v>123.35424127131854</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="3"/>
-        <v>170.71471270919329</v>
+        <v>131.44344925633271</v>
       </c>
       <c r="T15" s="9">
         <f t="shared" si="3"/>
-        <v>203.75524827591795</v>
+        <v>114.43112318334209</v>
       </c>
       <c r="U15" s="9">
         <f t="shared" si="3"/>
-        <v>240.70690744825939</v>
+        <v>-28.702308414057143</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="3"/>
-        <v>251.82301749402939</v>
-      </c>
-      <c r="W15" s="9">
-        <f t="shared" si="3"/>
-        <v>-197.29708730401148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-1310.8747708613062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -8504,72 +8618,68 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="28">
         <v>10</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31">
+      <c r="H16" s="28"/>
+      <c r="I16" s="28">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>28.470940445674685</v>
+        <v>26.896756617078776</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>39.610577650244238</v>
+        <v>37.455582527431154</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="3"/>
-        <v>51.379654304135364</v>
+        <v>48.451910468488265</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>64.015095394534399</v>
+        <v>60.015647822586594</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="3"/>
-        <v>77.811532537012155</v>
+        <v>72.260325337014081</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="3"/>
-        <v>93.14643300207041</v>
+        <v>85.238821764331519</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="3"/>
-        <v>110.51390085363249</v>
+        <v>98.822842632258002</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="3"/>
-        <v>130.56561933460614</v>
+        <v>112.36674758229343</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="3"/>
-        <v>154.1389629124061</v>
+        <v>123.69576114792019</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="3"/>
-        <v>182.16547897245692</v>
+        <v>125.64283102002821</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="3"/>
-        <v>214.91665697013346</v>
+        <v>91.512314150121199</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="3"/>
-        <v>247.40834410680921</v>
+        <v>-111.05203958756601</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="3"/>
-        <v>235.27552326192375</v>
-      </c>
-      <c r="W16" s="9">
-        <f t="shared" si="3"/>
-        <v>-395.97734836275822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-1770.7646120137395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -8579,139 +8689,131 @@
       <c r="G17">
         <v>11</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="28">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>29.6454308469525</v>
+        <v>26.389814419019338</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>41.773537869149543</v>
+        <v>37.700231304888639</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="3"/>
-        <v>54.548358154700743</v>
+        <v>49.38407216250264</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>68.215525923018475</v>
+        <v>61.542818733789687</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="3"/>
-        <v>83.075839238244612</v>
+        <v>74.234993657787044</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="3"/>
-        <v>99.507183932505171</v>
+        <v>87.407826912597571</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="3"/>
-        <v>117.99067261065176</v>
+        <v>100.72408589603623</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="3"/>
-        <v>139.13284570587749</v>
+        <v>113.10069391466587</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="3"/>
-        <v>163.64507446410218</v>
+        <v>121.36437963825722</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="3"/>
-        <v>192.11273820594667</v>
+        <v>115.76112359743303</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="3"/>
-        <v>223.78245299706049</v>
+        <v>61.466829461737518</v>
       </c>
       <c r="U17" s="9">
         <f t="shared" si="3"/>
-        <v>250.10102570933003</v>
+        <v>-209.23388791990851</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="3"/>
-        <v>209.82246312797406</v>
-      </c>
-      <c r="W17" s="9">
-        <f t="shared" si="3"/>
-        <v>-630.00928191538742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-2293.5018709330743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>12</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="28">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>30.515811494904916</v>
+        <v>25.301668973729484</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>43.609571261487744</v>
+        <v>37.30835108683965</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="3"/>
-        <v>57.359014445293724</v>
+        <v>49.604773974183459</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>72.015760267689899</v>
+        <v>62.256463486619062</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="3"/>
-        <v>87.882537475391857</v>
+        <v>75.254868485300278</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="3"/>
-        <v>105.33086352298139</v>
+        <v>88.421399873924145</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="3"/>
-        <v>124.81751376251756</v>
+        <v>101.17423079627861</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="3"/>
-        <v>146.88382924765989</v>
+        <v>111.92505326051887</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="3"/>
-        <v>172.07704333588111</v>
+        <v>116.36009674232977</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="3"/>
-        <v>200.55649040966267</v>
+        <v>101.79832698854744</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="3"/>
-        <v>230.35263635669907</v>
+        <v>24.294669118190882</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="3"/>
-        <v>248.78495225582162</v>
+        <v>-323.24785341108475</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="3"/>
-        <v>175.46383709218026</v>
-      </c>
-      <c r="W18" s="9">
-        <f t="shared" si="3"/>
-        <v>-899.39288796189794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-2879.0865476193107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="13">
         <f>B15*B16</f>
-        <v>120260.16677941728</v>
+        <v>90195.125084562955</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -8719,74 +8821,70 @@
       <c r="G19">
         <v>13</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="28">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>31.082082389531948</v>
+        <v>23.632320281209182</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>45.118677827258821</v>
+        <v>36.279941873284166</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="3"/>
-        <v>59.811623175914292</v>
+        <v>49.114015903530763</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>75.41579842854874</v>
+        <v>62.15658208107466</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="3"/>
-        <v>92.231627248453862</v>
+        <v>75.319949819553813</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="3"/>
-        <v>110.61747177349899</v>
+        <v>88.279540648311269</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="3"/>
-        <v>130.99442430922994</v>
+        <v>100.17327733298504</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="3"/>
-        <v>153.81856995995338</v>
+        <v>108.83982561985243</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="3"/>
-        <v>179.43486952774282</v>
+        <v>108.68291246013774</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="3"/>
-        <v>207.49673558360479</v>
+        <v>83.754441193371235</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="3"/>
-        <v>234.62720704904925</v>
+        <v>-20.004166880518596</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" si="3"/>
-        <v>243.46012374628401</v>
+        <v>-453.09393606109506</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="3"/>
-        <v>132.19964515454251</v>
-      </c>
-      <c r="W19" s="9">
-        <f t="shared" si="3"/>
-        <v>-1204.1281665022918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-3527.5186420724494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="15">
         <f>($B$17*B19)/(12*60)</f>
-        <v>37.915358137399615</v>
+        <v>28.436518603049713</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -8794,206 +8892,194 @@
       <c r="G20">
         <v>14</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="28">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>31.34424353083358</v>
+        <v>21.381768341458496</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>46.300857566462788</v>
+        <v>34.615003664222229</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="3"/>
-        <v>61.906184346562476</v>
+        <v>47.911797950544525</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>78.415640405594942</v>
+        <v>61.243174517156532</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="3"/>
-        <v>96.123108557430612</v>
+        <v>74.430237660547604</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="3"/>
-        <v>115.36700868405802</v>
+        <v>86.982249235758857</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="3"/>
-        <v>136.52140425078878</v>
+        <v>97.721225506155548</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="3"/>
-        <v>159.93706784275787</v>
+        <v>103.84501099266657</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="3"/>
-        <v>185.71855303968738</v>
+        <v>98.332826791681214</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="3"/>
-        <v>212.93347372777322</v>
+        <v>61.629466211904514</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="3"/>
-        <v>236.60616507411098</v>
+        <v>-71.429678534391087</v>
       </c>
       <c r="U20" s="9">
         <f t="shared" si="3"/>
-        <v>234.12654018071748</v>
+        <v>-598.77213586993901</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="3"/>
-        <v>80.029887315060478</v>
-      </c>
-      <c r="W20" s="9">
-        <f t="shared" si="3"/>
-        <v>-1544.2151175365682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-4238.7981542924908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>B20*12</f>
-        <v>454.9842976487954</v>
+        <v>341.23822323659658</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="31">
+        <v>71</v>
+      </c>
+      <c r="G21" s="28">
         <v>15</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31">
+      <c r="H21" s="28"/>
+      <c r="I21" s="28">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>31.302294918809828</v>
+        <v>18.550013154477355</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>47.156110479099645</v>
+        <v>32.313536459653776</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="3"/>
-        <v>63.642697957238255</v>
+        <v>45.998120115224722</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>81.015286198828548</v>
+        <v>59.516240794864643</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="3"/>
-        <v>99.556981402322165</v>
+        <v>72.58573200828171</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="3"/>
-        <v>119.57947425465845</v>
+        <v>84.52952563626701</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="3"/>
-        <v>141.39845358719424</v>
+        <v>93.818075315790139</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="3"/>
-        <v>165.23932289607342</v>
+        <v>96.940609378961256</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="3"/>
-        <v>190.92809387171476</v>
+        <v>85.3098397369601</v>
       </c>
       <c r="S21" s="9">
         <f t="shared" si="3"/>
-        <v>216.86670484216774</v>
+        <v>35.423402044147394</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="3"/>
-        <v>236.2895104318842</v>
+        <v>-129.98186584342614</v>
       </c>
       <c r="U21" s="9">
         <f t="shared" si="3"/>
-        <v>220.78420155912175</v>
+        <v>-760.28245283761657</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="3"/>
-        <v>18.954563573734617</v>
-      </c>
-      <c r="W21" s="9">
-        <f t="shared" si="3"/>
-        <v>-1919.653741064727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-5012.9250842794336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>16</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="28">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>30.956236553460684</v>
+        <v>15.137054720265823</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>47.684436565169399</v>
+        <v>29.375540259578884</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="3"/>
-        <v>65.021164007941678</v>
+        <v>43.37298239757142</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>83.214735808249543</v>
+        <v>56.975780914199078</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>102.53324578312851</v>
+        <v>69.786432862756087</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="3"/>
-        <v>123.25486848530025</v>
+        <v>80.921369849835685</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="3"/>
-        <v>145.62557231844622</v>
+        <v>88.463826761888839</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="3"/>
-        <v>169.72533511990008</v>
+        <v>88.126620778736566</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="3"/>
-        <v>195.06349202382495</v>
+        <v>69.613951295974516</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="3"/>
-        <v>219.29642892678854</v>
+        <v>5.1362486900997055</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="3"/>
-        <v>233.67724312236925</v>
+        <v>-195.66072880762454</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="3"/>
-        <v>203.43310788149688</v>
+        <v>-937.62488696412856</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="3"/>
-        <v>-51.026326069435299</v>
-      </c>
-      <c r="W22" s="9">
-        <f t="shared" si="3"/>
-        <v>-2330.4440370867678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-5849.8994320332795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -9006,68 +9092,64 @@
       <c r="G23">
         <v>17</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="28">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="J23" s="9">
-        <f>TAN(J$5)*$I23-(0.5*$B$24)*POWER($I23/($B$21*COS(J$5)), 2)</f>
-        <v>30.306068434786148</v>
+        <f t="shared" si="3"/>
+        <v>11.142893038823843</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>47.885835824672029</v>
+        <v>25.801015063997482</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="3"/>
-        <v>66.041582498672653</v>
+        <v>40.036384797584546</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="3"/>
-        <v>85.013989233857899</v>
+        <v>53.621794875159708</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="3"/>
-        <v>105.05190169984957</v>
+        <v>66.032340223970721</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="3"/>
-        <v>126.39319137598351</v>
+        <v>76.157781876464924</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="3"/>
-        <v>149.20276044454474</v>
+        <v>81.65847984445162</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="3"/>
-        <v>173.39510451423774</v>
+        <v>77.403045191992419</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="3"/>
-        <v>198.12474749601802</v>
+        <v>51.245161468724291</v>
       </c>
       <c r="S23" s="9">
         <f t="shared" si="3"/>
-        <v>220.22264598163545</v>
+        <v>-29.231993850238609</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="3"/>
-        <v>228.76936314556565</v>
+        <v>-268.46626742698561</v>
       </c>
       <c r="U23" s="9">
         <f t="shared" si="3"/>
-        <v>182.07325914784303</v>
+        <v>-1130.7994382494737</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="3"/>
-        <v>-129.91278161444893</v>
-      </c>
-      <c r="W23" s="9">
-        <f t="shared" si="3"/>
-        <v>-2776.5860056026913</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-6749.7211975540276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>B23*12</f>
         <v>386.04</v>
@@ -9078,1503 +9160,1411 @@
       <c r="G24">
         <v>18</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="28">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="J24" s="9">
-        <f>TAN(J$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(J$5)), 2)</f>
-        <v>29.351790562786228</v>
+        <f t="shared" ref="J24:V24" si="4">TAN(J$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(J$5)), 2)</f>
+        <v>6.5675281101514713</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" ref="K24:W24" si="4">TAN(K$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(K$5)), 2)</f>
-        <v>47.760308257607555</v>
+        <f t="shared" si="4"/>
+        <v>21.589960872909614</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="4"/>
-        <v>66.703953429431266</v>
+        <v>35.988327315264129</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="4"/>
-        <v>86.413046475653644</v>
+        <v>49.454282677746619</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="4"/>
-        <v>107.11294915248541</v>
+        <v>61.323454091925669</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="4"/>
-        <v>128.99444292670816</v>
+        <v>70.238761716154613</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="4"/>
-        <v>152.1300179654898</v>
+        <v>73.402034563478423</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="4"/>
-        <v>176.24863107908644</v>
+        <v>64.769882618728843</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="4"/>
-        <v>200.11186028829383</v>
+        <v>30.203470255209538</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="4"/>
-        <v>219.6453560067086</v>
+        <v>-67.68132557686738</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="4"/>
-        <v>221.56587050147363</v>
+        <v>-348.39848170150924</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="4"/>
-        <v>156.70465535815993</v>
+        <v>-1339.8061066936532</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="4"/>
-        <v>-217.70480306130708</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="4"/>
-        <v>-3258.0796466124971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-7712.3903808416762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>19</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="28">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" ref="J25:W40" si="5">TAN(J$5)*$I25-(0.5*$B$24)*POWER($I25/($B$21*COS(J$5)), 2)</f>
-        <v>28.093402937460894</v>
+        <f t="shared" ref="J25:V40" si="5">TAN(J$5)*$I25-(0.5*$B$24)*POWER($I25/($B$21*COS(J$5)), 2)</f>
+        <v>1.4109599342486661</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="5"/>
-        <v>47.307853863975964</v>
+        <v>16.742377686315265</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="5"/>
-        <v>67.008276800217487</v>
+        <v>31.228809950610241</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="5"/>
-        <v>87.411907533636793</v>
+        <v>44.473244321959783</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="5"/>
-        <v>108.71638814103606</v>
+        <v>55.659774466620917</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="5"/>
-        <v>131.05862313747423</v>
+        <v>63.164309368904838</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="5"/>
-        <v>154.4073448812814</v>
+        <v>63.69449091896945</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="5"/>
-        <v>178.28591481444619</v>
+        <v>50.22713305894581</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="5"/>
-        <v>201.02483040065243</v>
+        <v>6.4888776554303149</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="5"/>
-        <v>217.56455900200797</v>
+        <v>-110.21174648978695</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="5"/>
-        <v>212.06676519009335</v>
+        <v>-435.45737163119622</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="5"/>
-        <v>127.32729651244767</v>
+        <v>-1564.6448922966667</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="5"/>
-        <v>-314.40239041000882</v>
-      </c>
-      <c r="W25" s="9">
-        <f t="shared" si="5"/>
-        <v>-3774.9249601161855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="G26" s="31">
+        <v>-8737.9069818962253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G26" s="28">
         <v>20</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="5"/>
-        <v>26.530905558810169</v>
+        <v>-4.3268114888845588</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="5"/>
-        <v>46.528472643777278</v>
+        <v>11.258265504214449</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="5"/>
-        <v>66.954552611031289</v>
+        <v>25.757832703622739</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="5"/>
-        <v>88.010572407807288</v>
+        <v>38.678679807799199</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="5"/>
-        <v>109.86221866550144</v>
+        <v>49.041301348056379</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="5"/>
-        <v>132.58573200828167</v>
+        <v>54.934424834715685</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="5"/>
-        <v>156.03474119191961</v>
+        <v>52.535848910924528</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="5"/>
-        <v>179.50695572031702</v>
+        <v>33.774796512643263</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="5"/>
-        <v>200.8636578330939</v>
+        <v>-19.898616330613322</v>
       </c>
       <c r="S26" s="9">
         <f t="shared" si="5"/>
-        <v>213.98025496753354</v>
+        <v>-156.8232565889964</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="5"/>
-        <v>200.27204721142459</v>
+        <v>-529.64293721604588</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="5"/>
-        <v>93.941182610706164</v>
+        <v>-1805.3157950585137</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" si="5"/>
-        <v>-420.00554366055462</v>
-      </c>
-      <c r="W26" s="9">
-        <f t="shared" si="5"/>
-        <v>-4327.1219461137571</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-9826.2710007176811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>21</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="28">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="5"/>
-        <v>24.66429842683408</v>
+        <v>-10.645786159248246</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="5"/>
-        <v>45.422164597011474</v>
+        <v>5.1376243266071526</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="5"/>
-        <v>66.542780861872743</v>
+        <v>19.575395574301695</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="5"/>
-        <v>88.209041098165216</v>
+        <v>32.070589135264925</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="5"/>
-        <v>110.55044072588163</v>
+        <v>41.468034736232141</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="5"/>
-        <v>133.57576953913056</v>
+        <v>45.549108113586982</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="5"/>
-        <v>157.01220689740435</v>
+        <v>39.926108539343488</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="5"/>
-        <v>179.9117537966988</v>
+        <v>15.412872979821316</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="5"/>
-        <v>199.62834258561819</v>
+        <v>-48.959011702921885</v>
       </c>
       <c r="S27" s="9">
         <f t="shared" si="5"/>
-        <v>208.8924439032852</v>
+        <v>-207.51585587449676</v>
       </c>
       <c r="T27" s="9">
         <f t="shared" si="5"/>
-        <v>186.1817165654673</v>
+        <v>-630.95517845605843</v>
       </c>
       <c r="U27" s="9">
         <f t="shared" si="5"/>
-        <v>56.546313652935964</v>
+        <v>-2061.8188149791936</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="5"/>
-        <v>-534.51426281294448</v>
-      </c>
-      <c r="W27" s="9">
-        <f t="shared" si="5"/>
-        <v>-4914.6706046052095</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-10977.482437306035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>22</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="28">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="5"/>
-        <v>22.493581541532578</v>
+        <v>-17.545964076842282</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="5"/>
-        <v>43.988929723678538</v>
+        <v>-1.6195458465066395</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="5"/>
-        <v>65.772961552741776</v>
+        <v>12.681498562647192</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="5"/>
-        <v>88.007313604710504</v>
+        <v>24.648972304356846</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="5"/>
-        <v>110.78105432217656</v>
+        <v>32.939974631148203</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="5"/>
-        <v>134.02873573002077</v>
+        <v>35.008359205518843</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="5"/>
-        <v>157.33974199773559</v>
+        <v>25.865269804226728</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="5"/>
-        <v>179.50030904359173</v>
+        <v>-4.8586375395199752</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="5"/>
-        <v>197.31888465822527</v>
+        <v>-80.692308461494576</v>
       </c>
       <c r="S28" s="9">
         <f t="shared" si="5"/>
-        <v>202.30112580926323</v>
+        <v>-262.28954434628804</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" si="5"/>
-        <v>169.79577325222181</v>
+        <v>-739.39409535123366</v>
       </c>
       <c r="U28" s="9">
         <f t="shared" si="5"/>
-        <v>15.142689639136393</v>
+        <v>-2334.1539520587085</v>
       </c>
       <c r="V28" s="9">
         <f t="shared" si="5"/>
-        <v>-657.92854786717839</v>
-      </c>
-      <c r="W28" s="9">
-        <f t="shared" si="5"/>
-        <v>-5537.5709355905456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-12191.541291661293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>23</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="28">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="5"/>
-        <v>20.018754902905698</v>
+        <v>-25.027345241666808</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="5"/>
-        <v>42.2287680237785</v>
+        <v>-9.0132450151269268</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="5"/>
-        <v>64.645094683638376</v>
+        <v>5.076141668659119</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="5"/>
-        <v>87.405389927443196</v>
+        <v>16.413829315075048</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="5"/>
-        <v>110.55405945438626</v>
+        <v>23.457121032804565</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="5"/>
-        <v>133.94463058095249</v>
+        <v>23.312178110511127</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="5"/>
-        <v>157.01734649291342</v>
+        <v>10.353332705573962</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="5"/>
-        <v>178.27262146099571</v>
+        <v>-27.039735045380723</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="5"/>
-        <v>193.93528405091524</v>
+        <v>-115.09850660633208</v>
       </c>
       <c r="S29" s="9">
         <f t="shared" si="5"/>
-        <v>194.20630068546734</v>
+        <v>-321.14432200436954</v>
       </c>
       <c r="T29" s="9">
         <f t="shared" si="5"/>
-        <v>151.11421727168761</v>
+        <v>-854.9596879015719</v>
       </c>
       <c r="U29" s="9">
         <f t="shared" si="5"/>
-        <v>-30.269689430692551</v>
+        <v>-2622.321206297057</v>
       </c>
       <c r="V29" s="9">
         <f t="shared" si="5"/>
-        <v>-790.24839882325637</v>
-      </c>
-      <c r="W29" s="9">
-        <f t="shared" si="5"/>
-        <v>-6195.8229390697616</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-13468.447563783449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>24</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="28">
         <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="5"/>
-        <v>17.239818510953398</v>
+        <v>-33.089929653721669</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="5"/>
-        <v>40.141679497311358</v>
+        <v>-17.043473179253624</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="5"/>
-        <v>63.159180254562656</v>
+        <v>-3.240675107662554</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="5"/>
-        <v>86.40327006636322</v>
+        <v>7.3651601674196172</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="5"/>
-        <v>109.8694561225108</v>
+        <v>13.01947394120117</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="5"/>
-        <v>133.32345409192561</v>
+        <v>10.460564828564088</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="5"/>
-        <v>156.04502038293776</v>
+        <v>-6.6097027566145243</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="5"/>
-        <v>176.22869104891066</v>
+        <v>-51.130419537761043</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="5"/>
-        <v>189.47754076368795</v>
+        <v>-152.17760613743383</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="5"/>
-        <v>184.60796853189777</v>
+        <v>-384.08018884874127</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="5"/>
-        <v>130.13704862386521</v>
+        <v>-977.65195610707315</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="5"/>
-        <v>-79.690823556550185</v>
+        <v>-2926.3205776942386</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="5"/>
-        <v>-931.47381568117839</v>
-      </c>
-      <c r="W30" s="9">
-        <f t="shared" si="5"/>
-        <v>-6889.4266150428602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="G31" s="31">
+        <v>-14808.201253672512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G31" s="28">
         <v>25</v>
       </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31">
+      <c r="H31" s="28"/>
+      <c r="I31" s="28">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="5"/>
-        <v>14.156772365675707</v>
+        <v>-41.733717313007048</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="5"/>
-        <v>37.727664144277114</v>
+        <v>-25.710230338886902</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="5"/>
-        <v>61.315218265514474</v>
+        <v>-12.268951766317656</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="5"/>
-        <v>85.00095402147069</v>
+        <v>-2.497035138609732</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="5"/>
-        <v>108.72724432655002</v>
+        <v>1.6270333563381314</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="5"/>
-        <v>132.16520626294013</v>
+        <v>-3.5464806403224998</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="5"/>
-        <v>154.42276366780865</v>
+        <v>-25.023836582339129</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="5"/>
-        <v>173.36851780733676</v>
+        <v>-77.130691016660649</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="5"/>
-        <v>183.94565479654341</v>
+        <v>-191.92960705480027</v>
       </c>
       <c r="S31" s="9">
         <f t="shared" si="5"/>
-        <v>173.50612934855417</v>
+        <v>-451.09714487940391</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="5"/>
-        <v>106.86426730875428</v>
+        <v>-1107.4708999677373</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="5"/>
-        <v>-133.12071273843708</v>
+        <v>-3246.1520662502544</v>
       </c>
       <c r="V31" s="9">
         <f t="shared" si="5"/>
-        <v>-1081.6047984409443</v>
-      </c>
-      <c r="W31" s="9">
-        <f t="shared" si="5"/>
-        <v>-7618.3819635098425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>-16210.802361328479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>26</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="28">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
       <c r="J32" s="9">
         <f t="shared" si="5"/>
-        <v>10.769616467072666</v>
+        <v>-50.958708219522833</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="5"/>
-        <v>34.986721964675738</v>
+        <v>-35.013516494026561</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="5"/>
-        <v>59.113208716493929</v>
+        <v>-22.008688307306386</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="5"/>
-        <v>83.198441792765522</v>
+        <v>-13.172756603012715</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="5"/>
-        <v>107.12742406650409</v>
+        <v>-10.720200721784693</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="5"/>
-        <v>130.46988709399602</v>
+        <v>-18.708958296148467</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="5"/>
-        <v>152.15057634752617</v>
+        <v>-44.889068771599568</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="5"/>
-        <v>169.69210173627386</v>
+        <v>-105.04054948207977</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="5"/>
-        <v>177.33962614948183</v>
+        <v>-234.3545093584313</v>
       </c>
       <c r="S32" s="9">
         <f t="shared" si="5"/>
-        <v>160.90078313543694</v>
+        <v>-522.19519009635701</v>
       </c>
       <c r="T32" s="9">
         <f t="shared" si="5"/>
-        <v>81.295873326355036</v>
+        <v>-1244.4165194835641</v>
       </c>
       <c r="U32" s="9">
         <f t="shared" si="5"/>
-        <v>-190.55935697635368</v>
+        <v>-3581.8156719651047</v>
       </c>
       <c r="V32" s="9">
         <f t="shared" si="5"/>
-        <v>-1240.6413471025544</v>
-      </c>
-      <c r="W32" s="9">
-        <f t="shared" si="5"/>
-        <v>-8382.6889844707075</v>
-      </c>
-    </row>
-    <row r="33" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-17676.250886751339</v>
+      </c>
+    </row>
+    <row r="33" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>27</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="28">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="5"/>
-        <v>7.0783508151442049</v>
+        <v>-60.764902373268995</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="5"/>
-        <v>31.91885295850723</v>
+        <v>-44.953331644672716</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="5"/>
-        <v>56.553151607501007</v>
+        <v>-32.459884730628687</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="5"/>
-        <v>80.995733380247714</v>
+        <v>-24.662004225789474</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="5"/>
-        <v>105.06999534237283</v>
+        <v>-24.022228293167302</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="5"/>
-        <v>128.23749658509334</v>
+        <v>-35.02686813891421</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="5"/>
-        <v>149.22845842209003</v>
+        <v>-66.205399324395955</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="5"/>
-        <v>165.19944283572192</v>
+        <v>-134.85999493401823</v>
       </c>
       <c r="R33" s="9">
         <f t="shared" si="5"/>
-        <v>169.65945482250299</v>
+        <v>-279.4523130483268</v>
       </c>
       <c r="S33" s="9">
         <f t="shared" si="5"/>
-        <v>146.79192989254591</v>
+        <v>-597.37432449960056</v>
       </c>
       <c r="T33" s="9">
         <f t="shared" si="5"/>
-        <v>53.431866676667028</v>
+        <v>-1388.4888146545545</v>
       </c>
       <c r="U33" s="9">
         <f t="shared" si="5"/>
-        <v>-252.00675627029864</v>
+        <v>-3933.3113948387872</v>
       </c>
       <c r="V33" s="9">
         <f t="shared" si="5"/>
-        <v>-1408.5834616660084</v>
-      </c>
-      <c r="W33" s="9">
-        <f t="shared" si="5"/>
-        <v>-9182.3476779254597</v>
-      </c>
-    </row>
-    <row r="34" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-19204.546829941111</v>
+      </c>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>28</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="28">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" si="5"/>
-        <v>3.0829754098903379</v>
+        <v>-71.152299774245535</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="5"/>
-        <v>28.524057125771634</v>
+        <v>-55.529675790825337</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="5"/>
-        <v>53.635046938535652</v>
+        <v>-43.62254103628436</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="5"/>
-        <v>78.392828783917309</v>
+        <v>-36.964778006939923</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="5"/>
-        <v>102.55495815415642</v>
+        <v>-38.279049357809527</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="5"/>
-        <v>125.46803473623211</v>
+        <v>-52.500210168619105</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="5"/>
-        <v>145.6564098915006</v>
+        <v>-88.972828240728234</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="5"/>
-        <v>159.89054110568111</v>
+        <v>-166.58902737247627</v>
       </c>
       <c r="R34" s="9">
         <f t="shared" si="5"/>
-        <v>160.90514081560696</v>
+        <v>-327.22301812448688</v>
       </c>
       <c r="S34" s="9">
         <f t="shared" si="5"/>
-        <v>131.17956961988114</v>
+        <v>-676.6345480891348</v>
       </c>
       <c r="T34" s="9">
         <f t="shared" si="5"/>
-        <v>23.27224735969105</v>
+        <v>-1539.6877854807071</v>
       </c>
       <c r="U34" s="9">
         <f t="shared" si="5"/>
-        <v>-317.46291062027285</v>
+        <v>-4300.6392348713052</v>
       </c>
       <c r="V34" s="9">
         <f t="shared" si="5"/>
-        <v>-1585.4311421313075</v>
-      </c>
-      <c r="W34" s="9">
-        <f t="shared" si="5"/>
-        <v>-10017.358043874086</v>
-      </c>
-    </row>
-    <row r="35" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-20795.690190897774</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>29</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="28">
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="5"/>
-        <v>-1.2165097486888783</v>
+        <v>-82.120900422452536</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="5"/>
-        <v>24.80233446646892</v>
+        <v>-66.742548932484567</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="5"/>
-        <v>50.358894709597934</v>
+        <v>-55.49665722427369</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="5"/>
-        <v>75.389728003774309</v>
+        <v>-50.081077946464177</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="5"/>
-        <v>99.582312501854773</v>
+        <v>-53.490663915711423</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="5"/>
-        <v>122.16150154741226</v>
+        <v>-71.128984385263607</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="5"/>
-        <v>141.43443075575766</v>
+        <v>-113.19135552059646</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="5"/>
-        <v>153.76539654615141</v>
+        <v>-200.22764679745364</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" si="5"/>
-        <v>151.07668412879377</v>
+        <v>-377.66662458691155</v>
       </c>
       <c r="S35" s="9">
         <f t="shared" si="5"/>
-        <v>114.06370231744222</v>
+        <v>-759.97586086495903</v>
       </c>
       <c r="T35" s="9">
         <f t="shared" si="5"/>
-        <v>-9.182984624573578</v>
+        <v>-1698.0134319620229</v>
       </c>
       <c r="U35" s="9">
         <f t="shared" si="5"/>
-        <v>-386.92782002627632</v>
+        <v>-4683.7991920626582</v>
       </c>
       <c r="V35" s="9">
         <f t="shared" si="5"/>
-        <v>-1771.1843884984489</v>
-      </c>
-      <c r="W35" s="9">
-        <f t="shared" si="5"/>
-        <v>-10887.720082316602</v>
-      </c>
-    </row>
-    <row r="36" spans="7:23" x14ac:dyDescent="0.3">
-      <c r="G36" s="31">
+        <v>-22449.68096962135</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G36" s="28">
         <v>30</v>
       </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31">
+      <c r="H36" s="28"/>
+      <c r="I36" s="28">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="5"/>
-        <v>-5.8201046605935289</v>
+        <v>-93.670704317890056</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="5"/>
-        <v>20.753684980599104</v>
+        <v>-78.59195106965015</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="5"/>
-        <v>46.724694920687767</v>
+        <v>-68.08223329459662</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="5"/>
-        <v>71.986431039818683</v>
+        <v>-64.010904044362178</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="5"/>
-        <v>96.15205838546791</v>
+        <v>-69.657071966873104</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="5"/>
-        <v>118.31789701863386</v>
+        <v>-90.913190788847544</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="5"/>
-        <v>136.56252101486132</v>
+        <v>-138.86098116400058</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="5"/>
-        <v>146.82400915713259</v>
+        <v>-235.77585320895059</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="5"/>
-        <v>140.17408476206344</v>
+        <v>-430.78313243560069</v>
       </c>
       <c r="S36" s="9">
         <f t="shared" si="5"/>
-        <v>95.444327985229847</v>
+        <v>-847.39826282707418</v>
       </c>
       <c r="T36" s="9">
         <f t="shared" si="5"/>
-        <v>-43.933829276126971</v>
+        <v>-1863.4657540985004</v>
       </c>
       <c r="U36" s="9">
         <f t="shared" si="5"/>
-        <v>-460.40148448830882</v>
+        <v>-5082.7912664128407</v>
       </c>
       <c r="V36" s="9">
         <f t="shared" si="5"/>
-        <v>-1965.843200767436</v>
-      </c>
-      <c r="W36" s="9">
-        <f t="shared" si="5"/>
-        <v>-11793.433793252992</v>
-      </c>
-    </row>
-    <row r="37" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-24166.519166111822</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>31</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="28">
         <f t="shared" si="2"/>
         <v>372</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="5"/>
-        <v>-10.727809325823529</v>
+        <v>-105.80171146055793</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="5"/>
-        <v>16.378108668162213</v>
+        <v>-91.077882202322172</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="5"/>
-        <v>42.732447571805295</v>
+        <v>-81.379269247252921</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="5"/>
-        <v>68.182937892050461</v>
+        <v>-78.754256300633813</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="5"/>
-        <v>92.264195804995779</v>
+        <v>-86.778273511294515</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="5"/>
-        <v>113.93722114989669</v>
+        <v>-111.85282937937103</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="5"/>
-        <v>131.04068066881155</v>
+        <v>-165.9817051709407</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="5"/>
-        <v>139.06637893862495</v>
+        <v>-273.23364660696666</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="5"/>
-        <v>128.19734271541597</v>
+        <v>-486.57254167055441</v>
       </c>
       <c r="S37" s="9">
         <f t="shared" si="5"/>
-        <v>75.321446623243673</v>
+        <v>-938.90175397548001</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" si="5"/>
-        <v>-80.98028659496822</v>
+        <v>-2036.0447518901424</v>
       </c>
       <c r="U37" s="9">
         <f t="shared" si="5"/>
-        <v>-537.88390400637036</v>
+        <v>-5497.6154579218601</v>
       </c>
       <c r="V37" s="9">
         <f t="shared" si="5"/>
-        <v>-2169.4075789382655</v>
-      </c>
-      <c r="W37" s="9">
-        <f t="shared" si="5"/>
-        <v>-12734.499176683265</v>
-      </c>
-    </row>
-    <row r="38" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-25946.2047803692</v>
+      </c>
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>32</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="28">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="5"/>
-        <v>-15.939623744378963</v>
+        <v>-118.51392185045617</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="5"/>
-        <v>11.675605529158133</v>
+        <v>-104.20034233050075</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="5"/>
-        <v>38.382152662950404</v>
+        <v>-95.387765082242879</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="5"/>
-        <v>63.979248560469614</v>
+        <v>-94.311134715279195</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="5"/>
-        <v>87.918724760438494</v>
+        <v>-104.8542685489756</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="5"/>
-        <v>109.01947394120106</v>
+        <v>-133.9479001568339</v>
       </c>
       <c r="P38" s="9">
         <f t="shared" si="5"/>
-        <v>124.86890971760823</v>
+        <v>-194.55352754141654</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="5"/>
-        <v>130.49250589062842</v>
+        <v>-312.60102699150241</v>
       </c>
       <c r="R38" s="9">
         <f t="shared" si="5"/>
-        <v>115.14645798885113</v>
+        <v>-545.03485229177249</v>
       </c>
       <c r="S38" s="9">
         <f t="shared" si="5"/>
-        <v>53.695058231483586</v>
+        <v>-1034.4863343101758</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="5"/>
-        <v>-120.32235658109767</v>
+        <v>-2215.750425336947</v>
       </c>
       <c r="U38" s="9">
         <f t="shared" si="5"/>
-        <v>-619.37507858046138</v>
+        <v>-5928.2717665897135</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" si="5"/>
-        <v>-2381.8775230109404</v>
-      </c>
-      <c r="W38" s="9">
-        <f t="shared" si="5"/>
-        <v>-13710.916232607429</v>
-      </c>
-    </row>
-    <row r="39" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-27788.737812393476</v>
+      </c>
+    </row>
+    <row r="39" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>33</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="28">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="5"/>
-        <v>-21.455547916259775</v>
+        <v>-131.80733548758482</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="5"/>
-        <v>6.6461755635870077</v>
+        <v>-117.9593314541859</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="5"/>
-        <v>33.673810194123092</v>
+        <v>-110.10772079956644</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="5"/>
-        <v>59.375363045076028</v>
+        <v>-110.68153928829855</v>
       </c>
       <c r="N39" s="9">
         <f t="shared" si="5"/>
-        <v>83.115645251795854</v>
+        <v>-123.88505707991652</v>
       </c>
       <c r="O39" s="9">
         <f t="shared" si="5"/>
-        <v>103.56465539254685</v>
+        <v>-157.19840312123625</v>
       </c>
       <c r="P39" s="9">
         <f t="shared" si="5"/>
-        <v>118.04720816125155</v>
+        <v>-224.57644827542856</v>
       </c>
       <c r="Q39" s="9">
         <f t="shared" si="5"/>
-        <v>121.10239001314278</v>
+        <v>-353.8779943625575</v>
       </c>
       <c r="R39" s="9">
         <f t="shared" si="5"/>
-        <v>101.02143058236925</v>
+        <v>-606.1700642992555</v>
       </c>
       <c r="S39" s="9">
         <f t="shared" si="5"/>
-        <v>30.56516280994947</v>
+        <v>-1134.1520038311628</v>
       </c>
       <c r="T39" s="9">
         <f t="shared" si="5"/>
-        <v>-161.96003923451644</v>
+        <v>-2402.5827744389135</v>
       </c>
       <c r="U39" s="9">
         <f t="shared" si="5"/>
-        <v>-704.87500821058097</v>
+        <v>-6374.7601924163991</v>
       </c>
       <c r="V39" s="9">
         <f t="shared" si="5"/>
-        <v>-2603.2530329854576</v>
-      </c>
-      <c r="W39" s="9">
-        <f t="shared" si="5"/>
-        <v>-14722.684961025469</v>
-      </c>
-    </row>
-    <row r="40" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-29694.118262184649</v>
+      </c>
+    </row>
+    <row r="40" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>34</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="28">
         <f t="shared" si="2"/>
         <v>408</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="5"/>
-        <v>-27.275581841465964</v>
+        <v>-145.68195237194405</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="5"/>
-        <v>1.2898187714486937</v>
+        <v>-132.35484957337738</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="5"/>
-        <v>28.607420165323333</v>
+        <v>-125.53913639922337</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="5"/>
-        <v>54.371281345870017</v>
+        <v>-127.86547001969137</v>
       </c>
       <c r="N40" s="9">
         <f t="shared" si="5"/>
-        <v>77.85495727906806</v>
+        <v>-143.87063910411706</v>
       </c>
       <c r="O40" s="9">
         <f t="shared" si="5"/>
-        <v>97.572765503934079</v>
+        <v>-181.60433827257799</v>
       </c>
       <c r="P40" s="9">
         <f t="shared" si="5"/>
-        <v>110.57557599974126</v>
+        <v>-256.05046737297619</v>
       </c>
       <c r="Q40" s="9">
         <f t="shared" si="5"/>
-        <v>110.89603130616831</v>
+        <v>-397.06454872013205</v>
       </c>
       <c r="R40" s="9">
         <f t="shared" si="5"/>
-        <v>85.82226049597034</v>
+        <v>-669.97817769300275</v>
       </c>
       <c r="S40" s="9">
         <f t="shared" si="5"/>
-        <v>5.9317603586418954</v>
+        <v>-1237.89876253844</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="5"/>
-        <v>-205.89333455522296</v>
+        <v>-2596.5417991960448</v>
       </c>
       <c r="U40" s="9">
         <f t="shared" si="5"/>
-        <v>-794.38369289673005</v>
+        <v>-6837.0807354019198</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="5"/>
-        <v>-2833.5341088618202</v>
-      </c>
-      <c r="W40" s="9">
-        <f t="shared" si="5"/>
-        <v>-15769.805361937395</v>
-      </c>
-    </row>
-    <row r="41" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-31662.346129742742</v>
+      </c>
+    </row>
+    <row r="41" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>35</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="28">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" ref="J41:W46" si="6">TAN(J$5)*$I41-(0.5*$B$24)*POWER($I41/($B$21*COS(J$5)), 2)</f>
-        <v>-33.39972551999756</v>
+        <f t="shared" ref="J41:V46" si="6">TAN(J$5)*$I41-(0.5*$B$24)*POWER($I41/($B$21*COS(J$5)), 2)</f>
+        <v>-160.13777250353357</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="6"/>
-        <v>-4.3934648472566948</v>
+        <v>-147.38689668807535</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="6"/>
-        <v>23.18298257655124</v>
+        <v>-141.6820118812139</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="6"/>
-        <v>48.967003462851238</v>
+        <v>-145.86292690945805</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="6"/>
-        <v>72.136660842255026</v>
+        <v>-164.81101462157727</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="6"/>
-        <v>91.043804275362675</v>
+        <v>-207.16570561085945</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="6"/>
-        <v>102.45401323307766</v>
+        <v>-288.97558483405987</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="6"/>
-        <v>99.873429769704671</v>
+        <v>-442.16069006422617</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="6"/>
-        <v>69.548947729653946</v>
+        <v>-736.45919247301435</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="6"/>
-        <v>-20.205149122439593</v>
+        <v>-1345.7266104320079</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="6"/>
-        <v>-252.12224254321791</v>
+        <v>-2797.6274996083357</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="6"/>
-        <v>-887.90113263890839</v>
+        <v>-7315.2333955462746</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="6"/>
-        <v>-3072.7207506400264</v>
-      </c>
-      <c r="W41" s="9">
-        <f t="shared" si="6"/>
-        <v>-16852.277435343196</v>
-      </c>
-    </row>
-    <row r="42" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-33693.421415067714</v>
+      </c>
+    </row>
+    <row r="42" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>36</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="28">
         <f t="shared" si="2"/>
         <v>432</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="6"/>
-        <v>-39.827978951854504</v>
+        <v>-175.17479588235349</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
-        <v>-10.403675292529158</v>
+        <v>-163.05547279827985</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="6"/>
-        <v>17.400497427806783</v>
+        <v>-158.53634724553808</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="6"/>
-        <v>43.162529396019977</v>
+        <v>-164.67390995759843</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="6"/>
-        <v>65.960755941356751</v>
+        <v>-186.70618363229727</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="6"/>
-        <v>83.977771706832698</v>
+        <v>-233.88250513608023</v>
       </c>
       <c r="P42" s="9">
         <f t="shared" si="6"/>
-        <v>93.682519861260459</v>
+        <v>-323.35180065867974</v>
       </c>
       <c r="Q42" s="9">
         <f t="shared" si="6"/>
-        <v>88.034585403752317</v>
+        <v>-489.16641839483941</v>
       </c>
       <c r="R42" s="9">
         <f t="shared" si="6"/>
-        <v>52.201492283420521</v>
+        <v>-805.61310863929111</v>
       </c>
       <c r="S42" s="9">
         <f t="shared" si="6"/>
-        <v>-47.845565633294882</v>
+        <v>-1457.635547511866</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="6"/>
-        <v>-300.64676319850196</v>
+        <v>-3005.8398756757924</v>
       </c>
       <c r="U42" s="9">
         <f t="shared" si="6"/>
-        <v>-985.42732743711554</v>
+        <v>-7809.2181728494616</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="6"/>
-        <v>-3320.8129583200775</v>
-      </c>
-      <c r="W42" s="9">
-        <f t="shared" si="6"/>
-        <v>-17970.101181242891</v>
-      </c>
-    </row>
-    <row r="43" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-35787.344118159606</v>
+      </c>
+    </row>
+    <row r="43" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>37</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="28">
         <f t="shared" si="2"/>
         <v>444</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="6"/>
-        <v>-46.56034213703694</v>
+        <v>-190.79302250840382</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="6"/>
-        <v>-16.740812564368753</v>
+        <v>-179.3605779039907</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="6"/>
-        <v>11.259964719089879</v>
+        <v>-176.10214249219558</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="6"/>
-        <v>36.957859145376005</v>
+        <v>-184.29841916411266</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="6"/>
-        <v>59.327242576373294</v>
+        <v>-209.55614613627694</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="6"/>
-        <v>76.374667798344149</v>
+        <v>-261.75473684824044</v>
       </c>
       <c r="P43" s="9">
         <f t="shared" si="6"/>
-        <v>84.26109588429</v>
+        <v>-359.17911484683486</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="6"/>
-        <v>75.379498208310906</v>
+        <v>-538.08173371197245</v>
       </c>
       <c r="R43" s="9">
         <f t="shared" si="6"/>
-        <v>33.779894157269837</v>
+        <v>-877.43992619183211</v>
       </c>
       <c r="S43" s="9">
         <f t="shared" si="6"/>
-        <v>-76.989489173923971</v>
+        <v>-1573.6255737780157</v>
       </c>
       <c r="T43" s="9">
         <f t="shared" si="6"/>
-        <v>-351.46689652107375</v>
+        <v>-3221.1789273984105</v>
       </c>
       <c r="U43" s="9">
         <f t="shared" si="6"/>
-        <v>-1086.9622772913515</v>
+        <v>-8319.0350673114845</v>
       </c>
       <c r="V43" s="9">
         <f t="shared" si="6"/>
-        <v>-3577.81073190197</v>
-      </c>
-      <c r="W43" s="9">
-        <f t="shared" si="6"/>
-        <v>-19123.276599636458</v>
-      </c>
-    </row>
-    <row r="44" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-37944.114239018396</v>
+      </c>
+    </row>
+    <row r="44" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>38</v>
       </c>
-      <c r="I44" s="31">
+      <c r="I44" s="28">
         <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="6"/>
-        <v>-53.596815075544697</v>
+        <v>-206.9924523816847</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="6"/>
-        <v>-23.404876662775507</v>
+        <v>-196.30221200520828</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="6"/>
-        <v>4.7613844504006124</v>
+        <v>-194.37939762118668</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="6"/>
-        <v>30.352992710919523</v>
+        <v>-204.73645452900053</v>
       </c>
       <c r="N44" s="9">
         <f t="shared" si="6"/>
-        <v>52.236120747304597</v>
+        <v>-233.36090213351628</v>
       </c>
       <c r="O44" s="9">
         <f t="shared" si="6"/>
-        <v>68.234492549896913</v>
+        <v>-290.78240074734038</v>
       </c>
       <c r="P44" s="9">
         <f t="shared" si="6"/>
-        <v>74.189741302165942</v>
+        <v>-396.45752739852639</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="6"/>
-        <v>61.908168183380553</v>
+        <v>-588.9066360156246</v>
       </c>
       <c r="R44" s="9">
         <f t="shared" si="6"/>
-        <v>14.284153351201894</v>
+        <v>-951.93964513063747</v>
       </c>
       <c r="S44" s="9">
         <f t="shared" si="6"/>
-        <v>-107.63691974432686</v>
+        <v>-1693.6966892304551</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="6"/>
-        <v>-404.58264251093397</v>
+        <v>-3443.6446547761934</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="6"/>
-        <v>-1192.5059822016176</v>
+        <v>-8844.6840789323414</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" si="6"/>
-        <v>-3843.7140713857093</v>
-      </c>
-      <c r="W44" s="9">
-        <f t="shared" si="6"/>
-        <v>-20311.803690523917</v>
-      </c>
-    </row>
-    <row r="45" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-40163.731777644076</v>
+      </c>
+    </row>
+    <row r="45" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>39</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="28">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="6"/>
-        <v>-60.937397767377803</v>
+        <v>-223.77308550219595</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="6"/>
-        <v>-30.395867587749251</v>
+        <v>-213.88037510193215</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="6"/>
-        <v>-2.0952433782609887</v>
+        <v>-213.3681126325115</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="6"/>
-        <v>23.347930092650302</v>
+        <v>-225.98801605226203</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="6"/>
-        <v>44.687390454150659</v>
+        <v>-258.12045162401563</v>
       </c>
       <c r="O45" s="9">
         <f t="shared" si="6"/>
-        <v>59.557245961491105</v>
+        <v>-320.96549683337923</v>
       </c>
       <c r="P45" s="9">
         <f t="shared" si="6"/>
-        <v>63.468456114888511</v>
+        <v>-435.18703831375387</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="6"/>
-        <v>47.620595328961258</v>
+        <v>-641.64112530579632</v>
       </c>
       <c r="R45" s="9">
         <f t="shared" si="6"/>
-        <v>-6.2857301347830798</v>
+        <v>-1029.1122654557071</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" si="6"/>
-        <v>-139.78785734450355</v>
+        <v>-1817.8488938691846</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="6"/>
-        <v>-459.99400116808306</v>
+        <v>-3673.2370578091359</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" si="6"/>
-        <v>-1302.0584421679121</v>
+        <v>-9386.165207712027</v>
       </c>
       <c r="V45" s="9">
         <f t="shared" si="6"/>
-        <v>-4118.5229767712917</v>
-      </c>
-      <c r="W45" s="9">
-        <f t="shared" si="6"/>
-        <v>-21535.68245390525</v>
-      </c>
-    </row>
-    <row r="46" spans="7:23" x14ac:dyDescent="0.3">
+        <v>-42446.196734036668</v>
+      </c>
+    </row>
+    <row r="46" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>40</v>
       </c>
-      <c r="I46" s="31">
+      <c r="I46" s="28">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="6"/>
-        <v>-68.582090212536457</v>
+        <v>-241.13492186993756</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="6"/>
-        <v>-37.713785339290212</v>
+        <v>-232.09506719416254</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="6"/>
-        <v>-9.3099187668951799</v>
+        <v>-233.06828752616968</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="6"/>
-        <v>15.942671290568512</v>
+        <v>-248.05310373389756</v>
       </c>
       <c r="N46" s="9">
         <f t="shared" si="6"/>
-        <v>36.681051696911425</v>
+        <v>-283.83479460777443</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="6"/>
-        <v>50.342928033126725</v>
+        <v>-352.30402510635804</v>
       </c>
       <c r="P46" s="9">
         <f t="shared" si="6"/>
-        <v>52.097240322457651</v>
+        <v>-475.36764759251685</v>
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="6"/>
-        <v>32.516779645053134</v>
+        <v>-696.28520158248784</v>
       </c>
       <c r="R46" s="9">
         <f t="shared" si="6"/>
-        <v>-27.929756300685312</v>
+        <v>-1108.9577871670415</v>
       </c>
       <c r="S46" s="9">
         <f t="shared" si="6"/>
-        <v>-173.44230197445404</v>
+        <v>-1946.0821876942041</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="6"/>
-        <v>-517.70097249252012</v>
+        <v>-3909.9561364972451</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="6"/>
-        <v>-1415.6196571902367</v>
+        <v>-9943.478453650554</v>
       </c>
       <c r="V46" s="9">
         <f t="shared" si="6"/>
-        <v>-4402.2374480587177</v>
-      </c>
-      <c r="W46" s="9">
-        <f t="shared" si="6"/>
-        <v>-22794.912889780473</v>
+        <v>-44791.509108196173</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J6:W46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+  <conditionalFormatting sqref="J6:V46">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
       <formula>68</formula>
       <formula>80</formula>
     </cfRule>
@@ -10584,6 +10574,2173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61525BA8-4B69-4A45-80A0-4FF32D00F639}">
+  <dimension ref="A1:AE50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+    </row>
+    <row r="6" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13">
+        <f>B5*12+D5</f>
+        <v>98.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="37">
+        <v>35</v>
+      </c>
+      <c r="K6" s="38">
+        <v>40</v>
+      </c>
+      <c r="L6" s="39">
+        <v>45</v>
+      </c>
+      <c r="M6" s="39">
+        <v>50</v>
+      </c>
+      <c r="N6" s="38">
+        <v>55</v>
+      </c>
+      <c r="O6" s="39">
+        <v>60</v>
+      </c>
+      <c r="P6" s="39">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>70</v>
+      </c>
+      <c r="R6" s="40">
+        <v>75</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="37">
+        <v>35</v>
+      </c>
+      <c r="X6" s="38">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="39">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="39">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="39">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="39">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="38">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G7" s="33"/>
+      <c r="H7" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="45">
+        <f>H7*B$17*B$20*B$22/(60)</f>
+        <v>318.48900835415679</v>
+      </c>
+      <c r="J7" s="9">
+        <f>TAN(RADIANS(J$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(J$6))*$I7), 2)</f>
+        <v>38.807624018984853</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" ref="K7:R7" si="0">TAN(RADIANS(K$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(K$6))*$I7), 2)</f>
+        <v>47.60394581463008</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>57.146433002070424</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>67.610771520240931</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="0"/>
+        <v>79.152291091889992</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="0"/>
+        <v>91.785133839926502</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>104.96322983411279</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="0"/>
+        <v>116.00746986976705</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="0"/>
+        <v>113.05451503432957</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="42">
+        <v>0.71</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" ref="I8:I37" si="1">H8*B$17*B$20*B$22/(60)</f>
+        <v>323.03885133064472</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:R37" si="2">TAN(RADIANS(J$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(J$6))*$I8), 2)</f>
+        <v>39.36731120324967</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="2"/>
+        <v>48.24392591219025</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="2"/>
+        <v>57.897544477315009</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>68.519720293566039</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="2"/>
+        <v>80.293832839141942</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="2"/>
+        <v>93.287356790415714</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="2"/>
+        <v>107.0659325835485</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="2"/>
+        <v>119.21795773018826</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="2"/>
+        <v>118.66088740985137</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G9" s="34"/>
+      <c r="H9" s="43">
+        <v>0.72</v>
+      </c>
+      <c r="I9" s="45">
+        <f t="shared" si="1"/>
+        <v>327.58869430713264</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>39.903840417545638</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="2"/>
+        <v>48.857425789554895</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="2"/>
+        <v>58.617577490382907</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>69.391059829110333</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="2"/>
+        <v>81.388141435011732</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="2"/>
+        <v>94.727422816551481</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="2"/>
+        <v>109.08163257770615</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="2"/>
+        <v>122.29560641982404</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="2"/>
+        <v>124.03528698564386</v>
+      </c>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13">
+        <f>B6-B8</f>
+        <v>74.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="42">
+        <v>0.73</v>
+      </c>
+      <c r="I10" s="45">
+        <f t="shared" si="1"/>
+        <v>332.13853728362056</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>40.418471859626734</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="2"/>
+        <v>49.445886432875177</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="2"/>
+        <v>59.308223252044463</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>70.226836725821997</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="2"/>
+        <v>82.437787187318378</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="2"/>
+        <v>96.108714339874609</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="2"/>
+        <v>111.01506428497562</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="2"/>
+        <v>125.24764470807376</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="2"/>
+        <v>129.19033713075001</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="32">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="I11" s="45">
+        <f t="shared" si="1"/>
+        <v>336.6883802601086</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>40.91238115810161</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="2"/>
+        <v>50.010652126838735</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="2"/>
+        <v>59.971059479573597</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>71.028960239820819</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="2"/>
+        <v>83.445167916083165</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="2"/>
+        <v>97.434386794932863</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="2"/>
+        <v>112.87064445381432</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="2"/>
+        <v>128.08081625725913</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="2"/>
+        <v>134.13781408722195</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="30">
+        <f>B10-B11</f>
+        <v>64.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="13">
+        <f>B10+B11</f>
+        <v>84.25</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="45">
+        <f t="shared" si="1"/>
+        <v>341.23822323659653</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>41.386666092443932</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="2"/>
+        <v>50.552978138734886</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="2"/>
+        <v>60.60755941513689</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>71.79921319789652</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="2"/>
+        <v>84.412522659707676</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="2"/>
+        <v>98.707386666059449</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="2"/>
+        <v>114.65249735932174</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="2"/>
+        <v>130.80141817007024</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="2"/>
+        <v>138.88871428429502</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="12">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="42">
+        <v>0.76</v>
+      </c>
+      <c r="I13" s="45">
+        <f t="shared" si="1"/>
+        <v>345.78806621308451</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>41.842352698173315</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="2"/>
+        <v>51.074037699486908</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="2"/>
+        <v>61.219100019069423</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>72.539261912505708</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="2"/>
+        <v>85.341944127142085</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="2"/>
+        <v>99.930467873924528</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="2"/>
+        <v>116.364477739946</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="2"/>
+        <v>133.41533601021595</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="2"/>
+        <v>143.45331549383022</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="30">
+        <f>B13*12+D13</f>
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="43">
+        <v>0.77</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="1"/>
+        <v>350.33790918957249</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="2"/>
+        <v>42.280400820664582</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="2"/>
+        <v>51.574928354212645</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="2"/>
+        <v>61.806969423198694</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="2"/>
+        <v>73.250665201324637</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="2"/>
+        <v>86.235390025471816</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="2"/>
+        <v>101.10620668218306</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="2"/>
+        <v>118.01019166272846</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="2"/>
+        <v>135.92807566028642</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="2"/>
+        <v>147.84123246268149</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G15" s="34"/>
+      <c r="H15" s="42">
+        <v>0.78</v>
+      </c>
+      <c r="I15" s="45">
+        <f t="shared" si="1"/>
+        <v>354.88775216606041</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
+        <v>42.701709173769011</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="2"/>
+        <v>52.056677746557355</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="2"/>
+        <v>62.372373719616206</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="2"/>
+        <v>73.934882602601959</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="2"/>
+        <v>87.094693377515568</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="2"/>
+        <v>102.23701527501808</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="2"/>
+        <v>119.59301552816426</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="2"/>
+        <v>138.34479233910872</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="2"/>
+        <v>152.06146758477735</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="I16" s="45">
+        <f t="shared" si="1"/>
+        <v>359.43759514254833</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="2"/>
+        <v>43.107119953071674</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="2"/>
+        <v>52.520248893770372</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="2"/>
+        <v>62.91644315176174</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="2"/>
+        <v>74.59328186722685</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="2"/>
+        <v>87.921571931055865</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="2"/>
+        <v>103.32515413930915</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="2"/>
+        <v>121.11611340186371</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="2"/>
+        <v>140.67031706439749</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="2"/>
+        <v>156.1224571120018</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="12">
+        <v>6380</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="1"/>
+        <v>363.98743811903637</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="2"/>
+        <v>43.497423048038939</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="2"/>
+        <v>52.966545003128857</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="2"/>
+        <v>63.440237767210157</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
+        <v>75.227145799382981</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="2"/>
+        <v>88.717636749963674</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="2"/>
+        <v>104.372743370206</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="2"/>
+        <v>122.58245283927457</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="2"/>
+        <v>142.90918081455328</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="2"/>
+        <v>160.03211334717091</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="42">
+        <v>0.81</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="1"/>
+        <v>368.53728109552424</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="2"/>
+        <v>43.873359892424517</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="2"/>
+        <v>53.396413874724303</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="2"/>
+        <v>63.944752584993893</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="2"/>
+        <v>75.837678509723375</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="2"/>
+        <v>89.484400067512212</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="2"/>
+        <v>105.38177300577348</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="2"/>
+        <v>123.99481935136843</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="2"/>
+        <v>145.06563661543134</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="2"/>
+        <v>163.79786321345142</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="30">
+        <f>B17*B18</f>
+        <v>6061</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="I19" s="45">
+        <f t="shared" si="1"/>
+        <v>373.08712407201222</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="2"/>
+        <v>44.23562698800783</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="2"/>
+        <v>53.810651930717654</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="2"/>
+        <v>64.430922324530783</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="2"/>
+        <v>76.426011138027206</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="2"/>
+        <v>90.223282473417726</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="2"/>
+        <v>106.35411248484724</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="2"/>
+        <v>125.35582964306147</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="2"/>
+        <v>147.14367975327451</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="2"/>
+        <v>167.42668355155979</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13">
+        <f>PI()*B16</f>
+        <v>18.849555921538759</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="42">
+        <v>0.83</v>
+      </c>
+      <c r="I20" s="45">
+        <f t="shared" si="1"/>
+        <v>377.63696704850014</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="2"/>
+        <v>44.58487913295852</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="2"/>
+        <v>54.210007906846073</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="2"/>
+        <v>64.899625738154299</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="2"/>
+        <v>76.99320709616066</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="2"/>
+        <v>90.935619498433212</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="2"/>
+        <v>107.29151931209427</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="2"/>
+        <v>126.66794374193753</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="2"/>
+        <v>149.1470662933167</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="2"/>
+        <v>170.92513345820765</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G21" s="34"/>
+      <c r="H21" s="42">
+        <v>0.84</v>
+      </c>
+      <c r="I21" s="45">
+        <f t="shared" si="1"/>
+        <v>382.18681002498812</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="2"/>
+        <v>44.921732382788697</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="2"/>
+        <v>54.595186238154405</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="2"/>
+        <v>65.351689584771123</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="2"/>
+        <v>77.540266876752042</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="2"/>
+        <v>91.622667653526761</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="2"/>
+        <v>108.1956470053279</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="2"/>
+        <v>127.93347612232367</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="2"/>
+        <v>151.07933006445128</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="2"/>
+        <v>174.29938394588564</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="I22" s="45">
+        <f t="shared" si="1"/>
+        <v>386.7366530014761</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="2"/>
+        <v>45.246766768911016</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="2"/>
+        <v>54.966850167558505</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="2"/>
+        <v>65.787892278220767</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="2"/>
+        <v>78.068132468211729</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="2"/>
+        <v>92.285609974670706</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="2"/>
+        <v>109.0680523922272</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="2"/>
+        <v>129.1546059187086</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="2"/>
+        <v>152.94379825347352</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="2"/>
+        <v>177.55524517459057</v>
+      </c>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13">
+        <f>B19*B20</f>
+        <v>114247.15844044642</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="42">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="45">
+        <f t="shared" si="1"/>
+        <v>391.28649597796408</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="2"/>
+        <v>45.560528797218275</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="2"/>
+        <v>55.325624602871905</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="2"/>
+        <v>66.208967240419824</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="2"/>
+        <v>78.577691412500414</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="2"/>
+        <v>92.925561118961554</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="2"/>
+        <v>109.91020231662532</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="2"/>
+        <v>130.33338631271889</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="2"/>
+        <v>154.74360573747867</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="2"/>
+        <v>180.69819148003467</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="15">
+        <f>($B$22*B23)/(12*60)</f>
+        <v>36.019590230529637</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="43">
+        <v>0.87</v>
+      </c>
+      <c r="I24" s="45">
+        <f t="shared" si="1"/>
+        <v>395.836338954452</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="2"/>
+        <v>45.863533746794801</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="2"/>
+        <v>55.672098745291166</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="2"/>
+        <v>66.615605986278894</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="2"/>
+        <v>79.069780538305196</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="2"/>
+        <v>93.543572053087075</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="2"/>
+        <v>110.72347980834348</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="2"/>
+        <v>131.47175316920513</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="2"/>
+        <v>156.48170826977235</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="2"/>
+        <v>183.73338439977894</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="13">
+        <f>B24*12</f>
+        <v>432.23508276635562</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="42">
+        <v>0.88</v>
+      </c>
+      <c r="I25" s="45">
+        <f t="shared" si="1"/>
+        <v>400.38618193093993</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="2"/>
+        <v>46.156267786824969</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="2"/>
+        <v>56.006828509996751</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="2"/>
+        <v>67.008460964636484</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="2"/>
+        <v>79.545189398962663</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="2"/>
+        <v>94.140634370987229</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="2"/>
+        <v>111.50918976505866</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="2"/>
+        <v>132.57153298930839</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="2"/>
+        <v>158.16089462291967</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="2"/>
+        <v>186.66569387825277</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G26" s="34"/>
+      <c r="H26" s="42">
+        <v>0.89</v>
+      </c>
+      <c r="I26" s="45">
+        <f t="shared" si="1"/>
+        <v>404.93602490742791</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="2"/>
+        <v>46.439189927947801</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="2"/>
+        <v>56.330338757449653</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="2"/>
+        <v>67.388148177016149</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="2"/>
+        <v>80.004663441517195</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="2"/>
+        <v>94.717684273850125</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="2"/>
+        <v>112.26856418981799</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="2"/>
+        <v>133.63445024155288</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="2"/>
+        <v>159.78379778214128</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="2"/>
+        <v>189.49971781342302</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>32.17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="I27" s="45">
+        <f t="shared" si="1"/>
+        <v>409.48586788391583</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="2"/>
+        <v>46.712733822690829</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="2"/>
+        <v>56.64312535211608</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="2"/>
+        <v>67.755249593845051</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="2"/>
+        <v>80.448906930679527</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="2"/>
+        <v>95.275606242289044</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="2"/>
+        <v>113.0027670234758</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="2"/>
+        <v>134.66213412594101</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="2"/>
+        <v>161.35290527299514</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="2"/>
+        <v>192.23980009169497</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B27*12</f>
+        <v>386.04</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="I28" s="45">
+        <f t="shared" si="1"/>
+        <v>414.03571086040381</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="2"/>
+        <v>46.977309428177293</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="2"/>
+        <v>56.94565706370723</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="2"/>
+        <v>68.11031538584048</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="2"/>
+        <v>80.878585649113219</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="2"/>
+        <v>95.815236427611211</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="2"/>
+        <v>113.71289860746663</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="2"/>
+        <v>135.65612482061943</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="2"/>
+        <v>162.87056869902779</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="2"/>
+        <v>194.89004724320813</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G29" s="34"/>
+      <c r="H29" s="43">
+        <v>0.92</v>
+      </c>
+      <c r="I29" s="45">
+        <f t="shared" si="1"/>
+        <v>418.58555383689179</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="2"/>
+        <v>47.233304543016999</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="2"/>
+        <v>57.238377324553014</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="2"/>
+        <v>68.453865986548323</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="2"/>
+        <v>81.294329393391394</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="2"/>
+        <v>96.337365786470727</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="2"/>
+        <v>114.39999980888231</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="2"/>
+        <v>136.61787925586276</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="2"/>
+        <v>164.33901255771565</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="2"/>
+        <v>197.45434383683312</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G30" s="34"/>
+      <c r="H30" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="I30" s="45">
+        <f t="shared" si="1"/>
+        <v>423.13539681337977</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="2"/>
+        <v>47.481086229144957</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="2"/>
+        <v>57.521705855418169</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="2"/>
+        <v>68.786394000479248</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="2"/>
+        <v>81.696734283105428</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="2"/>
+        <v>96.842742980860294</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="2"/>
+        <v>115.06505583674416</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="2"/>
+        <v>137.54877645581465</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="2"/>
+        <v>165.76034239644241</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="2"/>
+        <v>199.93636672269346</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G31" s="34"/>
+      <c r="H31" s="42">
+        <v>0.94</v>
+      </c>
+      <c r="I31" s="45">
+        <f t="shared" si="1"/>
+        <v>427.68523978986764</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="2"/>
+        <v>47.721002128346854</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="2"/>
+        <v>57.796040170896831</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="2"/>
+        <v>69.108365969912285</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="2"/>
+        <v>82.086364898941667</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="2"/>
+        <v>97.33207706330532</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="2"/>
+        <v>115.70899977561025</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="2"/>
+        <v>138.45012248457505</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="2"/>
+        <v>167.13655236437563</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="2"/>
+        <v>202.33959821976771</v>
+      </c>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G32" s="34"/>
+      <c r="H32" s="42">
+        <v>0.95</v>
+      </c>
+      <c r="I32" s="45">
+        <f t="shared" si="1"/>
+        <v>432.23508276635567</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="2"/>
+        <v>47.953381682292544</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="2"/>
+        <v>58.061756974472566</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="2"/>
+        <v>69.420224012204443</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="2"/>
+        <v>82.463756264052563</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="2"/>
+        <v>97.806039965252481</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="2"/>
+        <v>116.33271586019454</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="2"/>
+        <v>139.32315502977451</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="2"/>
+        <v>168.46953221084601</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="2"/>
+        <v>204.66733833693419</v>
+      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G33" s="34"/>
+      <c r="H33" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="I33" s="45">
+        <f t="shared" si="1"/>
+        <v>436.78492574284354</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="2"/>
+        <v>48.178537264076255</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="2"/>
+        <v>58.319213452389661</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="2"/>
+        <v>69.722387338340383</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="2"/>
+        <v>82.829415681711779</v>
+      </c>
+      <c r="N33" s="9">
+        <f t="shared" si="2"/>
+        <v>98.265268804966809</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="2"/>
+        <v>116.93704251246643</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="2"/>
+        <v>140.16904765368599</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="2"/>
+        <v>169.76107377610836</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="2"/>
+        <v>206.92271610758095</v>
+      </c>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G34" s="34"/>
+      <c r="H34" s="43">
+        <v>0.97</v>
+      </c>
+      <c r="I34" s="45">
+        <f t="shared" si="1"/>
+        <v>441.33476871933152</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="2"/>
+        <v>48.396765228524032</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="2"/>
+        <v>58.568748474638028</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="2"/>
+        <v>70.01525366246625</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="2"/>
+        <v>83.183824441045076</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="2"/>
+        <v>98.710368029745695</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="2"/>
+        <v>117.52277516071818</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="2"/>
+        <v>140.98891373915095</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="2"/>
+        <v>171.01287701613489</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="2"/>
+        <v>209.10870011050832</v>
+      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G35" s="34"/>
+      <c r="H35" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="I35" s="45">
+        <f t="shared" si="1"/>
+        <v>445.88461169581944</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="2"/>
+        <v>48.608346887865224</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="2"/>
+        <v>58.810683710594859</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="2"/>
+        <v>70.299200511260409</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="2"/>
+        <v>83.527439401550012</v>
+      </c>
+      <c r="N35" s="9">
+        <f t="shared" si="2"/>
+        <v>99.141911405905148</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="2"/>
+        <v>118.09066885830649</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="2"/>
+        <v>141.78381015510388</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="2"/>
+        <v>172.22655559927944</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="2"/>
+        <v>211.22810824320604</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="G36" s="34"/>
+      <c r="H36" s="42">
+        <v>0.99</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="1"/>
+        <v>450.43445467230742</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="2"/>
+        <v>48.813549418768687</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="2"/>
+        <v>59.045324666184541</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" ref="K36:R37" si="3">TAN(RADIANS(L$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(L$6))*$I36), 2)</f>
+        <v>70.574586441194256</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="3"/>
+        <v>83.860694466149909</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="3"/>
+        <v>99.560443868776815</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="3"/>
+        <v>118.6414407181742</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" si="3"/>
+        <v>142.55474066423935</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="3"/>
+        <v>173.40364210923525</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="3"/>
+        <v>213.28361680761151</v>
+      </c>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="7:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="34"/>
+      <c r="H37" s="44">
+        <v>1</v>
+      </c>
+      <c r="I37" s="45">
+        <f t="shared" si="1"/>
+        <v>454.9842976487954</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="2"/>
+        <v>49.012626706206547</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="3"/>
+        <v>59.27296164880341</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="3"/>
+        <v>70.841752171014491</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="3"/>
+        <v>84.184001951654011</v>
+      </c>
+      <c r="N37" s="9">
+        <f t="shared" si="3"/>
+        <v>99.966483243858278</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="3"/>
+        <v>119.17577217781466</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="3"/>
+        <v>143.30265909334477</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="3"/>
+        <v>174.54559288562186</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="3"/>
+        <v>215.27776896307222</v>
+      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K38" s="28"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K39" s="28"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K41" s="28"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K42" s="28"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K43" s="28"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K44" s="28"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K45" s="28"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K46" s="28"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K47" s="28"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="K48" s="28"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K49" s="28"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K50" s="28"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J7:R37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>$B$12</formula>
+      <formula>$D$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72D1B9-AB1F-4E81-B4BB-AF8902B9204F}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -10669,7 +12826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60D84D8-D7E0-465A-92B3-61F1DC1412F6}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -10848,7 +13005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7A684-C6B9-48D0-BA62-41E5059F4BE2}">
   <dimension ref="A1:P75"/>
   <sheetViews>
@@ -12834,7 +14991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9760CE-2D6D-4E8B-AFF0-30C50443C3C8}">
   <dimension ref="A2:F7"/>
   <sheetViews>

--- a/Power Cell Ballistics.xlsx
+++ b/Power Cell Ballistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Code\FRC\2020-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{016291A1-D604-48DD-8F52-77BB33D6DD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8804A1AA-FFBD-42F5-B773-973FAA0CDFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Height" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7785,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9359CD4-8DEB-4F2A-87C8-9FF228A68946}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8019,55 +8018,55 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="1"/>
-        <v>5.3050902742447725</v>
+        <v>5.3525874759629639</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="1"/>
-        <v>6.6099387325222692</v>
+        <v>6.6619572755072207</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>8.0467605173497478</v>
+        <v>8.104902576442889</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="1"/>
-        <v>9.6624324949404894</v>
+        <v>9.7289156335523828</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="1"/>
-        <v>11.522603253370139</v>
+        <v>11.600631067847566</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>13.723327017660782</v>
+        <v>13.817751465418553</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>16.412226899137416</v>
+        <v>16.53081383411109</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="1"/>
-        <v>19.829816197566803</v>
+        <v>19.985871826521656</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>24.397632352982438</v>
+        <v>24.616067705711817</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="1"/>
-        <v>30.929184440310195</v>
+        <v>31.262699982824568</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="1"/>
-        <v>41.221271863245086</v>
+        <v>41.803679399311712</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="1"/>
-        <v>60.139323255995571</v>
+        <v>61.433158529460648</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="1"/>
-        <v>105.73691874968517</v>
+        <v>110.87294731347349</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -8087,55 +8086,55 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" ref="J8:V23" si="3">TAN(J$5)*$I8-(0.5*$B$24)*POWER($I8/($B$21*COS(J$5)), 2)</f>
-        <v>10.028977301259124</v>
+        <v>10.218966108131887</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>12.583348469538061</v>
+        <v>12.791422641477864</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
-        <v>15.382061152365958</v>
+        <v>15.614629388738521</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>18.511338831507238</v>
+        <v>18.777271385954812</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>22.090413013480561</v>
+        <v>22.402524271390266</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>26.291221848382094</v>
+        <v>26.668919639413168</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>31.373355434738915</v>
+        <v>31.847703174633608</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>37.75004540861417</v>
+        <v>38.374267924433582</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>46.122363319700334</v>
+        <v>46.996104730617859</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="3"/>
-        <v>57.777279694329863</v>
+        <v>59.111341864387349</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="3"/>
-        <v>75.315868071327287</v>
+        <v>77.64549821559379</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>104.44652935315733</v>
+        <v>109.62187044701764</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="3"/>
-        <v>148.62641973246832</v>
+        <v>169.17053398762158</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -8148,55 +8147,55 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="3"/>
-        <v>14.171661081043055</v>
+        <v>14.599135896506773</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>17.920229211047374</v>
+        <v>18.388396097911933</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="3"/>
-        <v>22.005901905048628</v>
+        <v>22.529180436886897</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>26.546719009700251</v>
+        <v>27.145067257207288</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>31.703429280331264</v>
+        <v>32.405679610628098</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="3"/>
-        <v>37.70368449216393</v>
+        <v>38.553504521983854</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="3"/>
-        <v>44.883385606804502</v>
+        <v>45.950668021567566</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="3"/>
-        <v>53.760687633142098</v>
+        <v>55.165188293735774</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="3"/>
-        <v>65.174192900153699</v>
+        <v>67.140111074718135</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="3"/>
-        <v>80.544285762059005</v>
+        <v>83.545925644688353</v>
       </c>
       <c r="T9" s="9">
         <f t="shared" si="3"/>
-        <v>102.28378862424663</v>
+        <v>107.52545644884626</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="3"/>
-        <v>132.92161829148529</v>
+        <v>144.56613575267096</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="3"/>
-        <v>128.6685029483495</v>
+        <v>174.89276002244421</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -8218,55 +8217,55 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="3"/>
-        <v>17.733141613596565</v>
+        <v>18.493096841087617</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>22.620580957050208</v>
+        <v>23.452877644809419</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="3"/>
-        <v>27.918282775397767</v>
+        <v>28.848555720888019</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>33.768573029519523</v>
+        <v>34.83230324730981</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>40.361652053922249</v>
+        <v>41.610097085561065</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="3"/>
-        <v>47.960714949006288</v>
+        <v>49.471506113130594</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="3"/>
-        <v>56.942317415334166</v>
+        <v>58.839708374912952</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="3"/>
-        <v>67.861742871150597</v>
+        <v>70.358632934428243</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="3"/>
-        <v>81.553121094342515</v>
+        <v>85.048086738012628</v>
       </c>
       <c r="S10" s="9">
         <f t="shared" si="3"/>
-        <v>99.230202643497606</v>
+        <v>104.56645132372756</v>
       </c>
       <c r="T10" s="9">
         <f t="shared" si="3"/>
-        <v>122.12503352200305</v>
+        <v>131.44355409906908</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="3"/>
-        <v>145.56459007097939</v>
+        <v>166.26595444642064</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="3"/>
-        <v>45.863168397328593</v>
+        <v>128.03962541794164</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -8280,55 +8279,55 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>20.713418898919652</v>
+        <v>21.900848941874425</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>26.684403707546558</v>
+        <v>27.984867282170331</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="3"/>
-        <v>33.119203763413353</v>
+        <v>34.57275524074187</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>40.176900890965044</v>
+        <v>41.838979356262378</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="3"/>
-        <v>48.06508133425352</v>
+        <v>50.015776696189178</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="3"/>
-        <v>57.062313218909182</v>
+        <v>59.422924412853405</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="3"/>
-        <v>67.550150860327932</v>
+        <v>70.514824234669788</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="3"/>
-        <v>80.053211122639667</v>
+        <v>83.954601846510968</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="3"/>
-        <v>95.259147902266818</v>
+        <v>100.72003172050134</v>
       </c>
       <c r="S11" s="9">
         <f t="shared" si="3"/>
-        <v>113.83503033864571</v>
+        <v>122.17291890150501</v>
       </c>
       <c r="T11" s="9">
         <f t="shared" si="3"/>
-        <v>134.83960276459663</v>
+        <v>149.3997911662623</v>
       </c>
       <c r="U11" s="9">
         <f t="shared" si="3"/>
-        <v>142.3754446916397</v>
+        <v>174.72132652826667</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="3"/>
-        <v>-99.789583920594396</v>
+        <v>28.611130174113441</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -8351,55 +8350,55 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>23.11249293701232</v>
+        <v>24.822392198867195</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>30.111697462536441</v>
+        <v>31.984365009994669</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>37.608664869095414</v>
+        <v>39.701778996448482</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>45.771702594036846</v>
+        <v>48.165095584065</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="3"/>
-        <v>54.813717121325062</v>
+        <v>57.622718442512408</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="3"/>
-        <v>65.008479301872597</v>
+        <v>68.407759421152292</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="3"/>
-        <v>76.706885941785771</v>
+        <v>80.976015600838025</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="3"/>
-        <v>90.335092387609279</v>
+        <v>95.953095029983984</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="3"/>
-        <v>106.29227332392657</v>
+        <v>114.15594602218428</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="3"/>
-        <v>124.35876884750324</v>
+        <v>136.36532837802065</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="3"/>
-        <v>140.4274963520273</v>
+        <v>161.39416765042583</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="3"/>
-        <v>123.35418215346624</v>
+        <v>169.93225199820901</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="3"/>
-        <v>-308.28975400541913</v>
+        <v>-123.39272570904029</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -8412,55 +8411,55 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>24.930363727874564</v>
+        <v>27.257726612065916</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>32.902462222019835</v>
+        <v>35.451370828282428</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="3"/>
-        <v>41.386666092443939</v>
+        <v>44.23562698800783</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>50.552978138734886</v>
+        <v>53.810651930717654</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="3"/>
-        <v>60.60755941513689</v>
+        <v>64.430922324530783</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="3"/>
-        <v>71.799213197896535</v>
+        <v>76.426011138027206</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="3"/>
-        <v>84.41252265970769</v>
+        <v>90.223282473417726</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="3"/>
-        <v>98.707386666059463</v>
+        <v>106.35411248484724</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="3"/>
-        <v>114.65249735932177</v>
+        <v>125.35582964306147</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="3"/>
-        <v>130.80141817007024</v>
+        <v>147.14367975327451</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="3"/>
-        <v>138.88871428429508</v>
+        <v>167.42668355155979</v>
       </c>
       <c r="U13" s="9">
         <f t="shared" si="3"/>
-        <v>88.500802456458928</v>
+        <v>151.89873085624777</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="3"/>
-        <v>-579.637341857146</v>
+        <v>-327.97194223151871</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -8482,55 +8481,55 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="3"/>
-        <v>26.167031271506389</v>
+        <v>29.206852181470609</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>35.056697985996756</v>
+        <v>38.385884737033606</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="3"/>
-        <v>44.453207433458928</v>
+        <v>48.174299215419936</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>54.520727525059208</v>
+        <v>58.775648396220362</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="3"/>
-        <v>65.446608215689011</v>
+        <v>70.44038834224429</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="3"/>
-        <v>77.434514906981008</v>
+        <v>83.477679563478233</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="3"/>
-        <v>90.66706101409369</v>
+        <v>98.256624852408834</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="3"/>
-        <v>105.17009395799022</v>
+        <v>115.15765421110078</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="3"/>
-        <v>120.33982000845245</v>
+        <v>134.31968258313287</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="3"/>
-        <v>133.16297830634676</v>
+        <v>154.50797302726659</v>
       </c>
       <c r="T14" s="9">
         <f t="shared" si="3"/>
-        <v>130.22325656139998</v>
+        <v>167.49733886966408</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="3"/>
-        <v>37.815305600617762</v>
+        <v>120.62076310238274</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="3"/>
-        <v>-913.83234747577512</v>
+        <v>-585.12651939332295</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -8539,10 +8538,10 @@
       </c>
       <c r="B15" s="12">
         <f>C15*D15</f>
-        <v>4785</v>
+        <v>5231.5999999999995</v>
       </c>
       <c r="C15">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="D15">
         <v>6380</v>
@@ -8556,55 +8555,55 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="3"/>
-        <v>26.82249556790779</v>
+        <v>30.669768907081259</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>36.574404754467196</v>
+        <v>40.787906736248217</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="3"/>
-        <v>46.808288892140354</v>
+        <v>51.517795678684763</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>57.674950753009767</v>
+        <v>63.060084980573109</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="3"/>
-        <v>69.330863522981417</v>
+        <v>75.651116495652943</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="3"/>
-        <v>81.914384429125988</v>
+        <v>89.562764697505287</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="3"/>
-        <v>95.470501004943785</v>
+        <v>105.07604273781138</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="3"/>
-        <v>109.72321426340156</v>
+        <v>122.36372020874461</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="3"/>
-        <v>123.35424127131854</v>
+        <v>141.04750484239847</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="3"/>
-        <v>131.44344925633271</v>
+        <v>158.45820819999688</v>
       </c>
       <c r="T15" s="9">
         <f t="shared" si="3"/>
-        <v>114.43112318334209</v>
+        <v>161.60613360473886</v>
       </c>
       <c r="U15" s="9">
         <f t="shared" si="3"/>
-        <v>-28.702308414057143</v>
+        <v>76.098348736614184</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="3"/>
-        <v>-1310.8747708613062</v>
+        <v>-894.85645719445324</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -8628,55 +8627,55 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>26.896756617078776</v>
+        <v>31.646476788897868</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>37.455582527431154</v>
+        <v>42.65743682592624</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="3"/>
-        <v>48.451910468488265</v>
+        <v>54.266116377802334</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>60.015647822586594</v>
+        <v>66.663961683775909</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="3"/>
-        <v>72.260325337014081</v>
+        <v>80.063106784756712</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="3"/>
-        <v>85.238821764331519</v>
+        <v>94.681266540108425</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="3"/>
-        <v>98.822842632258002</v>
+        <v>110.6815361296254</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="3"/>
-        <v>112.36674758229343</v>
+        <v>127.97231047777868</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="3"/>
-        <v>123.69576114792019</v>
+        <v>145.53929642085834</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="3"/>
-        <v>125.64283102002821</v>
+        <v>158.99438527146543</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="3"/>
-        <v>91.512314150121199</v>
+        <v>149.75306775678388</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="3"/>
-        <v>-111.05203958756601</v>
+        <v>18.331487758941876</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="3"/>
-        <v>-1770.7646120137395</v>
+        <v>-1257.1617556349081</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -8695,55 +8694,55 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>26.389814419019338</v>
+        <v>32.136975826920448</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>37.700231304888639</v>
+        <v>43.994475006067688</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="3"/>
-        <v>49.38407216250264</v>
+        <v>56.419261312772669</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>61.542818733789687</v>
+        <v>69.587278505828763</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="3"/>
-        <v>74.234993657787044</v>
+        <v>83.676359209555599</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="3"/>
-        <v>87.407826912597571</v>
+        <v>98.833185091287632</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="3"/>
-        <v>100.72408589603623</v>
+        <v>115.0731050278508</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="3"/>
-        <v>113.10069391466587</v>
+        <v>131.98342501820304</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="3"/>
-        <v>121.36437963825722</v>
+        <v>147.79505731851239</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="3"/>
-        <v>115.76112359743303</v>
+        <v>156.1165042416722</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="3"/>
-        <v>61.466829461737518</v>
+        <v>131.93814132579934</v>
       </c>
       <c r="U17" s="9">
         <f t="shared" si="3"/>
-        <v>-209.23388791990851</v>
+        <v>-52.679819830634074</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="3"/>
-        <v>-2293.5018709330743</v>
+        <v>-1672.0424147146887</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -8756,55 +8755,55 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>25.301668973729484</v>
+        <v>32.141266021148979</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>37.30835108683965</v>
+        <v>44.799021276672569</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="3"/>
-        <v>49.604773974183459</v>
+        <v>57.977230483595733</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>62.256463486619062</v>
+        <v>71.830035446731671</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="3"/>
-        <v>75.254868485300278</v>
+        <v>86.490873770049646</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="3"/>
-        <v>88.421399873924145</v>
+        <v>102.01852035104292</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="3"/>
-        <v>101.17423079627861</v>
+        <v>118.25074943248765</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="3"/>
-        <v>111.92505326051887</v>
+        <v>134.39706383001766</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="3"/>
-        <v>116.36009674232977</v>
+        <v>147.81478753536069</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="3"/>
-        <v>101.79832698854744</v>
+        <v>149.8245651106171</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="3"/>
-        <v>24.294669118190882</v>
+        <v>108.16135431178498</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="3"/>
-        <v>-323.24785341108475</v>
+        <v>-136.93557403211366</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="3"/>
-        <v>-2879.0865476193107</v>
+        <v>-2139.4984344337954</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -8813,7 +8812,7 @@
       </c>
       <c r="B19" s="13">
         <f>B15*B16</f>
-        <v>90195.125084562955</v>
+        <v>98613.336759122161</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -8827,55 +8826,55 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>23.632320281209182</v>
+        <v>31.659347371583472</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>36.279941873284166</v>
+        <v>45.071075637740861</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="3"/>
-        <v>49.114015903530763</v>
+        <v>58.94002389027154</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>62.15658208107466</v>
+        <v>73.392232506484618</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="3"/>
-        <v>75.319949819553813</v>
+        <v>88.506650466238852</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="3"/>
-        <v>88.279540648311269</v>
+        <v>104.23727231937424</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="3"/>
-        <v>100.17327733298504</v>
+        <v>120.21446934353594</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="3"/>
-        <v>108.83982561985243</v>
+        <v>135.21322691322251</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="3"/>
-        <v>108.68291246013774</v>
+        <v>145.59848707140324</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="3"/>
-        <v>83.754441193371235</v>
+        <v>140.11856787830021</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="3"/>
-        <v>-20.004166880518596</v>
+        <v>78.422706714741196</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" si="3"/>
-        <v>-453.09393606109506</v>
+        <v>-234.43577484549701</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="3"/>
-        <v>-3527.5186420724494</v>
+        <v>-2659.5298147922267</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -8884,7 +8883,7 @@
       </c>
       <c r="B20" s="15">
         <f>($B$17*B19)/(12*60)</f>
-        <v>28.436518603049713</v>
+        <v>31.090593672667683</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -8898,61 +8897,61 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>21.381768341458496</v>
+        <v>30.691219878223912</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>34.615003664222229</v>
+        <v>44.810638089272594</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="3"/>
-        <v>47.911797950544525</v>
+        <v>59.307641532800098</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>61.243174517156532</v>
+        <v>74.273869685087575</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="3"/>
-        <v>74.430237660547604</v>
+        <v>89.723689298123162</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="3"/>
-        <v>86.982249235758857</v>
+        <v>105.48944099628159</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="3"/>
-        <v>97.721225506155548</v>
+        <v>120.96426476099566</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="3"/>
-        <v>103.84501099266657</v>
+        <v>134.43191426781769</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="3"/>
-        <v>98.332826791681214</v>
+        <v>141.14615592663998</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="3"/>
-        <v>61.629466211904514</v>
+        <v>126.99851254472168</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="3"/>
-        <v>-71.429678534391087</v>
+        <v>42.722198534667768</v>
       </c>
       <c r="U20" s="9">
         <f t="shared" si="3"/>
-        <v>-598.77213586993901</v>
+        <v>-345.18042227078365</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="3"/>
-        <v>-4238.7981542924908</v>
+        <v>-3232.1365557899817</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>B20*12</f>
-        <v>341.23822323659658</v>
+        <v>373.08712407201222</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -8967,55 +8966,55 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>18.550013154477355</v>
+        <v>29.236883541070334</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>32.313536459653776</v>
+        <v>44.01770863126773</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="3"/>
-        <v>45.998120115224722</v>
+        <v>59.080083411181405</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>59.516240794864643</v>
+        <v>74.474946982540587</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="3"/>
-        <v>72.58573200828171</v>
+        <v>90.141990265702617</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="3"/>
-        <v>84.52952563626701</v>
+        <v>105.77502638176507</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="3"/>
-        <v>93.818075315790139</v>
+        <v>120.50013568486679</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="3"/>
-        <v>96.940609378961256</v>
+        <v>132.05312589380313</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="3"/>
-        <v>85.3098397369601</v>
+        <v>134.45779410107096</v>
       </c>
       <c r="S21" s="9">
         <f t="shared" si="3"/>
-        <v>35.423402044147394</v>
+        <v>110.46439910988124</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="3"/>
-        <v>-129.98186584342614</v>
+        <v>1.0598297715647504</v>
       </c>
       <c r="U21" s="9">
         <f t="shared" si="3"/>
-        <v>-760.28245283761657</v>
+        <v>-469.16951630797462</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="3"/>
-        <v>-5012.9250842794336</v>
+        <v>-3857.3186574270644</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -9028,55 +9027,55 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>15.137054720265823</v>
+        <v>27.296338360122697</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>29.375540259578884</v>
+        <v>42.6922872637263</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="3"/>
-        <v>43.37298239757142</v>
+        <v>58.257349525415464</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>56.975780914199078</v>
+        <v>73.995464398843694</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>69.786432862756087</v>
+        <v>89.761553368977175</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="3"/>
-        <v>80.921369849835685</v>
+        <v>105.09402847582459</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="3"/>
-        <v>88.463826761888839</v>
+        <v>118.82208211514936</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="3"/>
-        <v>88.126620778736566</v>
+        <v>128.0768617911788</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="3"/>
-        <v>69.613951295974516</v>
+        <v>125.53340159469622</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="3"/>
-        <v>5.1362486900997055</v>
+        <v>90.516227573779076</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="3"/>
-        <v>-195.66072880762454</v>
+        <v>-46.564399574568142</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="3"/>
-        <v>-937.62488696412856</v>
+        <v>-606.40305695706866</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="3"/>
-        <v>-5849.8994320332795</v>
+        <v>-4535.0761197034708</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -9098,55 +9097,55 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="3"/>
-        <v>11.142893038823843</v>
+        <v>24.869584335381035</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>25.801015063997482</v>
+        <v>40.834373986648302</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="3"/>
-        <v>40.036384797584546</v>
+        <v>56.839439875502208</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="3"/>
-        <v>53.621794875159708</v>
+        <v>72.835421933996798</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="3"/>
-        <v>66.032340223970721</v>
+        <v>88.582378607946893</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="3"/>
-        <v>76.157781876464924</v>
+        <v>103.4464472784602</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="3"/>
-        <v>81.65847984445162</v>
+        <v>115.93010405184341</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="3"/>
-        <v>77.403045191992419</v>
+        <v>122.50312195994474</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="3"/>
-        <v>51.245161468724291</v>
+        <v>114.37297840751557</v>
       </c>
       <c r="S23" s="9">
         <f t="shared" si="3"/>
-        <v>-29.231993850238609</v>
+        <v>67.15399793641501</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="3"/>
-        <v>-268.46626742698561</v>
+        <v>-100.15048950373023</v>
       </c>
       <c r="U23" s="9">
         <f t="shared" si="3"/>
-        <v>-1130.7994382494737</v>
+        <v>-756.88104421806656</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="3"/>
-        <v>-6749.7211975540276</v>
+        <v>-5265.4089426192058</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9166,55 +9165,55 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" ref="J24:V24" si="4">TAN(J$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(J$5)), 2)</f>
-        <v>6.5675281101514713</v>
+        <v>21.956621466845348</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
-        <v>21.589960872909614</v>
+        <v>38.443968800033701</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="4"/>
-        <v>35.988327315264129</v>
+        <v>54.826354461441738</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="4"/>
-        <v>49.454282677746619</v>
+        <v>70.99481958799997</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="4"/>
-        <v>61.323454091925669</v>
+        <v>86.604465982611799</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="4"/>
-        <v>70.238761716154613</v>
+        <v>100.83228278967181</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="4"/>
-        <v>73.402034563478423</v>
+        <v>111.82420149494882</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="4"/>
-        <v>64.769882618728843</v>
+        <v>115.33190640010105</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="4"/>
-        <v>30.203470255209538</v>
+        <v>100.97652453952924</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="4"/>
-        <v>-67.68132557686738</v>
+        <v>40.37771019778927</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="4"/>
-        <v>-348.39848170150924</v>
+        <v>-159.69844001592219</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="4"/>
-        <v>-1339.8061066936532</v>
+        <v>-920.60347809096788</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="4"/>
-        <v>-7712.3903808416762</v>
+        <v>-6048.3171261742646</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -9227,55 +9226,55 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" ref="J25:V40" si="5">TAN(J$5)*$I25-(0.5*$B$24)*POWER($I25/($B$21*COS(J$5)), 2)</f>
-        <v>1.4109599342486661</v>
+        <v>18.557449754515616</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="5"/>
-        <v>16.742377686315265</v>
+        <v>35.521071703882555</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="5"/>
-        <v>31.228809950610241</v>
+        <v>52.21809328323404</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="5"/>
-        <v>44.473244321959783</v>
+        <v>68.47365736085321</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="5"/>
-        <v>55.659774466620917</v>
+        <v>83.827815492971752</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="5"/>
-        <v>63.164309368904838</v>
+        <v>97.251535009459559</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="5"/>
-        <v>63.69449091896945</v>
+        <v>106.50437444446581</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="5"/>
-        <v>50.22713305894581</v>
+        <v>106.56321511164754</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="5"/>
-        <v>6.4888776554303149</v>
+        <v>85.344039990737087</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="5"/>
-        <v>-110.21174648978695</v>
+        <v>10.187364357901856</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="5"/>
-        <v>-435.45737163119622</v>
+        <v>-225.20825111114402</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="5"/>
-        <v>-1564.6448922966667</v>
+        <v>-1097.5703585757731</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="5"/>
-        <v>-8737.9069818962253</v>
+        <v>-6883.8006703686478</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -9289,55 +9288,55 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="5"/>
-        <v>-4.3268114888845588</v>
+        <v>14.67206919839181</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="5"/>
-        <v>11.258265504214449</v>
+        <v>32.065682698194777</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="5"/>
-        <v>25.757832703622739</v>
+        <v>49.014656340879014</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="5"/>
-        <v>38.678679807799199</v>
+        <v>65.271935252556489</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="5"/>
-        <v>49.041301348056379</v>
+        <v>80.252427139026878</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="5"/>
-        <v>54.934424834715685</v>
+        <v>92.704203937823337</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="5"/>
-        <v>52.535848910924528</v>
+        <v>99.970622900394119</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="5"/>
-        <v>33.774796512643263</v>
+        <v>96.197048094584261</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="5"/>
-        <v>-19.898616330613322</v>
+        <v>67.475524761139241</v>
       </c>
       <c r="S26" s="9">
         <f t="shared" si="5"/>
-        <v>-156.8232565889964</v>
+        <v>-23.417039583247515</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="5"/>
-        <v>-529.64293721604588</v>
+        <v>-296.67992278939516</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="5"/>
-        <v>-1805.3157950585137</v>
+        <v>-1287.7816856724821</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" si="5"/>
-        <v>-9826.2710007176811</v>
+        <v>-7771.8595752023557</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -9350,55 +9349,55 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="5"/>
-        <v>-10.645786159248246</v>
+        <v>10.300479798473987</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="5"/>
-        <v>5.1376243266071526</v>
+        <v>28.077801782970468</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="5"/>
-        <v>19.575395574301695</v>
+        <v>45.216043634376803</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="5"/>
-        <v>32.070589135264925</v>
+        <v>61.389653263109807</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="5"/>
-        <v>41.468034736232141</v>
+        <v>75.878300920777122</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="5"/>
-        <v>45.549108113586982</v>
+        <v>87.19028957476317</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="5"/>
-        <v>39.926108539343488</v>
+        <v>92.222946862733806</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="5"/>
-        <v>15.412872979821316</v>
+        <v>84.23340534891139</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="5"/>
-        <v>-48.959011702921885</v>
+        <v>47.370978850735582</v>
       </c>
       <c r="S27" s="9">
         <f t="shared" si="5"/>
-        <v>-207.51585587449676</v>
+        <v>-60.435501625658617</v>
       </c>
       <c r="T27" s="9">
         <f t="shared" si="5"/>
-        <v>-630.95517845605843</v>
+        <v>-374.11345505067618</v>
       </c>
       <c r="U27" s="9">
         <f t="shared" si="5"/>
-        <v>-2061.8188149791936</v>
+        <v>-1491.2374593810951</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="5"/>
-        <v>-10977.482437306035</v>
+        <v>-8712.4938406753936</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -9411,55 +9410,55 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="5"/>
-        <v>-17.545964076842282</v>
+        <v>5.4426815547621459</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="5"/>
-        <v>-1.6195458465066395</v>
+        <v>23.557428958209556</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="5"/>
-        <v>12.681498562647192</v>
+        <v>40.822255163727306</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="5"/>
-        <v>24.648972304356846</v>
+        <v>56.82681139251315</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="5"/>
-        <v>32.939974631148203</v>
+        <v>70.705436838222454</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="5"/>
-        <v>35.008359205518843</v>
+        <v>80.709791920279088</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="5"/>
-        <v>25.865269804226728</v>
+        <v>83.261346331485015</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="5"/>
-        <v>-4.8586375395199752</v>
+        <v>70.672286874628639</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="5"/>
-        <v>-80.692308461494576</v>
+        <v>25.030402259526113</v>
       </c>
       <c r="S28" s="9">
         <f t="shared" si="5"/>
-        <v>-262.28954434628804</v>
+        <v>-100.86802176933134</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" si="5"/>
-        <v>-739.39409535123366</v>
+        <v>-457.50884789498639</v>
       </c>
       <c r="U28" s="9">
         <f t="shared" si="5"/>
-        <v>-2334.1539520587085</v>
+        <v>-1707.9376797016109</v>
       </c>
       <c r="V28" s="9">
         <f t="shared" si="5"/>
-        <v>-12191.541291661293</v>
+        <v>-9705.7034667877506</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -9472,55 +9471,55 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="5"/>
-        <v>-25.027345241666808</v>
+        <v>9.8674467256216758E-2</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="5"/>
-        <v>-9.0132450151269268</v>
+        <v>18.504564223912098</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="5"/>
-        <v>5.076141668659119</v>
+        <v>35.833290928930523</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="5"/>
-        <v>16.413829315075048</v>
+        <v>51.583409640766575</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="5"/>
-        <v>23.457121032804565</v>
+        <v>64.733834891363017</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="5"/>
-        <v>23.312178110511127</v>
+        <v>73.262710974371089</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="5"/>
-        <v>10.353332705573962</v>
+        <v>73.085821306647631</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="5"/>
-        <v>-27.039735045380723</v>
+        <v>55.51369267173618</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="5"/>
-        <v>-115.09850660633208</v>
+        <v>0.45379498751094616</v>
       </c>
       <c r="S29" s="9">
         <f t="shared" si="5"/>
-        <v>-321.14432200436954</v>
+        <v>-144.71460001426624</v>
       </c>
       <c r="T29" s="9">
         <f t="shared" si="5"/>
-        <v>-854.9596879015719</v>
+        <v>-546.86610132232681</v>
       </c>
       <c r="U29" s="9">
         <f t="shared" si="5"/>
-        <v>-2622.321206297057</v>
+        <v>-1937.8823466340307</v>
       </c>
       <c r="V29" s="9">
         <f t="shared" si="5"/>
-        <v>-13468.447563783449</v>
+        <v>-10751.488453539436</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -9533,55 +9532,55 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="5"/>
-        <v>-33.089929653721669</v>
+        <v>-5.731541464043687</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="5"/>
-        <v>-17.043473179253624</v>
+        <v>12.919207580078051</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="5"/>
-        <v>-3.240675107662554</v>
+        <v>30.249150929986541</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="5"/>
-        <v>7.3651601674196172</v>
+        <v>45.659448007870054</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="5"/>
-        <v>13.01947394120117</v>
+        <v>57.963495080198641</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="5"/>
-        <v>10.460564828564088</v>
+        <v>64.849046737039203</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="5"/>
-        <v>-6.6097027566145243</v>
+        <v>61.696371788221654</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="5"/>
-        <v>-51.130419537761043</v>
+        <v>38.757622740234183</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="5"/>
-        <v>-152.17760613743383</v>
+        <v>-26.358842965310146</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="5"/>
-        <v>-384.08018884874127</v>
+        <v>-191.97523636046265</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="5"/>
-        <v>-977.65195610707315</v>
+        <v>-642.18521533269677</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="5"/>
-        <v>-2926.3205776942386</v>
+        <v>-2181.0714601783538</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="5"/>
-        <v>-14808.201253672512</v>
+        <v>-11849.848800930449</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -9595,55 +9594,55 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="5"/>
-        <v>-41.733717313007048</v>
+        <v>-12.047966239137679</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="5"/>
-        <v>-25.710230338886902</v>
+        <v>6.8013590267074164</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="5"/>
-        <v>-12.268951766317656</v>
+        <v>24.069835166895245</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="5"/>
-        <v>-2.497035138609732</v>
+        <v>39.054926493823558</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="5"/>
-        <v>1.6270333563381314</v>
+        <v>50.39441740472941</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="5"/>
-        <v>-3.5464806403224998</v>
+        <v>55.468799208283201</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="5"/>
-        <v>-25.023836582339129</v>
+        <v>49.092997776207142</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="5"/>
-        <v>-77.130691016660649</v>
+        <v>20.404077080122192</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="5"/>
-        <v>-191.92960705480027</v>
+        <v>-55.407511598936935</v>
       </c>
       <c r="S31" s="9">
         <f t="shared" si="5"/>
-        <v>-451.09714487940391</v>
+        <v>-242.64993080792078</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="5"/>
-        <v>-1107.4708999677373</v>
+        <v>-743.46618992609547</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="5"/>
-        <v>-3246.1520662502544</v>
+        <v>-2437.5050203345809</v>
       </c>
       <c r="V31" s="9">
         <f t="shared" si="5"/>
-        <v>-16210.802361328479</v>
+        <v>-13000.784508960787</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -9656,55 +9655,55 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="5"/>
-        <v>-50.958708219522833</v>
+        <v>-18.850599858025674</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="5"/>
-        <v>-35.013516494026561</v>
+        <v>0.15101856380022127</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="5"/>
-        <v>-22.008688307306386</v>
+        <v>17.295343639656721</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="5"/>
-        <v>-13.172756603012715</v>
+        <v>31.769845098627115</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="5"/>
-        <v>-10.720200721784693</v>
+        <v>42.026601864955467</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="5"/>
-        <v>-18.708958296148467</v>
+        <v>45.121968388103426</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="5"/>
-        <v>-44.889068771599568</v>
+        <v>35.275699270604036</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="5"/>
-        <v>-105.04054948207977</v>
+        <v>0.45305569140055013</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="5"/>
-        <v>-234.3545093584313</v>
+        <v>-86.692210913369308</v>
       </c>
       <c r="S32" s="9">
         <f t="shared" si="5"/>
-        <v>-522.19519009635701</v>
+        <v>-296.7386833566411</v>
       </c>
       <c r="T32" s="9">
         <f t="shared" si="5"/>
-        <v>-1244.4165194835641</v>
+        <v>-850.70902510252495</v>
       </c>
       <c r="U32" s="9">
         <f t="shared" si="5"/>
-        <v>-3581.8156719651047</v>
+        <v>-2707.1830271027125</v>
       </c>
       <c r="V32" s="9">
         <f t="shared" si="5"/>
-        <v>-17676.250886751339</v>
+        <v>-14204.295577630448</v>
       </c>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.3">
@@ -9717,55 +9716,55 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="5"/>
-        <v>-60.764902373268995</v>
+        <v>-26.139442320707758</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="5"/>
-        <v>-44.953331644672716</v>
+        <v>-7.031813808643534</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="5"/>
-        <v>-32.459884730628687</v>
+        <v>9.9256763482709687</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="5"/>
-        <v>-24.662004225789474</v>
+        <v>23.804203822280641</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="5"/>
-        <v>-24.022228293167302</v>
+        <v>32.860048460876499</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="5"/>
-        <v>-35.02686813891421</v>
+        <v>33.808554276499592</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="5"/>
-        <v>-66.205399324395955</v>
+        <v>20.244476271412452</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="5"/>
-        <v>-134.85999493401823</v>
+        <v>-21.095441425930744</v>
       </c>
       <c r="R33" s="9">
         <f t="shared" si="5"/>
-        <v>-279.4523130483268</v>
+        <v>-120.21294090860783</v>
       </c>
       <c r="S33" s="9">
         <f t="shared" si="5"/>
-        <v>-597.37432449960056</v>
+        <v>-354.24149400662259</v>
       </c>
       <c r="T33" s="9">
         <f t="shared" si="5"/>
-        <v>-1388.4888146545545</v>
+        <v>-963.91372086198407</v>
       </c>
       <c r="U33" s="9">
         <f t="shared" si="5"/>
-        <v>-3933.3113948387872</v>
+        <v>-2990.1054804827463</v>
       </c>
       <c r="V33" s="9">
         <f t="shared" si="5"/>
-        <v>-19204.546829941111</v>
+        <v>-15460.382006939431</v>
       </c>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.3">
@@ -9778,55 +9777,55 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="5"/>
-        <v>-71.152299774245535</v>
+        <v>-33.914493627183873</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="5"/>
-        <v>-55.529675790825337</v>
+        <v>-14.747138090623878</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="5"/>
-        <v>-43.62254103628436</v>
+        <v>1.9608332927379308</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="5"/>
-        <v>-36.964778006939923</v>
+        <v>15.158002664784249</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="5"/>
-        <v>-38.279049357809527</v>
+        <v>22.894757192492705</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="5"/>
-        <v>-52.500210168619105</v>
+        <v>21.528556873471814</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="5"/>
-        <v>-88.972828240728234</v>
+        <v>3.9993287786322185</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="5"/>
-        <v>-166.58902737247627</v>
+        <v>-44.241414271871804</v>
       </c>
       <c r="R34" s="9">
         <f t="shared" si="5"/>
-        <v>-327.22301812448688</v>
+        <v>-155.96970158465183</v>
       </c>
       <c r="S34" s="9">
         <f t="shared" si="5"/>
-        <v>-676.6345480891348</v>
+        <v>-415.15836275786614</v>
       </c>
       <c r="T34" s="9">
         <f t="shared" si="5"/>
-        <v>-1539.6877854807071</v>
+        <v>-1083.0802772044717</v>
       </c>
       <c r="U34" s="9">
         <f t="shared" si="5"/>
-        <v>-4300.6392348713052</v>
+        <v>-3286.2723804746838</v>
       </c>
       <c r="V34" s="9">
         <f t="shared" si="5"/>
-        <v>-20795.690190897774</v>
+        <v>-16769.043796887738</v>
       </c>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.3">
@@ -9839,55 +9838,55 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="5"/>
-        <v>-82.120900422452536</v>
+        <v>-42.175753777454048</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="5"/>
-        <v>-66.742548932484567</v>
+        <v>-22.994954282140839</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="5"/>
-        <v>-55.49665722427369</v>
+        <v>-6.5991855269424207</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="5"/>
-        <v>-50.081077946464177</v>
+        <v>5.8312416261379099</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="5"/>
-        <v>-53.490663915711423</v>
+        <v>12.130728059804028</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="5"/>
-        <v>-71.128984385263607</v>
+        <v>8.2819761790202051</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="5"/>
-        <v>-113.19135552059646</v>
+        <v>-13.459743207736494</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="5"/>
-        <v>-200.22764679745364</v>
+        <v>-68.984862846422629</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" si="5"/>
-        <v>-377.66662458691155</v>
+        <v>-193.96249294150152</v>
       </c>
       <c r="S35" s="9">
         <f t="shared" si="5"/>
-        <v>-759.97586086495903</v>
+        <v>-479.48928961037177</v>
       </c>
       <c r="T35" s="9">
         <f t="shared" si="5"/>
-        <v>-1698.0134319620229</v>
+        <v>-1208.2086941299899</v>
       </c>
       <c r="U35" s="9">
         <f t="shared" si="5"/>
-        <v>-4683.7991920626582</v>
+        <v>-3595.6837270785254</v>
       </c>
       <c r="V35" s="9">
         <f t="shared" si="5"/>
-        <v>-22449.68096962135</v>
+        <v>-18130.280947475381</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.3">
@@ -9901,55 +9900,55 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="5"/>
-        <v>-93.670704317890056</v>
+        <v>-50.923222771518141</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="5"/>
-        <v>-78.59195106965015</v>
+        <v>-31.775262383194331</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="5"/>
-        <v>-68.08223329459662</v>
+        <v>-15.754380110769887</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="5"/>
-        <v>-64.010904044362178</v>
+        <v>-4.1760792936584039</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="5"/>
-        <v>-69.657071966873104</v>
+        <v>0.56796106281052516</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="5"/>
-        <v>-90.913190788847544</v>
+        <v>-5.9311878068552915</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="5"/>
-        <v>-138.86098116400058</v>
+        <v>-32.13273968769397</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="5"/>
-        <v>-235.77585320895059</v>
+        <v>-95.325787149583107</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="5"/>
-        <v>-430.78313243560069</v>
+        <v>-234.19131497915726</v>
       </c>
       <c r="S36" s="9">
         <f t="shared" si="5"/>
-        <v>-847.39826282707418</v>
+        <v>-547.23427456413879</v>
       </c>
       <c r="T36" s="9">
         <f t="shared" si="5"/>
-        <v>-1863.4657540985004</v>
+        <v>-1339.2989716385368</v>
       </c>
       <c r="U36" s="9">
         <f t="shared" si="5"/>
-        <v>-5082.7912664128407</v>
+        <v>-3918.3395202942729</v>
       </c>
       <c r="V36" s="9">
         <f t="shared" si="5"/>
-        <v>-24166.519166111822</v>
+        <v>-19544.093458702344</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.3">
@@ -9962,55 +9961,55 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="5"/>
-        <v>-105.80171146055793</v>
+        <v>-60.156900609376351</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="5"/>
-        <v>-91.077882202322172</v>
+        <v>-41.088062393784412</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="5"/>
-        <v>-81.379269247252921</v>
+        <v>-25.504750458744695</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="5"/>
-        <v>-78.754256300633813</v>
+        <v>-14.863960094604579</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="5"/>
-        <v>-86.778273511294515</v>
+        <v>-11.793543798487917</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="5"/>
-        <v>-111.85282937937103</v>
+        <v>-21.110935084154733</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="5"/>
-        <v>-165.9817051709407</v>
+        <v>-52.019660661239868</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="5"/>
-        <v>-273.23364660696666</v>
+        <v>-123.26418718135335</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="5"/>
-        <v>-486.57254167055441</v>
+        <v>-276.6561676976188</v>
       </c>
       <c r="S37" s="9">
         <f t="shared" si="5"/>
-        <v>-938.90175397548001</v>
+        <v>-618.39331761916765</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" si="5"/>
-        <v>-2036.0447518901424</v>
+        <v>-1476.3511097301143</v>
       </c>
       <c r="U37" s="9">
         <f t="shared" si="5"/>
-        <v>-5497.6154579218601</v>
+        <v>-4254.2397601219218</v>
       </c>
       <c r="V37" s="9">
         <f t="shared" si="5"/>
-        <v>-25946.2047803692</v>
+        <v>-21010.481330568629</v>
       </c>
     </row>
     <row r="38" spans="7:22" x14ac:dyDescent="0.3">
@@ -10023,55 +10022,55 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="5"/>
-        <v>-118.51392185045617</v>
+        <v>-69.876787291028677</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="5"/>
-        <v>-104.20034233050075</v>
+        <v>-50.933354313911082</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="5"/>
-        <v>-95.387765082242879</v>
+        <v>-35.850296570866703</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="5"/>
-        <v>-94.311134715279195</v>
+        <v>-26.232400776700729</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="5"/>
-        <v>-104.8542685489756</v>
+        <v>-24.953786524091242</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="5"/>
-        <v>-133.9479001568339</v>
+        <v>-37.257265652878289</v>
       </c>
       <c r="P38" s="9">
         <f t="shared" si="5"/>
-        <v>-194.55352754141654</v>
+        <v>-73.120506128374473</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="5"/>
-        <v>-312.60102699150241</v>
+        <v>-152.80006294173347</v>
       </c>
       <c r="R38" s="9">
         <f t="shared" si="5"/>
-        <v>-545.03485229177249</v>
+        <v>-321.3570510968857</v>
       </c>
       <c r="S38" s="9">
         <f t="shared" si="5"/>
-        <v>-1034.4863343101758</v>
+        <v>-692.96641877545835</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="5"/>
-        <v>-2215.750425336947</v>
+        <v>-1619.3651084047215</v>
       </c>
       <c r="U38" s="9">
         <f t="shared" si="5"/>
-        <v>-5928.2717665897135</v>
+        <v>-4603.3844465614739</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" si="5"/>
-        <v>-27788.737812393476</v>
+        <v>-22529.444563074241</v>
       </c>
     </row>
     <row r="39" spans="7:22" x14ac:dyDescent="0.3">
@@ -10084,55 +10083,55 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="5"/>
-        <v>-131.80733548758482</v>
+        <v>-80.082882816474893</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="5"/>
-        <v>-117.9593314541859</v>
+        <v>-61.311138143574311</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="5"/>
-        <v>-110.10772079956644</v>
+        <v>-46.791018447136139</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="5"/>
-        <v>-110.68153928829855</v>
+        <v>-38.281401339946854</v>
       </c>
       <c r="N39" s="9">
         <f t="shared" si="5"/>
-        <v>-123.88505707991652</v>
+        <v>-38.912767113999337</v>
       </c>
       <c r="O39" s="9">
         <f t="shared" si="5"/>
-        <v>-157.19840312123625</v>
+        <v>-54.370179513025562</v>
       </c>
       <c r="P39" s="9">
         <f t="shared" si="5"/>
-        <v>-224.57644827542856</v>
+        <v>-95.435276089097442</v>
       </c>
       <c r="Q39" s="9">
         <f t="shared" si="5"/>
-        <v>-353.8779943625575</v>
+        <v>-183.93341443072302</v>
       </c>
       <c r="R39" s="9">
         <f t="shared" si="5"/>
-        <v>-606.1700642992555</v>
+        <v>-368.29396517695886</v>
       </c>
       <c r="S39" s="9">
         <f t="shared" si="5"/>
-        <v>-1134.1520038311628</v>
+        <v>-770.9535780330109</v>
       </c>
       <c r="T39" s="9">
         <f t="shared" si="5"/>
-        <v>-2402.5827744389135</v>
+        <v>-1768.340967662358</v>
       </c>
       <c r="U39" s="9">
         <f t="shared" si="5"/>
-        <v>-6374.7601924163991</v>
+        <v>-4965.7735796129309</v>
       </c>
       <c r="V39" s="9">
         <f t="shared" si="5"/>
-        <v>-29694.118262184649</v>
+        <v>-24100.983156219187</v>
       </c>
     </row>
     <row r="40" spans="7:22" x14ac:dyDescent="0.3">
@@ -10145,55 +10144,55 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="5"/>
-        <v>-145.68195237194405</v>
+        <v>-90.775187185715282</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="5"/>
-        <v>-132.35484957337738</v>
+        <v>-72.221413882774101</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="5"/>
-        <v>-125.53913639922337</v>
+        <v>-58.326916087552718</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="5"/>
-        <v>-127.86547001969137</v>
+        <v>-51.01096178434301</v>
       </c>
       <c r="N40" s="9">
         <f t="shared" si="5"/>
-        <v>-143.87063910411706</v>
+        <v>-53.670485568212371</v>
       </c>
       <c r="O40" s="9">
         <f t="shared" si="5"/>
-        <v>-181.60433827257799</v>
+        <v>-72.449676664596893</v>
       </c>
       <c r="P40" s="9">
         <f t="shared" si="5"/>
-        <v>-256.05046737297619</v>
+        <v>-118.963970543409</v>
       </c>
       <c r="Q40" s="9">
         <f t="shared" si="5"/>
-        <v>-397.06454872013205</v>
+        <v>-216.66424164832279</v>
       </c>
       <c r="R40" s="9">
         <f t="shared" si="5"/>
-        <v>-669.97817769300275</v>
+        <v>-417.46690993783761</v>
       </c>
       <c r="S40" s="9">
         <f t="shared" si="5"/>
-        <v>-1237.89876253844</v>
+        <v>-852.35479539182552</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="5"/>
-        <v>-2596.5417991960448</v>
+        <v>-1923.2786875030231</v>
       </c>
       <c r="U40" s="9">
         <f t="shared" si="5"/>
-        <v>-6837.0807354019198</v>
+        <v>-5341.4071592762903</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="5"/>
-        <v>-31662.346129742742</v>
+        <v>-25725.097110003451</v>
       </c>
     </row>
     <row r="41" spans="7:22" x14ac:dyDescent="0.3">
@@ -10206,55 +10205,55 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" ref="J41:V46" si="6">TAN(J$5)*$I41-(0.5*$B$24)*POWER($I41/($B$21*COS(J$5)), 2)</f>
-        <v>-160.13777250353357</v>
+        <v>-101.95370039874953</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="6"/>
-        <v>-147.38689668807535</v>
+        <v>-83.664181531510508</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="6"/>
-        <v>-141.6820118812139</v>
+        <v>-70.457989492116496</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="6"/>
-        <v>-145.86292690945805</v>
+        <v>-64.421082109888971</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="6"/>
-        <v>-164.81101462157727</v>
+        <v>-69.226941886730231</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="6"/>
-        <v>-207.16570561085945</v>
+        <v>-91.495757107592055</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="6"/>
-        <v>-288.97558483405987</v>
+        <v>-143.70658949130916</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="6"/>
-        <v>-442.16069006422617</v>
+        <v>-250.99254459453175</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="6"/>
-        <v>-736.45919247301435</v>
+        <v>-468.87588537952183</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="6"/>
-        <v>-1345.7266104320079</v>
+        <v>-937.17007085190153</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="6"/>
-        <v>-2797.6274996083357</v>
+        <v>-2084.1782679267189</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="6"/>
-        <v>-7315.2333955462746</v>
+        <v>-5730.2851855515537</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="6"/>
-        <v>-33693.421415067714</v>
+        <v>-27401.786424427046</v>
       </c>
     </row>
     <row r="42" spans="7:22" x14ac:dyDescent="0.3">
@@ -10267,55 +10266,55 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="6"/>
-        <v>-175.17479588235349</v>
+        <v>-113.61842245557798</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
-        <v>-163.05547279827985</v>
+        <v>-95.639441089783503</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="6"/>
-        <v>-158.53634724553808</v>
+        <v>-83.184238660827646</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="6"/>
-        <v>-164.67390995759843</v>
+        <v>-78.51176231658502</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="6"/>
-        <v>-186.70618363229727</v>
+        <v>-85.582136069552746</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="6"/>
-        <v>-233.88250513608023</v>
+        <v>-111.50842084201145</v>
       </c>
       <c r="P42" s="9">
         <f t="shared" si="6"/>
-        <v>-323.35180065867974</v>
+        <v>-169.66313293279813</v>
       </c>
       <c r="Q42" s="9">
         <f t="shared" si="6"/>
-        <v>-489.16641839483941</v>
+        <v>-286.91832326935059</v>
       </c>
       <c r="R42" s="9">
         <f t="shared" si="6"/>
-        <v>-805.61310863929111</v>
+        <v>-522.52089150201232</v>
       </c>
       <c r="S42" s="9">
         <f t="shared" si="6"/>
-        <v>-1457.635547511866</v>
+        <v>-1025.3994044132394</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="6"/>
-        <v>-3005.8398756757924</v>
+        <v>-2251.0397089334438</v>
       </c>
       <c r="U42" s="9">
         <f t="shared" si="6"/>
-        <v>-7809.2181728494616</v>
+        <v>-6132.4076584387203</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="6"/>
-        <v>-35787.344118159606</v>
+        <v>-29131.05109948996</v>
       </c>
     </row>
     <row r="43" spans="7:22" x14ac:dyDescent="0.3">
@@ -10328,55 +10327,55 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="6"/>
-        <v>-190.79302250840382</v>
+        <v>-125.76935335620053</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="6"/>
-        <v>-179.3605779039907</v>
+        <v>-108.14719255759303</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="6"/>
-        <v>-176.10214249219558</v>
+        <v>-96.505663593685995</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="6"/>
-        <v>-184.29841916411266</v>
+        <v>-93.283002404430931</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="6"/>
-        <v>-209.55614613627694</v>
+        <v>-102.73606811668043</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="6"/>
-        <v>-261.75473684824044</v>
+        <v>-132.4876678678545</v>
       </c>
       <c r="P43" s="9">
         <f t="shared" si="6"/>
-        <v>-359.17911484683486</v>
+        <v>-196.83360086787548</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="6"/>
-        <v>-538.08173371197245</v>
+        <v>-324.44157767277943</v>
       </c>
       <c r="R43" s="9">
         <f t="shared" si="6"/>
-        <v>-877.43992619183211</v>
+        <v>-578.40192830530839</v>
       </c>
       <c r="S43" s="9">
         <f t="shared" si="6"/>
-        <v>-1573.6255737780157</v>
+        <v>-1117.0427960758389</v>
       </c>
       <c r="T43" s="9">
         <f t="shared" si="6"/>
-        <v>-3221.1789273984105</v>
+        <v>-2423.8630105231996</v>
       </c>
       <c r="U43" s="9">
         <f t="shared" si="6"/>
-        <v>-8319.0350673114845</v>
+        <v>-6547.7745779377919</v>
       </c>
       <c r="V43" s="9">
         <f t="shared" si="6"/>
-        <v>-37944.114239018396</v>
+        <v>-30912.8911351922</v>
       </c>
     </row>
     <row r="44" spans="7:22" x14ac:dyDescent="0.3">
@@ -10389,55 +10388,55 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="6"/>
-        <v>-206.9924523816847</v>
+        <v>-138.4064931006169</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="6"/>
-        <v>-196.30221200520828</v>
+        <v>-121.18743593493912</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="6"/>
-        <v>-194.37939762118668</v>
+        <v>-110.42226429069149</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="6"/>
-        <v>-204.73645452900053</v>
+        <v>-108.73480237342682</v>
       </c>
       <c r="N44" s="9">
         <f t="shared" si="6"/>
-        <v>-233.36090213351628</v>
+        <v>-120.68873802811294</v>
       </c>
       <c r="O44" s="9">
         <f t="shared" si="6"/>
-        <v>-290.78240074734038</v>
+        <v>-154.43349818512149</v>
       </c>
       <c r="P44" s="9">
         <f t="shared" si="6"/>
-        <v>-396.45752739852639</v>
+        <v>-225.21799329654095</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="6"/>
-        <v>-588.9066360156246</v>
+        <v>-363.56230780481769</v>
       </c>
       <c r="R44" s="9">
         <f t="shared" si="6"/>
-        <v>-951.93964513063747</v>
+        <v>-636.51899578941038</v>
       </c>
       <c r="S44" s="9">
         <f t="shared" si="6"/>
-        <v>-1693.6966892304551</v>
+        <v>-1212.1002458396999</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="6"/>
-        <v>-3443.6446547761934</v>
+        <v>-2602.6481726959846</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="6"/>
-        <v>-8844.6840789323414</v>
+        <v>-6976.3859440487668</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" si="6"/>
-        <v>-40163.731777644076</v>
+        <v>-32747.306531533766</v>
       </c>
     </row>
     <row r="45" spans="7:22" x14ac:dyDescent="0.3">
@@ -10450,55 +10449,55 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="6"/>
-        <v>-223.77308550219595</v>
+        <v>-151.52984168882745</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="6"/>
-        <v>-213.88037510193215</v>
+        <v>-134.76017122182185</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="6"/>
-        <v>-213.3681126325115</v>
+        <v>-124.93404075184446</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="6"/>
-        <v>-225.98801605226203</v>
+        <v>-124.86716222357262</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="6"/>
-        <v>-258.12045162401563</v>
+        <v>-139.44014580385016</v>
       </c>
       <c r="O45" s="9">
         <f t="shared" si="6"/>
-        <v>-320.96549683337923</v>
+        <v>-177.34591179381255</v>
       </c>
       <c r="P45" s="9">
         <f t="shared" si="6"/>
-        <v>-435.18703831375387</v>
+        <v>-254.81631021879537</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="6"/>
-        <v>-641.64112530579632</v>
+        <v>-404.28051366546561</v>
       </c>
       <c r="R45" s="9">
         <f t="shared" si="6"/>
-        <v>-1029.1122654557071</v>
+        <v>-696.87209395431785</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" si="6"/>
-        <v>-1817.8488938691846</v>
+        <v>-1310.5717537048229</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="6"/>
-        <v>-3673.2370578091359</v>
+        <v>-2787.395195451797</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" si="6"/>
-        <v>-9386.165207712027</v>
+        <v>-7418.2417567716457</v>
       </c>
       <c r="V45" s="9">
         <f t="shared" si="6"/>
-        <v>-42446.196734036668</v>
+        <v>-34634.297288514652</v>
       </c>
     </row>
     <row r="46" spans="7:22" x14ac:dyDescent="0.3">
@@ -10511,55 +10510,55 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="6"/>
-        <v>-241.13492186993756</v>
+        <v>-165.13939912083208</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="6"/>
-        <v>-232.09506719416254</v>
+        <v>-148.86539841824123</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="6"/>
-        <v>-233.06828752616968</v>
+        <v>-140.04099297714458</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="6"/>
-        <v>-248.05310373389756</v>
+        <v>-141.6800819548684</v>
       </c>
       <c r="N46" s="9">
         <f t="shared" si="6"/>
-        <v>-283.83479460777443</v>
+        <v>-158.99029144389243</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="6"/>
-        <v>-352.30402510635804</v>
+        <v>-201.22490869392743</v>
       </c>
       <c r="P46" s="9">
         <f t="shared" si="6"/>
-        <v>-475.36764759251685</v>
+        <v>-285.62855163463848</v>
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="6"/>
-        <v>-696.28520158248784</v>
+        <v>-446.59619525472385</v>
       </c>
       <c r="R46" s="9">
         <f t="shared" si="6"/>
-        <v>-1108.9577871670415</v>
+        <v>-759.46122280003124</v>
       </c>
       <c r="S46" s="9">
         <f t="shared" si="6"/>
-        <v>-1946.0821876942041</v>
+        <v>-1412.4573196712086</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="6"/>
-        <v>-3909.9561364972451</v>
+        <v>-2978.1040787906422</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="6"/>
-        <v>-9943.478453650554</v>
+        <v>-7873.3420161064278</v>
       </c>
       <c r="V46" s="9">
         <f t="shared" si="6"/>
-        <v>-44791.509108196173</v>
+        <v>-36573.863406134871</v>
       </c>
     </row>
   </sheetData>
@@ -10577,8 +10576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61525BA8-4B69-4A45-80A0-4FF32D00F639}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A5" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10765,39 +10764,39 @@
       </c>
       <c r="J7" s="9">
         <f>TAN(RADIANS(J$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(J$6))*$I7), 2)</f>
-        <v>38.807624018984853</v>
+        <v>-70.829714762295396</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" ref="K7:R7" si="0">TAN(RADIANS(K$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(K$6))*$I7), 2)</f>
-        <v>47.60394581463008</v>
+        <v>-68.536383088491675</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>57.146433002070424</v>
+        <v>-75.515313091646021</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="0"/>
-        <v>67.610771520240931</v>
+        <v>-97.340622894239175</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="0"/>
-        <v>79.152291091889992</v>
+        <v>-144.46476285376531</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>91.785133839926502</v>
+        <v>-237.8461645309759</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="0"/>
-        <v>104.96322983411279</v>
+        <v>-423.60488500500742</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="0"/>
-        <v>116.00746986976705</v>
+        <v>-817.47204513064162</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>113.05451503432957</v>
+        <v>-1772.8384320673058</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -10826,39 +10825,39 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" ref="J8:R37" si="2">TAN(RADIANS(J$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(J$6))*$I8), 2)</f>
-        <v>39.36731120324967</v>
+        <v>-62.502940122926987</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>48.24392591219025</v>
+        <v>-59.015046534994212</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="2"/>
-        <v>57.897544477315009</v>
+        <v>-64.3406137966806</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="2"/>
-        <v>68.519720293566039</v>
+        <v>-83.81769114415755</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="2"/>
-        <v>80.293832839141942</v>
+        <v>-127.48141726709861</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="2"/>
-        <v>93.287356790415714</v>
+        <v>-215.4967659410446</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="2"/>
-        <v>107.0659325835485</v>
+        <v>-392.32181756952514</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="2"/>
-        <v>119.21795773018826</v>
+        <v>-769.70784818682432</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="2"/>
-        <v>118.66088740985137</v>
+        <v>-1689.4293410110749</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -10878,39 +10877,39 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>39.903840417545638</v>
+        <v>-54.520699363299173</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
-        <v>48.857425789554895</v>
+        <v>-49.887670808487883</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="2"/>
-        <v>58.617577490382907</v>
+        <v>-53.628285908384839</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="2"/>
-        <v>69.391059829110333</v>
+        <v>-70.854292747998556</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="2"/>
-        <v>81.388141435011732</v>
+        <v>-111.20078529997471</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="2"/>
-        <v>94.727422816551481</v>
+        <v>-194.07211016445319</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="2"/>
-        <v>109.08163257770615</v>
+        <v>-362.33313806460819</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="2"/>
-        <v>122.29560641982404</v>
+        <v>-723.91997278387589</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="2"/>
-        <v>124.03528698564386</v>
+        <v>-1609.4714371181608</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -10940,39 +10939,39 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>40.418471859626734</v>
+        <v>-46.864243827031487</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
-        <v>49.445886432875177</v>
+        <v>-41.132817563988169</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="2"/>
-        <v>59.308223252044463</v>
+        <v>-43.353168352236253</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>70.226836725821997</v>
+        <v>-58.419979325492363</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="2"/>
-        <v>82.437787187318378</v>
+        <v>-95.584627066677569</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="2"/>
-        <v>96.108714339874609</v>
+        <v>-173.52187505215625</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="2"/>
-        <v>111.01506428497562</v>
+        <v>-333.56840919523165</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="2"/>
-        <v>125.24764470807376</v>
+        <v>-680.0008725362427</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="2"/>
-        <v>129.19033713075001</v>
+        <v>-1532.7769155715823</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -11001,39 +11000,39 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>40.91238115810161</v>
+        <v>-39.516083039517582</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>50.010652126838735</v>
+        <v>-32.73048713746897</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>59.971059479573597</v>
+        <v>-33.491788558996745</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="2"/>
-        <v>71.028960239820819</v>
+        <v>-46.486345821305804</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="2"/>
-        <v>83.445167916083165</v>
+        <v>-80.597268877503723</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="2"/>
-        <v>97.434386794932863</v>
+        <v>-153.79911546567735</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="2"/>
-        <v>112.87064445381432</v>
+        <v>-305.96192056087648</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="2"/>
-        <v>128.08081625725913</v>
+        <v>-637.85021826366824</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="2"/>
-        <v>134.13781408722195</v>
+        <v>-1459.1705747293763</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -11067,39 +11066,39 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>41.386666092443932</v>
+        <v>-32.459884730628744</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="2"/>
-        <v>50.552978138734886</v>
+        <v>-24.662004225789474</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="2"/>
-        <v>60.60755941513689</v>
+        <v>-24.022228293167416</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="2"/>
-        <v>71.79921319789652</v>
+        <v>-35.026868138914267</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="2"/>
-        <v>84.412522659707676</v>
+        <v>-66.205399324396069</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="2"/>
-        <v>98.707386666059449</v>
+        <v>-134.85999493401857</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="2"/>
-        <v>114.65249735932174</v>
+        <v>-279.45231304832714</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="2"/>
-        <v>130.80141817007024</v>
+        <v>-597.37432449960102</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="2"/>
-        <v>138.88871428429502</v>
+        <v>-1388.488814654555</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -11113,7 +11112,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="12">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -11132,39 +11131,39 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="2"/>
-        <v>41.842352698173315</v>
+        <v>-25.68038400457317</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="2"/>
-        <v>51.074037699486908</v>
+        <v>-16.909914026029867</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="2"/>
-        <v>61.219100019069423</v>
+        <v>-14.924001757109863</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="2"/>
-        <v>72.539261912505708</v>
+        <v>-24.016755629728777</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="2"/>
-        <v>85.341944127142085</v>
+        <v>-52.377884023177955</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="2"/>
-        <v>99.930467873924528</v>
+        <v>-116.66354186190335</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="2"/>
-        <v>116.364477739946</v>
+        <v>-253.98223758965219</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="2"/>
-        <v>133.41533601021595</v>
+        <v>-558.48562846967752</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="2"/>
-        <v>143.45331549383022</v>
+        <v>-1320.5787272718785</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -11177,7 +11176,7 @@
       <c r="A14" s="14"/>
       <c r="B14" s="30">
         <f>B13*12+D13</f>
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -11193,39 +11192,39 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>42.280400820664582</v>
+        <v>-19.16330071281547</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="2"/>
-        <v>51.574928354212645</v>
+        <v>-9.4578877547020852</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="2"/>
-        <v>61.806969423198694</v>
+        <v>-6.1779447038397279</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="2"/>
-        <v>73.250665201324637</v>
+        <v>-13.432816904238905</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="2"/>
-        <v>86.235390025471816</v>
+        <v>-39.085597086803034</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="2"/>
-        <v>101.10620668218306</v>
+        <v>-99.171427755363197</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="2"/>
-        <v>118.01019166272846</v>
+        <v>-229.49804473845995</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="2"/>
-        <v>135.92807566028642</v>
+        <v>-521.10221612475152</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="2"/>
-        <v>147.84123246268149</v>
+        <v>-1255.297268694479</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -11245,39 +11244,39 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>42.701709173769011</v>
+        <v>-12.895264194180044</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="2"/>
-        <v>52.056677746557355</v>
+        <v>-2.2906365910430395</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="2"/>
-        <v>62.372373719616206</v>
+        <v>2.2338865632698344</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="2"/>
-        <v>73.934882602601959</v>
+        <v>-3.2533376076843297</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="2"/>
-        <v>87.094693377515568</v>
+        <v>-26.301267624764478</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="2"/>
-        <v>102.23701527501808</v>
+        <v>-82.347765221143959</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="2"/>
-        <v>119.59301552816426</v>
+        <v>-205.94950192411898</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="2"/>
-        <v>138.34479233910872</v>
+        <v>-485.14739043370173</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="2"/>
-        <v>152.06146758477735</v>
+        <v>-1192.5105053473799</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -11306,39 +11305,39 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>43.107119953071674</v>
+        <v>-6.8637446408813219</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="2"/>
-        <v>52.520248893770372</v>
+        <v>4.6061668032078273</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="2"/>
-        <v>62.91644315176174</v>
+        <v>10.328307298659411</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="2"/>
-        <v>74.59328186722685</v>
+        <v>6.5420310435715692</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="2"/>
-        <v>87.921571931055865</v>
+        <v>-13.999339756787435</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="2"/>
-        <v>103.32515413930915</v>
+        <v>-66.15892375036492</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="2"/>
-        <v>121.11611340186371</v>
+        <v>-183.28953559908041</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>
-        <v>140.67031706439749</v>
+        <v>-450.54927768399693</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="2"/>
-        <v>156.1224571120018</v>
+        <v>-1132.0929264627539</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -11364,39 +11363,39 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>43.497423048038939</v>
+        <v>-1.0569904320825287</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="2"/>
-        <v>52.966545003128857</v>
+        <v>11.245959940398336</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="2"/>
-        <v>63.440237767210157</v>
+        <v>18.12108841420843</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="2"/>
-        <v>75.227145799382981</v>
+        <v>15.972374034220991</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="2"/>
-        <v>88.717636749963674</v>
+        <v>-2.1558447979346056</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="2"/>
-        <v>104.372743370206</v>
+        <v>-50.573361519266882</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="2"/>
-        <v>122.58245283927457</v>
+        <v>-161.47399580576382</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="2"/>
-        <v>142.90918081455328</v>
+        <v>-417.24046801331201</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="2"/>
-        <v>160.03211334717091</v>
+        <v>-1073.926816351769</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -11410,7 +11409,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="12">
-        <v>0.95</v>
+        <v>0.81</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="42">
@@ -11422,39 +11421,39 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>43.873359892424517</v>
+        <v>4.5360291507151942</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="2"/>
-        <v>53.396413874724303</v>
+        <v>17.641356009644966</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="2"/>
-        <v>63.944752584993893</v>
+        <v>25.627033356337904</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="2"/>
-        <v>75.837678509723375</v>
+        <v>25.055605581938266</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="2"/>
-        <v>89.484400067512212</v>
+        <v>9.2517155794715222</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="2"/>
-        <v>105.38177300577348</v>
+        <v>-35.56147163500782</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>123.99481935136843</v>
+        <v>-140.46144096257149</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="2"/>
-        <v>145.06563661543134</v>
+        <v>-385.15768681249347</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="2"/>
-        <v>163.79786321345142</v>
+        <v>-1017.9016805860851</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -11469,7 +11468,7 @@
       </c>
       <c r="B19" s="30">
         <f>B17*B18</f>
-        <v>6061</v>
+        <v>5167.8</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="43">
@@ -11481,39 +11480,39 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>44.23562698800783</v>
+        <v>9.9256763482709687</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="2"/>
-        <v>53.810651930717654</v>
+        <v>23.804203822280641</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="2"/>
-        <v>64.430922324530783</v>
+        <v>32.860048460876499</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="2"/>
-        <v>76.426011138027206</v>
+        <v>33.808554276499592</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="2"/>
-        <v>90.223282473417726</v>
+        <v>20.244476271412452</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="2"/>
-        <v>106.35411248484724</v>
+        <v>-21.095441425930744</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>125.35582964306147</v>
+        <v>-120.21294090860783</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="2"/>
-        <v>147.14367975327451</v>
+        <v>-354.24149400662259</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="2"/>
-        <v>167.42668355155979</v>
+        <v>-963.91372086198407</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -11543,39 +11542,39 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="2"/>
-        <v>44.58487913295852</v>
+        <v>15.121692953761794</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="2"/>
-        <v>54.210007906846073</v>
+        <v>29.745642732436067</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="2"/>
-        <v>64.899625738154299</v>
+        <v>39.833207410499767</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="2"/>
-        <v>76.99320709616066</v>
+        <v>42.247041082199132</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="2"/>
-        <v>90.935619498433212</v>
+        <v>30.842306704806106</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="2"/>
-        <v>107.29151931209427</v>
+        <v>-7.1491235266840931</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="2"/>
-        <v>126.66794374193753</v>
+        <v>-100.69189645798212</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="2"/>
-        <v>149.1470662933167</v>
+        <v>-324.436008543546</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="2"/>
-        <v>170.92513345820765</v>
+        <v>-911.86535388348784</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -11595,39 +11594,39 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>44.921732382788697</v>
+        <v>20.133244364500598</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="2"/>
-        <v>54.595186238154405</v>
+        <v>35.47615300843151</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="2"/>
-        <v>65.351689584771123</v>
+        <v>46.558810353023489</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="2"/>
-        <v>77.540266876752042</v>
+        <v>50.385950879160646</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="2"/>
-        <v>91.622667653526761</v>
+        <v>41.063900685687827</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="2"/>
-        <v>108.1956470053279</v>
+        <v>6.3020823583632364</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>127.93347612232367</v>
+        <v>-81.863873900808812</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="2"/>
-        <v>151.07933006445128</v>
+        <v>-295.68865570360504</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="2"/>
-        <v>174.29938394588564</v>
+        <v>-861.66477009742175</v>
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -11653,39 +11652,39 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>45.246766768911016</v>
+        <v>24.968960027422412</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="2"/>
-        <v>54.966850167558505</v>
+        <v>41.0056020805863</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="2"/>
-        <v>65.787892278220767</v>
+        <v>53.048438180060089</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="2"/>
-        <v>78.068132468211729</v>
+        <v>58.239298148020282</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="2"/>
-        <v>92.285609974670706</v>
+        <v>50.926858892094799</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="2"/>
-        <v>109.0680523922272</v>
+        <v>19.281338012436436</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="2"/>
-        <v>129.1546059187086</v>
+        <v>-63.696453052551533</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="2"/>
-        <v>152.94379825347352</v>
+        <v>-267.94993509549863</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="2"/>
-        <v>177.55524517459057</v>
+        <v>-813.22552855199524</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -11700,7 +11699,7 @@
       </c>
       <c r="B23" s="13">
         <f>B19*B20</f>
-        <v>114247.15844044642</v>
+        <v>97410.735091327995</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -11715,39 +11714,39 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>45.560528797218275</v>
+        <v>29.636970611830463</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="2"/>
-        <v>55.325624602871905</v>
+        <v>46.343287046779579</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="2"/>
-        <v>66.208967240419824</v>
+        <v>59.313002413593097</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>78.577691412500414</v>
+        <v>65.820287339580432</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="2"/>
-        <v>92.925561118961554</v>
+        <v>60.447764691850296</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="2"/>
-        <v>109.91020231662532</v>
+        <v>31.810466479502338</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="2"/>
-        <v>130.33338631271889</v>
+        <v>-46.159087598806536</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="2"/>
-        <v>154.74360573747867</v>
+        <v>-241.17320742529932</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="2"/>
-        <v>180.69819148003467</v>
+        <v>-766.46618453834685</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -11762,7 +11761,7 @@
       </c>
       <c r="B24" s="15">
         <f>($B$22*B23)/(12*60)</f>
-        <v>36.019590230529637</v>
+        <v>30.711440091293689</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -11777,39 +11776,39 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>45.863533746794801</v>
+        <v>34.144942208591431</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>55.672098745291166</v>
+        <v>51.497973777874307</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="2"/>
-        <v>66.615605986278894</v>
+        <v>65.362791101986261</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="2"/>
-        <v>79.069780538305196</v>
+        <v>73.141368415329111</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="2"/>
-        <v>93.543572053087075</v>
+        <v>69.642253895472834</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="2"/>
-        <v>110.72347980834348</v>
+        <v>43.91004385628878</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="2"/>
-        <v>131.47175316920513</v>
+        <v>-29.222976611490594</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="2"/>
-        <v>156.48170826977235</v>
+        <v>-215.31449832239969</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="2"/>
-        <v>183.73338439977894</v>
+        <v>-721.30994701806958</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -11822,7 +11821,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="13">
         <f>B24*12</f>
-        <v>432.23508276635562</v>
+        <v>368.53728109552424</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -11837,39 +11836,39 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>46.156267786824969</v>
+        <v>38.50010782455044</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="2"/>
-        <v>56.006828509996751</v>
+        <v>56.477932930330951</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="2"/>
-        <v>67.008460964636484</v>
+        <v>71.207511086122565</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="2"/>
-        <v>79.545189398962663</v>
+        <v>80.214287995314692</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="2"/>
-        <v>94.140634370987229</v>
+        <v>78.525078992395549</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="2"/>
-        <v>111.50918976505866</v>
+        <v>55.599483824561617</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="2"/>
-        <v>132.57153298930839</v>
+        <v>-12.860946226689066</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="2"/>
-        <v>158.16089462291967</v>
+        <v>-190.33231768067753</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="2"/>
-        <v>186.66569387825277</v>
+        <v>-677.68436314444898</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -11889,39 +11888,39 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="2"/>
-        <v>46.439189927947801</v>
+        <v>42.709296413908476</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="2"/>
-        <v>56.330338757449653</v>
+        <v>61.290973142436229</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="2"/>
-        <v>67.388148177016149</v>
+        <v>76.856326960097732</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="2"/>
-        <v>80.004663441517195</v>
+        <v>87.050136505972887</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="2"/>
-        <v>94.717684273850125</v>
+        <v>87.110168363559865</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="2"/>
-        <v>112.26856418981799</v>
+        <v>66.897115572511609</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="2"/>
-        <v>133.63445024155288</v>
+        <v>2.9526594240503528</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="2"/>
-        <v>159.78379778214128</v>
+        <v>-166.18749312817636</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="2"/>
-        <v>189.49971781342302</v>
+        <v>-635.52102745589582</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -11950,39 +11949,39 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>46.712733822690829</v>
+        <v>46.778959664269024</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="2"/>
-        <v>56.64312535211608</v>
+        <v>65.94447166308575</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="2"/>
-        <v>67.755249593845051</v>
+        <v>82.317897018633715</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="2"/>
-        <v>80.448906930679527</v>
+        <v>93.659391681469629</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="2"/>
-        <v>95.275606242289044</v>
+        <v>95.410680914416446</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="2"/>
-        <v>113.0027670234758</v>
+        <v>77.82025568958386</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="2"/>
-        <v>134.66213412594101</v>
+        <v>18.242078846885761</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="2"/>
-        <v>161.35290527299514</v>
+        <v>-142.84301637649355</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="2"/>
-        <v>192.23980009169497</v>
+        <v>-594.75531356078886</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -12009,39 +12008,39 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>46.977309428177293</v>
+        <v>50.715196733649293</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="2"/>
-        <v>56.94565706370723</v>
+        <v>70.445402637574631</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="2"/>
-        <v>68.11031538584048</v>
+        <v>87.600406454647242</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="2"/>
-        <v>80.878585649113219</v>
+        <v>100.0519587373505</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="2"/>
-        <v>95.815236427611211</v>
+        <v>103.43905652869927</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="2"/>
-        <v>113.71289860746663</v>
+        <v>88.385274561610743</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="2"/>
-        <v>135.65612482061943</v>
+        <v>33.030226120774955</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="2"/>
-        <v>162.87056869902779</v>
+        <v>-120.26390132388576</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="2"/>
-        <v>194.89004724320813</v>
+        <v>-555.32612634746079</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -12061,39 +12060,39 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>47.233304543016999</v>
+        <v>54.523777115652223</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="2"/>
-        <v>57.238377324553014</v>
+        <v>74.80036325301495</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="2"/>
-        <v>68.453865986548323</v>
+        <v>92.71159804477</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="2"/>
-        <v>81.294329393391394</v>
+        <v>106.23720750426463</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="2"/>
-        <v>96.337365786470727</v>
+        <v>111.20706270438467</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="2"/>
-        <v>114.39999980888231</v>
+        <v>98.607657741856485</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="2"/>
-        <v>136.61787925586276</v>
+        <v>47.338776800211576</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="2"/>
-        <v>164.33901255771565</v>
+        <v>-98.417052895651295</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="2"/>
-        <v>197.45434383683312</v>
+        <v>-517.17567294434548</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -12113,39 +12112,39 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="2"/>
-        <v>47.481086229144957</v>
+        <v>58.210161792943694</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="2"/>
-        <v>57.521705855418169</v>
+        <v>79.01559792649843</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="2"/>
-        <v>68.786394000479248</v>
+        <v>97.658800537742337</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="2"/>
-        <v>81.696734283105428</v>
+        <v>112.22400678184675</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="2"/>
-        <v>96.842742980860294</v>
+        <v>118.72583769846625</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="2"/>
-        <v>115.06505583674416</v>
+        <v>108.5020627278011</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="2"/>
-        <v>137.54877645581465</v>
+        <v>61.188247387251067</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="2"/>
-        <v>165.76034239644241</v>
+        <v>-77.271145703165757</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="2"/>
-        <v>199.93636672269346</v>
+        <v>-480.24925082613754</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -12165,39 +12164,39 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="2"/>
-        <v>47.721002128346854</v>
+        <v>61.779522823927067</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="2"/>
-        <v>57.796040170896831</v>
+        <v>83.097020701681004</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="2"/>
-        <v>69.108365969912285</v>
+        <v>102.44895494012377</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="2"/>
-        <v>82.086364898941667</v>
+        <v>118.02075614806358</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="2"/>
-        <v>97.33207706330532</v>
+        <v>126.00593047606674</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="2"/>
-        <v>115.70899977561025</v>
+        <v>118.08237153256374</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="2"/>
-        <v>138.45012248457505</v>
+        <v>74.598068917175738</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="2"/>
-        <v>167.13655236437563</v>
+        <v>-56.796511690444731</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="2"/>
-        <v>202.33959821976771</v>
+        <v>-444.49505161456341</v>
       </c>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -12217,39 +12216,39 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>47.953381682292544</v>
+        <v>65.23676149385372</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="2"/>
-        <v>58.061756974472566</v>
+        <v>87.050236003858828</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="2"/>
-        <v>69.420224012204443</v>
+        <v>107.08863887544979</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="2"/>
-        <v>82.463756264052563</v>
+        <v>123.63541543716235</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="2"/>
-        <v>97.806039965252481</v>
+        <v>133.05733773156635</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="2"/>
-        <v>116.33271586019454</v>
+        <v>127.36173940321584</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="2"/>
-        <v>139.32315502977451</v>
+        <v>87.586655150857723</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="2"/>
-        <v>168.46953221084601</v>
+        <v>-36.965036015406326</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="2"/>
-        <v>204.66733833693419</v>
+        <v>-409.86397925916845</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -12269,39 +12268,39 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>48.178537264076255</v>
+        <v>68.586525149370573</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="2"/>
-        <v>58.319213452389661</v>
+        <v>90.880557889605029</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="2"/>
-        <v>69.722387338340383</v>
+        <v>111.58408917653352</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="2"/>
-        <v>82.829415681711779</v>
+        <v>129.07553207948007</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="2"/>
-        <v>98.265268804966809</v>
+        <v>139.88953822445893</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="2"/>
-        <v>116.93704251246643</v>
+        <v>136.35264000538336</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="2"/>
-        <v>140.16904765368599</v>
+        <v>100.17146582088787</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="2"/>
-        <v>169.76107377610836</v>
+        <v>-17.750060483237689</v>
       </c>
       <c r="R33" s="9">
         <f t="shared" si="2"/>
-        <v>206.92271610758095</v>
+        <v>-376.30948140607734</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -12321,39 +12320,39 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
-        <v>48.396765228524032</v>
+        <v>71.833222824522181</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="2"/>
-        <v>58.568748474638028</v>
+        <v>94.593027914483741</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="2"/>
-        <v>70.01525366246625</v>
+        <v>115.94122285587551</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>83.183824441045076</v>
+        <v>134.34826647854078</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>98.710368029745695</v>
+        <v>146.51152465025098</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>117.52277516071818</v>
+        <v>145.0669073640675</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>140.98891373915095</v>
+        <v>112.36906533729484</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>171.01287701613489</v>
+        <v>0.87370608776939207</v>
       </c>
       <c r="R34" s="9">
         <f t="shared" si="2"/>
-        <v>209.10870011050832</v>
+        <v>-343.78739287272901</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -12373,39 +12372,39 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="2"/>
-        <v>48.608346887865224</v>
+        <v>74.981039756353368</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="2"/>
-        <v>58.810683710594859</v>
+        <v>98.192431731066023</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="2"/>
-        <v>70.299200511260409</v>
+        <v>120.16565658589477</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="2"/>
-        <v>83.527439401550012</v>
+        <v>139.46041558482841</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="2"/>
-        <v>99.141911405905148</v>
+        <v>152.93183324658253</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="2"/>
-        <v>118.09066885830649</v>
+        <v>153.51577482410568</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="2"/>
-        <v>141.78381015510388</v>
+        <v>124.19517732157442</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="2"/>
-        <v>172.22655559927944</v>
+        <v>18.930271130879191</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" si="2"/>
-        <v>211.22810824320604</v>
+        <v>-312.25579024545073</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -12425,39 +12424,39 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="2"/>
-        <v>48.813549418768687</v>
+        <v>78.033950879386538</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="2"/>
-        <v>59.045324666184541</v>
+        <v>101.6833145193288</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" ref="K36:R37" si="3">TAN(RADIANS(L$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(L$6))*$I36), 2)</f>
-        <v>70.574586441194256</v>
+        <v>124.26272480878828</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="3"/>
-        <v>83.860694466149909</v>
+        <v>144.41843481122285</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="3"/>
-        <v>99.560443868776815</v>
+        <v>159.15857131665274</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="3"/>
-        <v>118.6414407181742</v>
+        <v>161.70991126989281</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="3"/>
-        <v>142.55474066423935</v>
+        <v>135.66473530442659</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="3"/>
-        <v>173.40364210923525</v>
+        <v>36.442435738181075</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="3"/>
-        <v>213.28361680761151</v>
+        <v>-281.67485670562201</v>
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -12477,39 +12476,39 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="2"/>
-        <v>49.012626706206547</v>
+        <v>80.995733380247714</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="3"/>
-        <v>59.27296164880341</v>
+        <v>105.06999534237283</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="3"/>
-        <v>70.841752171014491</v>
+        <v>128.23749658509334</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="3"/>
-        <v>84.184001951654011</v>
+        <v>149.22845842209003</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="3"/>
-        <v>99.966483243858278</v>
+        <v>165.19944283572192</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="3"/>
-        <v>119.17577217781466</v>
+        <v>169.65945482250299</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="3"/>
-        <v>143.30265909334477</v>
+        <v>146.79192989254591</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="3"/>
-        <v>174.54559288562186</v>
+        <v>53.431866676667028</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="3"/>
-        <v>215.27776896307222</v>
+        <v>-252.00675627029864</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>

--- a/Power Cell Ballistics.xlsx
+++ b/Power Cell Ballistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Code\FRC\2020-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8804A1AA-FFBD-42F5-B773-973FAA0CDFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43FA6A-7D13-4E30-91DE-11658037EA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" firstSheet="1" activeTab="3" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Height" sheetId="2" r:id="rId1"/>
@@ -1758,109 +1758,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.350462424058719</c:v>
+                  <c:v>28.931866671436104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.700924848117438</c:v>
+                  <c:v>57.863733342872209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.051387272176157</c:v>
+                  <c:v>86.795600014308306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.40184969623488</c:v>
+                  <c:v>115.72746668574442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.7523121202936</c:v>
+                  <c:v>144.65933335718051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.10277454435231</c:v>
+                  <c:v>173.59120002861661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.45323696841103</c:v>
+                  <c:v>202.52306670005271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.80369939246975</c:v>
+                  <c:v>231.45493337148883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>246.15416181652847</c:v>
+                  <c:v>260.38680004292496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.50462424058719</c:v>
+                  <c:v>289.31866671436103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.85508666464591</c:v>
+                  <c:v>318.25053338579716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>328.20554908870463</c:v>
+                  <c:v>347.18240005723322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>355.55601151276335</c:v>
+                  <c:v>376.11426672866935</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>382.90647393682207</c:v>
+                  <c:v>405.04613340010542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.25693636088079</c:v>
+                  <c:v>433.97800007154154</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>437.60739878493951</c:v>
+                  <c:v>462.90986674297767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>464.95786120899822</c:v>
+                  <c:v>491.84173341441374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>492.30832363305694</c:v>
+                  <c:v>520.77360008584992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>519.65878605711566</c:v>
+                  <c:v>549.70546675728588</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>547.00924848117438</c:v>
+                  <c:v>578.63733342872206</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>574.3597109052331</c:v>
+                  <c:v>607.56920010015824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>601.71017332929182</c:v>
+                  <c:v>636.50106677159431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>629.06063575335054</c:v>
+                  <c:v>665.43293344303027</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>656.41109817740926</c:v>
+                  <c:v>694.36480011446645</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>683.76156060146798</c:v>
+                  <c:v>723.29666678590252</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>711.1120230255267</c:v>
+                  <c:v>752.2285334573387</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>738.46248544958542</c:v>
+                  <c:v>781.16040012877488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>765.81294787364413</c:v>
+                  <c:v>810.09226680021084</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>793.16341029770285</c:v>
+                  <c:v>839.02413347164691</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.51387272176157</c:v>
+                  <c:v>867.95600014308309</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>847.86433514582029</c:v>
+                  <c:v>896.88786681451927</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>875.21479756987901</c:v>
+                  <c:v>925.81973348595534</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>902.56525999393773</c:v>
+                  <c:v>954.75160015739129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>929.91572241799645</c:v>
+                  <c:v>983.68346682882748</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>957.26618484205517</c:v>
+                  <c:v>1012.6153335002637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,109 +1875,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.412158949768642</c:v>
+                  <c:v>22.340026198413248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.963917899537279</c:v>
+                  <c:v>40.819652396826491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.65527684930592</c:v>
+                  <c:v>55.438878595239736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.486235799074564</c:v>
+                  <c:v>66.197704793652974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.456794748843208</c:v>
+                  <c:v>73.096130992066236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.566953698611826</c:v>
+                  <c:v>76.134157190479471</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.816712648380488</c:v>
+                  <c:v>75.311783388892721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.206071598149094</c:v>
+                  <c:v>70.629009587305944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.735030547917773</c:v>
+                  <c:v>62.085835785719212</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.403589497686397</c:v>
+                  <c:v>49.682261984132452</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.211748447455022</c:v>
+                  <c:v>33.418288182545666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.159507397223649</c:v>
+                  <c:v>13.293914380958938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.246866346992306</c:v>
+                  <c:v>-10.690859420627874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4738252967609924</c:v>
+                  <c:v>-38.536033222214542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-24.159615753470405</c:v>
+                  <c:v>-70.24160702380135</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-56.653456803701886</c:v>
+                  <c:v>-105.80758082538819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-93.007697853933053</c:v>
+                  <c:v>-145.23395462697471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-133.22233890416447</c:v>
+                  <c:v>-188.5207284285616</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-177.29737995439586</c:v>
+                  <c:v>-235.66790223014829</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-225.23282100462723</c:v>
+                  <c:v>-286.67547603173512</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-277.0286620548585</c:v>
+                  <c:v>-341.54344983332186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-332.68490310509003</c:v>
+                  <c:v>-400.27182363490874</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-392.20154415532113</c:v>
+                  <c:v>-462.86059743649525</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-455.57858520555271</c:v>
+                  <c:v>-529.30977123808213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-522.81602625578398</c:v>
+                  <c:v>-599.61934503966881</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-593.9138673060155</c:v>
+                  <c:v>-673.78931884125586</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-668.87210835624694</c:v>
+                  <c:v>-751.8196926428426</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-747.69074940647795</c:v>
+                  <c:v>-833.71046644442902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-830.36979045670967</c:v>
+                  <c:v>-919.46164024601603</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-916.90923150694084</c:v>
+                  <c:v>-1009.0732140476027</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1007.3090725571725</c:v>
+                  <c:v>-1102.5451878491899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1101.5693136074042</c:v>
+                  <c:v>-1199.8775616507767</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1199.6899546576346</c:v>
+                  <c:v>-1301.0703354523628</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1301.670995707866</c:v>
+                  <c:v>-1406.1235092539491</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1407.5124367580979</c:v>
+                  <c:v>-1515.0370830555366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,109 +2015,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.350462424058719</c:v>
+                  <c:v>28.931866671436104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.700924848117438</c:v>
+                  <c:v>57.863733342872209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.051387272176157</c:v>
+                  <c:v>86.795600014308306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.40184969623488</c:v>
+                  <c:v>115.72746668574442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136.7523121202936</c:v>
+                  <c:v>144.65933335718051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.10277454435231</c:v>
+                  <c:v>173.59120002861661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.45323696841103</c:v>
+                  <c:v>202.52306670005271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218.80369939246975</c:v>
+                  <c:v>231.45493337148883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>246.15416181652847</c:v>
+                  <c:v>260.38680004292496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.50462424058719</c:v>
+                  <c:v>289.31866671436103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>300.85508666464591</c:v>
+                  <c:v>318.25053338579716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>328.20554908870463</c:v>
+                  <c:v>347.18240005723322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>355.55601151276335</c:v>
+                  <c:v>376.11426672866935</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>382.90647393682207</c:v>
+                  <c:v>405.04613340010542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.25693636088079</c:v>
+                  <c:v>433.97800007154154</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>437.60739878493951</c:v>
+                  <c:v>462.90986674297767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>464.95786120899822</c:v>
+                  <c:v>491.84173341441374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>492.30832363305694</c:v>
+                  <c:v>520.77360008584992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>519.65878605711566</c:v>
+                  <c:v>549.70546675728588</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>547.00924848117438</c:v>
+                  <c:v>578.63733342872206</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>574.3597109052331</c:v>
+                  <c:v>607.56920010015824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>601.71017332929182</c:v>
+                  <c:v>636.50106677159431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>629.06063575335054</c:v>
+                  <c:v>665.43293344303027</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>656.41109817740926</c:v>
+                  <c:v>694.36480011446645</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>683.76156060146798</c:v>
+                  <c:v>723.29666678590252</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>711.1120230255267</c:v>
+                  <c:v>752.2285334573387</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>738.46248544958542</c:v>
+                  <c:v>781.16040012877488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>765.81294787364413</c:v>
+                  <c:v>810.09226680021084</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>793.16341029770285</c:v>
+                  <c:v>839.02413347164691</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.51387272176157</c:v>
+                  <c:v>867.95600014308309</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>847.86433514582029</c:v>
+                  <c:v>896.88786681451927</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>875.21479756987901</c:v>
+                  <c:v>925.81973348595534</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>902.56525999393773</c:v>
+                  <c:v>954.75160015739129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>929.91572241799645</c:v>
+                  <c:v>983.68346682882748</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>957.26618484205517</c:v>
+                  <c:v>1012.6153335002637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,112 +2129,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>74.25</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6580,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A071DE-853C-4645-838D-52D3EBDAE5F1}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A2" zoomScale="84" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6622,7 +6622,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="16">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -6656,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="L8" s="3">
         <f>$B$10</f>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -6691,23 +6691,23 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>27.350462424058719</v>
+        <v>28.931866671436104</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" ref="I9:I43" si="2">H9/12</f>
-        <v>2.2792052020048934</v>
+        <v>2.410988889286342</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>25.412158949768642</v>
+        <v>22.340026198413248</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ref="K9:K43" si="3">J9/12</f>
-        <v>2.1176799124807202</v>
+        <v>1.8616688498677707</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ref="L9:L43" si="4">$B$10</f>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B10">
         <f>B6-B8</f>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -6726,23 +6726,23 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>54.700924848117438</v>
+        <v>57.863733342872209</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>4.5584104040097868</v>
+        <v>4.8219777785726841</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>46.963917899537279</v>
+        <v>40.819652396826491</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>3.91365982496144</v>
+        <v>3.4016376997355411</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -6751,23 +6751,23 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>82.051387272176157</v>
+        <v>86.795600014308306</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>6.8376156060146798</v>
+        <v>7.2329666678590252</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>64.65527684930592</v>
+        <v>55.438878595239736</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>5.38793973744216</v>
+        <v>4.6199065496033116</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -6785,23 +6785,23 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>109.40184969623488</v>
+        <v>115.72746668574442</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>9.1168208080195736</v>
+        <v>9.6439555571453681</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>78.486235799074564</v>
+        <v>66.197704793652974</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>6.5405196499228806</v>
+        <v>5.5164753994710809</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -6810,10 +6810,10 @@
       </c>
       <c r="B13" s="12">
         <f>C13*D13</f>
-        <v>5423</v>
+        <v>5295.4</v>
       </c>
       <c r="C13">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D13">
         <v>6380</v>
@@ -6823,23 +6823,23 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>136.7523121202936</v>
+        <v>144.65933335718051</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
-        <v>11.396026010024466</v>
+        <v>12.05494444643171</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>88.456794748843208</v>
+        <v>73.096130992066236</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>7.3713995624036004</v>
+        <v>6.091344249338853</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -6858,23 +6858,23 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>164.10277454435231</v>
+        <v>173.59120002861661</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>13.67523121202936</v>
+        <v>14.46593333571805</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>94.566953698611826</v>
+        <v>76.134157190479471</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>7.8805794748843185</v>
+        <v>6.3445130992066225</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -6889,23 +6889,23 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>191.45323696841103</v>
+        <v>202.52306670005271</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>15.954436414034253</v>
+        <v>16.876922225004392</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>96.816712648380488</v>
+        <v>75.311783388892721</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>8.0680593873650412</v>
+        <v>6.2759819490743931</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -6914,23 +6914,23 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>218.80369939246975</v>
+        <v>231.45493337148883</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>18.233641616039147</v>
+        <v>19.287911114290736</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="1"/>
-        <v>95.206071598149094</v>
+        <v>70.629009587305944</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>7.9338392998457579</v>
+        <v>5.885750798942162</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B17" s="13">
         <f>B13*B14</f>
-        <v>102221.14176250469</v>
+        <v>99815.938426916342</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -6949,23 +6949,23 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>246.15416181652847</v>
+        <v>260.38680004292496</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>20.512846818044039</v>
+        <v>21.69890000357708</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>89.735030547917773</v>
+        <v>62.085835785719212</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>7.4779192123264808</v>
+        <v>5.1738196488099346</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B18" s="15">
         <f>($B$15*B17)/(12*60)</f>
-        <v>32.228054416789675</v>
+        <v>31.469747254041678</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -6984,23 +6984,23 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>273.50462424058719</v>
+        <v>289.31866671436103</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>22.792052020048931</v>
+        <v>24.10988889286342</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>80.403589497686397</v>
+        <v>49.682261984132452</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>6.7002991248071995</v>
+        <v>4.1401884986777047</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -7009,23 +7009,23 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>300.85508666464591</v>
+        <v>318.25053338579716</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>25.071257222053827</v>
+        <v>26.520877782149764</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="1"/>
-        <v>67.211748447455022</v>
+        <v>33.418288182545666</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>5.6009790372879182</v>
+        <v>2.7848573485454722</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -7034,23 +7034,23 @@
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>328.20554908870463</v>
+        <v>347.18240005723322</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>27.350462424058719</v>
+        <v>28.931866671436101</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>50.159507397223649</v>
+        <v>13.293914380958938</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>4.1799589497686371</v>
+        <v>1.1078261984132449</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -7068,23 +7068,23 @@
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>355.55601151276335</v>
+        <v>376.11426672866935</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>29.629667626063611</v>
+        <v>31.342855560722445</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="1"/>
-        <v>29.246866346992306</v>
+        <v>-10.690859420627874</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>2.4372388622493588</v>
+        <v>-0.89090495171898942</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -7100,23 +7100,23 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>382.90647393682207</v>
+        <v>405.04613340010542</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>31.908872828068507</v>
+        <v>33.753844450008785</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="1"/>
-        <v>4.4738252967609924</v>
+        <v>-38.536033222214542</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>0.37281877473008268</v>
+        <v>-3.2113361018512117</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -7125,23 +7125,23 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>410.25693636088079</v>
+        <v>433.97800007154154</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>34.188078030073399</v>
+        <v>36.164833339295129</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="1"/>
-        <v>-24.159615753470405</v>
+        <v>-70.24160702380135</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>-2.0133013127892005</v>
+        <v>-5.8534672519834459</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -7150,23 +7150,23 @@
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>437.60739878493951</v>
+        <v>462.90986674297767</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>36.467283232078294</v>
+        <v>38.575822228581472</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="1"/>
-        <v>-56.653456803701886</v>
+        <v>-105.80758082538819</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>-4.7211214003084905</v>
+        <v>-8.8172984021156822</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -7175,23 +7175,23 @@
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>464.95786120899822</v>
+        <v>491.84173341441374</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>38.746488434083183</v>
+        <v>40.986811117867809</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="1"/>
-        <v>-93.007697853933053</v>
+        <v>-145.23395462697471</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>-7.7506414878277541</v>
+        <v>-12.102829552247892</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -7200,23 +7200,23 @@
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>492.30832363305694</v>
+        <v>520.77360008584992</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
-        <v>41.025693636088079</v>
+        <v>43.39780000715416</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="1"/>
-        <v>-133.22233890416447</v>
+        <v>-188.5207284285616</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>-11.101861575347039</v>
+        <v>-15.710060702380133</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7225,23 +7225,23 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>519.65878605711566</v>
+        <v>549.70546675728588</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
-        <v>43.304898838092974</v>
+        <v>45.80878889644049</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="1"/>
-        <v>-177.29737995439586</v>
+        <v>-235.66790223014829</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>-14.774781662866323</v>
+        <v>-19.638991852512358</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7255,23 +7255,23 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>547.00924848117438</v>
+        <v>578.63733342872206</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="2"/>
-        <v>45.584104040097863</v>
+        <v>48.219777785726841</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="1"/>
-        <v>-225.23282100462723</v>
+        <v>-286.67547603173512</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>-18.769401750385601</v>
+        <v>-23.889623002644594</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -7283,23 +7283,23 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>574.3597109052331</v>
+        <v>607.56920010015824</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="2"/>
-        <v>47.863309242102758</v>
+        <v>50.630766675013184</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="1"/>
-        <v>-277.0286620548585</v>
+        <v>-341.54344983332186</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>-23.085721837904874</v>
+        <v>-28.461954152776823</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -7317,23 +7317,23 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>601.71017332929182</v>
+        <v>636.50106677159431</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>50.142514444107654</v>
+        <v>53.041755564299528</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="1"/>
-        <v>-332.68490310509003</v>
+        <v>-400.27182363490874</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>-27.723741925424168</v>
+        <v>-33.355985302909062</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -7345,23 +7345,23 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>629.06063575335054</v>
+        <v>665.43293344303027</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>52.421719646112543</v>
+        <v>55.452744453585858</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="1"/>
-        <v>-392.20154415532113</v>
+        <v>-462.86059743649525</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>-32.68346201294343</v>
+        <v>-38.571716453041269</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="B32" s="24">
         <f>ROUND(ATAN($B$10/B30)*57.2958,1)</f>
-        <v>18.600000000000001</v>
+        <v>19</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>42</v>
@@ -7380,23 +7380,23 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>656.41109817740926</v>
+        <v>694.36480011446645</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>54.700924848117438</v>
+        <v>57.863733342872202</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="1"/>
-        <v>-455.57858520555271</v>
+        <v>-529.30977123808213</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>-37.964882100462724</v>
+        <v>-44.109147603173511</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -7408,23 +7408,23 @@
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>683.76156060146798</v>
+        <v>723.29666678590252</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>56.980130050122334</v>
+        <v>60.274722232158545</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="1"/>
-        <v>-522.81602625578398</v>
+        <v>-599.61934503966881</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>-43.568002187981996</v>
+        <v>-49.968278753305732</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B34" s="24">
         <f>ROUND(SQRT((2*$B$22*$B$10)/(SIN(B32*0.01745)*SIN(B32*0.01745))),1)</f>
-        <v>750.8</v>
+        <v>742.9</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>38</v>
@@ -7443,30 +7443,30 @@
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>711.1120230255267</v>
+        <v>752.2285334573387</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
-        <v>59.259335252127222</v>
+        <v>62.685711121444889</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="1"/>
-        <v>-593.9138673060155</v>
+        <v>-673.78931884125586</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>-49.49282227550129</v>
+        <v>-56.149109903437989</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="24">
         <f>ROUND(B34/12,1)</f>
-        <v>62.6</v>
+        <v>61.9</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>39</v>
@@ -7476,23 +7476,23 @@
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>738.46248544958542</v>
+        <v>781.16040012877488</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="2"/>
-        <v>61.538540454132118</v>
+        <v>65.09670001073124</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="1"/>
-        <v>-668.87210835624694</v>
+        <v>-751.8196926428426</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>-55.739342363020576</v>
+        <v>-62.651641053570216</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -7504,23 +7504,23 @@
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>765.81294787364413</v>
+        <v>810.09226680021084</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
-        <v>63.817745656137014</v>
+        <v>67.50768890001757</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="1"/>
-        <v>-747.69074940647795</v>
+        <v>-833.71046644442902</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>-62.307562450539827</v>
+        <v>-69.475872203702423</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="B37" s="25">
         <f>ROUND((720*B35)/(B15*B14),0)</f>
-        <v>10534</v>
+        <v>10416</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>41</v>
@@ -7539,23 +7539,23 @@
       </c>
       <c r="H37" s="7">
         <f t="shared" si="0"/>
-        <v>793.16341029770285</v>
+        <v>839.02413347164691</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="2"/>
-        <v>66.096950858141909</v>
+        <v>69.918677789303914</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="1"/>
-        <v>-830.36979045670967</v>
+        <v>-919.46164024601603</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>-69.197482538059134</v>
+        <v>-76.621803353834665</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -7564,23 +7564,23 @@
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
-        <v>820.51387272176157</v>
+        <v>867.95600014308309</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="2"/>
-        <v>68.376156060146798</v>
+        <v>72.329666678590257</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="1"/>
-        <v>-916.90923150694084</v>
+        <v>-1009.0732140476027</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>-76.409102625578399</v>
+        <v>-84.089434503966899</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -7589,23 +7589,23 @@
       </c>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
-        <v>847.86433514582029</v>
+        <v>896.88786681451927</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="2"/>
-        <v>70.655361262151686</v>
+        <v>74.740655567876601</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="1"/>
-        <v>-1007.3090725571725</v>
+        <v>-1102.5451878491899</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>-83.942422713097713</v>
+        <v>-91.878765654099155</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -7614,23 +7614,23 @@
       </c>
       <c r="H40" s="7">
         <f t="shared" si="0"/>
-        <v>875.21479756987901</v>
+        <v>925.81973348595534</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="2"/>
-        <v>72.934566464156589</v>
+        <v>77.151644457162945</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="1"/>
-        <v>-1101.5693136074042</v>
+        <v>-1199.8775616507767</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>-91.79744280061702</v>
+        <v>-99.989796804231389</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -7639,23 +7639,23 @@
       </c>
       <c r="H41" s="7">
         <f t="shared" si="0"/>
-        <v>902.56525999393773</v>
+        <v>954.75160015739129</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="2"/>
-        <v>75.213771666161477</v>
+        <v>79.562633346449275</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="1"/>
-        <v>-1199.6899546576346</v>
+        <v>-1301.0703354523628</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>-99.97416288813622</v>
+        <v>-108.42252795436356</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -7664,23 +7664,23 @@
       </c>
       <c r="H42" s="7">
         <f t="shared" si="0"/>
-        <v>929.91572241799645</v>
+        <v>983.68346682882748</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>77.492976868166366</v>
+        <v>81.973622235735618</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="1"/>
-        <v>-1301.670995707866</v>
+        <v>-1406.1235092539491</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>-108.4725829756555</v>
+        <v>-117.17695910449577</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -7689,23 +7689,23 @@
       </c>
       <c r="H43" s="7">
         <f t="shared" si="0"/>
-        <v>957.26618484205517</v>
+        <v>1012.6153335002637</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="2"/>
-        <v>79.772182070171269</v>
+        <v>84.384611125021976</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="1"/>
-        <v>-1407.5124367580979</v>
+        <v>-1515.0370830555366</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>-117.29270306317483</v>
+        <v>-126.25309025462805</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="4"/>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -7784,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9359CD4-8DEB-4F2A-87C8-9FF228A68946}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A2" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8018,55 +8018,55 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="1"/>
-        <v>5.3525874759629639</v>
+        <v>5.3584101250576088</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="1"/>
-        <v>6.6619572755072207</v>
+        <v>6.6683341926993771</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>8.104902576442889</v>
+        <v>8.1120301712378016</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="1"/>
-        <v>9.7289156335523828</v>
+        <v>9.7370657555141875</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="1"/>
-        <v>11.600631067847566</v>
+        <v>11.6101964436358</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>13.817751465418553</v>
+        <v>13.829326893135562</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>16.53081383411109</v>
+        <v>16.545351324417528</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="1"/>
-        <v>19.985871826521656</v>
+        <v>20.005002578098125</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>24.616067705711817</v>
+        <v>24.642845544464389</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="1"/>
-        <v>31.262699982824568</v>
+        <v>31.303585422417264</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="1"/>
-        <v>41.803679399311712</v>
+        <v>41.875076336182076</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="1"/>
-        <v>61.433158529460648</v>
+        <v>61.591768900411729</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="1"/>
-        <v>110.87294731347349</v>
+        <v>111.50256950141721</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -8086,55 +8086,55 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" ref="J8:V23" si="3">TAN(J$5)*$I8-(0.5*$B$24)*POWER($I8/($B$21*COS(J$5)), 2)</f>
-        <v>10.218966108131887</v>
+        <v>10.242256704510467</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>12.791422641477864</v>
+        <v>12.816930310246491</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
-        <v>15.614629388738521</v>
+        <v>15.64313976791817</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>18.777271385954812</v>
+        <v>18.809871873802031</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>22.402524271390266</v>
+        <v>22.440785774543205</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>26.668919639413168</v>
+        <v>26.715221350281205</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>31.847703174633608</v>
+        <v>31.905853135859363</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>38.374267924433582</v>
+        <v>38.450790930739458</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>46.996104730617859</v>
+        <v>47.103216085628155</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="3"/>
-        <v>59.111341864387349</v>
+        <v>59.274883622758139</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="3"/>
-        <v>77.64549821559379</v>
+        <v>77.931085963075262</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>109.62187044701764</v>
+        <v>110.25631193082198</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="3"/>
-        <v>169.17053398762158</v>
+        <v>171.68902273939648</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -8147,55 +8147,55 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="3"/>
-        <v>14.599135896506773</v>
+        <v>14.651539738358577</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>18.388396097911933</v>
+        <v>18.445788352641344</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="3"/>
-        <v>22.529180436886897</v>
+        <v>22.593328790041102</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>27.145067257207288</v>
+        <v>27.218418354863527</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>32.405679610628098</v>
+        <v>32.49176799272221</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="3"/>
-        <v>38.553504521983854</v>
+        <v>38.657683371436931</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="3"/>
-        <v>45.950668021567566</v>
+        <v>46.081505434325514</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="3"/>
-        <v>55.165188293735774</v>
+        <v>55.337365057924004</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="3"/>
-        <v>67.140111074718135</v>
+        <v>67.381111623491279</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="3"/>
-        <v>83.545925644688353</v>
+        <v>83.913894601022633</v>
       </c>
       <c r="T9" s="9">
         <f t="shared" si="3"/>
-        <v>107.52545644884626</v>
+        <v>108.16802888067954</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="3"/>
-        <v>144.56613575267096</v>
+        <v>145.99362909123073</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="3"/>
-        <v>174.89276002244421</v>
+        <v>180.55935971393777</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -8203,7 +8203,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="12">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8217,55 +8217,55 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="3"/>
-        <v>18.493096841087617</v>
+        <v>18.586259226601936</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>23.452877644809419</v>
+        <v>23.554908319883925</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="3"/>
-        <v>28.848555720888019</v>
+        <v>28.962597237606609</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>34.83230324730981</v>
+        <v>34.962705198698686</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>41.610097085561065</v>
+        <v>41.763143098172826</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="3"/>
-        <v>49.471506113130594</v>
+        <v>49.656712956602739</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="3"/>
-        <v>58.839708374912952</v>
+        <v>59.072308219815966</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="3"/>
-        <v>70.358632934428243</v>
+        <v>70.664724959651764</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="3"/>
-        <v>85.048086738012628</v>
+        <v>85.4765321580538</v>
       </c>
       <c r="S10" s="9">
         <f t="shared" si="3"/>
-        <v>104.56645132372756</v>
+        <v>105.22061835721072</v>
       </c>
       <c r="T10" s="9">
         <f t="shared" si="3"/>
-        <v>131.44355409906908</v>
+        <v>132.58590508899491</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="3"/>
-        <v>166.26595444642064</v>
+        <v>168.80372038163802</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="3"/>
-        <v>128.03962541794164</v>
+        <v>138.11358042504111</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -8279,55 +8279,55 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>21.900848941874425</v>
+        <v>22.046415169240547</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>27.984867282170331</v>
+        <v>28.144290211974248</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="3"/>
-        <v>34.57275524074187</v>
+        <v>34.750945110614673</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>41.838979356262378</v>
+        <v>42.04273240530749</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="3"/>
-        <v>50.015776696189178</v>
+        <v>50.25491109089505</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="3"/>
-        <v>59.422924412853405</v>
+        <v>59.712310105778627</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="3"/>
-        <v>70.514824234669788</v>
+        <v>70.878261492330751</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="3"/>
-        <v>83.954601846510968</v>
+        <v>84.432870635922725</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="3"/>
-        <v>100.72003172050134</v>
+        <v>101.38947768931567</v>
       </c>
       <c r="S11" s="9">
         <f t="shared" si="3"/>
-        <v>122.17291890150501</v>
+        <v>123.19505489132247</v>
       </c>
       <c r="T11" s="9">
         <f t="shared" si="3"/>
-        <v>149.3997911662623</v>
+        <v>151.18471458802145</v>
       </c>
       <c r="U11" s="9">
         <f t="shared" si="3"/>
-        <v>174.72132652826667</v>
+        <v>178.68658580204385</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="3"/>
-        <v>28.611130174113441</v>
+        <v>44.351684872706642</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B12">
         <f>B8-B10</f>
-        <v>74.25</v>
+        <v>75.75</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -8350,55 +8350,55 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>24.822392198867195</v>
+        <v>25.032007566274409</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>31.984365009994669</v>
+        <v>32.213934028912313</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>39.701778996448482</v>
+        <v>39.958372409065312</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>48.165095584065</v>
+        <v>48.458499974689957</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="3"/>
-        <v>57.622718442512408</v>
+        <v>57.967071970888867</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="3"/>
-        <v>68.407759421152292</v>
+        <v>68.824474818964603</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="3"/>
-        <v>80.976015600838025</v>
+        <v>81.499365251869818</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="3"/>
-        <v>95.953095029983984</v>
+        <v>96.641802086736888</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="3"/>
-        <v>114.15594602218428</v>
+        <v>115.11994821727691</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="3"/>
-        <v>136.36532837802065</v>
+        <v>137.83720420335777</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="3"/>
-        <v>161.39416765042583</v>
+        <v>163.964457377759</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="3"/>
-        <v>169.93225199820901</v>
+        <v>175.64222535244812</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="3"/>
-        <v>-123.39272570904029</v>
+        <v>-100.72632694306606</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -8411,55 +8411,55 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>27.257726612065916</v>
+        <v>27.543036417703519</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>35.451370828282428</v>
+        <v>35.763839770698105</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="3"/>
-        <v>44.23562698800783</v>
+        <v>44.58487913295852</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>53.810651930717654</v>
+        <v>54.210007906846073</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="3"/>
-        <v>64.430922324530783</v>
+        <v>64.899625738154299</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="3"/>
-        <v>76.426011138027206</v>
+        <v>76.99320709616066</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="3"/>
-        <v>90.223282473417726</v>
+        <v>90.935619498433212</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="3"/>
-        <v>106.35411248484724</v>
+        <v>107.29151931209427</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="3"/>
-        <v>125.35582964306147</v>
+        <v>126.66794374193753</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="3"/>
-        <v>147.14367975327451</v>
+        <v>149.1470662933167</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="3"/>
-        <v>167.42668355155979</v>
+        <v>170.92513345820765</v>
       </c>
       <c r="U13" s="9">
         <f t="shared" si="3"/>
-        <v>151.89873085624777</v>
+        <v>159.670639032851</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="3"/>
-        <v>-327.97194223151871</v>
+        <v>-297.12045502227659</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -8481,55 +8481,55 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="3"/>
-        <v>29.206852181470609</v>
+        <v>29.57950172352788</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>38.385884737033606</v>
+        <v>38.794007437331629</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="3"/>
-        <v>48.174299215419936</v>
+        <v>48.630465282294296</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>58.775648396220362</v>
+        <v>59.297256201775852</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="3"/>
-        <v>70.44038834224429</v>
+        <v>71.052572392691332</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="3"/>
-        <v>83.477679563478233</v>
+        <v>84.218506937366797</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="3"/>
-        <v>98.256624852408834</v>
+        <v>99.187024232020903</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="3"/>
-        <v>115.15765421110078</v>
+        <v>116.38202231199487</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="3"/>
-        <v>134.31968258313287</v>
+        <v>136.03346426329753</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="3"/>
-        <v>154.50797302726659</v>
+        <v>157.12464116119924</v>
       </c>
       <c r="T14" s="9">
         <f t="shared" si="3"/>
-        <v>167.49733886966408</v>
+        <v>172.06674282936743</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="3"/>
-        <v>120.62076310238274</v>
+        <v>130.7718268432522</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="3"/>
-        <v>-585.12651939332295</v>
+        <v>-544.83069936492507</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -8538,10 +8538,10 @@
       </c>
       <c r="B15" s="12">
         <f>C15*D15</f>
-        <v>5231.5999999999995</v>
+        <v>5295.4</v>
       </c>
       <c r="C15">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="D15">
         <v>6380</v>
@@ -8555,55 +8555,55 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="3"/>
-        <v>30.669768907081259</v>
+        <v>31.141403483747489</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>40.787906736248217</v>
+        <v>41.304437028812899</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="3"/>
-        <v>51.517795678684763</v>
+        <v>52.095130857072633</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>63.060084980573109</v>
+        <v>63.720244859479266</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="3"/>
-        <v>75.651116495652943</v>
+        <v>76.425911934499965</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="3"/>
-        <v>89.562764697505287</v>
+        <v>90.500374342583001</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="3"/>
-        <v>105.07604273781138</v>
+        <v>106.25357945263293</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="3"/>
-        <v>122.36372020874461</v>
+        <v>123.91331108643868</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="3"/>
-        <v>141.04750484239847</v>
+        <v>143.21650978135688</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="3"/>
-        <v>158.45820819999688</v>
+        <v>161.76992880700541</v>
       </c>
       <c r="T15" s="9">
         <f t="shared" si="3"/>
-        <v>161.60613360473886</v>
+        <v>167.38928549123844</v>
       </c>
       <c r="U15" s="9">
         <f t="shared" si="3"/>
-        <v>76.098348736614184</v>
+        <v>88.945788783652119</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="3"/>
-        <v>-894.85645719445324</v>
+        <v>-843.85705997101127</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -8627,55 +8627,55 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>31.646476788897868</v>
+        <v>32.228741698362356</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>42.65743682592624</v>
+        <v>43.295128545141907</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="3"/>
-        <v>54.266116377802334</v>
+        <v>54.978875857293531</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>66.663961683775909</v>
+        <v>67.478973879956357</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="3"/>
-        <v>80.063106784756712</v>
+        <v>81.019644363580198</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="3"/>
-        <v>94.681266540108425</v>
+        <v>95.838809311809328</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="3"/>
-        <v>110.6815361296254</v>
+        <v>112.13528516026926</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="3"/>
-        <v>127.97231047777868</v>
+        <v>129.88538563542568</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="3"/>
-        <v>145.53929642085834</v>
+        <v>148.21708029611563</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="3"/>
-        <v>158.99438527146543</v>
+        <v>163.08292923073526</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="3"/>
-        <v>149.75306775678388</v>
+        <v>156.8927614438204</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="3"/>
-        <v>18.331487758941876</v>
+        <v>34.192524854050589</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="3"/>
-        <v>-1257.1617556349081</v>
+        <v>-1194.1995368405353</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -8694,55 +8694,55 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>32.136975826920448</v>
+        <v>32.841516367372463</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>43.994475006067688</v>
+        <v>44.766081986318653</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="3"/>
-        <v>56.419261312772669</v>
+        <v>57.281700282957011</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>69.587278505828763</v>
+        <v>70.57344326320711</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="3"/>
-        <v>83.676359209555599</v>
+        <v>84.833769679932033</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="3"/>
-        <v>98.833185091287632</v>
+        <v>100.23381184504572</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="3"/>
-        <v>115.0731050278508</v>
+        <v>116.83214135492987</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="3"/>
-        <v>131.98342501820304</v>
+        <v>134.2982459589559</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="3"/>
-        <v>147.79505731851239</v>
+        <v>151.03517580757369</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="3"/>
-        <v>156.1165042416722</v>
+        <v>161.06364243238858</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="3"/>
-        <v>131.93814132579934</v>
+        <v>140.57717068711338</v>
       </c>
       <c r="U17" s="9">
         <f t="shared" si="3"/>
-        <v>-52.679819830634074</v>
+        <v>-33.487964945552562</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="3"/>
-        <v>-1672.0424147146887</v>
+        <v>-1595.8581299734983</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -8755,55 +8755,55 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>32.141266021148979</v>
+        <v>32.97972749077784</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>44.799021276672569</v>
+        <v>45.717297352343138</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="3"/>
-        <v>57.977230483595733</v>
+        <v>59.003604134063046</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>71.830035446731671</v>
+        <v>73.003653009231499</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="3"/>
-        <v>86.490873770049646</v>
+        <v>87.868287883555482</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="3"/>
-        <v>102.01852035104292</v>
+        <v>103.68538194229218</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="3"/>
-        <v>118.25074943248765</v>
+        <v>120.34414803661483</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="3"/>
-        <v>134.39706383001766</v>
+        <v>137.15189205702933</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="3"/>
-        <v>147.81478753536069</v>
+        <v>151.6707963157312</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="3"/>
-        <v>149.8245651106171</v>
+        <v>155.71206841196559</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="3"/>
-        <v>108.16135431178498</v>
+        <v>118.44251322111762</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="3"/>
-        <v>-136.93557403211366</v>
+        <v>-114.09568061515722</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="3"/>
-        <v>-2139.4984344337954</v>
+        <v>-2048.8328393698985</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B19" s="13">
         <f>B15*B16</f>
-        <v>98613.336759122161</v>
+        <v>99815.938426916342</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -8826,55 +8826,55 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>31.659347371583472</v>
+        <v>32.64337506857845</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>45.071075637740861</v>
+        <v>46.148774643215333</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="3"/>
-        <v>58.94002389027154</v>
+        <v>60.14458741061167</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>73.392232506484618</v>
+        <v>74.769603118029565</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="3"/>
-        <v>88.506650466238852</v>
+        <v>90.123198974450546</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="3"/>
-        <v>104.23727231937424</v>
+        <v>106.19351960354874</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="3"/>
-        <v>120.21446934353594</v>
+        <v>122.67130520532407</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="3"/>
-        <v>135.21322691322251</v>
+        <v>138.44632392964596</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="3"/>
-        <v>145.59848707140324</v>
+        <v>150.12394182058799</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="3"/>
-        <v>140.11856787830021</v>
+        <v>147.02820716946616</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="3"/>
-        <v>78.422706714741196</v>
+        <v>90.488789045832846</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" si="3"/>
-        <v>-234.43577484549701</v>
+        <v>-207.63062215476316</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="3"/>
-        <v>-2659.5298147922267</v>
+        <v>-2553.1236650297369</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B20" s="15">
         <f>($B$17*B19)/(12*60)</f>
-        <v>31.090593672667683</v>
+        <v>31.469747254041678</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -8897,61 +8897,61 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>30.691219878223912</v>
+        <v>31.832459100774308</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>44.810638089272594</v>
+        <v>46.060513858935302</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="3"/>
-        <v>59.307641532800098</v>
+        <v>60.704650112602835</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>74.273869685087575</v>
+        <v>75.871293589601251</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="3"/>
-        <v>89.723689298123162</v>
+        <v>91.59850295261721</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="3"/>
-        <v>105.48944099628159</v>
+        <v>107.75822482881536</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="3"/>
-        <v>120.96426476099566</v>
+        <v>123.81361286105763</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="3"/>
-        <v>134.43191426781769</v>
+        <v>138.18154157680578</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="3"/>
-        <v>141.14615592663998</v>
+        <v>146.3946123221443</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="3"/>
-        <v>126.99851254472168</v>
+        <v>135.01205870489042</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="3"/>
-        <v>42.722198534667768</v>
+        <v>56.715998161259222</v>
       </c>
       <c r="U20" s="9">
         <f t="shared" si="3"/>
-        <v>-345.18042227078365</v>
+        <v>-314.09278956437072</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="3"/>
-        <v>-3232.1365557899817</v>
+        <v>-3108.7306069530132</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>B20*12</f>
-        <v>373.08712407201222</v>
+        <v>377.63696704850014</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -8966,55 +8966,55 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>29.236883541070334</v>
+        <v>30.546979587365421</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>44.01770863126773</v>
+        <v>45.452514999502974</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="3"/>
-        <v>59.080083411181405</v>
+        <v>60.683792240036581</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>74.474946982540587</v>
+        <v>76.3087244239466</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="3"/>
-        <v>90.141990265702617</v>
+        <v>92.294199818055489</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="3"/>
-        <v>105.77502638176507</v>
+        <v>108.37949761809207</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="3"/>
-        <v>120.50013568486679</v>
+        <v>123.77107100381548</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="3"/>
-        <v>132.05312589380313</v>
+        <v>136.35754499850884</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="3"/>
-        <v>134.45779410107096</v>
+        <v>140.48280782039984</v>
       </c>
       <c r="S21" s="9">
         <f t="shared" si="3"/>
-        <v>110.46439910988124</v>
+        <v>119.66362301823824</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="3"/>
-        <v>1.0598297715647504</v>
+        <v>17.124140567396694</v>
       </c>
       <c r="U21" s="9">
         <f t="shared" si="3"/>
-        <v>-469.16951630797462</v>
+        <v>-433.48218284397967</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="3"/>
-        <v>-3857.3186574270644</v>
+        <v>-3715.6536651397269</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -9027,55 +9027,55 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>27.296338360122697</v>
+        <v>28.786936528351788</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>42.6922872637263</v>
+        <v>44.324778064918391</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="3"/>
-        <v>58.257349525415464</v>
+        <v>60.082013792912903</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>73.995464398843694</v>
+        <v>76.081895621065655</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>89.761553368977175</v>
+        <v>92.210289570765326</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="3"/>
-        <v>105.09402847582459</v>
+        <v>108.05733797137887</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="3"/>
-        <v>118.82208211514936</v>
+        <v>122.54367963359766</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="3"/>
-        <v>128.0768617911788</v>
+        <v>132.97433419475516</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="3"/>
-        <v>125.53340159469622</v>
+        <v>132.38852831535485</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="3"/>
-        <v>90.516227573779076</v>
+        <v>100.98290010950967</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="3"/>
-        <v>-46.564399574568142</v>
+        <v>-28.286783735754739</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="3"/>
-        <v>-606.40305695706866</v>
+        <v>-565.79880199359081</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="3"/>
-        <v>-4535.0761197034708</v>
+        <v>-4373.8928395898793</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -9097,55 +9097,55 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="3"/>
-        <v>24.869584335381035</v>
+        <v>26.552329923733396</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>40.834373986648302</v>
+        <v>42.677303055181554</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="3"/>
-        <v>56.839439875502208</v>
+        <v>58.899314771231772</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="3"/>
-        <v>72.835421933996798</v>
+        <v>75.190807180958302</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="3"/>
-        <v>88.582378607946893</v>
+        <v>91.346772210746806</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="3"/>
-        <v>103.4464472784602</v>
+        <v>106.79174588867579</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="3"/>
-        <v>115.93010405184341</v>
+        <v>120.13143875040419</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="3"/>
-        <v>122.50312195994474</v>
+        <v>128.03190916554462</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="3"/>
-        <v>114.37297840751557</v>
+        <v>122.11177380700911</v>
       </c>
       <c r="S23" s="9">
         <f t="shared" si="3"/>
-        <v>67.15399793641501</v>
+        <v>78.969889978704714</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="3"/>
-        <v>-100.15048950373023</v>
+        <v>-79.516774748194962</v>
       </c>
       <c r="U23" s="9">
         <f t="shared" si="3"/>
-        <v>-756.88104421806656</v>
+        <v>-711.04264701320244</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="3"/>
-        <v>-5265.4089426192058</v>
+        <v>-5083.44813030347</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9165,55 +9165,55 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" ref="J24:V24" si="4">TAN(J$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(J$5)), 2)</f>
-        <v>21.956621466845348</v>
+        <v>23.843159773510266</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
-        <v>38.443968800033701</v>
+        <v>40.510089970292441</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="4"/>
-        <v>54.826354461441738</v>
+        <v>57.135695174993216</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="4"/>
-        <v>70.99481958799997</v>
+        <v>73.635459103624626</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="4"/>
-        <v>86.604465982611799</v>
+        <v>89.703647737999887</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="4"/>
-        <v>100.83228278967181</v>
+        <v>104.58272136998269</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="4"/>
-        <v>111.82420149494882</v>
+        <v>116.53434835423502</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="4"/>
-        <v>115.33190640010105</v>
+        <v>121.53026991087737</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="4"/>
-        <v>100.97652453952924</v>
+        <v>109.65254429536282</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="4"/>
-        <v>40.37771019778927</v>
+        <v>53.624592625823425</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="4"/>
-        <v>-159.69844001592219</v>
+        <v>-136.56583246992386</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="4"/>
-        <v>-920.60347809096788</v>
+        <v>-869.21371790281614</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="4"/>
-        <v>-6048.3171261742646</v>
+        <v>-5844.3195372804967</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -9226,55 +9226,55 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" ref="J25:V40" si="5">TAN(J$5)*$I25-(0.5*$B$24)*POWER($I25/($B$21*COS(J$5)), 2)</f>
-        <v>18.557449754515616</v>
+        <v>20.659426077682383</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="5"/>
-        <v>35.521071703882555</v>
+        <v>37.823138810251081</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="5"/>
-        <v>52.21809328323404</v>
+        <v>54.791155004197236</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="5"/>
-        <v>68.47365736085321</v>
+        <v>71.415851389064656</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="5"/>
-        <v>83.827815492971752</v>
+        <v>87.280916152524583</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="5"/>
-        <v>97.251535009459559</v>
+        <v>101.43026441529975</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="5"/>
-        <v>106.50437444446581</v>
+        <v>111.75240844509011</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="5"/>
-        <v>106.56321511164754</v>
+        <v>113.46941643075314</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="5"/>
-        <v>85.344039990737087</v>
+        <v>95.010839780415949</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="5"/>
-        <v>10.187364357901856</v>
+        <v>24.947008050865747</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="5"/>
-        <v>-225.20825111114402</v>
+        <v>-199.43395690094201</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="5"/>
-        <v>-1097.5703585757731</v>
+        <v>-1040.3120146624312</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="5"/>
-        <v>-6883.8006703686478</v>
+        <v>-6656.5070605209603</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -9288,55 +9288,55 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="5"/>
-        <v>14.67206919839181</v>
+        <v>17.001128836249748</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="5"/>
-        <v>32.065682698194777</v>
+        <v>34.616449575057445</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="5"/>
-        <v>49.014656340879014</v>
+        <v>51.865694258843789</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="5"/>
-        <v>65.271935252556489</v>
+        <v>68.531984037278278</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="5"/>
-        <v>80.252427139026878</v>
+        <v>84.078577454320822</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="5"/>
-        <v>92.704203937823337</v>
+        <v>97.334375024626922</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="5"/>
-        <v>99.970622900394119</v>
+        <v>105.78561902296957</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="5"/>
-        <v>96.197048094584261</v>
+        <v>103.84934872517232</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="5"/>
-        <v>67.475524761139241</v>
+        <v>78.186660262168402</v>
       </c>
       <c r="S26" s="9">
         <f t="shared" si="5"/>
-        <v>-23.417039583247515</v>
+        <v>-7.0628637461682047</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="5"/>
-        <v>-296.67992278939516</v>
+        <v>-268.12114804124906</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="5"/>
-        <v>-1287.7816856724821</v>
+        <v>-1224.3375372920473</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" si="5"/>
-        <v>-7771.8595752023557</v>
+        <v>-7520.0107000248645</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -9349,55 +9349,55 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="5"/>
-        <v>10.300479798473987</v>
+        <v>12.868268049212347</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="5"/>
-        <v>28.077801782970468</v>
+        <v>30.890022264711561</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="5"/>
-        <v>45.216043634376803</v>
+        <v>48.359312938932959</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="5"/>
-        <v>61.389653263109807</v>
+        <v>64.983857048265577</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="5"/>
-        <v>75.878300920777122</v>
+        <v>80.096631643388719</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="5"/>
-        <v>87.19028957476317</v>
+        <v>92.295053197964108</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="5"/>
-        <v>92.222946862733806</v>
+        <v>98.633980087873226</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="5"/>
-        <v>84.23340534891139</v>
+        <v>92.670066794134527</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="5"/>
-        <v>47.370978850735582</v>
+        <v>59.180005740620118</v>
       </c>
       <c r="S27" s="9">
         <f t="shared" si="5"/>
-        <v>-60.435501625658617</v>
+        <v>-42.405022765278773</v>
       </c>
       <c r="T27" s="9">
         <f t="shared" si="5"/>
-        <v>-374.11345505067618</v>
+        <v>-342.62740589084513</v>
       </c>
       <c r="U27" s="9">
         <f t="shared" si="5"/>
-        <v>-1491.2374593810951</v>
+        <v>-1421.2902857916652</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="5"/>
-        <v>-8712.4938406753936</v>
+        <v>-8434.8304557922074</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -9410,55 +9410,55 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="5"/>
-        <v>5.4426815547621459</v>
+        <v>8.2608437165702213</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="5"/>
-        <v>23.557428958209556</v>
+        <v>26.643856879213416</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="5"/>
-        <v>40.822255163727306</v>
+        <v>44.272011044464676</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="5"/>
-        <v>56.82681139251315</v>
+        <v>60.771470422026539</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="5"/>
-        <v>70.705436838222454</v>
+        <v>75.335078719728216</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="5"/>
-        <v>80.709791920279088</v>
+        <v>86.312298935311446</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="5"/>
-        <v>83.261346331485015</v>
+        <v>90.297491639801308</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="5"/>
-        <v>70.672286874628639</v>
+        <v>79.931570637640164</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="5"/>
-        <v>25.030402259526113</v>
+        <v>37.990876215771323</v>
       </c>
       <c r="S28" s="9">
         <f t="shared" si="5"/>
-        <v>-100.86802176933134</v>
+        <v>-81.079469006465843</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" si="5"/>
-        <v>-457.50884789498639</v>
+        <v>-422.95273044973021</v>
       </c>
       <c r="U28" s="9">
         <f t="shared" si="5"/>
-        <v>-1707.9376797016109</v>
+        <v>-1631.1702601612849</v>
       </c>
       <c r="V28" s="9">
         <f t="shared" si="5"/>
-        <v>-9705.7034667877506</v>
+        <v>-9400.9663278229891</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -9471,55 +9471,55 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="5"/>
-        <v>9.8674467256216758E-2</v>
+        <v>3.178855838323372</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="5"/>
-        <v>18.504564223912098</v>
+        <v>21.877953418562981</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="5"/>
-        <v>35.833290928930523</v>
+        <v>39.603788575438983</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="5"/>
-        <v>51.583409640766575</v>
+        <v>55.894824158561107</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="5"/>
-        <v>64.733834891363017</v>
+        <v>69.793918683339285</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="5"/>
-        <v>73.262710974371089</v>
+        <v>79.386112236668765</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="5"/>
-        <v>73.085821306647631</v>
+        <v>80.776153678753701</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="5"/>
-        <v>55.51369267173618</v>
+        <v>65.633860255688944</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="5"/>
-        <v>0.45379498751094616</v>
+        <v>14.619271687621904</v>
       </c>
       <c r="S29" s="9">
         <f t="shared" si="5"/>
-        <v>-144.71460001426624</v>
+        <v>-123.08620246972896</v>
       </c>
       <c r="T29" s="9">
         <f t="shared" si="5"/>
-        <v>-546.86610132232681</v>
+        <v>-509.09712171790397</v>
       </c>
       <c r="U29" s="9">
         <f t="shared" si="5"/>
-        <v>-1937.8823466340307</v>
+        <v>-1853.9774604009051</v>
       </c>
       <c r="V29" s="9">
         <f t="shared" si="5"/>
-        <v>-10751.488453539436</v>
+        <v>-10418.418316117202</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -9532,55 +9532,55 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="5"/>
-        <v>-5.731541464043687</v>
+        <v>-2.3776955855282438</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="5"/>
-        <v>12.919207580078051</v>
+        <v>16.592311882760328</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="5"/>
-        <v>30.249150929986541</v>
+        <v>34.354645531855795</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="5"/>
-        <v>45.659448007870054</v>
+        <v>50.353918257869395</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="5"/>
-        <v>57.963495080198641</v>
+        <v>63.473151534221984</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="5"/>
-        <v>64.849046737039203</v>
+        <v>71.516493102036236</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="5"/>
-        <v>61.696371788221654</v>
+        <v>70.069966204730349</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="5"/>
-        <v>38.757622740234183</v>
+        <v>49.776935648280755</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="5"/>
-        <v>-26.358842965310146</v>
+        <v>-10.934807843828139</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="5"/>
-        <v>-191.97523636046265</v>
+        <v>-168.42522315506869</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="5"/>
-        <v>-642.18521533269677</v>
+        <v>-601.06057969536619</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="5"/>
-        <v>-2181.0714601783538</v>
+        <v>-2089.7118865105285</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="5"/>
-        <v>-11849.848800930449</v>
+        <v>-11487.186420674861</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -9594,55 +9594,55 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="5"/>
-        <v>-12.047966239137679</v>
+        <v>-8.4088105549846262</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="5"/>
-        <v>6.8013590267074164</v>
+        <v>10.786932271805341</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="5"/>
-        <v>24.069835166895245</v>
+        <v>28.524581913715224</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="5"/>
-        <v>39.054926493823558</v>
+        <v>44.148752719951318</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="5"/>
-        <v>50.39441740472941</v>
+        <v>56.372777272376311</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="5"/>
-        <v>55.468799208283201</v>
+        <v>62.70344153141383</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="5"/>
-        <v>49.092997776207142</v>
+        <v>58.178929217731365</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="5"/>
-        <v>20.404077080122192</v>
+        <v>32.360796815415938</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="5"/>
-        <v>-55.407511598936935</v>
+        <v>-38.67136237857892</v>
       </c>
       <c r="S31" s="9">
         <f t="shared" si="5"/>
-        <v>-242.64993080792078</v>
+        <v>-217.0965310624847</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="5"/>
-        <v>-743.46618992609547</v>
+        <v>-698.84310438211787</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="5"/>
-        <v>-2437.5050203345809</v>
+        <v>-2338.3735384901515</v>
       </c>
       <c r="V31" s="9">
         <f t="shared" si="5"/>
-        <v>-13000.784508960787</v>
+        <v>-12607.270641495954</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -9655,55 +9655,55 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="5"/>
-        <v>-18.850599858025674</v>
+        <v>-14.914489070045761</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="5"/>
-        <v>0.15101856380022127</v>
+        <v>4.4618145856981073</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="5"/>
-        <v>17.295343639656721</v>
+        <v>22.113597721017243</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="5"/>
-        <v>31.769845098627115</v>
+        <v>37.279327544806904</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="5"/>
-        <v>42.026601864955467</v>
+        <v>48.492795897802239</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="5"/>
-        <v>45.121968388103426</v>
+        <v>52.946957524801405</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="5"/>
-        <v>35.275699270604036</v>
+        <v>45.10304271775658</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="5"/>
-        <v>0.45305569140055013</v>
+        <v>13.385443757094322</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="5"/>
-        <v>-86.692210913369308</v>
+        <v>-68.590391916630324</v>
       </c>
       <c r="S32" s="9">
         <f t="shared" si="5"/>
-        <v>-296.7386833566411</v>
+        <v>-269.10012619197732</v>
       </c>
       <c r="T32" s="9">
         <f t="shared" si="5"/>
-        <v>-850.70902510252495</v>
+        <v>-802.44469577815835</v>
       </c>
       <c r="U32" s="9">
         <f t="shared" si="5"/>
-        <v>-2707.1830271027125</v>
+        <v>-2599.9624163397771</v>
       </c>
       <c r="V32" s="9">
         <f t="shared" si="5"/>
-        <v>-14204.295577630448</v>
+        <v>-13778.670978580489</v>
       </c>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.3">
@@ -9716,55 +9716,55 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="5"/>
-        <v>-26.139442320707758</v>
+        <v>-21.894731130711648</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="5"/>
-        <v>-7.031813808643534</v>
+        <v>-2.3830411755613738</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="5"/>
-        <v>9.9256763482709687</v>
+        <v>15.121692953761794</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="5"/>
-        <v>23.804203822280641</v>
+        <v>29.745642732436067</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="5"/>
-        <v>32.860048460876499</v>
+        <v>39.833207410499767</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="5"/>
-        <v>33.808554276499592</v>
+        <v>42.247041082199132</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="5"/>
-        <v>20.244476271412452</v>
+        <v>30.842306704806106</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="5"/>
-        <v>-21.095441425930744</v>
+        <v>-7.1491235266840931</v>
       </c>
       <c r="R33" s="9">
         <f t="shared" si="5"/>
-        <v>-120.21294090860783</v>
+        <v>-100.69189645798212</v>
       </c>
       <c r="S33" s="9">
         <f t="shared" si="5"/>
-        <v>-354.24149400662259</v>
+        <v>-324.436008543546</v>
       </c>
       <c r="T33" s="9">
         <f t="shared" si="5"/>
-        <v>-963.91372086198407</v>
+        <v>-911.86535388348784</v>
       </c>
       <c r="U33" s="9">
         <f t="shared" si="5"/>
-        <v>-2990.1054804827463</v>
+        <v>-2874.4785200594051</v>
       </c>
       <c r="V33" s="9">
         <f t="shared" si="5"/>
-        <v>-15460.382006939431</v>
+        <v>-15001.387431928455</v>
       </c>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.3">
@@ -9777,55 +9777,55 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="5"/>
-        <v>-33.914493627183873</v>
+        <v>-29.349536736982287</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="5"/>
-        <v>-14.747138090623878</v>
+        <v>-9.7476350119730455</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="5"/>
-        <v>1.9608332927379308</v>
+        <v>7.5488676119488787</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="5"/>
-        <v>15.158002664784249</v>
+        <v>21.547698282838951</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="5"/>
-        <v>22.894757192492705</v>
+        <v>30.394011810468896</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="5"/>
-        <v>21.528556873471814</v>
+        <v>30.603692203606897</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="5"/>
-        <v>3.9993287786322185</v>
+        <v>15.396721178880114</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="5"/>
-        <v>-44.241414271871804</v>
+        <v>-29.242905035919421</v>
       </c>
       <c r="R34" s="9">
         <f t="shared" si="5"/>
-        <v>-155.96970158465183</v>
+        <v>-134.97587600263455</v>
       </c>
       <c r="S34" s="9">
         <f t="shared" si="5"/>
-        <v>-415.15836275786614</v>
+        <v>-383.10417811719117</v>
       </c>
       <c r="T34" s="9">
         <f t="shared" si="5"/>
-        <v>-1083.0802772044717</v>
+        <v>-1027.1050786981059</v>
       </c>
       <c r="U34" s="9">
         <f t="shared" si="5"/>
-        <v>-3286.2723804746838</v>
+        <v>-3161.9218496490321</v>
       </c>
       <c r="V34" s="9">
         <f t="shared" si="5"/>
-        <v>-16769.043796887738</v>
+        <v>-16275.420001539866</v>
       </c>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.3">
@@ -9838,55 +9838,55 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="5"/>
-        <v>-42.175753777454048</v>
+        <v>-37.278905888857679</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="5"/>
-        <v>-22.994954282140839</v>
+        <v>-17.631966923537107</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="5"/>
-        <v>-6.5991855269424207</v>
+        <v>-0.60487830442139057</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="5"/>
-        <v>5.8312416261379099</v>
+        <v>12.685494196015554</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="5"/>
-        <v>12.130728059804028</v>
+        <v>20.175209097709626</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="5"/>
-        <v>8.2819761790202051</v>
+        <v>18.0169108890247</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="5"/>
-        <v>-13.459743207736494</v>
+        <v>-1.2337138600216804</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="5"/>
-        <v>-68.984862846422629</v>
+        <v>-52.89590077061132</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" si="5"/>
-        <v>-193.96249294150152</v>
+        <v>-171.44233055058805</v>
       </c>
       <c r="S35" s="9">
         <f t="shared" si="5"/>
-        <v>-479.48928961037177</v>
+        <v>-445.10463491291284</v>
       </c>
       <c r="T35" s="9">
         <f t="shared" si="5"/>
-        <v>-1208.2086941299899</v>
+        <v>-1148.1638702220125</v>
       </c>
       <c r="U35" s="9">
         <f t="shared" si="5"/>
-        <v>-3595.6837270785254</v>
+        <v>-3462.2924051086638</v>
       </c>
       <c r="V35" s="9">
         <f t="shared" si="5"/>
-        <v>-18130.280947475381</v>
+        <v>-17600.768687414711</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.3">
@@ -9900,55 +9900,55 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="5"/>
-        <v>-50.923222771518141</v>
+        <v>-45.682838586337795</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="5"/>
-        <v>-31.775262383194331</v>
+        <v>-26.036036910253358</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="5"/>
-        <v>-15.754380110769887</v>
+        <v>-9.3395447953491839</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="5"/>
-        <v>-4.1760792936584039</v>
+        <v>3.1590304719656501</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="5"/>
-        <v>0.56796106281052516</v>
+        <v>9.1767992722220129</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="5"/>
-        <v>-5.9311878068552915</v>
+        <v>4.4866971384527119</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="5"/>
-        <v>-32.13273968769397</v>
+        <v>-19.04899841189922</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="5"/>
-        <v>-95.325787149583107</v>
+        <v>-78.108110730760245</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="5"/>
-        <v>-234.19131497915726</v>
+        <v>-210.09126010184173</v>
       </c>
       <c r="S36" s="9">
         <f t="shared" si="5"/>
-        <v>-547.23427456413879</v>
+        <v>-510.43737893071079</v>
       </c>
       <c r="T36" s="9">
         <f t="shared" si="5"/>
-        <v>-1339.2989716385368</v>
+        <v>-1275.0417284552091</v>
       </c>
       <c r="U36" s="9">
         <f t="shared" si="5"/>
-        <v>-3918.3395202942729</v>
+        <v>-3775.5901864382931</v>
       </c>
       <c r="V36" s="9">
         <f t="shared" si="5"/>
-        <v>-19544.093458702344</v>
+        <v>-18977.433489552994</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.3">
@@ -9961,55 +9961,55 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="5"/>
-        <v>-60.156900609376351</v>
+        <v>-54.561334829422663</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="5"/>
-        <v>-41.088062393784412</v>
+        <v>-34.959844972121914</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="5"/>
-        <v>-25.504750458744695</v>
+        <v>-18.655131860834274</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="5"/>
-        <v>-14.863960094604579</v>
+        <v>-7.0316928893103636</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="5"/>
-        <v>-11.793543798487917</v>
+        <v>-2.6012176659941701</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="5"/>
-        <v>-21.110935084154733</v>
+        <v>-9.9869490481091816</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="5"/>
-        <v>-52.019660661239868</v>
+        <v>-38.049132476752334</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="5"/>
-        <v>-123.26418718135335</v>
+        <v>-104.87953491636574</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="5"/>
-        <v>-276.6561676976188</v>
+        <v>-250.92266465639625</v>
       </c>
       <c r="S37" s="9">
         <f t="shared" si="5"/>
-        <v>-618.39331761916765</v>
+        <v>-579.10241017058524</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" si="5"/>
-        <v>-1476.3511097301143</v>
+        <v>-1407.7386533976937</v>
       </c>
       <c r="U37" s="9">
         <f t="shared" si="5"/>
-        <v>-4254.2397601219218</v>
+        <v>-4101.8151936379272</v>
       </c>
       <c r="V37" s="9">
         <f t="shared" si="5"/>
-        <v>-21010.481330568629</v>
+        <v>-20405.414407954711</v>
       </c>
     </row>
     <row r="38" spans="7:22" x14ac:dyDescent="0.3">
@@ -10022,55 +10022,55 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="5"/>
-        <v>-69.876787291028677</v>
+        <v>-63.914394618112311</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="5"/>
-        <v>-50.933354313911082</v>
+        <v>-44.403391109142717</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="5"/>
-        <v>-35.850296570866703</v>
+        <v>-28.551639500876945</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="5"/>
-        <v>-26.232400776700729</v>
+        <v>-17.886675887812885</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="5"/>
-        <v>-24.953786524091242</v>
+        <v>-15.158841716938639</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="5"/>
-        <v>-37.257265652878289</v>
+        <v>-25.404027670661151</v>
       </c>
       <c r="P38" s="9">
         <f t="shared" si="5"/>
-        <v>-73.120506128374473</v>
+        <v>-58.23411605458125</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="5"/>
-        <v>-152.80006294173347</v>
+        <v>-133.21017332742804</v>
       </c>
       <c r="R38" s="9">
         <f t="shared" si="5"/>
-        <v>-321.3570510968857</v>
+        <v>-293.93654421425117</v>
       </c>
       <c r="S38" s="9">
         <f t="shared" si="5"/>
-        <v>-692.96641877545835</v>
+        <v>-651.09972863253597</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="5"/>
-        <v>-1619.3651084047215</v>
+        <v>-1546.2546450494679</v>
       </c>
       <c r="U38" s="9">
         <f t="shared" si="5"/>
-        <v>-4603.3844465614739</v>
+        <v>-4440.9674267075625</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" si="5"/>
-        <v>-22529.444563074241</v>
+        <v>-21884.711442619875</v>
       </c>
     </row>
     <row r="39" spans="7:22" x14ac:dyDescent="0.3">
@@ -10083,55 +10083,55 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="5"/>
-        <v>-80.082882816474893</v>
+        <v>-73.742017952406712</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="5"/>
-        <v>-61.311138143574311</v>
+        <v>-54.366675321315739</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="5"/>
-        <v>-46.791018447136139</v>
+        <v>-39.029067715477026</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="5"/>
-        <v>-38.281401339946854</v>
+        <v>-29.405918523541743</v>
       </c>
       <c r="N39" s="9">
         <f t="shared" si="5"/>
-        <v>-38.912767113999337</v>
+        <v>-28.496072880611507</v>
       </c>
       <c r="O39" s="9">
         <f t="shared" si="5"/>
-        <v>-54.370179513025562</v>
+        <v>-41.764538729202911</v>
       </c>
       <c r="P39" s="9">
         <f t="shared" si="5"/>
-        <v>-95.435276089097442</v>
+        <v>-79.603949145385855</v>
       </c>
       <c r="Q39" s="9">
         <f t="shared" si="5"/>
-        <v>-183.93341443072302</v>
+        <v>-163.10002596394747</v>
       </c>
       <c r="R39" s="9">
         <f t="shared" si="5"/>
-        <v>-368.29396517695886</v>
+        <v>-339.13289877540728</v>
       </c>
       <c r="S39" s="9">
         <f t="shared" si="5"/>
-        <v>-770.9535780330109</v>
+        <v>-726.4293343165632</v>
       </c>
       <c r="T39" s="9">
         <f t="shared" si="5"/>
-        <v>-1768.340967662358</v>
+        <v>-1690.5897034105294</v>
       </c>
       <c r="U39" s="9">
         <f t="shared" si="5"/>
-        <v>-4965.7735796129309</v>
+        <v>-4793.0468856471962</v>
       </c>
       <c r="V39" s="9">
         <f t="shared" si="5"/>
-        <v>-24100.983156219187</v>
+        <v>-23415.324593548467</v>
       </c>
     </row>
     <row r="40" spans="7:22" x14ac:dyDescent="0.3">
@@ -10144,55 +10144,55 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="5"/>
-        <v>-90.775187185715282</v>
+        <v>-84.044204832305837</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="5"/>
-        <v>-72.221413882774101</v>
+        <v>-64.849697608641094</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="5"/>
-        <v>-58.326916087552718</v>
+        <v>-50.087416504634461</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="5"/>
-        <v>-51.01096178434301</v>
+        <v>-41.589420796496995</v>
       </c>
       <c r="N40" s="9">
         <f t="shared" si="5"/>
-        <v>-53.670485568212371</v>
+        <v>-42.612911157012718</v>
       </c>
       <c r="O40" s="9">
         <f t="shared" si="5"/>
-        <v>-72.449676664596893</v>
+        <v>-59.06848222373452</v>
       </c>
       <c r="P40" s="9">
         <f t="shared" si="5"/>
-        <v>-118.963970543409</v>
+        <v>-102.15863174916592</v>
       </c>
       <c r="Q40" s="9">
         <f t="shared" si="5"/>
-        <v>-216.66424164832279</v>
+        <v>-194.54909282592325</v>
       </c>
       <c r="R40" s="9">
         <f t="shared" si="5"/>
-        <v>-417.46690993783761</v>
+        <v>-386.51172833986345</v>
       </c>
       <c r="S40" s="9">
         <f t="shared" si="5"/>
-        <v>-852.35479539182552</v>
+        <v>-805.0912272226667</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="5"/>
-        <v>-1923.2786875030231</v>
+        <v>-1840.743828480882</v>
       </c>
       <c r="U40" s="9">
         <f t="shared" si="5"/>
-        <v>-5341.4071592762903</v>
+        <v>-5158.0535704568338</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="5"/>
-        <v>-25725.097110003451</v>
+        <v>-24997.253860740508</v>
       </c>
     </row>
     <row r="41" spans="7:22" x14ac:dyDescent="0.3">
@@ -10205,55 +10205,55 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" ref="J41:V46" si="6">TAN(J$5)*$I41-(0.5*$B$24)*POWER($I41/($B$21*COS(J$5)), 2)</f>
-        <v>-101.95370039874953</v>
+        <v>-94.820955257809686</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="6"/>
-        <v>-83.664181531510508</v>
+        <v>-75.852457971118668</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="6"/>
-        <v>-70.457989492116496</v>
+        <v>-61.726685868349364</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="6"/>
-        <v>-64.421082109888971</v>
+        <v>-54.43718270667847</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="6"/>
-        <v>-69.226941886730231</v>
+        <v>-57.509356546142385</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="6"/>
-        <v>-91.495757107592055</v>
+        <v>-77.315858154256205</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="6"/>
-        <v>-143.70658949130916</v>
+        <v>-125.89816386592179</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="6"/>
-        <v>-250.99254459453175</v>
+        <v>-227.55737391335606</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="6"/>
-        <v>-468.87588537952183</v>
+        <v>-436.07303290762047</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="6"/>
-        <v>-937.17007085190153</v>
+        <v>-887.08540735084648</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="6"/>
-        <v>-2084.1782679267189</v>
+        <v>-1996.7170202605223</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="6"/>
-        <v>-5730.2851855515537</v>
+        <v>-5535.9874811364716</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="6"/>
-        <v>-27401.786424427046</v>
+        <v>-26630.499244195977</v>
       </c>
     </row>
     <row r="42" spans="7:22" x14ac:dyDescent="0.3">
@@ -10266,55 +10266,55 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="6"/>
-        <v>-113.61842245557798</v>
+        <v>-106.07226922891832</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
-        <v>-95.639441089783503</v>
+        <v>-87.374956408748545</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="6"/>
-        <v>-83.184238660827646</v>
+        <v>-73.946875806621733</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="6"/>
-        <v>-78.51176231658502</v>
+        <v>-67.949204254086396</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="6"/>
-        <v>-85.582136069552746</v>
+        <v>-73.185409048000395</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="6"/>
-        <v>-111.50842084201145</v>
+        <v>-96.506666520767908</v>
       </c>
       <c r="P42" s="9">
         <f t="shared" si="6"/>
-        <v>-169.66313293279813</v>
+        <v>-150.82254549565334</v>
       </c>
       <c r="Q42" s="9">
         <f t="shared" si="6"/>
-        <v>-286.91832326935059</v>
+        <v>-262.12486922624532</v>
       </c>
       <c r="R42" s="9">
         <f t="shared" si="6"/>
-        <v>-522.52089150201232</v>
+        <v>-487.816812478678</v>
       </c>
       <c r="S42" s="9">
         <f t="shared" si="6"/>
-        <v>-1025.3994044132394</v>
+        <v>-972.41187470110276</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="6"/>
-        <v>-2251.0397089334438</v>
+        <v>-2158.5092787494505</v>
       </c>
       <c r="U42" s="9">
         <f t="shared" si="6"/>
-        <v>-6132.4076584387203</v>
+        <v>-5926.8486176861134</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="6"/>
-        <v>-29131.05109948996</v>
+        <v>-28315.060743914888</v>
       </c>
     </row>
     <row r="43" spans="7:22" x14ac:dyDescent="0.3">
@@ -10327,55 +10327,55 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="6"/>
-        <v>-125.76935335620053</v>
+        <v>-117.79814674563173</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="6"/>
-        <v>-108.14719255759303</v>
+        <v>-99.417192921530614</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="6"/>
-        <v>-96.505663593685995</v>
+        <v>-86.747986319451456</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="6"/>
-        <v>-93.283002404430931</v>
+        <v>-82.125485438720602</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="6"/>
-        <v>-102.73606811668043</v>
+        <v>-89.641068662586861</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="6"/>
-        <v>-132.4876678678545</v>
+        <v>-116.64090732326918</v>
       </c>
       <c r="P43" s="9">
         <f t="shared" si="6"/>
-        <v>-196.83360086787548</v>
+        <v>-176.93177663836082</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="6"/>
-        <v>-324.44157767277943</v>
+        <v>-298.25157876459161</v>
       </c>
       <c r="R43" s="9">
         <f t="shared" si="6"/>
-        <v>-578.40192830530839</v>
+        <v>-541.7430670530365</v>
       </c>
       <c r="S43" s="9">
         <f t="shared" si="6"/>
-        <v>-1117.0427960758389</v>
+        <v>-1061.0706292734353</v>
       </c>
       <c r="T43" s="9">
         <f t="shared" si="6"/>
-        <v>-2423.8630105231996</v>
+        <v>-2326.1206039476701</v>
       </c>
       <c r="U43" s="9">
         <f t="shared" si="6"/>
-        <v>-6547.7745779377919</v>
+        <v>-6330.6369801057544</v>
       </c>
       <c r="V43" s="9">
         <f t="shared" si="6"/>
-        <v>-30912.8911351922</v>
+        <v>-30050.938359897242</v>
       </c>
     </row>
     <row r="44" spans="7:22" x14ac:dyDescent="0.3">
@@ -10388,55 +10388,55 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="6"/>
-        <v>-138.4064931006169</v>
+        <v>-129.99858780794983</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="6"/>
-        <v>-121.18743593493912</v>
+        <v>-111.97916750946501</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="6"/>
-        <v>-110.42226429069149</v>
+        <v>-100.1300174068387</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="6"/>
-        <v>-108.73480237342682</v>
+        <v>-96.966026260581032</v>
       </c>
       <c r="N44" s="9">
         <f t="shared" si="6"/>
-        <v>-120.68873802811294</v>
+        <v>-106.87633538990161</v>
       </c>
       <c r="O44" s="9">
         <f t="shared" si="6"/>
-        <v>-154.43349818512149</v>
+        <v>-137.71858056176075</v>
       </c>
       <c r="P44" s="9">
         <f t="shared" si="6"/>
-        <v>-225.21799329654095</v>
+        <v>-204.22585729404375</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="6"/>
-        <v>-363.56230780481769</v>
+        <v>-335.93750252839527</v>
       </c>
       <c r="R44" s="9">
         <f t="shared" si="6"/>
-        <v>-636.51899578941038</v>
+        <v>-597.85179663069493</v>
       </c>
       <c r="S44" s="9">
         <f t="shared" si="6"/>
-        <v>-1212.1002458396999</v>
+        <v>-1153.0616710678444</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="6"/>
-        <v>-2602.6481726959846</v>
+        <v>-2499.5509958551766</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="6"/>
-        <v>-6976.3859440487668</v>
+        <v>-6747.3525683953994</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" si="6"/>
-        <v>-32747.306531533766</v>
+        <v>-31838.132092143016</v>
       </c>
     </row>
     <row r="45" spans="7:22" x14ac:dyDescent="0.3">
@@ -10449,55 +10449,55 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="6"/>
-        <v>-151.52984168882745</v>
+        <v>-142.67359241587269</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="6"/>
-        <v>-134.76017122182185</v>
+        <v>-125.06088017255155</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="6"/>
-        <v>-124.93404075184446</v>
+        <v>-114.0929690687833</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="6"/>
-        <v>-124.86716222357262</v>
+        <v>-112.47082671966797</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="6"/>
-        <v>-139.44014580385016</v>
+        <v>-124.89120922994488</v>
       </c>
       <c r="O45" s="9">
         <f t="shared" si="6"/>
-        <v>-177.34591179381255</v>
+        <v>-159.73968623624205</v>
       </c>
       <c r="P45" s="9">
         <f t="shared" si="6"/>
-        <v>-254.81631021879537</v>
+        <v>-232.70478746270248</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="6"/>
-        <v>-404.28051366546561</v>
+        <v>-375.18264051765482</v>
       </c>
       <c r="R45" s="9">
         <f t="shared" si="6"/>
-        <v>-696.87209395431785</v>
+        <v>-656.14300121165491</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" si="6"/>
-        <v>-1310.5717537048229</v>
+        <v>-1248.3850000843297</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="6"/>
-        <v>-2787.395195451797</v>
+        <v>-2678.8004544719734</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" si="6"/>
-        <v>-7418.2417567716457</v>
+        <v>-7176.9953825550438</v>
       </c>
       <c r="V45" s="9">
         <f t="shared" si="6"/>
-        <v>-34634.297288514652</v>
+        <v>-33676.641940652247</v>
       </c>
     </row>
     <row r="46" spans="7:22" x14ac:dyDescent="0.3">
@@ -10510,55 +10510,55 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="6"/>
-        <v>-165.13939912083208</v>
+        <v>-155.82316056940033</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="6"/>
-        <v>-148.86539841824123</v>
+        <v>-138.66233091079056</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="6"/>
-        <v>-140.04099297714458</v>
+        <v>-128.63684130528549</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="6"/>
-        <v>-141.6800819548684</v>
+        <v>-128.63988681598124</v>
       </c>
       <c r="N46" s="9">
         <f t="shared" si="6"/>
-        <v>-158.99029144389243</v>
+        <v>-143.68569018271666</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="6"/>
-        <v>-201.22490869392743</v>
+        <v>-182.70422434671309</v>
       </c>
       <c r="P46" s="9">
         <f t="shared" si="6"/>
-        <v>-285.62855163463848</v>
+        <v>-262.36856714433668</v>
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="6"/>
-        <v>-446.59619525472385</v>
+        <v>-415.98699273237162</v>
       </c>
       <c r="R46" s="9">
         <f t="shared" si="6"/>
-        <v>-759.46122280003124</v>
+        <v>-716.61668079591459</v>
       </c>
       <c r="S46" s="9">
         <f t="shared" si="6"/>
-        <v>-1412.4573196712086</v>
+        <v>-1347.0406163228913</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="6"/>
-        <v>-2978.1040787906422</v>
+        <v>-2863.8689797980578</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="6"/>
-        <v>-7873.3420161064278</v>
+        <v>-7619.5654225846883</v>
       </c>
       <c r="V46" s="9">
         <f t="shared" si="6"/>
-        <v>-36573.863406134871</v>
+        <v>-35566.467905424906</v>
       </c>
     </row>
   </sheetData>
@@ -10576,8 +10576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61525BA8-4B69-4A45-80A0-4FF32D00F639}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10764,39 +10764,39 @@
       </c>
       <c r="J7" s="9">
         <f>TAN(RADIANS(J$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(J$6))*$I7), 2)</f>
-        <v>-70.829714762295396</v>
+        <v>20.484195268808918</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" ref="K7:R7" si="0">TAN(RADIANS(K$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(K$6))*$I7), 2)</f>
-        <v>-68.536383088491675</v>
+        <v>31.610602342952063</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="0"/>
-        <v>-75.515313091646021</v>
+        <v>40.33567444315949</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="0"/>
-        <v>-97.340622894239175</v>
+        <v>44.895799624444237</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="0"/>
-        <v>-144.46476285376531</v>
+        <v>41.779702511720359</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
-        <v>-237.8461645309759</v>
+        <v>23.598170898489741</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="0"/>
-        <v>-423.60488500500742</v>
+        <v>-26.58602957239134</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="0"/>
-        <v>-817.47204513064162</v>
+        <v>-152.80921372510306</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
-        <v>-1772.8384320673058</v>
+        <v>-493.85724925331397</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
@@ -10825,39 +10825,39 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" ref="J8:R37" si="2">TAN(RADIANS(J$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(J$6))*$I8), 2)</f>
-        <v>-62.502940122926987</v>
+        <v>24.082898197225916</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="2"/>
-        <v>-59.015046534994212</v>
+        <v>35.725576414126664</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="2"/>
-        <v>-64.3406137966806</v>
+        <v>45.165206262940103</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="2"/>
-        <v>-83.81769114415755</v>
+        <v>50.740201112112373</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="2"/>
-        <v>-127.48141726709861</v>
+        <v>49.119641220772763</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="2"/>
-        <v>-215.4967659410446</v>
+        <v>33.257234538051136</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="2"/>
-        <v>-392.32181756952514</v>
+        <v>-13.065972735777393</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="2"/>
-        <v>-769.70784818682432</v>
+        <v>-132.1662681837978</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="2"/>
-        <v>-1689.4293410110749</v>
+        <v>-457.80913299692975</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -10877,39 +10877,39 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="2"/>
-        <v>-54.520699363299173</v>
+        <v>27.5326989233305</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
-        <v>-49.887670808487883</v>
+        <v>39.670286722538776</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="2"/>
-        <v>-53.628285908384839</v>
+        <v>49.79490832783199</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="2"/>
-        <v>-70.854292747998556</v>
+        <v>56.342780957365903</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="2"/>
-        <v>-111.20078529997471</v>
+        <v>56.155877996001777</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="2"/>
-        <v>-194.07211016445319</v>
+        <v>42.516638667834798</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="2"/>
-        <v>-362.33313806460819</v>
+        <v>-0.10533029885300493</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="2"/>
-        <v>-723.91997278387589</v>
+        <v>-112.37745817811685</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="2"/>
-        <v>-1609.4714371181608</v>
+        <v>-423.25256633676372</v>
       </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -10939,39 +10939,39 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="2"/>
-        <v>-46.864243827031487</v>
+        <v>30.841700325793241</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
-        <v>-41.132817563988169</v>
+        <v>43.453998588581555</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="2"/>
-        <v>-43.353168352236253</v>
+        <v>54.235654864229843</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>-58.419979325492363</v>
+        <v>61.716698478186743</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="2"/>
-        <v>-95.584627066677569</v>
+        <v>62.904939523269405</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="2"/>
-        <v>-173.52187505215625</v>
+        <v>51.398131740630561</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="2"/>
-        <v>-333.56840919523165</v>
+        <v>12.326339645465168</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="2"/>
-        <v>-680.0008725362427</v>
+        <v>-93.396303827266365</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="2"/>
-        <v>-1532.7769155715823</v>
+        <v>-390.10638294201908</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -11000,39 +11000,39 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>-39.516083039517582</v>
+        <v>34.01746151662465</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>-32.73048713746897</v>
+        <v>47.085355557038611</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>-33.491788558996745</v>
+        <v>58.497590352717566</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="2"/>
-        <v>-46.486345821305804</v>
+        <v>66.874229899191903</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="2"/>
-        <v>-80.597268877503723</v>
+        <v>69.38224341829914</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="2"/>
-        <v>-153.79911546567735</v>
+        <v>59.922002717606006</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="2"/>
-        <v>-305.96192056087648</v>
+        <v>24.257436113725305</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="2"/>
-        <v>-637.85021826366824</v>
+        <v>-75.179444414710929</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="2"/>
-        <v>-1459.1705747293763</v>
+        <v>-358.29486337878529</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -11066,39 +11066,39 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>-32.459884730628744</v>
+        <v>37.067041049812985</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="2"/>
-        <v>-24.662004225789474</v>
+        <v>50.572428804447412</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="2"/>
-        <v>-24.022228293167416</v>
+        <v>62.590187514929937</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="2"/>
-        <v>-35.026868138914267</v>
+        <v>71.826838523757743</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="2"/>
-        <v>-66.205399324396069</v>
+        <v>75.602186355303189</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="2"/>
-        <v>-134.85999493401857</v>
+        <v>68.107197042030805</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="2"/>
-        <v>-279.45231304832714</v>
+        <v>35.714477563550304</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="2"/>
-        <v>-597.37432449960102</v>
+        <v>-57.686390533995791</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="2"/>
-        <v>-1388.488814654555</v>
+        <v>-327.74730229020724</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -11111,13 +11111,13 @@
       <c r="A13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="12">
-        <v>27</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>213</v>
+      </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
@@ -11131,39 +11131,39 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="2"/>
-        <v>-25.68038400457317</v>
+        <v>39.997036176703105</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="2"/>
-        <v>-16.909914026029867</v>
+        <v>53.922762026068497</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="2"/>
-        <v>-14.924001757109863</v>
+        <v>66.522299995062525</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="2"/>
-        <v>-24.016755629728777</v>
+        <v>76.585238485932308</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="2"/>
-        <v>-52.377884023177955</v>
+        <v>81.578224132518585</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="2"/>
-        <v>-116.66354186190335</v>
+        <v>75.971422002295981</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="2"/>
-        <v>-253.98223758965219</v>
+        <v>46.722249373150987</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="2"/>
-        <v>-558.48562846967752</v>
+        <v>-40.879298911323872</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="2"/>
-        <v>-1320.5787272718785</v>
+        <v>-298.39761517634633</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -11176,7 +11176,7 @@
       <c r="A14" s="14"/>
       <c r="B14" s="30">
         <f>B13*12+D13</f>
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -11192,39 +11192,39 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>-19.16330071281547</v>
+        <v>42.813618556139872</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="2"/>
-        <v>-9.4578877547020852</v>
+        <v>57.143412269018043</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="2"/>
-        <v>-6.1779447038397279</v>
+        <v>70.302210283602875</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="2"/>
-        <v>-13.432816904238905</v>
+        <v>81.159452744779571</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="2"/>
-        <v>-39.085597086803034</v>
+        <v>87.322944506855464</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="2"/>
-        <v>-99.171427755363197</v>
+        <v>83.531242579376624</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="2"/>
-        <v>-229.49804473845995</v>
+        <v>57.303938001654103</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="2"/>
-        <v>-521.10221612475152</v>
+        <v>-24.722767564378387</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="2"/>
-        <v>-1255.297268694479</v>
+        <v>-270.18398068657689</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -11244,39 +11244,39 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>-12.895264194180044</v>
+        <v>45.522566780629006</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="2"/>
-        <v>-2.2906365910430395</v>
+        <v>60.240987124642643</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="2"/>
-        <v>2.2338865632698344</v>
+        <v>73.937673368093556</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="2"/>
-        <v>-3.2533376076843297</v>
+        <v>85.558865907839476</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="2"/>
-        <v>-26.301267624764478</v>
+        <v>92.848133534473504</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="2"/>
-        <v>-82.347765221143959</v>
+        <v>90.802168748357985</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="2"/>
-        <v>-205.94950192411898</v>
+        <v>67.481253187447294</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="2"/>
-        <v>-485.14739043370173</v>
+        <v>-9.1836492251653681</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="2"/>
-        <v>-1192.5105053473799</v>
+        <v>-243.0485148058558</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -11305,39 +11305,39 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>-6.8637446408813219</v>
+        <v>48.129296038874813</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="2"/>
-        <v>4.6061668032078273</v>
+        <v>63.221678646454905</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="2"/>
-        <v>10.328307298659411</v>
+        <v>77.435956540855784</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="2"/>
-        <v>6.5420310435715692</v>
+        <v>89.792272403979865</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="2"/>
-        <v>-13.999339756787435</v>
+        <v>98.164836070693667</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="2"/>
-        <v>-66.15892375036492</v>
+        <v>97.798735093882499</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="2"/>
-        <v>-183.28953559908041</v>
+        <v>77.27453938810919</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="2"/>
-        <v>-450.54927768399693</v>
+        <v>5.7691188107796734</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="2"/>
-        <v>-1132.0929264627539</v>
+        <v>-216.9369737258321</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -11363,39 +11363,39 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>-1.0569904320825287</v>
+        <v>50.638885199244683</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="2"/>
-        <v>11.245959940398336</v>
+        <v>66.091294319001008</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="2"/>
-        <v>18.12108841420843</v>
+        <v>80.803875745543962</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="2"/>
-        <v>15.972374034220991</v>
+        <v>93.867920467754203</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="2"/>
-        <v>-2.1558447979346056</v>
+        <v>103.28341100961487</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="2"/>
-        <v>-50.573361519266882</v>
+        <v>104.53457350325874</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="2"/>
-        <v>-161.47399580576382</v>
+        <v>86.702877530951127</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="2"/>
-        <v>-417.24046801331201</v>
+        <v>20.164670041054251</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="2"/>
-        <v>-1073.926816351769</v>
+        <v>-191.79848255046556</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -11421,39 +11421,39 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>4.5360291507151942</v>
+        <v>53.056101567290256</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="2"/>
-        <v>17.641356009644966</v>
+        <v>68.85528536710386</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="2"/>
-        <v>25.627033356337904</v>
+        <v>84.047828802237632</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="2"/>
-        <v>25.055605581938266</v>
+        <v>97.793552346358695</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="2"/>
-        <v>9.2517155794715222</v>
+        <v>108.21358177971987</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="2"/>
-        <v>-35.56147163500782</v>
+        <v>111.02247961664608</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>-140.46144096257149</v>
+        <v>95.784178025166909</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="2"/>
-        <v>-385.15768681249347</v>
+        <v>34.03035077093466</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="2"/>
-        <v>-1017.9016805860851</v>
+        <v>-167.5852873005673</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -11480,39 +11480,39 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>9.9256763482709687</v>
+        <v>55.385423542845672</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="2"/>
-        <v>23.804203822280641</v>
+        <v>71.518772663356998</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="2"/>
-        <v>32.860048460876499</v>
+        <v>87.173825813724108</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="2"/>
-        <v>33.808554276499592</v>
+        <v>101.57644109543992</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="2"/>
-        <v>20.244476271412452</v>
+        <v>112.96448255544644</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="2"/>
-        <v>-21.095441425930744</v>
+        <v>117.27447363961909</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>-120.21294090860783</v>
+        <v>104.53526588285138</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="2"/>
-        <v>-354.24149400662259</v>
+        <v>47.391850079438996</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="2"/>
-        <v>-963.91372086198407</v>
+        <v>-144.25252795821552</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -11542,39 +11542,39 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="2"/>
-        <v>15.121692953761794</v>
+        <v>57.631061377917618</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="2"/>
-        <v>29.745642732436067</v>
+        <v>74.086570463948036</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="2"/>
-        <v>39.833207410499767</v>
+        <v>90.187517023004887</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="2"/>
-        <v>42.247041082199132</v>
+        <v>105.22342429053006</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="2"/>
-        <v>30.842306704806106</v>
+        <v>117.54470059511874</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="2"/>
-        <v>-7.1491235266840931</v>
+        <v>123.30185605818073</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="2"/>
-        <v>-100.69189645798212</v>
+        <v>112.97195870483381</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="2"/>
-        <v>-324.436008543546</v>
+        <v>60.273318891113604</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="2"/>
-        <v>-911.86535388348784</v>
+        <v>-121.75803053549612</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -11594,39 +11594,39 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="2"/>
-        <v>20.133244364500598</v>
+        <v>59.796976215154814</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="2"/>
-        <v>35.47615300843151</v>
+        <v>76.563208178393552</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="2"/>
-        <v>46.558810353023489</v>
+        <v>93.094218363305174</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="2"/>
-        <v>50.385950879160646</v>
+        <v>108.74093494609272</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="2"/>
-        <v>41.063900685687827</v>
+        <v>121.96231507193835</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="2"/>
-        <v>6.3020823583632364</v>
+        <v>129.11525873878116</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>-81.863873900808812</v>
+        <v>121.10913820678087</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="2"/>
-        <v>-295.68865570360504</v>
+        <v>72.69747918484984</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="2"/>
-        <v>-861.66477009742175</v>
+        <v>-100.06211636663784</v>
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -11652,39 +11652,39 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>24.968960027422412</v>
+        <v>61.886897567760172</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="2"/>
-        <v>41.0056020805863</v>
+        <v>78.9529503571258</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="2"/>
-        <v>53.048438180060089</v>
+        <v>95.898934916467994</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="2"/>
-        <v>58.239298148020282</v>
+        <v>112.13502990342479</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="2"/>
-        <v>50.926858892094799</v>
+        <v>126.22493272613053</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="2"/>
-        <v>19.281338012436436</v>
+        <v>134.72469184510692</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="2"/>
-        <v>-63.696453052551533</v>
+        <v>128.96081588991404</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="2"/>
-        <v>-267.94993509549863</v>
+        <v>84.685724262478914</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="2"/>
-        <v>-813.22552855199524</v>
+        <v>-79.127427012171665</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -11714,39 +11714,39 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>29.636970611830463</v>
+        <v>63.904339384975614</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="2"/>
-        <v>46.343287046779579</v>
+        <v>81.259815061736603</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="2"/>
-        <v>59.313002413593097</v>
+        <v>98.606382473158661</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>65.820287339580432</v>
+        <v>115.41141592148503</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="2"/>
-        <v>60.447764691850296</v>
+        <v>130.33972063221489</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="2"/>
-        <v>31.810466479502338</v>
+        <v>140.13958695848822</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="2"/>
-        <v>-46.159087598806536</v>
+        <v>136.54019339782974</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="2"/>
-        <v>-241.17320742529932</v>
+        <v>96.258210903894678</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="2"/>
-        <v>-766.46618453834685</v>
+        <v>-58.918763331376113</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -11776,39 +11776,39 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>34.144942208591431</v>
+        <v>65.852614832444061</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>51.497973777874307</v>
+        <v>83.487590765735959</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="2"/>
-        <v>65.362791101986261</v>
+        <v>101.22100736840811</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="2"/>
-        <v>73.141368415329111</v>
+        <v>118.57547368064564</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="2"/>
-        <v>69.642253895472834</v>
+        <v>134.31343634513166</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="2"/>
-        <v>43.91004385628878</v>
+        <v>145.36883674898718</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="2"/>
-        <v>-29.222976611490594</v>
+        <v>143.85971804521137</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="2"/>
-        <v>-215.31449832239969</v>
+        <v>107.43394415044105</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="2"/>
-        <v>-721.30994701806958</v>
+        <v>-39.402937427765437</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
@@ -11836,39 +11836,39 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>38.50010782455044</v>
+        <v>67.73484990360744</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="2"/>
-        <v>56.477932930330951</v>
+        <v>85.639851918645206</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="2"/>
-        <v>71.207511086122565</v>
+        <v>103.74700474838338</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="2"/>
-        <v>80.214287995314692</v>
+        <v>121.63227988801086</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="2"/>
-        <v>78.525078992395549</v>
+        <v>138.15245566214017</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="2"/>
-        <v>55.599483824561617</v>
+        <v>150.42083150893774</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="2"/>
-        <v>-12.860946226689066</v>
+        <v>150.93113395482942</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="2"/>
-        <v>-190.33231768067753</v>
+        <v>118.23085538285886</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="2"/>
-        <v>-677.68436314444898</v>
+        <v>-20.54863630405805</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -11888,39 +11888,39 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="2"/>
-        <v>42.709296413908476</v>
+        <v>69.553995966617862</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="2"/>
-        <v>61.290973142436229</v>
+        <v>87.719973292892703</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="2"/>
-        <v>76.856326960097732</v>
+        <v>106.18833540859505</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="2"/>
-        <v>87.050136505972887</v>
+        <v>124.58662765397685</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="2"/>
-        <v>87.110168363559865</v>
+        <v>141.86279821358389</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="2"/>
-        <v>66.897115572511609</v>
+        <v>155.30349282936101</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="2"/>
-        <v>2.9526594240503528</v>
+        <v>157.76552919534527</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="2"/>
-        <v>-166.18749312817636</v>
+        <v>128.6658742931092</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="2"/>
-        <v>-635.52102745589582</v>
+        <v>-2.3262961800870698</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -11949,39 +11949,39 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>46.778959664269024</v>
+        <v>71.312841340852074</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="2"/>
-        <v>65.94447166308575</v>
+        <v>89.731143221098677</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="2"/>
-        <v>82.317897018633715</v>
+        <v>108.54874132981247</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="2"/>
-        <v>93.659391681469629</v>
+        <v>127.44304529283826</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="2"/>
-        <v>95.410680914416446</v>
+        <v>145.45015107442646</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="2"/>
-        <v>77.82025568958386</v>
+        <v>160.02430467179585</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="2"/>
-        <v>18.242078846885761</v>
+        <v>164.37337927340712</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="2"/>
-        <v>-142.84301637649355</v>
+        <v>138.75499528978565</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="2"/>
-        <v>-594.75531356078886</v>
+        <v>15.292013468852815</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
@@ -12008,39 +12008,39 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="2"/>
-        <v>50.715196733649293</v>
+        <v>73.014021987863899</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="2"/>
-        <v>70.445402637574631</v>
+        <v>91.676375820755581</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="2"/>
-        <v>87.600406454647242</v>
+        <v>110.83176002553809</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="2"/>
-        <v>100.0519587373505</v>
+        <v>130.20581368521613</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="2"/>
-        <v>103.43905652869927</v>
+        <v>148.91989056959102</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="2"/>
-        <v>88.385274561610743</v>
+        <v>164.59034206324714</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="2"/>
-        <v>33.030226120774955</v>
+        <v>170.76458729875651</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="2"/>
-        <v>-120.26390132388576</v>
+        <v>148.51333882375303</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="2"/>
-        <v>-555.32612634746079</v>
+        <v>32.33269700300832</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -12060,39 +12060,39 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="2"/>
-        <v>54.523777115652223</v>
+        <v>74.660031393357428</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="2"/>
-        <v>74.80036325301495</v>
+        <v>93.5585222938724</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="2"/>
-        <v>92.71159804477</v>
+        <v>113.04073780381395</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="2"/>
-        <v>106.23720750426463</v>
+        <v>132.87898232667823</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="2"/>
-        <v>111.20706270438467</v>
+        <v>152.27710242929868</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="2"/>
-        <v>98.607657741856485</v>
+        <v>169.00829761979875</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="2"/>
-        <v>47.338776800211576</v>
+        <v>176.94852111005963</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="2"/>
-        <v>-98.417052895651295</v>
+        <v>157.95520807330104</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="2"/>
-        <v>-517.17567294434548</v>
+        <v>48.82073160564039</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -12112,39 +12112,39 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="2"/>
-        <v>58.210161792943694</v>
+        <v>76.253229709391945</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="2"/>
-        <v>79.01559792649843</v>
+        <v>95.380281380723432</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="2"/>
-        <v>97.658800537742337</v>
+        <v>115.1788420362448</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="2"/>
-        <v>112.22400678184675</v>
+        <v>135.46638417495427</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="2"/>
-        <v>118.72583769846625</v>
+        <v>155.52660043557145</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="2"/>
-        <v>108.5020627278011</v>
+        <v>173.28450608466051</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="2"/>
-        <v>61.188247387251067</v>
+        <v>182.93404762148504</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="2"/>
-        <v>-77.271145703165757</v>
+        <v>167.09414138582849</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="2"/>
-        <v>-480.24925082613754</v>
+        <v>64.779758860260358</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -12164,39 +12164,39 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="2"/>
-        <v>61.779522823927067</v>
+        <v>77.795852219438828</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="2"/>
-        <v>83.097020701681004</v>
+        <v>97.144209039305011</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="2"/>
-        <v>102.44895494012377</v>
+        <v>117.24907251827536</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="2"/>
-        <v>118.02075614806358</v>
+        <v>137.97164939744215</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="2"/>
-        <v>126.00593047606674</v>
+        <v>158.67294368761907</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="2"/>
-        <v>118.08237153256374</v>
+        <v>177.42496704872156</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="2"/>
-        <v>74.598068917175738</v>
+        <v>188.72956462528748</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="2"/>
-        <v>-56.796511690444731</v>
+        <v>175.94296083525649</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="2"/>
-        <v>-444.49505161456341</v>
+        <v>80.232169544891917</v>
       </c>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -12216,39 +12216,39 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="2"/>
-        <v>65.23676149385372</v>
+        <v>79.290017183010534</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="2"/>
-        <v>87.050236003858828</v>
+        <v>98.852727415357663</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="2"/>
-        <v>107.08863887544979</v>
+        <v>119.25427199684005</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="2"/>
-        <v>123.63541543716235</v>
+        <v>140.39821811112068</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="2"/>
-        <v>133.05733773156635</v>
+        <v>161.72045260179721</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="2"/>
-        <v>127.36173940321584</v>
+        <v>181.43536600585094</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="2"/>
-        <v>87.586655150857723</v>
+        <v>194.34303026348965</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="2"/>
-        <v>-36.965036015406326</v>
+        <v>184.51381722053316</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="2"/>
-        <v>-409.86397925916845</v>
+        <v>95.199182211519997</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -12268,39 +12268,39 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>68.586525149370573</v>
+        <v>80.737733111290751</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="2"/>
-        <v>90.880557889605029</v>
+        <v>100.50813316176084</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="2"/>
-        <v>111.58408917653352</v>
+        <v>121.19713593440549</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="2"/>
-        <v>129.07553207948007</v>
+        <v>142.74935219839131</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="2"/>
-        <v>139.88953822445893</v>
+        <v>164.67322375103177</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="2"/>
-        <v>136.35264000538336</v>
+        <v>185.32109388098186</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="2"/>
-        <v>100.17146582088787</v>
+        <v>199.78199036187971</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="2"/>
-        <v>-17.750060483237689</v>
+        <v>192.81823180023679</v>
       </c>
       <c r="R33" s="9">
         <f t="shared" si="2"/>
-        <v>-376.30948140607734</v>
+        <v>109.70091606589517</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
@@ -12320,39 +12320,39 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
-        <v>71.833222824522181</v>
+        <v>82.140905520450474</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="2"/>
-        <v>94.593027914483741</v>
+        <v>102.11260516068177</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="2"/>
-        <v>115.94122285587551</v>
+        <v>123.08022157205663</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>134.34826647854078</v>
+        <v>145.02814627466574</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>146.51152465025098</v>
+        <v>167.53514363892765</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>145.0669073640675</v>
+        <v>189.08726515628422</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>112.36906533729484</v>
+        <v>205.05360380171234</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>0.87370608776939207</v>
+        <v>200.86713503107063</v>
       </c>
       <c r="R34" s="9">
         <f t="shared" si="2"/>
-        <v>-343.78739287272901</v>
+        <v>123.75645861533008</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -12372,39 +12372,39 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="2"/>
-        <v>74.981039756353368</v>
+        <v>83.50134320506649</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="2"/>
-        <v>98.192431731066023</v>
+        <v>103.66821169698073</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="2"/>
-        <v>120.16565658589477</v>
+        <v>124.90595634855072</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="2"/>
-        <v>139.46041558482841</v>
+        <v>147.2375378765858</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="2"/>
-        <v>152.93183324658253</v>
+        <v>170.30990149507542</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="2"/>
-        <v>153.51577482410568</v>
+        <v>192.73873470927228</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="2"/>
-        <v>124.19517732157442</v>
+        <v>210.16466608847102</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="2"/>
-        <v>18.930271130879191</v>
+        <v>208.67090255356004</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" si="2"/>
-        <v>-312.25579024545073</v>
+        <v>137.38392850937237</v>
       </c>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
@@ -12424,39 +12424,39 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="2"/>
-        <v>78.033950879386538</v>
+        <v>84.820764070225124</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="2"/>
-        <v>101.6833145193288</v>
+        <v>105.1769171269904</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" ref="K36:R37" si="3">TAN(RADIANS(L$6))*$B$14 - 0.5*$B$28*POWER($B$14/(COS(RADIANS(L$6))*$I36), 2)</f>
-        <v>124.26272480878828</v>
+        <v>126.67664572711773</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="3"/>
-        <v>144.41843481122285</v>
+        <v>149.38031693353491</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="3"/>
-        <v>159.15857131665274</v>
+        <v>173.00100117024894</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="3"/>
-        <v>161.70991126989281</v>
+        <v>196.28011346640639</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="3"/>
-        <v>135.66473530442659</v>
+        <v>215.12163126264443</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="3"/>
-        <v>36.442435738181075</v>
+        <v>216.23938864627348</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="3"/>
-        <v>-281.67485670562201</v>
+        <v>150.60053395984187</v>
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -12476,39 +12476,39 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="2"/>
-        <v>80.995733380247714</v>
+        <v>86.100800557437168</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="3"/>
-        <v>105.06999534237283</v>
+        <v>106.64058808283443</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="3"/>
-        <v>128.23749658509334</v>
+        <v>128.39448047714811</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="3"/>
-        <v>149.22845842209003</v>
+        <v>151.45913457948672</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="3"/>
-        <v>165.19944283572192</v>
+        <v>175.61177220313883</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="3"/>
-        <v>169.65945482250299</v>
+        <v>199.71578296646712</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="3"/>
-        <v>146.79192989254591</v>
+        <v>219.93063228448165</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="3"/>
-        <v>53.431866676667028</v>
+        <v>223.58195735005501</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="3"/>
-        <v>-252.00675627029864</v>
+        <v>163.42262709208342</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>

--- a/Power Cell Ballistics.xlsx
+++ b/Power Cell Ballistics.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Code\FRC\2020-Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE43FA6A-7D13-4E30-91DE-11658037EA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B34F8-DED6-4CB8-B383-6A159B79CC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" firstSheet="1" activeTab="3" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{6505FE35-6DDB-4B85-B29F-6D89AE1E982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Height" sheetId="2" r:id="rId1"/>
     <sheet name="Ballistics" sheetId="7" r:id="rId2"/>
     <sheet name="Ballistics2" sheetId="11" r:id="rId3"/>
     <sheet name="Ballistics3" sheetId="12" r:id="rId4"/>
-    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId5"/>
-    <sheet name="Distance" sheetId="3" r:id="rId6"/>
-    <sheet name="Defense" sheetId="8" r:id="rId7"/>
-    <sheet name="Locations" sheetId="9" r:id="rId8"/>
-    <sheet name="Plot Data" sheetId="1" r:id="rId9"/>
-    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId10"/>
+    <sheet name="RobotSpeedAdjusted" sheetId="13" r:id="rId5"/>
+    <sheet name="DistanceSpeedTesting" sheetId="10" r:id="rId6"/>
+    <sheet name="Distance" sheetId="3" r:id="rId7"/>
+    <sheet name="Defense" sheetId="8" r:id="rId8"/>
+    <sheet name="Locations" sheetId="9" r:id="rId9"/>
+    <sheet name="Plot Data" sheetId="1" r:id="rId10"/>
+    <sheet name="Motor Speed Estimator" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="105">
   <si>
     <t>2020 FRC - Infinite Recharge</t>
   </si>
@@ -313,6 +314,63 @@
   <si>
     <t>▼</t>
   </si>
+  <si>
+    <t>Objective: Input Distance and Robot Speed, Output Optimal Flywheel Speed</t>
+  </si>
+  <si>
+    <t>distance▼</t>
+  </si>
+  <si>
+    <t>robot speed ►</t>
+  </si>
+  <si>
+    <t>inches/second</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angle </t>
+  </si>
+  <si>
+    <t>robotspeed</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>other u</t>
+  </si>
+  <si>
+    <t>u + rs</t>
+  </si>
+  <si>
+    <t>other u + rs</t>
+  </si>
+  <si>
+    <t>other speed</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +380,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +438,21 @@
       <color theme="1"/>
       <name val="TI-Nspire Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -589,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -672,6 +745,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7785,7 +7871,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8018,55 +8104,55 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="1"/>
-        <v>5.3584101250576088</v>
+        <v>5.3938852147938645</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="1"/>
-        <v>6.6683341926993771</v>
+        <v>6.7071862179468704</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="1"/>
-        <v>8.1120301712378016</v>
+        <v>8.1554557771507064</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="1"/>
-        <v>9.7370657555141875</v>
+        <v>9.7867212135809218</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="1"/>
-        <v>11.6101964436358</v>
+        <v>11.66847448150704</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>13.829326893135562</v>
+        <v>13.899851379554313</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>16.545351324417528</v>
+        <v>16.6339224824554</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="1"/>
-        <v>20.005002578098125</v>
+        <v>20.121558653840605</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="1"/>
-        <v>24.642845544464389</v>
+        <v>24.805992286995075</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="1"/>
-        <v>31.303585422417264</v>
+        <v>31.552684177104581</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="1"/>
-        <v>41.875076336182076</v>
+        <v>42.310069532783857</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="1"/>
-        <v>61.591768900411729</v>
+        <v>62.558118933039623</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="1"/>
-        <v>111.50256950141721</v>
+        <v>115.33860757518408</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -8086,55 +8172,55 @@
       </c>
       <c r="J8" s="9">
         <f t="shared" ref="J8:V23" si="3">TAN(J$5)*$I8-(0.5*$B$24)*POWER($I8/($B$21*COS(J$5)), 2)</f>
-        <v>10.242256704510467</v>
+        <v>10.384157063455493</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>12.816930310246491</v>
+        <v>12.972338411236464</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
-        <v>15.64313976791817</v>
+        <v>15.816842191569787</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>18.809871873802031</v>
+        <v>19.008493706068968</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>22.440785774543205</v>
+        <v>22.673897926028165</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>26.715221350281205</v>
+        <v>26.997319295956213</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>31.905853135859363</v>
+        <v>32.260137768010864</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>38.450790930739458</v>
+        <v>38.917015233709378</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>47.103216085628155</v>
+        <v>47.755803055750889</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="3"/>
-        <v>59.274883622758139</v>
+        <v>60.271278641507401</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="3"/>
-        <v>77.931085963075262</v>
+        <v>79.671058749482384</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>110.25631193082198</v>
+        <v>114.12171206133354</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="3"/>
-        <v>171.68902273939648</v>
+        <v>187.03317503446397</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -8147,55 +8233,55 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="3"/>
-        <v>14.651539738358577</v>
+        <v>14.970815545984884</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>18.445788352641344</v>
+        <v>18.79545657986878</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="3"/>
-        <v>22.593328790041102</v>
+        <v>22.984159243257242</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>27.218418354863527</v>
+        <v>27.665317477464143</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>32.49176799272221</v>
+        <v>33.016270333563369</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="3"/>
-        <v>38.657683371436931</v>
+        <v>39.292403749205704</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="3"/>
-        <v>46.081505434325514</v>
+        <v>46.878645856666381</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" si="3"/>
-        <v>55.337365057924004</v>
+        <v>56.386369739606323</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="3"/>
-        <v>67.381111623491279</v>
+        <v>68.849432306267431</v>
       </c>
       <c r="S9" s="9">
         <f t="shared" si="3"/>
-        <v>83.913894601022633</v>
+        <v>86.155783393208466</v>
       </c>
       <c r="T9" s="9">
         <f t="shared" si="3"/>
-        <v>108.16802888067954</v>
+        <v>112.08296765009557</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="3"/>
-        <v>145.99362909123073</v>
+        <v>154.69077938488175</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="3"/>
-        <v>180.55935971393777</v>
+        <v>215.08370237783973</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -8217,55 +8303,55 @@
       </c>
       <c r="J10" s="9">
         <f t="shared" si="3"/>
-        <v>18.586259226601936</v>
+        <v>19.153860662382037</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>23.554908319883925</v>
+        <v>24.176540723843818</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="3"/>
-        <v>28.962597237606609</v>
+        <v>29.657406932213078</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>34.962705198698686</v>
+        <v>35.757192527766442</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>41.763143098172826</v>
+        <v>42.695591704112672</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="3"/>
-        <v>49.656712956602739</v>
+        <v>50.785104739302781</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="3"/>
-        <v>59.072308219815966</v>
+        <v>60.489446748421955</v>
       </c>
       <c r="Q10" s="9">
         <f t="shared" si="3"/>
-        <v>70.664724959651764</v>
+        <v>72.529622171531443</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="3"/>
-        <v>85.4765321580538</v>
+        <v>88.08688003854472</v>
       </c>
       <c r="S10" s="9">
         <f t="shared" si="3"/>
-        <v>105.22061835721072</v>
+        <v>109.20619843220777</v>
       </c>
       <c r="T10" s="9">
         <f t="shared" si="3"/>
-        <v>132.58590508899491</v>
+        <v>139.54579623462342</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="3"/>
-        <v>168.80372038163802</v>
+        <v>184.26532090368423</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="3"/>
-        <v>138.11358042504111</v>
+        <v>199.49018960531112</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -8279,55 +8365,55 @@
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>22.046415169240547</v>
+        <v>22.933292412646956</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>28.144290211974248</v>
+        <v>29.115590843161577</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="3"/>
-        <v>34.750945110614673</v>
+        <v>35.836585258437282</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="3"/>
-        <v>42.04273240530749</v>
+        <v>43.284118856975859</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="3"/>
-        <v>50.25491109089505</v>
+        <v>51.711862037676049</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="3"/>
-        <v>59.712310105778627</v>
+        <v>61.475422266247442</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="3"/>
-        <v>70.878261492330751</v>
+        <v>73.092540443277599</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="3"/>
-        <v>84.432870635922725</v>
+        <v>87.346772529484738</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="3"/>
-        <v>101.38947768931567</v>
+        <v>105.46814625258274</v>
       </c>
       <c r="S11" s="9">
         <f t="shared" si="3"/>
-        <v>123.19505489132247</v>
+        <v>129.42252375850535</v>
       </c>
       <c r="T11" s="9">
         <f t="shared" si="3"/>
-        <v>151.18471458802145</v>
+        <v>162.05954450306595</v>
       </c>
       <c r="U11" s="9">
         <f t="shared" si="3"/>
-        <v>178.68658580204385</v>
+        <v>202.84533661774105</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="3"/>
-        <v>44.351684872706642</v>
+        <v>140.25263671687844</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -8350,55 +8436,55 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>25.032007566274409</v>
+        <v>26.309110796779635</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>32.213934028912313</v>
+        <v>33.612606937822065</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="3"/>
-        <v>39.958372409065312</v>
+        <v>41.52169422192987</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>48.458499974689957</v>
+        <v>50.246096465092407</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="3"/>
-        <v>57.967071970888867</v>
+        <v>60.065081334253506</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="3"/>
-        <v>68.824474818964603</v>
+        <v>71.363356330039707</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="3"/>
-        <v>81.499365251869818</v>
+        <v>84.6879269412333</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="3"/>
-        <v>96.641802086736888</v>
+        <v>100.83782081346618</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="3"/>
-        <v>115.11994821727691</v>
+        <v>120.99323094838149</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="3"/>
-        <v>137.83720420335777</v>
+        <v>146.8047593721011</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="3"/>
-        <v>163.964457377759</v>
+        <v>179.62421245542311</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="3"/>
-        <v>175.64222535244812</v>
+        <v>210.43082652705215</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="3"/>
-        <v>-100.72632694306606</v>
+        <v>37.371043712541791</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -8411,55 +8497,55 @@
       </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>27.543036417703519</v>
+        <v>29.281315814780072</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>35.763839770698105</v>
+        <v>37.667589007825278</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="3"/>
-        <v>44.58487913295852</v>
+        <v>46.712733822690829</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>54.210007906846073</v>
+        <v>56.64312535211608</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="3"/>
-        <v>64.899625738154299</v>
+        <v>67.755249593845051</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="3"/>
-        <v>76.99320709616066</v>
+        <v>80.448906930679527</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="3"/>
-        <v>90.935619498433212</v>
+        <v>95.275606242289044</v>
       </c>
       <c r="Q13" s="9">
         <f t="shared" si="3"/>
-        <v>107.29151931209427</v>
+        <v>113.0027670234758</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="3"/>
-        <v>126.66794374193753</v>
+        <v>134.66213412594101</v>
       </c>
       <c r="S13" s="9">
         <f t="shared" si="3"/>
-        <v>149.1470662933167</v>
+        <v>161.35290527299514</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="3"/>
-        <v>170.92513345820765</v>
+        <v>192.23980009169497</v>
       </c>
       <c r="U13" s="9">
         <f t="shared" si="3"/>
-        <v>159.670639032851</v>
+        <v>207.02179063161753</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="3"/>
-        <v>-297.12045502227659</v>
+        <v>-109.15458940769906</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -8481,55 +8567,55 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="3"/>
-        <v>29.57950172352788</v>
+        <v>31.849907466648283</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>38.794007437331629</v>
+        <v>41.280537053171209</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="3"/>
-        <v>48.630465282294296</v>
+        <v>51.409704060720173</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>59.297256201775852</v>
+        <v>62.475205518046877</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="3"/>
-        <v>71.052572392691332</v>
+        <v>74.78236681645069</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="3"/>
-        <v>84.218506937366797</v>
+        <v>88.732074068166952</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" si="3"/>
-        <v>99.187024232020903</v>
+        <v>104.85557834644484</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="3"/>
-        <v>116.38202231199487</v>
+        <v>123.84161115951359</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="3"/>
-        <v>136.03346426329753</v>
+        <v>146.47485578526124</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="3"/>
-        <v>157.12464116119924</v>
+        <v>173.06696146118742</v>
       </c>
       <c r="T14" s="9">
         <f t="shared" si="3"/>
-        <v>172.06674282936743</v>
+        <v>199.90630741188144</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="3"/>
-        <v>130.7718268432522</v>
+        <v>192.6182289314371</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="3"/>
-        <v>-544.83069936492507</v>
+        <v>-299.32426264384503</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -8538,10 +8624,10 @@
       </c>
       <c r="B15" s="12">
         <f>C15*D15</f>
-        <v>5295.4</v>
+        <v>5742</v>
       </c>
       <c r="C15">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="D15">
         <v>6380</v>
@@ -8555,55 +8641,55 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" si="3"/>
-        <v>31.141403483747489</v>
+        <v>34.014885752384245</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="3"/>
-        <v>41.304437028812899</v>
+        <v>44.451451073859857</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="3"/>
-        <v>52.095130857072633</v>
+        <v>55.612604936017888</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>63.720244859479266</v>
+        <v>67.742336962884792</v>
       </c>
       <c r="N15" s="9">
         <f t="shared" si="3"/>
-        <v>76.425911934499965</v>
+        <v>81.14643300207041</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="3"/>
-        <v>90.500374342583001</v>
+        <v>96.212857742501967</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="3"/>
-        <v>106.25357945263293</v>
+        <v>113.42784325370073</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="3"/>
-        <v>123.91331108643868</v>
+        <v>133.35435322157957</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="3"/>
-        <v>143.21650978135688</v>
+        <v>156.43139592634219</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="3"/>
-        <v>161.76992880700541</v>
+        <v>181.94692793667792</v>
       </c>
       <c r="T15" s="9">
         <f t="shared" si="3"/>
-        <v>167.38928549123844</v>
+        <v>202.62373441598268</v>
       </c>
       <c r="U15" s="9">
         <f t="shared" si="3"/>
-        <v>88.945788783652119</v>
+        <v>167.22014142651108</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="3"/>
-        <v>-843.85705997101127</v>
+        <v>-533.13797599589452</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -8627,55 +8713,55 @@
       </c>
       <c r="J16" s="9">
         <f t="shared" si="3"/>
-        <v>32.228741698362356</v>
+        <v>35.776250671987988</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="3"/>
-        <v>43.295128545141907</v>
+        <v>47.180331069891231</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="3"/>
-        <v>54.978875857293531</v>
+        <v>59.321436448583967</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>67.478973879956357</v>
+        <v>72.444519686629846</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="3"/>
-        <v>81.019644363580198</v>
+        <v>86.84744815070421</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="3"/>
-        <v>95.838809311809328</v>
+        <v>102.89125795368457</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="3"/>
-        <v>112.13528516026926</v>
+        <v>120.99240096405667</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="3"/>
-        <v>129.88538563542568</v>
+        <v>141.54099320967373</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="3"/>
-        <v>148.21708029611563</v>
+        <v>164.53175454918392</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="3"/>
-        <v>163.08292923073526</v>
+        <v>187.99280469946672</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="3"/>
-        <v>156.8927614438204</v>
+        <v>200.39208110399849</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="3"/>
-        <v>34.192524854050589</v>
+        <v>130.8275281168394</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="3"/>
-        <v>-1194.1995368405353</v>
+        <v>-810.5957294638481</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -8694,55 +8780,55 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="3"/>
-        <v>32.841516367372463</v>
+        <v>37.134002225459483</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="3"/>
-        <v>44.766081986318653</v>
+        <v>49.467177041265344</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="3"/>
-        <v>57.281700282957011</v>
+        <v>62.536198598418437</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>70.57344326320711</v>
+        <v>76.58175368928201</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="3"/>
-        <v>84.833769679932033</v>
+        <v>91.885412262352077</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="3"/>
-        <v>100.23381184504572</v>
+        <v>108.76727470171477</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="3"/>
-        <v>116.83214135492987</v>
+        <v>127.54925147751264</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="3"/>
-        <v>134.2982459589559</v>
+        <v>148.40153112379596</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="3"/>
-        <v>151.03517580757369</v>
+        <v>170.77593165378636</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="3"/>
-        <v>161.06364243238858</v>
+        <v>191.20459174955371</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="3"/>
-        <v>140.57717068711338</v>
+        <v>193.21134747592896</v>
       </c>
       <c r="U17" s="9">
         <f t="shared" si="3"/>
-        <v>-33.487964945552562</v>
+        <v>83.440389002421966</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="3"/>
-        <v>-1595.8581299734983</v>
+        <v>-1131.6975230477055</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -8755,55 +8841,55 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>32.97972749077784</v>
+        <v>38.088140412798737</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="3"/>
-        <v>45.717297352343138</v>
+        <v>51.311988987982161</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="3"/>
-        <v>59.003604134063046</v>
+        <v>65.256891385521286</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>73.003653009231499</v>
+        <v>80.154038970841327</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="3"/>
-        <v>87.868287883555482</v>
+        <v>96.260325337014052</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="3"/>
-        <v>103.68538194229218</v>
+        <v>113.84090798659257</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="3"/>
-        <v>120.34414803661483</v>
+        <v>133.09839479406872</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="3"/>
-        <v>137.15189205702933</v>
+        <v>153.93596696394644</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="3"/>
-        <v>151.6707963157312</v>
+        <v>175.16392724014955</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="3"/>
-        <v>155.71206841196559</v>
+        <v>191.58228908693894</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="3"/>
-        <v>118.44251322111762</v>
+        <v>181.08153353177414</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="3"/>
-        <v>-114.09568061515722</v>
+        <v>25.05872408325888</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="3"/>
-        <v>-2048.8328393698985</v>
+        <v>-1496.4433567474671</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -8812,7 +8898,7 @@
       </c>
       <c r="B19" s="13">
         <f>B15*B16</f>
-        <v>99815.938426916342</v>
+        <v>108234.15010147555</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -8826,55 +8912,55 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>32.64337506857845</v>
+        <v>38.638665234005764</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="3"/>
-        <v>46.148774643215333</v>
+        <v>52.71476691004171</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="3"/>
-        <v>60.14458741061167</v>
+        <v>67.483514809892512</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>74.769603118029565</v>
+        <v>83.161375531307755</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="3"/>
-        <v>90.123198974450546</v>
+        <v>99.972187374690108</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="3"/>
-        <v>106.19351960354874</v>
+        <v>118.11215780831795</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="3"/>
-        <v>122.67130520532407</v>
+        <v>137.63983091372481</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="3"/>
-        <v>138.44632392964596</v>
+        <v>158.14430073012511</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="3"/>
-        <v>150.12394182058799</v>
+        <v>177.69574130827343</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="3"/>
-        <v>147.02820716946616</v>
+        <v>189.12589671162237</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="3"/>
-        <v>90.488789045832846</v>
+        <v>164.00263927153384</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" si="3"/>
-        <v>-207.63062215476316</v>
+        <v>-44.317466640650196</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="3"/>
-        <v>-2553.1236650297369</v>
+        <v>-1904.8332305631332</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -8883,7 +8969,7 @@
       </c>
       <c r="B20" s="15">
         <f>($B$17*B19)/(12*60)</f>
-        <v>31.469747254041678</v>
+        <v>34.123822323659653</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -8897,61 +8983,61 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>31.832459100774308</v>
+        <v>38.785576689080536</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="3"/>
-        <v>46.060513858935302</v>
+        <v>53.675510807443978</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="3"/>
-        <v>60.704650112602835</v>
+        <v>69.216068871532087</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>75.871293589601251</v>
+        <v>85.603763370681293</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="3"/>
-        <v>91.59850295261721</v>
+        <v>103.02099837538024</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="3"/>
-        <v>107.75822482881536</v>
+        <v>121.58102416689084</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="3"/>
-        <v>123.81361286105763</v>
+        <v>141.17355983648096</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="3"/>
-        <v>138.18154157680578</v>
+        <v>161.02653242233188</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="3"/>
-        <v>146.3946123221443</v>
+        <v>178.37137385815814</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="3"/>
-        <v>135.01205870489042</v>
+        <v>183.83541462360421</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="3"/>
-        <v>56.715998161259222</v>
+        <v>141.97466469520845</v>
       </c>
       <c r="U20" s="9">
         <f t="shared" si="3"/>
-        <v>-314.09278956437072</v>
+        <v>-124.68818316930458</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="3"/>
-        <v>-3108.7306069530132</v>
+        <v>-2356.8671444947031</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>B20*12</f>
-        <v>377.63696704850014</v>
+        <v>409.48586788391583</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -8966,55 +9052,55 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>30.546979587365421</v>
+        <v>38.528874778023081</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="3"/>
-        <v>45.452514999502974</v>
+        <v>54.194220680188948</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="3"/>
-        <v>60.683792240036581</v>
+        <v>70.454553570440069</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>76.3087244239466</v>
+        <v>87.481202488961941</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="3"/>
-        <v>92.294199818055489</v>
+        <v>105.40675833908449</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="3"/>
-        <v>108.37949761809207</v>
+        <v>124.2475070623114</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="3"/>
-        <v>123.77107100381548</v>
+        <v>143.69958156233719</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="3"/>
-        <v>136.35754499850884</v>
+        <v>162.5826620405669</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="3"/>
-        <v>140.48280782039984</v>
+        <v>177.19082488980351</v>
       </c>
       <c r="S21" s="9">
         <f t="shared" si="3"/>
-        <v>119.66362301823824</v>
+        <v>175.71084282288416</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="3"/>
-        <v>17.124140567396694</v>
+        <v>114.99760980279757</v>
       </c>
       <c r="U21" s="9">
         <f t="shared" si="3"/>
-        <v>-433.48218284397967</v>
+        <v>-216.05342550270484</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="3"/>
-        <v>-3715.6536651397269</v>
+        <v>-2852.545098542178</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -9027,55 +9113,55 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>28.786936528351788</v>
+        <v>37.868559500833406</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="3"/>
-        <v>44.324778064918391</v>
+        <v>54.270896528276687</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="3"/>
-        <v>60.082013792912903</v>
+        <v>71.198968906616415</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>76.081895621065655</v>
+        <v>88.793692886149771</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>92.210289570765326</v>
+        <v>107.12946726580279</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="3"/>
-        <v>108.05733797137887</v>
+        <v>126.11160649457952</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="3"/>
-        <v>122.54367963359766</v>
+        <v>145.21789609129345</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="3"/>
-        <v>132.97433419475516</v>
+        <v>162.81268958483003</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="3"/>
-        <v>132.38852831535485</v>
+        <v>174.15409440320971</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="3"/>
-        <v>100.98290010950967</v>
+        <v>164.75218130946234</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="3"/>
-        <v>-28.286783735754739</v>
+        <v>83.071474594301321</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="3"/>
-        <v>-565.79880199359081</v>
+        <v>-318.4131936408512</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="3"/>
-        <v>-4373.8928395898793</v>
+        <v>-3391.8670927055591</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -9097,55 +9183,55 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="3"/>
-        <v>26.552329923733396</v>
+        <v>36.804630857511476</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="3"/>
-        <v>42.677303055181554</v>
+        <v>53.905538351707122</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="3"/>
-        <v>58.899314771231772</v>
+        <v>71.449314880061138</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="3"/>
-        <v>75.190807180958302</v>
+        <v>89.541234562244668</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="3"/>
-        <v>91.346772210746806</v>
+        <v>108.18912515553517</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="3"/>
-        <v>106.79174588867579</v>
+        <v>127.17332246369524</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="3"/>
-        <v>120.13143875040419</v>
+        <v>145.72850342334982</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="3"/>
-        <v>128.03190916554462</v>
+        <v>161.71661505512137</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="3"/>
-        <v>122.11177380700911</v>
+        <v>169.26118239837649</v>
       </c>
       <c r="S23" s="9">
         <f t="shared" si="3"/>
-        <v>78.969889978704714</v>
+        <v>150.95943008333882</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="3"/>
-        <v>-79.516774748194962</v>
+        <v>46.196259069719986</v>
       </c>
       <c r="U23" s="9">
         <f t="shared" si="3"/>
-        <v>-711.04264701320244</v>
+        <v>-431.76748758374265</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="3"/>
-        <v>-5083.44813030347</v>
+        <v>-3974.8331269848422</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -9165,55 +9251,55 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" ref="J24:V24" si="4">TAN(J$5)*$I24-(0.5*$B$24)*POWER($I24/($B$21*COS(J$5)), 2)</f>
-        <v>23.843159773510266</v>
+        <v>35.337088848057306</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="4"/>
-        <v>40.510089970292441</v>
+        <v>53.098146150480275</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="4"/>
-        <v>57.135695174993216</v>
+        <v>71.205591490774253</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="4"/>
-        <v>73.635459103624626</v>
+        <v>89.723827517246718</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="4"/>
-        <v>89.703647737999887</v>
+        <v>108.58573200828167</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="4"/>
-        <v>104.58272136998269</v>
+        <v>127.43265496965853</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="4"/>
-        <v>116.53434835423502</v>
+        <v>145.2314035585062</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="4"/>
-        <v>121.53026991087737</v>
+        <v>159.29443845144084</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="4"/>
-        <v>109.65254429536282</v>
+        <v>162.51208887530407</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="4"/>
-        <v>53.624592625823425</v>
+        <v>134.33258914451341</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="4"/>
-        <v>-136.56583246992386</v>
+        <v>4.3719632290531081</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="4"/>
-        <v>-869.21371790281614</v>
+        <v>-556.11630733138031</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="4"/>
-        <v>-5844.3195372804967</v>
+        <v>-4601.4432013800288</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -9226,55 +9312,55 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" ref="J25:V40" si="5">TAN(J$5)*$I25-(0.5*$B$24)*POWER($I25/($B$21*COS(J$5)), 2)</f>
-        <v>20.659426077682383</v>
+        <v>33.465933472470908</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="5"/>
-        <v>37.823138810251081</v>
+        <v>51.848719924596182</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="5"/>
-        <v>54.791155004197236</v>
+        <v>70.467798738755732</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="5"/>
-        <v>71.415851389064656</v>
+        <v>89.341471751155879</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="5"/>
-        <v>87.280916152524583</v>
+        <v>108.31928782404223</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="5"/>
-        <v>101.43026441529975</v>
+        <v>126.88960401246945</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="5"/>
-        <v>111.75240844509011</v>
+        <v>143.72659649676268</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="5"/>
-        <v>113.46941643075314</v>
+        <v>155.54615977378856</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="5"/>
-        <v>95.010839780415949</v>
+        <v>153.90681383399249</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="5"/>
-        <v>24.947008050865747</v>
+        <v>114.8716584929864</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="5"/>
-        <v>-199.43395690094201</v>
+        <v>-42.401412927699312</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="5"/>
-        <v>-1040.3120146624312</v>
+        <v>-691.45965288376306</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="5"/>
-        <v>-6656.5070605209603</v>
+        <v>-5271.6973158911205</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -9288,55 +9374,55 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="5"/>
-        <v>17.001128836249748</v>
+        <v>31.191164730752291</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="5"/>
-        <v>34.616449575057445</v>
+        <v>50.157259674054757</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="5"/>
-        <v>51.865694258843789</v>
+        <v>69.235936624005546</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="5"/>
-        <v>68.531984037278278</v>
+        <v>88.394167263972207</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="5"/>
-        <v>84.078577454320822</v>
+        <v>107.38979260281687</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="5"/>
-        <v>97.334375024626922</v>
+        <v>125.54416959212793</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="5"/>
-        <v>105.78561902296957</v>
+        <v>141.2140822381192</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="5"/>
-        <v>103.84934872517232</v>
+        <v>150.47177902216441</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="5"/>
-        <v>78.186660262168402</v>
+        <v>143.44535727444151</v>
       </c>
       <c r="S26" s="9">
         <f t="shared" si="5"/>
-        <v>-7.0628637461682047</v>
+        <v>92.576638128757622</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="5"/>
-        <v>-268.12114804124906</v>
+        <v>-94.123869400536705</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="5"/>
-        <v>-1224.3375372920473</v>
+        <v>-837.79752424089202</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" si="5"/>
-        <v>-7520.0107000248645</v>
+        <v>-5985.5954705181157</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -9349,55 +9435,55 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="5"/>
-        <v>12.868268049212347</v>
+        <v>28.512782622901398</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="5"/>
-        <v>30.890022264711561</v>
+        <v>48.023765398856128</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="5"/>
-        <v>48.359312938932959</v>
+        <v>67.510005146523795</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="5"/>
-        <v>64.983857048265577</v>
+        <v>86.881914055695646</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="5"/>
-        <v>80.096631643388719</v>
+        <v>105.79724634460558</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="5"/>
-        <v>92.295053197964108</v>
+        <v>123.396351708634</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="5"/>
-        <v>98.633980087873226</v>
+        <v>137.69386078257574</v>
       </c>
       <c r="Q27" s="9">
         <f t="shared" si="5"/>
-        <v>92.670066794134527</v>
+        <v>144.07129619656831</v>
       </c>
       <c r="R27" s="9">
         <f t="shared" si="5"/>
-        <v>59.180005740620118</v>
+        <v>131.1277191966513</v>
       </c>
       <c r="S27" s="9">
         <f t="shared" si="5"/>
-        <v>-42.405022765278773</v>
+        <v>67.447528051827021</v>
       </c>
       <c r="T27" s="9">
         <f t="shared" si="5"/>
-        <v>-342.62740589084513</v>
+        <v>-150.79540618945941</v>
       </c>
       <c r="U27" s="9">
         <f t="shared" si="5"/>
-        <v>-1421.2902857916652</v>
+        <v>-995.12992140276629</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="5"/>
-        <v>-8434.8304557922074</v>
+        <v>-6743.1376652610161</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -9410,55 +9496,55 @@
       </c>
       <c r="J28" s="9">
         <f t="shared" si="5"/>
-        <v>8.2608437165702213</v>
+        <v>25.430787148918299</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="5"/>
-        <v>26.643856879213416</v>
+        <v>45.448237099000167</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="5"/>
-        <v>44.272011044464676</v>
+        <v>65.290004306310379</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="5"/>
-        <v>60.771470422026539</v>
+        <v>84.804712126326166</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="5"/>
-        <v>75.335078719728216</v>
+        <v>103.54164904940839</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="5"/>
-        <v>86.312298935311446</v>
+        <v>120.44615036198766</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" si="5"/>
-        <v>90.297491639801308</v>
+        <v>133.16593213013238</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" si="5"/>
-        <v>79.931570637640164</v>
+        <v>136.34471129700046</v>
       </c>
       <c r="R28" s="9">
         <f t="shared" si="5"/>
-        <v>37.990876215771323</v>
+        <v>116.95389960062198</v>
       </c>
       <c r="S28" s="9">
         <f t="shared" si="5"/>
-        <v>-81.079469006465843</v>
+        <v>39.484328262194708</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" si="5"/>
-        <v>-422.95273044973021</v>
+        <v>-212.41602329446789</v>
       </c>
       <c r="U28" s="9">
         <f t="shared" si="5"/>
-        <v>-1631.1702601612849</v>
+        <v>-1163.4568443693868</v>
       </c>
       <c r="V28" s="9">
         <f t="shared" si="5"/>
-        <v>-9400.9663278229891</v>
+        <v>-7544.3239001198181</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -9471,55 +9557,55 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="5"/>
-        <v>3.178855838323372</v>
+        <v>21.945178308802909</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="5"/>
-        <v>21.877953418562981</v>
+        <v>42.430674774486931</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="5"/>
-        <v>39.603788575438983</v>
+        <v>62.575934103365398</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="5"/>
-        <v>55.894824158561107</v>
+        <v>82.162561475863868</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="5"/>
-        <v>69.793918683339285</v>
+        <v>100.6230007172253</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="5"/>
-        <v>79.386112236668765</v>
+        <v>116.69356555218891</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" si="5"/>
-        <v>80.776153678753701</v>
+        <v>127.63029628078914</v>
       </c>
       <c r="Q29" s="9">
         <f t="shared" si="5"/>
-        <v>65.633860255688944</v>
+        <v>127.29202432346085</v>
       </c>
       <c r="R29" s="9">
         <f t="shared" si="5"/>
-        <v>14.619271687621904</v>
+        <v>100.92389848635321</v>
       </c>
       <c r="S29" s="9">
         <f t="shared" si="5"/>
-        <v>-123.08620246972896</v>
+        <v>8.687038759860684</v>
       </c>
       <c r="T29" s="9">
         <f t="shared" si="5"/>
-        <v>-509.09712171790397</v>
+        <v>-278.98572071556146</v>
       </c>
       <c r="U29" s="9">
         <f t="shared" si="5"/>
-        <v>-1853.9774604009051</v>
+        <v>-1342.7782931407526</v>
       </c>
       <c r="V29" s="9">
         <f t="shared" si="5"/>
-        <v>-10418.418316117202</v>
+        <v>-8389.1541750945271</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -9532,55 +9618,55 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="5"/>
-        <v>-2.3776955855282438</v>
+        <v>18.055956102555342</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="5"/>
-        <v>16.592311882760328</v>
+        <v>38.971078425316421</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="5"/>
-        <v>34.354645531855795</v>
+        <v>59.367794537688752</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="5"/>
-        <v>50.353918257869395</v>
+        <v>78.955462104308651</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="5"/>
-        <v>63.473151534221984</v>
+        <v>97.041301348056265</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="5"/>
-        <v>71.516493102036236</v>
+        <v>112.13859727923779</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" si="5"/>
-        <v>70.069966204730349</v>
+        <v>121.08695323454589</v>
       </c>
       <c r="Q30" s="9">
         <f t="shared" si="5"/>
-        <v>49.776935648280755</v>
+        <v>116.91323527594932</v>
       </c>
       <c r="R30" s="9">
         <f t="shared" si="5"/>
-        <v>-10.934807843828139</v>
+        <v>83.03771585384527</v>
       </c>
       <c r="S30" s="9">
         <f t="shared" si="5"/>
-        <v>-168.42522315506869</v>
+        <v>-24.944340455175279</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="5"/>
-        <v>-601.06057969536619</v>
+        <v>-350.50449845274011</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="5"/>
-        <v>-2089.7118865105285</v>
+        <v>-1533.0942677168639</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" si="5"/>
-        <v>-11487.186420674861</v>
+        <v>-9277.6284901851359</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -9594,55 +9680,55 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="5"/>
-        <v>-8.4088105549846262</v>
+        <v>13.763120530175556</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="5"/>
-        <v>10.786932271805341</v>
+        <v>35.069448051488678</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="5"/>
-        <v>28.524581913715224</v>
+        <v>55.66558560928047</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="5"/>
-        <v>44.148752719951318</v>
+        <v>75.183414011660574</v>
       </c>
       <c r="N31" s="9">
         <f t="shared" si="5"/>
-        <v>56.372777272376311</v>
+        <v>92.796550941901359</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="5"/>
-        <v>62.70344153141383</v>
+        <v>106.78124554313416</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="5"/>
-        <v>58.178929217731365</v>
+        <v>113.53590299140262</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="5"/>
-        <v>32.360796815415938</v>
+        <v>105.20834415446598</v>
       </c>
       <c r="R31" s="9">
         <f t="shared" si="5"/>
-        <v>-38.67136237857892</v>
+        <v>63.295351703098049</v>
       </c>
       <c r="S31" s="9">
         <f t="shared" si="5"/>
-        <v>-217.0965310624847</v>
+        <v>-61.409809382912954</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="5"/>
-        <v>-698.84310438211787</v>
+        <v>-426.97235650600487</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="5"/>
-        <v>-2338.3735384901515</v>
+        <v>-1734.4047680977224</v>
       </c>
       <c r="V31" s="9">
         <f t="shared" si="5"/>
-        <v>-12607.270641495954</v>
+        <v>-10209.746845391657</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -9655,55 +9741,55 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" si="5"/>
-        <v>-14.914489070045761</v>
+        <v>9.0666715916634928</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="5"/>
-        <v>4.4618145856981073</v>
+        <v>30.725783653003617</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="5"/>
-        <v>22.113597721017243</v>
+        <v>51.469307318140579</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="5"/>
-        <v>37.279327544806904</v>
+        <v>70.846417197919635</v>
       </c>
       <c r="N32" s="9">
         <f t="shared" si="5"/>
-        <v>48.492795897802239</v>
+        <v>87.88874949876049</v>
       </c>
       <c r="O32" s="9">
         <f t="shared" si="5"/>
-        <v>52.946957524801405</v>
+        <v>100.62151034387824</v>
       </c>
       <c r="P32" s="9">
         <f t="shared" si="5"/>
-        <v>45.10304271775658</v>
+        <v>104.97714555135951</v>
       </c>
       <c r="Q32" s="9">
         <f t="shared" si="5"/>
-        <v>13.385443757094322</v>
+        <v>92.17735095901088</v>
       </c>
       <c r="R32" s="9">
         <f t="shared" si="5"/>
-        <v>-68.590391916630324</v>
+        <v>41.696806034111432</v>
       </c>
       <c r="S32" s="9">
         <f t="shared" si="5"/>
-        <v>-269.10012619197732</v>
+        <v>-100.70936802335245</v>
       </c>
       <c r="T32" s="9">
         <f t="shared" si="5"/>
-        <v>-802.44469577815835</v>
+        <v>-508.38929487535438</v>
       </c>
       <c r="U32" s="9">
         <f t="shared" si="5"/>
-        <v>-2599.9624163397771</v>
+        <v>-1946.7097942833252</v>
       </c>
       <c r="V32" s="9">
         <f t="shared" si="5"/>
-        <v>-13778.670978580489</v>
+        <v>-11185.509240714073</v>
       </c>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.3">
@@ -9716,55 +9802,55 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="5"/>
-        <v>-21.894731130711648</v>
+        <v>3.9666092870191676</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="5"/>
-        <v>-2.3830411755613738</v>
+        <v>25.940085229861239</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="5"/>
-        <v>15.121692953761794</v>
+        <v>46.778959664269024</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="5"/>
-        <v>29.745642732436067</v>
+        <v>65.94447166308575</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="5"/>
-        <v>39.833207410499767</v>
+        <v>82.317897018633715</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="5"/>
-        <v>42.247041082199132</v>
+        <v>93.659391681469629</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" si="5"/>
-        <v>30.842306704806106</v>
+        <v>95.410680914416446</v>
       </c>
       <c r="Q33" s="9">
         <f t="shared" si="5"/>
-        <v>-7.1491235266840931</v>
+        <v>77.82025568958386</v>
       </c>
       <c r="R33" s="9">
         <f t="shared" si="5"/>
-        <v>-100.69189645798212</v>
+        <v>18.242078846885761</v>
       </c>
       <c r="S33" s="9">
         <f t="shared" si="5"/>
-        <v>-324.436008543546</v>
+        <v>-142.84301637649355</v>
       </c>
       <c r="T33" s="9">
         <f t="shared" si="5"/>
-        <v>-911.86535388348784</v>
+        <v>-594.75531356078886</v>
       </c>
       <c r="U33" s="9">
         <f t="shared" si="5"/>
-        <v>-2874.4785200594051</v>
+        <v>-2170.0093462736731</v>
       </c>
       <c r="V33" s="9">
         <f t="shared" si="5"/>
-        <v>-15001.387431928455</v>
+        <v>-12204.915676152403</v>
       </c>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.3">
@@ -9777,55 +9863,55 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="5"/>
-        <v>-29.349536736982287</v>
+        <v>-1.5370663837573773</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="5"/>
-        <v>-9.7476350119730455</v>
+        <v>20.712352782061657</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="5"/>
-        <v>7.5488676119488787</v>
+        <v>41.594542647665889</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="5"/>
-        <v>21.547698282838951</v>
+        <v>60.477577407159117</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="5"/>
-        <v>30.394011810468896</v>
+        <v>76.083993501521036</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="5"/>
-        <v>30.603692203606897</v>
+        <v>85.894889555908833</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="5"/>
-        <v>15.396721178880114</v>
+        <v>84.836509080573421</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="5"/>
-        <v>-29.242905035919421</v>
+        <v>62.137058346184972</v>
       </c>
       <c r="R34" s="9">
         <f t="shared" si="5"/>
-        <v>-134.97587600263455</v>
+        <v>-7.0688298585791927</v>
       </c>
       <c r="S34" s="9">
         <f t="shared" si="5"/>
-        <v>-383.10417811719117</v>
+        <v>-187.81075444233602</v>
       </c>
       <c r="T34" s="9">
         <f t="shared" si="5"/>
-        <v>-1027.1050786981059</v>
+        <v>-686.070412562309</v>
       </c>
       <c r="U34" s="9">
         <f t="shared" si="5"/>
-        <v>-3161.9218496490321</v>
+        <v>-2404.3034240687675</v>
       </c>
       <c r="V34" s="9">
         <f t="shared" si="5"/>
-        <v>-16275.420001539866</v>
+        <v>-13267.966151706625</v>
       </c>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.3">
@@ -9838,55 +9924,55 @@
       </c>
       <c r="J35" s="9">
         <f t="shared" si="5"/>
-        <v>-37.278905888857679</v>
+        <v>-7.4443554206661133</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="5"/>
-        <v>-17.631966923537107</v>
+        <v>15.042586309604758</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="5"/>
-        <v>-0.60487830442139057</v>
+        <v>35.916056268331147</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="5"/>
-        <v>12.685494196015554</v>
+        <v>54.445734430139566</v>
       </c>
       <c r="N35" s="9">
         <f t="shared" si="5"/>
-        <v>20.175209097709626</v>
+        <v>69.187038947422423</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="5"/>
-        <v>18.0169108890247</v>
+        <v>77.328003967195627</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="5"/>
-        <v>-1.2337138600216804</v>
+        <v>73.254630049830496</v>
       </c>
       <c r="Q35" s="9">
         <f t="shared" si="5"/>
-        <v>-52.89590077061132</v>
+        <v>45.127758928814274</v>
       </c>
       <c r="R35" s="9">
         <f t="shared" si="5"/>
-        <v>-171.44233055058805</v>
+        <v>-34.235920082283428</v>
       </c>
       <c r="S35" s="9">
         <f t="shared" si="5"/>
-        <v>-445.10463491291284</v>
+        <v>-235.61258222088077</v>
       </c>
       <c r="T35" s="9">
         <f t="shared" si="5"/>
-        <v>-1148.1638702220125</v>
+        <v>-782.33459187991502</v>
       </c>
       <c r="U35" s="9">
         <f t="shared" si="5"/>
-        <v>-3462.2924051086638</v>
+        <v>-2649.5920276686084</v>
       </c>
       <c r="V35" s="9">
         <f t="shared" si="5"/>
-        <v>-17600.768687414711</v>
+        <v>-14374.660667376766</v>
       </c>
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.3">
@@ -9900,55 +9986,55 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" si="5"/>
-        <v>-45.682838586337795</v>
+        <v>-13.755257823707154</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="5"/>
-        <v>-26.036036910253358</v>
+        <v>8.9307858124905408</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="5"/>
-        <v>-9.3395447953491839</v>
+        <v>29.743500526264768</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="5"/>
-        <v>3.1590304719656501</v>
+        <v>47.848942732027041</v>
       </c>
       <c r="N36" s="9">
         <f t="shared" si="5"/>
-        <v>9.1767992722220129</v>
+        <v>61.627033356338018</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="5"/>
-        <v>4.4866971384527119</v>
+        <v>67.958734915330012</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="5"/>
-        <v>-19.04899841189922</v>
+        <v>60.665043822187613</v>
       </c>
       <c r="Q36" s="9">
         <f t="shared" si="5"/>
-        <v>-78.108110730760245</v>
+        <v>26.792357437471992</v>
       </c>
       <c r="R36" s="9">
         <f t="shared" si="5"/>
-        <v>-210.09126010184173</v>
+        <v>-63.259191824227059</v>
       </c>
       <c r="S36" s="9">
         <f t="shared" si="5"/>
-        <v>-510.43737893071079</v>
+        <v>-286.24849971212711</v>
       </c>
       <c r="T36" s="9">
         <f t="shared" si="5"/>
-        <v>-1275.0417284552091</v>
+        <v>-883.54785151360556</v>
       </c>
       <c r="U36" s="9">
         <f t="shared" si="5"/>
-        <v>-3775.5901864382931</v>
+        <v>-2905.8751570731938</v>
       </c>
       <c r="V36" s="9">
         <f t="shared" si="5"/>
-        <v>-18977.433489552994</v>
+        <v>-15524.999223162798</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.3">
@@ -9961,55 +10047,55 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="5"/>
-        <v>-54.561334829422663</v>
+        <v>-20.469773592880301</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="5"/>
-        <v>-34.959844972121914</v>
+        <v>2.3769512907191768</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="5"/>
-        <v>-18.655131860834274</v>
+        <v>23.076875421466752</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="5"/>
-        <v>-7.0316928893103636</v>
+        <v>40.687202312821796</v>
       </c>
       <c r="N37" s="9">
         <f t="shared" si="5"/>
-        <v>-2.6012176659941701</v>
+        <v>53.403976728267537</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="5"/>
-        <v>-9.9869490481091816</v>
+        <v>57.787082400311931</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="5"/>
-        <v>-38.049132476752334</v>
+        <v>47.067750397644716</v>
       </c>
       <c r="Q37" s="9">
         <f t="shared" si="5"/>
-        <v>-104.87953491636574</v>
+        <v>7.1308538721576724</v>
       </c>
       <c r="R37" s="9">
         <f t="shared" si="5"/>
-        <v>-250.92266465639625</v>
+        <v>-94.138645084410086</v>
       </c>
       <c r="S37" s="9">
         <f t="shared" si="5"/>
-        <v>-579.10241017058524</v>
+        <v>-339.71850691607528</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" si="5"/>
-        <v>-1407.7386533976937</v>
+        <v>-989.71019146338176</v>
       </c>
       <c r="U37" s="9">
         <f t="shared" si="5"/>
-        <v>-4101.8151936379272</v>
+        <v>-3173.1528122825252</v>
       </c>
       <c r="V37" s="9">
         <f t="shared" si="5"/>
-        <v>-20405.414407954711</v>
+        <v>-16718.981819064742</v>
       </c>
     </row>
     <row r="38" spans="7:22" x14ac:dyDescent="0.3">
@@ -10022,55 +10108,55 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="5"/>
-        <v>-63.914394618112311</v>
+        <v>-27.587902728185838</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="5"/>
-        <v>-44.403391109142717</v>
+        <v>-4.6189172557095333</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="5"/>
-        <v>-28.551639500876945</v>
+        <v>15.916180953937129</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="5"/>
-        <v>-17.886675887812885</v>
+        <v>32.960513172523576</v>
       </c>
       <c r="N38" s="9">
         <f t="shared" si="5"/>
-        <v>-15.158841716938639</v>
+        <v>44.517869063211208</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="5"/>
-        <v>-25.404027670661151</v>
+        <v>46.81304642214144</v>
       </c>
       <c r="P38" s="9">
         <f t="shared" si="5"/>
-        <v>-58.23411605458125</v>
+        <v>32.462749776201917</v>
       </c>
       <c r="Q38" s="9">
         <f t="shared" si="5"/>
-        <v>-133.21017332742804</v>
+        <v>-13.856751767128571</v>
       </c>
       <c r="R38" s="9">
         <f t="shared" si="5"/>
-        <v>-293.93654421425117</v>
+        <v>-126.87427986283171</v>
       </c>
       <c r="S38" s="9">
         <f t="shared" si="5"/>
-        <v>-651.09972863253597</v>
+        <v>-396.02260383272528</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="5"/>
-        <v>-1546.2546450494679</v>
+        <v>-1100.8216117292436</v>
       </c>
       <c r="U38" s="9">
         <f t="shared" si="5"/>
-        <v>-4440.9674267075625</v>
+        <v>-3451.424993296604</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" si="5"/>
-        <v>-21884.711442619875</v>
+        <v>-17956.608455082594</v>
       </c>
     </row>
     <row r="39" spans="7:22" x14ac:dyDescent="0.3">
@@ -10083,55 +10169,55 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="5"/>
-        <v>-73.742017952406712</v>
+        <v>-35.109645229623538</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="5"/>
-        <v>-54.366675321315739</v>
+        <v>-12.056819826795532</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="5"/>
-        <v>-39.029067715477026</v>
+        <v>8.2614171236758693</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="5"/>
-        <v>-29.405918523541743</v>
+        <v>24.66887531113241</v>
       </c>
       <c r="N39" s="9">
         <f t="shared" si="5"/>
-        <v>-28.496072880611507</v>
+        <v>34.968710361168974</v>
       </c>
       <c r="O39" s="9">
         <f t="shared" si="5"/>
-        <v>-41.764538729202911</v>
+        <v>35.036626980818596</v>
       </c>
       <c r="P39" s="9">
         <f t="shared" si="5"/>
-        <v>-79.603949145385855</v>
+        <v>16.850041957859275</v>
       </c>
       <c r="Q39" s="9">
         <f t="shared" si="5"/>
-        <v>-163.10002596394747</v>
+        <v>-36.170459480386398</v>
       </c>
       <c r="R39" s="9">
         <f t="shared" si="5"/>
-        <v>-339.13289877540728</v>
+        <v>-161.4660961594933</v>
       </c>
       <c r="S39" s="9">
         <f t="shared" si="5"/>
-        <v>-726.4293343165632</v>
+        <v>-455.16079046207687</v>
       </c>
       <c r="T39" s="9">
         <f t="shared" si="5"/>
-        <v>-1690.5897034105294</v>
+        <v>-1216.88211231119</v>
       </c>
       <c r="U39" s="9">
         <f t="shared" si="5"/>
-        <v>-4793.0468856471962</v>
+        <v>-3740.6917001154266</v>
       </c>
       <c r="V39" s="9">
         <f t="shared" si="5"/>
-        <v>-23415.324593548467</v>
+        <v>-19237.879131216338</v>
       </c>
     </row>
     <row r="40" spans="7:22" x14ac:dyDescent="0.3">
@@ -10144,55 +10230,55 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="5"/>
-        <v>-84.044204832305837</v>
+        <v>-43.035001097193515</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="5"/>
-        <v>-64.849697608641094</v>
+        <v>-19.936756422538821</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="5"/>
-        <v>-50.087416504634461</v>
+        <v>0.11258393068300165</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="5"/>
-        <v>-41.589420796496995</v>
+        <v>15.812288728648468</v>
       </c>
       <c r="N40" s="9">
         <f t="shared" si="5"/>
-        <v>-42.612911157012718</v>
+        <v>24.75650062214072</v>
       </c>
       <c r="O40" s="9">
         <f t="shared" si="5"/>
-        <v>-59.06848222373452</v>
+        <v>22.457824076343286</v>
       </c>
       <c r="P40" s="9">
         <f t="shared" si="5"/>
-        <v>-102.15863174916592</v>
+        <v>0.22962694261661909</v>
       </c>
       <c r="Q40" s="9">
         <f t="shared" si="5"/>
-        <v>-194.54909282592325</v>
+        <v>-59.810269267616263</v>
       </c>
       <c r="R40" s="9">
         <f t="shared" si="5"/>
-        <v>-386.51172833986345</v>
+        <v>-197.91409397439395</v>
       </c>
       <c r="S40" s="9">
         <f t="shared" si="5"/>
-        <v>-805.0912272226667</v>
+        <v>-517.13306680413029</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="5"/>
-        <v>-1840.743828480882</v>
+        <v>-1337.8916932092222</v>
       </c>
       <c r="U40" s="9">
         <f t="shared" si="5"/>
-        <v>-5158.0535704568338</v>
+        <v>-4040.9529327389951</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="5"/>
-        <v>-24997.253860740508</v>
+        <v>-20562.793847465997</v>
       </c>
     </row>
     <row r="41" spans="7:22" x14ac:dyDescent="0.3">
@@ -10205,55 +10291,55 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" ref="J41:V46" si="6">TAN(J$5)*$I41-(0.5*$B$24)*POWER($I41/($B$21*COS(J$5)), 2)</f>
-        <v>-94.820955257809686</v>
+        <v>-51.363970330895711</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="6"/>
-        <v>-75.852457971118668</v>
+        <v>-28.258727042939427</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="6"/>
-        <v>-61.726685868349364</v>
+        <v>-8.5303186250415024</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="6"/>
-        <v>-54.43718270667847</v>
+        <v>6.3907534250717504</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" si="6"/>
-        <v>-57.509356546142385</v>
+        <v>13.881239846126675</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="6"/>
-        <v>-77.315858154256205</v>
+        <v>9.0766377087156798</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="6"/>
-        <v>-125.89816386592179</v>
+        <v>-17.398495269525938</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="6"/>
-        <v>-227.55737391335606</v>
+        <v>-84.776181128817939</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="6"/>
-        <v>-436.07303290762047</v>
+        <v>-236.21827330753354</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="6"/>
-        <v>-887.08540735084648</v>
+        <v>-581.93943285888577</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="6"/>
-        <v>-1996.7170202605223</v>
+        <v>-1463.8503544233406</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="6"/>
-        <v>-5535.9874811364716</v>
+        <v>-4352.2086911673077</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="6"/>
-        <v>-26630.499244195977</v>
+        <v>-21931.352603831547</v>
       </c>
     </row>
     <row r="42" spans="7:22" x14ac:dyDescent="0.3">
@@ -10266,55 +10352,55 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="6"/>
-        <v>-106.07226922891832</v>
+        <v>-60.096552930730155</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="6"/>
-        <v>-87.374956408748545</v>
+        <v>-37.022731687997208</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="6"/>
-        <v>-73.946875806621733</v>
+        <v>-17.667290543497586</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="6"/>
-        <v>-67.949204254086396</v>
+        <v>-3.5957305995980278</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="6"/>
-        <v>-73.185409048000395</v>
+        <v>2.342928033126725</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="6"/>
-        <v>-96.506666520767908</v>
+        <v>-5.1069321220645634</v>
       </c>
       <c r="P42" s="9">
         <f t="shared" si="6"/>
-        <v>-150.82254549565334</v>
+        <v>-36.034324678568623</v>
       </c>
       <c r="Q42" s="9">
         <f t="shared" si="6"/>
-        <v>-262.12486922624532</v>
+        <v>-111.06819506399142</v>
       </c>
       <c r="R42" s="9">
         <f t="shared" si="6"/>
-        <v>-487.816812478678</v>
+        <v>-276.37863415891297</v>
       </c>
       <c r="S42" s="9">
         <f t="shared" si="6"/>
-        <v>-972.41187470110276</v>
+        <v>-649.57988862634284</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="6"/>
-        <v>-2158.5092787494505</v>
+        <v>-1594.7580959535428</v>
       </c>
       <c r="U42" s="9">
         <f t="shared" si="6"/>
-        <v>-5926.8486176861134</v>
+        <v>-4674.45897540037</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="6"/>
-        <v>-28315.060743914888</v>
+        <v>-23343.55540031302</v>
       </c>
     </row>
     <row r="43" spans="7:22" x14ac:dyDescent="0.3">
@@ -10327,55 +10413,55 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="6"/>
-        <v>-117.79814674563173</v>
+        <v>-69.232748896696847</v>
       </c>
       <c r="K43" s="9">
         <f t="shared" si="6"/>
-        <v>-99.417192921530614</v>
+        <v>-46.228770357712278</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="6"/>
-        <v>-86.747986319451456</v>
+        <v>-27.298331824685363</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="6"/>
-        <v>-82.125485438720602</v>
+        <v>-14.147163345360582</v>
       </c>
       <c r="N43" s="9">
         <f t="shared" si="6"/>
-        <v>-89.641068662586861</v>
+        <v>-9.8584348168591305</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="6"/>
-        <v>-116.64090732326918</v>
+        <v>-20.092885415997102</v>
       </c>
       <c r="P43" s="9">
         <f t="shared" si="6"/>
-        <v>-176.93177663836082</v>
+        <v>-55.677861284510982</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="6"/>
-        <v>-298.25157876459161</v>
+        <v>-138.68631107313672</v>
       </c>
       <c r="R43" s="9">
         <f t="shared" si="6"/>
-        <v>-541.7430670530365</v>
+        <v>-318.39517652853135</v>
       </c>
       <c r="S43" s="9">
         <f t="shared" si="6"/>
-        <v>-1061.0706292734353</v>
+        <v>-720.0544341065015</v>
       </c>
       <c r="T43" s="9">
         <f t="shared" si="6"/>
-        <v>-2326.1206039476701</v>
+        <v>-1730.6149177998316</v>
       </c>
       <c r="U43" s="9">
         <f t="shared" si="6"/>
-        <v>-6330.6369801057544</v>
+        <v>-5007.7037854381761</v>
       </c>
       <c r="V43" s="9">
         <f t="shared" si="6"/>
-        <v>-30050.938359897242</v>
+        <v>-24799.402236910377</v>
       </c>
     </row>
     <row r="44" spans="7:22" x14ac:dyDescent="0.3">
@@ -10388,55 +10474,55 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="6"/>
-        <v>-129.99858780794983</v>
+        <v>-78.772558228795731</v>
       </c>
       <c r="K44" s="9">
         <f t="shared" si="6"/>
-        <v>-111.97916750946501</v>
+        <v>-55.87684305208461</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="6"/>
-        <v>-100.1300174068387</v>
+        <v>-37.423442468604719</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="6"/>
-        <v>-96.966026260581032</v>
+        <v>-25.263544812216139</v>
       </c>
       <c r="N44" s="9">
         <f t="shared" si="6"/>
-        <v>-106.87633538990161</v>
+        <v>-22.722848703831005</v>
       </c>
       <c r="O44" s="9">
         <f t="shared" si="6"/>
-        <v>-137.71858056176075</v>
+        <v>-35.881222173081937</v>
       </c>
       <c r="P44" s="9">
         <f t="shared" si="6"/>
-        <v>-204.22585729404375</v>
+        <v>-76.329105087353469</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="6"/>
-        <v>-335.93750252839527</v>
+        <v>-167.6305291562536</v>
       </c>
       <c r="R44" s="9">
         <f t="shared" si="6"/>
-        <v>-597.85179663069493</v>
+        <v>-362.26790041638878</v>
       </c>
       <c r="S44" s="9">
         <f t="shared" si="6"/>
-        <v>-1153.0616710678444</v>
+        <v>-793.36306929936177</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="6"/>
-        <v>-2499.5509958551766</v>
+        <v>-1871.4208199622055</v>
       </c>
       <c r="U44" s="9">
         <f t="shared" si="6"/>
-        <v>-6747.3525683953994</v>
+        <v>-5351.9431212807267</v>
       </c>
       <c r="V44" s="9">
         <f t="shared" si="6"/>
-        <v>-31838.132092143016</v>
+        <v>-26298.893113623657</v>
       </c>
     </row>
     <row r="45" spans="7:22" x14ac:dyDescent="0.3">
@@ -10449,55 +10535,55 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="6"/>
-        <v>-142.67359241587269</v>
+        <v>-88.715980927026919</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="6"/>
-        <v>-125.06088017255155</v>
+        <v>-65.966949771114344</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="6"/>
-        <v>-114.0929690687833</v>
+        <v>-48.042622475255769</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="6"/>
-        <v>-112.47082671966797</v>
+        <v>-36.944875000164245</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="6"/>
-        <v>-124.89120922994488</v>
+        <v>-36.250313627788785</v>
       </c>
       <c r="O45" s="9">
         <f t="shared" si="6"/>
-        <v>-159.73968623624205</v>
+        <v>-52.471942393319296</v>
       </c>
       <c r="P45" s="9">
         <f t="shared" si="6"/>
-        <v>-232.70478746270248</v>
+        <v>-97.988056087095742</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="6"/>
-        <v>-375.18264051765482</v>
+        <v>-197.90084931334263</v>
       </c>
       <c r="R45" s="9">
         <f t="shared" si="6"/>
-        <v>-656.14300121165491</v>
+        <v>-407.99680582248573</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" si="6"/>
-        <v>-1248.3850000843297</v>
+        <v>-869.50579420492363</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="6"/>
-        <v>-2678.8004544719734</v>
+        <v>-2017.1758024406638</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" si="6"/>
-        <v>-7176.9953825550438</v>
+        <v>-5707.1769829280238</v>
       </c>
       <c r="V45" s="9">
         <f t="shared" si="6"/>
-        <v>-33676.641940652247</v>
+        <v>-27842.028030452828</v>
       </c>
     </row>
     <row r="46" spans="7:22" x14ac:dyDescent="0.3">
@@ -10510,55 +10596,55 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="6"/>
-        <v>-155.82316056940033</v>
+        <v>-99.063016991390157</v>
       </c>
       <c r="K46" s="9">
         <f t="shared" si="6"/>
-        <v>-138.66233091079056</v>
+        <v>-76.49909051480131</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="6"/>
-        <v>-128.63684130528549</v>
+        <v>-59.155871844638455</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="6"/>
-        <v>-128.63988681598124</v>
+        <v>-49.191153909205525</v>
       </c>
       <c r="N46" s="9">
         <f t="shared" si="6"/>
-        <v>-143.68569018271666</v>
+        <v>-50.44082958873247</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="6"/>
-        <v>-182.70422434671309</v>
+        <v>-69.865046076709064</v>
       </c>
       <c r="P46" s="9">
         <f t="shared" si="6"/>
-        <v>-262.36856714433668</v>
+        <v>-120.65471428373814</v>
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="6"/>
-        <v>-415.98699273237162</v>
+        <v>-229.49727154440325</v>
       </c>
       <c r="R46" s="9">
         <f t="shared" si="6"/>
-        <v>-716.61668079591459</v>
+        <v>-455.58189274682218</v>
       </c>
       <c r="S46" s="9">
         <f t="shared" si="6"/>
-        <v>-1347.0406163228913</v>
+        <v>-948.482608823188</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="6"/>
-        <v>-2863.8689797980578</v>
+        <v>-2167.8798652352079</v>
       </c>
       <c r="U46" s="9">
         <f t="shared" si="6"/>
-        <v>-7619.5654225846883</v>
+        <v>-6073.4053703800673</v>
       </c>
       <c r="V46" s="9">
         <f t="shared" si="6"/>
-        <v>-35566.467905424906</v>
+        <v>-29428.806987397911</v>
       </c>
     </row>
   </sheetData>
@@ -10576,8 +10662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61525BA8-4B69-4A45-80A0-4FF32D00F639}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12740,6 +12826,968 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AA9E99-8EDF-47B2-BFED-C4808B3BC384}">
+  <dimension ref="A1:AD57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q3" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="53.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52">
+        <v>2</v>
+      </c>
+      <c r="L5" s="52">
+        <v>3</v>
+      </c>
+      <c r="M5" s="52">
+        <v>4</v>
+      </c>
+      <c r="N5" s="52">
+        <v>5</v>
+      </c>
+      <c r="O5" s="52">
+        <v>6</v>
+      </c>
+      <c r="P5" s="52">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>8</v>
+      </c>
+      <c r="R5" s="52">
+        <v>9</v>
+      </c>
+      <c r="S5" s="52">
+        <v>10</v>
+      </c>
+      <c r="T5" s="52">
+        <v>11</v>
+      </c>
+      <c r="U5" s="52">
+        <v>12</v>
+      </c>
+      <c r="V5" s="52">
+        <v>13</v>
+      </c>
+      <c r="W5" s="52">
+        <v>14</v>
+      </c>
+      <c r="X5" s="52">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC5">
+        <f>34*12</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <f>B5*12+D5</f>
+        <v>98.25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6">
+        <f>I5*12</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:X6" si="0">J5*12</f>
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6">
+        <v>40</v>
+      </c>
+      <c r="AC6">
+        <f>RADIANS(AB6)</f>
+        <v>0.69813170079773179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G7" s="52">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>G7*12</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>I$6*$H7*TAN(RADIANS($B$15))+SQRT(POWER(I$6 * $H7 * TAN(RADIANS($B$15)), 2) - 2* $B$27 * POWER($H7, 2) * ($B$10 - $H7 * TAN(RADIANS($B$15))))</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="52">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H57" si="1">G8*12</f>
+        <v>12</v>
+      </c>
+      <c r="I8" t="e">
+        <f>I$6*$H8*TAN(RADIANS($B$15))+SQRT(POWER(I$6 * $H8 * TAN(RADIANS($B$15)), 2) - 2* $B$27 * POWER($H8, 2) * ($B$10 - $H8 * TAN(RADIANS($B$15))))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <f>J$6*$H8*TAN(RADIANS($B$15))+SQRT(POWER(J$6 * $H8 * TAN(RADIANS($B$15)), 2) - 2* $B$27 * POWER($H8, 2) * ($B$10 - $H8 * TAN(RADIANS($B$15))))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" ref="K8:M8" si="2">K$6*$H8*TAN(RADIANS($B$15))+SQRT(POWER(K$6 * $H8 * TAN(RADIANS($B$15)), 2) - 2* $B$27 * POWER($H8, 2) * ($B$10 - $H8 * TAN(RADIANS($B$15))))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB8">
+        <v>0.9</v>
+      </c>
+      <c r="AC8">
+        <f>AB8*B24</f>
+        <v>409.48586788391589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G9" s="52">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9">
+        <f>AC5/(AC8 * COS(AC6) - AC7)</f>
+        <v>1.3006704646485063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13">
+        <f>B6-B8</f>
+        <v>74.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="52">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="32">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="52">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11">
+        <f>AC10-AC5*TAN(AC6)</f>
+        <v>-268.1026495203302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="30">
+        <f>B10-B11</f>
+        <v>64.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="13">
+        <f>B10+B11</f>
+        <v>84.25</v>
+      </c>
+      <c r="G12" s="52">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC12">
+        <f>-1*AC7*AC5*TAN(AC6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="52">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC13">
+        <f>0.5*B27*AC5*AC5</f>
+        <v>32130881.280000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="30">
+        <f>B13*12+D13</f>
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="G14" s="52">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC14">
+        <f>(-AC12 + SQRT(AC12 * AC12 - 4 * AC11 * AC13))/(2*AC11)</f>
+        <v>-346.18700840115656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="52">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC15">
+        <f>(-AC12 - SQRT(AC12 * AC12 - 4 * AC11 * AC13))/(2*AC11)</f>
+        <v>346.18700840115656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="52">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC16">
+        <f>AC14 + AC7</f>
+        <v>-346.18700840115656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="12">
+        <v>6380</v>
+      </c>
+      <c r="G17" s="52">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC17">
+        <f>AC15 + AC7</f>
+        <v>346.18700840115656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="52">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC18">
+        <f>AC16/COS(AC6)</f>
+        <v>-451.91504423900454</v>
+      </c>
+      <c r="AD18">
+        <f>AC18/B24</f>
+        <v>-0.99325415530678374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="30">
+        <f>B17*B18</f>
+        <v>6380</v>
+      </c>
+      <c r="G19" s="52">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19">
+        <f>AC17/COS(AC6)</f>
+        <v>451.91504423900454</v>
+      </c>
+      <c r="AD19">
+        <f>AC19/B24</f>
+        <v>0.99325415530678374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13">
+        <f>PI()*B16</f>
+        <v>18.849555921538759</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="52">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G21" s="52">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13">
+        <f>B19*B20</f>
+        <v>120260.16677941728</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="52">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="15">
+        <f>($B$21*B22)/(12*60)</f>
+        <v>37.915358137399615</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="52">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="13">
+        <f>B23*12</f>
+        <v>454.9842976487954</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="52">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G25" s="52">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>32.17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="52">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="29">
+        <f>B26*12</f>
+        <v>386.04</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="52">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G28" s="52">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G29" s="52">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G30" s="52">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G31" s="52">
+        <v>24</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G32" s="52">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="52">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="52">
+        <v>27</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G35" s="52">
+        <v>28</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="52">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="52">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G38" s="52">
+        <v>31</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="52">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="52">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G41" s="52">
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="52">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="52">
+        <v>36</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="52">
+        <v>37</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="52">
+        <v>38</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="52">
+        <v>39</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G47" s="52">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="52">
+        <v>41</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="52">
+        <v>42</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G50" s="52">
+        <v>43</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="52">
+        <v>44</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="52">
+        <v>45</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G53" s="52">
+        <v>46</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="52">
+        <v>47</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="52">
+        <v>48</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="52">
+        <v>49</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="52">
+        <v>50</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB72D1B9-AB1F-4E81-B4BB-AF8902B9204F}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -12825,7 +13873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60D84D8-D7E0-465A-92B3-61F1DC1412F6}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -13004,7 +14052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7A684-C6B9-48D0-BA62-41E5059F4BE2}">
   <dimension ref="A1:P75"/>
   <sheetViews>
@@ -14990,7 +16038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9760CE-2D6D-4E8B-AFF0-30C50443C3C8}">
   <dimension ref="A2:F7"/>
   <sheetViews>
